--- a/mid_outputs/match_probable_players.xlsx
+++ b/mid_outputs/match_probable_players.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="443">
   <si>
     <t>starter</t>
   </si>
@@ -25,142 +25,1054 @@
     <t>player</t>
   </si>
   <si>
+    <t>Skorupski</t>
+  </si>
+  <si>
+    <t>Posch</t>
+  </si>
+  <si>
+    <t>Soumaoro</t>
+  </si>
+  <si>
+    <t>Lucumi'</t>
+  </si>
+  <si>
+    <t>Cambiaso</t>
+  </si>
+  <si>
+    <t>Moro N.</t>
+  </si>
+  <si>
+    <t>Schouten</t>
+  </si>
+  <si>
+    <t>Orsolini</t>
+  </si>
+  <si>
+    <t>Ferguson</t>
+  </si>
+  <si>
+    <t>Soriano</t>
+  </si>
+  <si>
+    <t>Zirkzee</t>
+  </si>
+  <si>
+    <t>Bardi</t>
+  </si>
+  <si>
+    <t>Ravaglia F.</t>
+  </si>
+  <si>
+    <t>Sosa</t>
+  </si>
+  <si>
+    <t>Lykogiannis</t>
+  </si>
+  <si>
+    <t>Amey</t>
+  </si>
+  <si>
+    <t>Dominguez</t>
+  </si>
+  <si>
+    <t>Pyyhtia</t>
+  </si>
+  <si>
+    <t>Aebischer</t>
+  </si>
+  <si>
+    <t>Vignato</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Dragowski</t>
+  </si>
+  <si>
+    <t>Amian</t>
+  </si>
+  <si>
+    <t>Caldara</t>
+  </si>
+  <si>
+    <t>Nikolaou</t>
+  </si>
+  <si>
+    <t>Holm</t>
+  </si>
+  <si>
+    <t>Ampadu</t>
+  </si>
+  <si>
+    <t>Bourabia</t>
+  </si>
+  <si>
+    <t>Kovalenko</t>
+  </si>
+  <si>
+    <t>Reca</t>
+  </si>
+  <si>
+    <t>Agudelo</t>
+  </si>
+  <si>
+    <t>Gyasi</t>
+  </si>
+  <si>
+    <t>Marchetti</t>
+  </si>
+  <si>
+    <t>Zovko</t>
+  </si>
+  <si>
+    <t>Moutinho J.</t>
+  </si>
+  <si>
+    <t>Ferrer</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>Wisniewski</t>
+  </si>
+  <si>
+    <t>Cipot</t>
+  </si>
+  <si>
+    <t>Esposito Sa.</t>
+  </si>
+  <si>
+    <t>Beck J.</t>
+  </si>
+  <si>
+    <t>Maldini</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>Strelec</t>
+  </si>
+  <si>
+    <t>Falcone</t>
+  </si>
+  <si>
+    <t>Gendrey</t>
+  </si>
+  <si>
+    <t>Baschirotto</t>
+  </si>
+  <si>
+    <t>Umtiti</t>
+  </si>
+  <si>
+    <t>Pezzella Giu.</t>
+  </si>
+  <si>
+    <t>Gonzalez J.</t>
+  </si>
+  <si>
+    <t>Hjulmand</t>
+  </si>
+  <si>
+    <t>Blin</t>
+  </si>
+  <si>
+    <t>Strefezza</t>
+  </si>
+  <si>
+    <t>Colombo</t>
+  </si>
+  <si>
+    <t>Banda</t>
+  </si>
+  <si>
+    <t>Bleve</t>
+  </si>
+  <si>
+    <t>Brancolini</t>
+  </si>
+  <si>
+    <t>Gallo</t>
+  </si>
+  <si>
+    <t>Cassandro</t>
+  </si>
+  <si>
+    <t>Tuia</t>
+  </si>
+  <si>
+    <t>Askildsen</t>
+  </si>
+  <si>
+    <t>Oudin</t>
+  </si>
+  <si>
+    <t>Maleh</t>
+  </si>
+  <si>
+    <t>Helgason</t>
+  </si>
+  <si>
+    <t>Voelkerling Persson</t>
+  </si>
+  <si>
+    <t>Ceesay</t>
+  </si>
+  <si>
+    <t>Di Francesco F.</t>
+  </si>
+  <si>
+    <t>Ochoa</t>
+  </si>
+  <si>
+    <t>Lovato</t>
+  </si>
+  <si>
+    <t>Troost-Ekong</t>
+  </si>
+  <si>
+    <t>Daniliuc</t>
+  </si>
+  <si>
+    <t>Candreva</t>
+  </si>
+  <si>
+    <t>Coulibaly L.</t>
+  </si>
+  <si>
+    <t>Nicolussi Caviglia</t>
+  </si>
+  <si>
+    <t>Vilhena</t>
+  </si>
+  <si>
+    <t>Bradaric</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Piatek</t>
+  </si>
+  <si>
+    <t>Sepe</t>
+  </si>
+  <si>
+    <t>Fiorillo</t>
+  </si>
+  <si>
+    <t>Sambia</t>
+  </si>
+  <si>
+    <t>Bronn</t>
+  </si>
+  <si>
+    <t>Radovanovic</t>
+  </si>
+  <si>
+    <t>Pirola</t>
+  </si>
+  <si>
+    <t>Kastanos</t>
+  </si>
+  <si>
+    <t>Crnigoj</t>
+  </si>
+  <si>
+    <t>Bohinen</t>
+  </si>
+  <si>
+    <t>Valencia D.</t>
+  </si>
+  <si>
+    <t>Bonazzoli</t>
+  </si>
+  <si>
+    <t>Botheim</t>
+  </si>
+  <si>
     <t>Vicario</t>
   </si>
   <si>
     <t>Ebuehi</t>
   </si>
   <si>
-    <t>Ismajli</t>
+    <t>De Winter</t>
+  </si>
+  <si>
+    <t>Luperto</t>
+  </si>
+  <si>
+    <t>Cacace</t>
+  </si>
+  <si>
+    <t>Haas</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>Bandinelli</t>
+  </si>
+  <si>
+    <t>Baldanzi</t>
+  </si>
+  <si>
+    <t>Caputo</t>
+  </si>
+  <si>
+    <t>Satriano</t>
+  </si>
+  <si>
+    <t>Ujkani</t>
+  </si>
+  <si>
+    <t>Perisan</t>
+  </si>
+  <si>
+    <t>Stojanovic</t>
   </si>
   <si>
     <t>Walukiewicz</t>
   </si>
   <si>
-    <t>Parisi</t>
+    <t>Guarino</t>
+  </si>
+  <si>
+    <t>Fazzini</t>
   </si>
   <si>
     <t>Akpa Akpro</t>
   </si>
   <si>
-    <t>Grassi</t>
-  </si>
-  <si>
-    <t>Bandinelli</t>
+    <t>Degli Innocenti</t>
   </si>
   <si>
     <t>Bajrami</t>
   </si>
   <si>
-    <t>Satriano</t>
+    <t>Cambiaghi</t>
+  </si>
+  <si>
+    <t>Pjaca</t>
+  </si>
+  <si>
+    <t>Milinkovic-Savic V.</t>
+  </si>
+  <si>
+    <t>Buongiorno</t>
+  </si>
+  <si>
+    <t>Schuurs</t>
+  </si>
+  <si>
+    <t>Rodriguez R.</t>
+  </si>
+  <si>
+    <t>Singo</t>
+  </si>
+  <si>
+    <t>Ricci S.</t>
+  </si>
+  <si>
+    <t>Linetty</t>
+  </si>
+  <si>
+    <t>Vojvoda</t>
+  </si>
+  <si>
+    <t>Miranchuk</t>
+  </si>
+  <si>
+    <t>Vlasic</t>
+  </si>
+  <si>
+    <t>Sanabria</t>
+  </si>
+  <si>
+    <t>Gemello</t>
+  </si>
+  <si>
+    <t>Berisha</t>
+  </si>
+  <si>
+    <t>Adopo</t>
+  </si>
+  <si>
+    <t>Bayeye</t>
+  </si>
+  <si>
+    <t>Aina</t>
+  </si>
+  <si>
+    <t>Lukic</t>
+  </si>
+  <si>
+    <t>Radonjic</t>
+  </si>
+  <si>
+    <t>Seck</t>
+  </si>
+  <si>
+    <t>Karamoh</t>
+  </si>
+  <si>
+    <t>Carnesecchi</t>
+  </si>
+  <si>
+    <t>Ferrari A.</t>
+  </si>
+  <si>
+    <t>Chiriches</t>
+  </si>
+  <si>
+    <t>Vasquez</t>
+  </si>
+  <si>
+    <t>Sernicola</t>
+  </si>
+  <si>
+    <t>Meite'</t>
+  </si>
+  <si>
+    <t>Castagnetti</t>
+  </si>
+  <si>
+    <t>Benassi</t>
+  </si>
+  <si>
+    <t>Valeri</t>
+  </si>
+  <si>
+    <t>Dessers</t>
+  </si>
+  <si>
+    <t>Okereke</t>
+  </si>
+  <si>
+    <t>Sarr M.</t>
+  </si>
+  <si>
+    <t>Saro</t>
+  </si>
+  <si>
+    <t>Ghiglione</t>
+  </si>
+  <si>
+    <t>Aiwu</t>
+  </si>
+  <si>
+    <t>Bianchetti</t>
+  </si>
+  <si>
+    <t>Milanese</t>
+  </si>
+  <si>
+    <t>Zanimacchia</t>
+  </si>
+  <si>
+    <t>Buonaiuto</t>
+  </si>
+  <si>
+    <t>Tsadjout</t>
+  </si>
+  <si>
+    <t>Ciofani D.</t>
+  </si>
+  <si>
+    <t>Afena-Gyan</t>
+  </si>
+  <si>
+    <t>Onana</t>
+  </si>
+  <si>
+    <t>Darmian</t>
+  </si>
+  <si>
+    <t>Acerbi</t>
+  </si>
+  <si>
+    <t>Bastoni</t>
+  </si>
+  <si>
+    <t>Dumfries</t>
+  </si>
+  <si>
+    <t>Asllani</t>
+  </si>
+  <si>
+    <t>Calhanoglu</t>
+  </si>
+  <si>
+    <t>Mkhitaryan</t>
+  </si>
+  <si>
+    <t>Dimarco</t>
+  </si>
+  <si>
+    <t>Dzeko</t>
+  </si>
+  <si>
+    <t>Martinez L.</t>
+  </si>
+  <si>
+    <t>Handanovic</t>
+  </si>
+  <si>
+    <t>Cordaz</t>
+  </si>
+  <si>
+    <t>Bellanova</t>
+  </si>
+  <si>
+    <t>De Vrij</t>
+  </si>
+  <si>
+    <t>Gosens</t>
+  </si>
+  <si>
+    <t>D'ambrosio</t>
+  </si>
+  <si>
+    <t>Gagliardini</t>
+  </si>
+  <si>
+    <t>Correa</t>
+  </si>
+  <si>
+    <t>Lukaku</t>
+  </si>
+  <si>
+    <t>Musso</t>
+  </si>
+  <si>
+    <t>Toloi</t>
+  </si>
+  <si>
+    <t>Scalvini</t>
+  </si>
+  <si>
+    <t>Demiral</t>
+  </si>
+  <si>
+    <t>Hateboer</t>
+  </si>
+  <si>
+    <t>De Roon</t>
+  </si>
+  <si>
+    <t>Koopmeiners</t>
+  </si>
+  <si>
+    <t>Maehle</t>
+  </si>
+  <si>
+    <t>Boga</t>
+  </si>
+  <si>
+    <t>Lookman</t>
+  </si>
+  <si>
+    <t>Hojlund</t>
+  </si>
+  <si>
+    <t>Sportiello</t>
+  </si>
+  <si>
+    <t>Rossi F.</t>
+  </si>
+  <si>
+    <t>Okoli</t>
+  </si>
+  <si>
+    <t>Djimsiti</t>
+  </si>
+  <si>
+    <t>Ruggeri</t>
+  </si>
+  <si>
+    <t>Soppy</t>
+  </si>
+  <si>
+    <t>Zortea</t>
+  </si>
+  <si>
+    <t>Ederson D.s.</t>
+  </si>
+  <si>
+    <t>Pasalic</t>
+  </si>
+  <si>
+    <t>Zapata D.</t>
+  </si>
+  <si>
+    <t>Muriel</t>
+  </si>
+  <si>
+    <t>Audero</t>
+  </si>
+  <si>
+    <t>Amione</t>
+  </si>
+  <si>
+    <t>Murillo</t>
+  </si>
+  <si>
+    <t>Nuytinck</t>
+  </si>
+  <si>
+    <t>Leris</t>
+  </si>
+  <si>
+    <t>Winks</t>
+  </si>
+  <si>
+    <t>Rincon</t>
+  </si>
+  <si>
+    <t>Augello</t>
+  </si>
+  <si>
+    <t>Djuricic</t>
+  </si>
+  <si>
+    <t>Gabbiadini</t>
   </si>
   <si>
     <t>Lammers</t>
   </si>
   <si>
-    <t>Ujkani</t>
-  </si>
-  <si>
-    <t>Perisan</t>
-  </si>
-  <si>
-    <t>Stojanovic</t>
-  </si>
-  <si>
-    <t>Cacace</t>
-  </si>
-  <si>
-    <t>Marin</t>
-  </si>
-  <si>
-    <t>Degli Innocenti</t>
-  </si>
-  <si>
-    <t>Haas</t>
-  </si>
-  <si>
-    <t>Henderson L.</t>
-  </si>
-  <si>
-    <t>Fazzini</t>
-  </si>
-  <si>
-    <t>Pjaca</t>
-  </si>
-  <si>
-    <t>Ekong</t>
-  </si>
-  <si>
-    <t>Cambiaghi</t>
-  </si>
-  <si>
-    <t>Carnesecchi</t>
-  </si>
-  <si>
-    <t>Aiwu</t>
-  </si>
-  <si>
-    <t>Hendry</t>
-  </si>
-  <si>
-    <t>Lochoshvili</t>
-  </si>
-  <si>
-    <t>Sernicola</t>
-  </si>
-  <si>
-    <t>Meite'</t>
-  </si>
-  <si>
-    <t>Ascacibar</t>
-  </si>
-  <si>
-    <t>Pickel</t>
-  </si>
-  <si>
-    <t>Valeri</t>
-  </si>
-  <si>
-    <t>Buonaiuto</t>
-  </si>
-  <si>
-    <t>Okereke</t>
-  </si>
-  <si>
-    <t>Sarr M.</t>
-  </si>
-  <si>
-    <t>Vasquez</t>
-  </si>
-  <si>
-    <t>Bianchetti</t>
-  </si>
-  <si>
-    <t>Quagliata</t>
-  </si>
-  <si>
-    <t>Ghiglione</t>
-  </si>
-  <si>
-    <t>Castagnetti</t>
-  </si>
-  <si>
-    <t>Escalante</t>
-  </si>
-  <si>
-    <t>Zanimacchia</t>
-  </si>
-  <si>
-    <t>Ciofani D.</t>
-  </si>
-  <si>
-    <t>Dessers</t>
-  </si>
-  <si>
-    <t>Afena-Gyan</t>
-  </si>
-  <si>
-    <t>Tsadjout</t>
+    <t>Ravaglia</t>
+  </si>
+  <si>
+    <t>Turk</t>
+  </si>
+  <si>
+    <t>Zanoli</t>
+  </si>
+  <si>
+    <t>Murru</t>
+  </si>
+  <si>
+    <t>Yepes</t>
+  </si>
+  <si>
+    <t>Paoletti</t>
+  </si>
+  <si>
+    <t>Vieira</t>
+  </si>
+  <si>
+    <t>Quagliarella</t>
+  </si>
+  <si>
+    <t>Tatarusanu</t>
+  </si>
+  <si>
+    <t>Calabria</t>
+  </si>
+  <si>
+    <t>Kjaer</t>
+  </si>
+  <si>
+    <t>Kalulu</t>
+  </si>
+  <si>
+    <t>Hernandez T.</t>
+  </si>
+  <si>
+    <t>Krunic</t>
+  </si>
+  <si>
+    <t>Tonali</t>
+  </si>
+  <si>
+    <t>Saelemaekers</t>
+  </si>
+  <si>
+    <t>De Ketelaere</t>
+  </si>
+  <si>
+    <t>Rafael Leao</t>
+  </si>
+  <si>
+    <t>Giroud</t>
+  </si>
+  <si>
+    <t>Mirante</t>
+  </si>
+  <si>
+    <t>Gabbia</t>
+  </si>
+  <si>
+    <t>Thiaw</t>
+  </si>
+  <si>
+    <t>Dest</t>
+  </si>
+  <si>
+    <t>Ballo-Toure'</t>
+  </si>
+  <si>
+    <t>Vranckx</t>
+  </si>
+  <si>
+    <t>Messias</t>
+  </si>
+  <si>
+    <t>Pobega</t>
+  </si>
+  <si>
+    <t>Adli</t>
+  </si>
+  <si>
+    <t>Diaz B.</t>
+  </si>
+  <si>
+    <t>Origi</t>
+  </si>
+  <si>
+    <t>Rebic</t>
+  </si>
+  <si>
+    <t>Pegolo</t>
+  </si>
+  <si>
+    <t>Toljan</t>
+  </si>
+  <si>
+    <t>Erlic</t>
+  </si>
+  <si>
+    <t>Ferrari G.</t>
+  </si>
+  <si>
+    <t>Rogerio</t>
+  </si>
+  <si>
+    <t>Frattesi</t>
+  </si>
+  <si>
+    <t>Lopez M.</t>
+  </si>
+  <si>
+    <t>Traore' Hj.</t>
+  </si>
+  <si>
+    <t>Berardi</t>
+  </si>
+  <si>
+    <t>Defrel</t>
+  </si>
+  <si>
+    <t>Lauriente'</t>
+  </si>
+  <si>
+    <t>Russo A.</t>
+  </si>
+  <si>
+    <t>Muldur</t>
+  </si>
+  <si>
+    <t>Ruan</t>
+  </si>
+  <si>
+    <t>Ayhan</t>
+  </si>
+  <si>
+    <t>Kyriakopoulos</t>
+  </si>
+  <si>
+    <t>Matheus Henrique</t>
+  </si>
+  <si>
+    <t>Harroui</t>
+  </si>
+  <si>
+    <t>Ceide</t>
+  </si>
+  <si>
+    <t>Obiang</t>
+  </si>
+  <si>
+    <t>D'andrea</t>
+  </si>
+  <si>
+    <t>Thorstvedt</t>
+  </si>
+  <si>
+    <t>Alvarez A.</t>
+  </si>
+  <si>
+    <t>Szczesny</t>
+  </si>
+  <si>
+    <t>Bremer</t>
+  </si>
+  <si>
+    <t>Gatti</t>
+  </si>
+  <si>
+    <t>Danilo</t>
+  </si>
+  <si>
+    <t>Mckennie</t>
+  </si>
+  <si>
+    <t>Fagioli</t>
+  </si>
+  <si>
+    <t>Paredes</t>
+  </si>
+  <si>
+    <t>Rabiot</t>
+  </si>
+  <si>
+    <t>Kostic</t>
+  </si>
+  <si>
+    <t>Kean</t>
+  </si>
+  <si>
+    <t>Di Maria</t>
+  </si>
+  <si>
+    <t>Perin</t>
+  </si>
+  <si>
+    <t>Pinsoglio</t>
+  </si>
+  <si>
+    <t>Rugani</t>
+  </si>
+  <si>
+    <t>Alex Sandro</t>
+  </si>
+  <si>
+    <t>Cuadrado</t>
+  </si>
+  <si>
+    <t>Chiesa</t>
+  </si>
+  <si>
+    <t>Locatelli</t>
+  </si>
+  <si>
+    <t>Pogba</t>
+  </si>
+  <si>
+    <t>Miretti</t>
+  </si>
+  <si>
+    <t>Milik</t>
+  </si>
+  <si>
+    <t>Soule'</t>
+  </si>
+  <si>
+    <t>Vlahovic</t>
+  </si>
+  <si>
+    <t>Di Gregorio</t>
+  </si>
+  <si>
+    <t>Marlon</t>
+  </si>
+  <si>
+    <t>Mari'</t>
+  </si>
+  <si>
+    <t>Izzo</t>
+  </si>
+  <si>
+    <t>Birindelli</t>
+  </si>
+  <si>
+    <t>Pessina</t>
+  </si>
+  <si>
+    <t>Rovella</t>
+  </si>
+  <si>
+    <t>Carlos Augusto</t>
+  </si>
+  <si>
+    <t>Ciurria</t>
+  </si>
+  <si>
+    <t>Caprari</t>
+  </si>
+  <si>
+    <t>Petagna</t>
+  </si>
+  <si>
+    <t>Cragno</t>
+  </si>
+  <si>
+    <t>Carboni</t>
+  </si>
+  <si>
+    <t>Caldirola</t>
+  </si>
+  <si>
+    <t>Carboni F.</t>
+  </si>
+  <si>
+    <t>D'alessandro</t>
+  </si>
+  <si>
+    <t>Colpani</t>
+  </si>
+  <si>
+    <t>Machin</t>
+  </si>
+  <si>
+    <t>Ranocchia F.</t>
+  </si>
+  <si>
+    <t>Valoti</t>
+  </si>
+  <si>
+    <t>Sensi</t>
+  </si>
+  <si>
+    <t>Gytkjaer</t>
+  </si>
+  <si>
+    <t>Mota</t>
+  </si>
+  <si>
+    <t>Provedel</t>
+  </si>
+  <si>
+    <t>Lazzari</t>
+  </si>
+  <si>
+    <t>Casale</t>
+  </si>
+  <si>
+    <t>Romagnoli</t>
+  </si>
+  <si>
+    <t>Marusic</t>
+  </si>
+  <si>
+    <t>Milinkovic-Savic</t>
+  </si>
+  <si>
+    <t>Cataldi</t>
+  </si>
+  <si>
+    <t>Luis Alberto</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Felipe Anderson</t>
+  </si>
+  <si>
+    <t>Zaccagni</t>
+  </si>
+  <si>
+    <t>Luis Maximiano</t>
+  </si>
+  <si>
+    <t>Adamonis</t>
+  </si>
+  <si>
+    <t>Hysaj</t>
+  </si>
+  <si>
+    <t>Patric</t>
+  </si>
+  <si>
+    <t>Fares</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Marcos Antonio</t>
+  </si>
+  <si>
+    <t>Romero L.</t>
+  </si>
+  <si>
+    <t>Vecino</t>
+  </si>
+  <si>
+    <t>Cancellieri</t>
+  </si>
+  <si>
+    <t>Terracciano</t>
+  </si>
+  <si>
+    <t>Dodo'</t>
+  </si>
+  <si>
+    <t>Milenkovic</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Biraghi</t>
+  </si>
+  <si>
+    <t>Amrabat</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Ikone'</t>
+  </si>
+  <si>
+    <t>Bonaventura</t>
+  </si>
+  <si>
+    <t>Gonzalez N.</t>
+  </si>
+  <si>
+    <t>Kouame'</t>
+  </si>
+  <si>
+    <t>Sirigu</t>
+  </si>
+  <si>
+    <t>Cerofolini</t>
+  </si>
+  <si>
+    <t>Venuti</t>
+  </si>
+  <si>
+    <t>Martinez Quarta</t>
+  </si>
+  <si>
+    <t>Terzic</t>
+  </si>
+  <si>
+    <t>Ranieri L.</t>
+  </si>
+  <si>
+    <t>Barak</t>
+  </si>
+  <si>
+    <t>Mandragora</t>
+  </si>
+  <si>
+    <t>Bianco</t>
+  </si>
+  <si>
+    <t>Saponara</t>
+  </si>
+  <si>
+    <t>Jovic</t>
   </si>
   <si>
     <t>Meret</t>
@@ -169,547 +1081,253 @@
     <t>Di Lorenzo</t>
   </si>
   <si>
+    <t>Rrahmani</t>
+  </si>
+  <si>
     <t>Kim</t>
   </si>
   <si>
+    <t>Mario Rui</t>
+  </si>
+  <si>
+    <t>Zambo Anguissa</t>
+  </si>
+  <si>
+    <t>Lobotka</t>
+  </si>
+  <si>
+    <t>Zielinski</t>
+  </si>
+  <si>
+    <t>Elmas</t>
+  </si>
+  <si>
+    <t>Osimhen</t>
+  </si>
+  <si>
+    <t>Kvaratskhelia</t>
+  </si>
+  <si>
+    <t>Gollini</t>
+  </si>
+  <si>
+    <t>Bereszynski</t>
+  </si>
+  <si>
     <t>Juan Jesus</t>
   </si>
   <si>
-    <t>Mario Rui</t>
-  </si>
-  <si>
-    <t>Zambo Anguissa</t>
-  </si>
-  <si>
-    <t>Lobotka</t>
-  </si>
-  <si>
-    <t>Zielinski</t>
+    <t>Olivera</t>
+  </si>
+  <si>
+    <t>Ostigard</t>
+  </si>
+  <si>
+    <t>Demme</t>
+  </si>
+  <si>
+    <t>Ndombele'</t>
+  </si>
+  <si>
+    <t>Gaetano</t>
+  </si>
+  <si>
+    <t>Politano</t>
   </si>
   <si>
     <t>Lozano</t>
   </si>
   <si>
-    <t>Osimhen</t>
-  </si>
-  <si>
-    <t>Elmas</t>
-  </si>
-  <si>
-    <t>Marfella</t>
-  </si>
-  <si>
-    <t>Zanoli</t>
-  </si>
-  <si>
-    <t>Ostigard</t>
-  </si>
-  <si>
-    <t>Olivera</t>
-  </si>
-  <si>
-    <t>Demme</t>
-  </si>
-  <si>
-    <t>Gaetano</t>
-  </si>
-  <si>
-    <t>Zerbin</t>
-  </si>
-  <si>
-    <t>Ndombele'</t>
-  </si>
-  <si>
-    <t>Politano</t>
+    <t>Simeone</t>
   </si>
   <si>
     <t>Raspadori</t>
   </si>
   <si>
-    <t>Simeone</t>
+    <t>Rui Patricio</t>
+  </si>
+  <si>
+    <t>Mancini</t>
+  </si>
+  <si>
+    <t>Smalling</t>
+  </si>
+  <si>
+    <t>Ibanez</t>
+  </si>
+  <si>
+    <t>Zalewski</t>
+  </si>
+  <si>
+    <t>Cristante</t>
+  </si>
+  <si>
+    <t>Matic</t>
+  </si>
+  <si>
+    <t>Spinazzola</t>
+  </si>
+  <si>
+    <t>Pellegrini Lo.</t>
+  </si>
+  <si>
+    <t>Dybala</t>
+  </si>
+  <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Svilar</t>
+  </si>
+  <si>
+    <t>Boer</t>
+  </si>
+  <si>
+    <t>Kumbulla</t>
+  </si>
+  <si>
+    <t>Volpato</t>
+  </si>
+  <si>
+    <t>El Shaarawy</t>
+  </si>
+  <si>
+    <t>Tahirovic</t>
+  </si>
+  <si>
+    <t>Bove</t>
+  </si>
+  <si>
+    <t>Camara Ma.</t>
+  </si>
+  <si>
+    <t>Solbakken</t>
+  </si>
+  <si>
+    <t>Belotti</t>
+  </si>
+  <si>
+    <t>Shomurodov</t>
   </si>
   <si>
     <t>Silvestri</t>
   </si>
   <si>
+    <t>Rodrigo Becao</t>
+  </si>
+  <si>
+    <t>Bijol</t>
+  </si>
+  <si>
     <t>Perez N.</t>
   </si>
   <si>
-    <t>Bijol</t>
+    <t>Ehizibue</t>
+  </si>
+  <si>
+    <t>Samardzic</t>
+  </si>
+  <si>
+    <t>Walace</t>
+  </si>
+  <si>
+    <t>Arslan</t>
+  </si>
+  <si>
+    <t>Udogie</t>
+  </si>
+  <si>
+    <t>Beto</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Padelli</t>
   </si>
   <si>
     <t>Ebosse</t>
   </si>
   <si>
-    <t>Ehizibue</t>
+    <t>Buta</t>
+  </si>
+  <si>
+    <t>Ebosele</t>
+  </si>
+  <si>
+    <t>Guessand A.</t>
+  </si>
+  <si>
+    <t>Jajalo</t>
   </si>
   <si>
     <t>Lovric</t>
   </si>
   <si>
-    <t>Walace</t>
-  </si>
-  <si>
-    <t>Arslan</t>
+    <t>Makengo</t>
   </si>
   <si>
     <t>Pereyra</t>
   </si>
   <si>
-    <t>Beto</t>
-  </si>
-  <si>
-    <t>Deulofeu</t>
-  </si>
-  <si>
-    <t>Padelli</t>
-  </si>
-  <si>
-    <t>Nuytinck</t>
-  </si>
-  <si>
-    <t>Ebosele</t>
-  </si>
-  <si>
-    <t>Udogie</t>
-  </si>
-  <si>
-    <t>Jajalo</t>
-  </si>
-  <si>
-    <t>Samardzic</t>
-  </si>
-  <si>
     <t>Pafundi</t>
   </si>
   <si>
-    <t>Success</t>
-  </si>
-  <si>
     <t>Nestorovski</t>
   </si>
   <si>
-    <t>Audero</t>
-  </si>
-  <si>
-    <t>Ferrari A.</t>
-  </si>
-  <si>
-    <t>Murillo</t>
-  </si>
-  <si>
-    <t>Amione</t>
-  </si>
-  <si>
-    <t>Bereszynski</t>
-  </si>
-  <si>
-    <t>Rincon</t>
-  </si>
-  <si>
-    <t>Villar</t>
-  </si>
-  <si>
-    <t>Djuricic</t>
-  </si>
-  <si>
-    <t>Augello</t>
-  </si>
-  <si>
-    <t>Gabbiadini</t>
-  </si>
-  <si>
-    <t>Caputo</t>
-  </si>
-  <si>
-    <t>Contini</t>
-  </si>
-  <si>
-    <t>Ravaglia</t>
-  </si>
-  <si>
-    <t>Murru</t>
-  </si>
-  <si>
-    <t>Verre</t>
-  </si>
-  <si>
-    <t>Yepes</t>
-  </si>
-  <si>
-    <t>Vieira</t>
-  </si>
-  <si>
-    <t>Leris</t>
-  </si>
-  <si>
-    <t>Trimboli</t>
-  </si>
-  <si>
-    <t>Quagliarella</t>
-  </si>
-  <si>
-    <t>Montevago</t>
-  </si>
-  <si>
-    <t>Falcone</t>
-  </si>
-  <si>
-    <t>Baschirotto</t>
-  </si>
-  <si>
-    <t>Pongracic</t>
-  </si>
-  <si>
-    <t>Umtiti</t>
-  </si>
-  <si>
-    <t>Gallo</t>
-  </si>
-  <si>
-    <t>Gonzalez J.</t>
-  </si>
-  <si>
-    <t>Hjulmand</t>
-  </si>
-  <si>
-    <t>Blin</t>
-  </si>
-  <si>
-    <t>Strefezza</t>
-  </si>
-  <si>
-    <t>Colombo</t>
-  </si>
-  <si>
-    <t>Di Francesco F.</t>
-  </si>
-  <si>
-    <t>Bleve</t>
-  </si>
-  <si>
-    <t>Tuia</t>
-  </si>
-  <si>
-    <t>Gendrey</t>
-  </si>
-  <si>
-    <t>Cetin</t>
-  </si>
-  <si>
-    <t>Listkowski</t>
-  </si>
-  <si>
-    <t>Askildsen</t>
-  </si>
-  <si>
-    <t>Helgason</t>
-  </si>
-  <si>
-    <t>Bistrovic</t>
-  </si>
-  <si>
-    <t>Oudin</t>
-  </si>
-  <si>
-    <t>Rodriguez P.</t>
-  </si>
-  <si>
-    <t>Ceesay</t>
-  </si>
-  <si>
-    <t>Banda</t>
-  </si>
-  <si>
-    <t>Skorupski</t>
-  </si>
-  <si>
-    <t>Posch</t>
-  </si>
-  <si>
-    <t>Soumaoro</t>
-  </si>
-  <si>
-    <t>Lucumi'</t>
-  </si>
-  <si>
-    <t>Lykogiannis</t>
-  </si>
-  <si>
-    <t>Medel</t>
-  </si>
-  <si>
-    <t>Dominguez</t>
-  </si>
-  <si>
-    <t>Aebischer</t>
-  </si>
-  <si>
-    <t>Ferguson</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Arnautovic</t>
-  </si>
-  <si>
-    <t>Bardi</t>
-  </si>
-  <si>
-    <t>Kasius</t>
-  </si>
-  <si>
-    <t>Sosa</t>
-  </si>
-  <si>
-    <t>Cambiaso</t>
-  </si>
-  <si>
-    <t>De Silvestri</t>
-  </si>
-  <si>
-    <t>Moro N.</t>
-  </si>
-  <si>
-    <t>Soriano</t>
-  </si>
-  <si>
-    <t>Schouten</t>
-  </si>
-  <si>
-    <t>Vignato</t>
-  </si>
-  <si>
-    <t>Orsolini</t>
-  </si>
-  <si>
-    <t>Zirkzee</t>
-  </si>
-  <si>
-    <t>Sansone</t>
-  </si>
-  <si>
-    <t>Consigli</t>
-  </si>
-  <si>
-    <t>Toljan</t>
-  </si>
-  <si>
-    <t>Erlic</t>
-  </si>
-  <si>
-    <t>Ferrari G.</t>
-  </si>
-  <si>
-    <t>Rogerio</t>
-  </si>
-  <si>
-    <t>Frattesi</t>
-  </si>
-  <si>
-    <t>Obiang</t>
-  </si>
-  <si>
-    <t>Thorstvedt</t>
-  </si>
-  <si>
-    <t>Lauriente'</t>
-  </si>
-  <si>
-    <t>Pinamonti</t>
-  </si>
-  <si>
-    <t>Traore' Hj.</t>
-  </si>
-  <si>
-    <t>Pegolo</t>
-  </si>
-  <si>
-    <t>Ruan</t>
-  </si>
-  <si>
-    <t>Kyriakopoulos</t>
-  </si>
-  <si>
-    <t>Marchizza</t>
-  </si>
-  <si>
-    <t>Ayhan</t>
-  </si>
-  <si>
-    <t>Matheus Henrique</t>
-  </si>
-  <si>
-    <t>Harroui</t>
-  </si>
-  <si>
-    <t>Ceide</t>
-  </si>
-  <si>
-    <t>D'andrea</t>
-  </si>
-  <si>
-    <t>Antiste</t>
-  </si>
-  <si>
-    <t>Alvarez A.</t>
-  </si>
-  <si>
-    <t>Berardi</t>
-  </si>
-  <si>
-    <t>Musso</t>
-  </si>
-  <si>
-    <t>Toloi</t>
-  </si>
-  <si>
-    <t>Demiral</t>
-  </si>
-  <si>
-    <t>Djimsiti</t>
-  </si>
-  <si>
-    <t>Hateboer</t>
-  </si>
-  <si>
-    <t>Ederson D.s.</t>
-  </si>
-  <si>
-    <t>Koopmeiners</t>
-  </si>
-  <si>
-    <t>Maehle</t>
-  </si>
-  <si>
-    <t>Pasalic</t>
-  </si>
-  <si>
-    <t>Zapata D.</t>
-  </si>
-  <si>
-    <t>Lookman</t>
-  </si>
-  <si>
-    <t>Sportiello</t>
-  </si>
-  <si>
-    <t>Rossi F.</t>
-  </si>
-  <si>
-    <t>Ruggeri</t>
-  </si>
-  <si>
-    <t>Scalvini</t>
-  </si>
-  <si>
-    <t>Soppy</t>
-  </si>
-  <si>
-    <t>Zortea</t>
-  </si>
-  <si>
-    <t>Okoli</t>
-  </si>
-  <si>
-    <t>Palomino</t>
-  </si>
-  <si>
-    <t>Malinovskyi</t>
-  </si>
-  <si>
-    <t>Boga</t>
-  </si>
-  <si>
-    <t>Hojlund</t>
-  </si>
-  <si>
-    <t>Onana</t>
-  </si>
-  <si>
-    <t>Skriniar</t>
-  </si>
-  <si>
-    <t>De Vrij</t>
-  </si>
-  <si>
-    <t>Bastoni</t>
-  </si>
-  <si>
-    <t>Dumfries</t>
-  </si>
-  <si>
-    <t>Barella</t>
-  </si>
-  <si>
-    <t>Brozovic</t>
-  </si>
-  <si>
-    <t>Calhanoglu</t>
-  </si>
-  <si>
-    <t>Dimarco</t>
-  </si>
-  <si>
-    <t>Dzeko</t>
-  </si>
-  <si>
-    <t>Martinez L.</t>
-  </si>
-  <si>
-    <t>Handanovic</t>
-  </si>
-  <si>
-    <t>Cordaz</t>
-  </si>
-  <si>
-    <t>Bellanova</t>
-  </si>
-  <si>
-    <t>Acerbi</t>
-  </si>
-  <si>
-    <t>Gosens</t>
-  </si>
-  <si>
-    <t>D'ambrosio</t>
-  </si>
-  <si>
-    <t>Mkhitaryan</t>
-  </si>
-  <si>
-    <t>Gagliardini</t>
-  </si>
-  <si>
-    <t>Asllani</t>
-  </si>
-  <si>
-    <t>Correa</t>
-  </si>
-  <si>
     <t>Montipo'</t>
   </si>
   <si>
-    <t>Dawidowicz</t>
+    <t>Ceccherini</t>
+  </si>
+  <si>
+    <t>Hien</t>
+  </si>
+  <si>
+    <t>Magnani</t>
+  </si>
+  <si>
+    <t>Depaoli</t>
+  </si>
+  <si>
+    <t>Sulemana I.</t>
+  </si>
+  <si>
+    <t>Tameze</t>
+  </si>
+  <si>
+    <t>Doig</t>
+  </si>
+  <si>
+    <t>Lazovic</t>
+  </si>
+  <si>
+    <t>Lasagna</t>
+  </si>
+  <si>
+    <t>Djuric</t>
+  </si>
+  <si>
+    <t>Berardi A.</t>
   </si>
   <si>
     <t>Gunter</t>
   </si>
   <si>
-    <t>Ceccherini</t>
-  </si>
-  <si>
-    <t>Lazovic</t>
-  </si>
-  <si>
-    <t>Tameze</t>
-  </si>
-  <si>
-    <t>Miguel Veloso</t>
-  </si>
-  <si>
-    <t>Doig</t>
+    <t>Coppola D.</t>
+  </si>
+  <si>
+    <t>Zeefuik</t>
+  </si>
+  <si>
+    <t>Cabal</t>
+  </si>
+  <si>
+    <t>Terracciano F.</t>
+  </si>
+  <si>
+    <t>Ilic</t>
   </si>
   <si>
     <t>Verdi</t>
@@ -718,658 +1336,13 @@
     <t>Kallon</t>
   </si>
   <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>Berardi A.</t>
-  </si>
-  <si>
-    <t>Cabal</t>
-  </si>
-  <si>
-    <t>Hien</t>
-  </si>
-  <si>
-    <t>Depaoli</t>
-  </si>
-  <si>
-    <t>Magnani</t>
-  </si>
-  <si>
-    <t>Sulemana I.</t>
-  </si>
-  <si>
-    <t>Praszelik</t>
-  </si>
-  <si>
-    <t>Ilic</t>
-  </si>
-  <si>
-    <t>Hongla</t>
-  </si>
-  <si>
-    <t>Terracciano F.</t>
-  </si>
-  <si>
-    <t>Lasagna</t>
-  </si>
-  <si>
-    <t>Djuric</t>
-  </si>
-  <si>
-    <t>Zoet</t>
-  </si>
-  <si>
-    <t>Ampadu</t>
-  </si>
-  <si>
-    <t>Kiwior</t>
-  </si>
-  <si>
-    <t>Nikolaou</t>
-  </si>
-  <si>
-    <t>Holm</t>
-  </si>
-  <si>
-    <t>Agudelo</t>
-  </si>
-  <si>
-    <t>Bourabia</t>
-  </si>
-  <si>
-    <t>Ekdal</t>
-  </si>
-  <si>
-    <t>Bastoni S.</t>
-  </si>
-  <si>
-    <t>Verde</t>
-  </si>
-  <si>
-    <t>Nzola</t>
-  </si>
-  <si>
-    <t>Dragowski</t>
-  </si>
-  <si>
-    <t>Zovko</t>
-  </si>
-  <si>
-    <t>Ferrer</t>
-  </si>
-  <si>
-    <t>Amian</t>
-  </si>
-  <si>
-    <t>Sala</t>
-  </si>
-  <si>
-    <t>Caldara</t>
-  </si>
-  <si>
-    <t>Hristov</t>
-  </si>
-  <si>
-    <t>Ellertsson</t>
-  </si>
-  <si>
-    <t>Maldini</t>
-  </si>
-  <si>
-    <t>Gyasi</t>
-  </si>
-  <si>
-    <t>Strelec</t>
-  </si>
-  <si>
-    <t>Sanca</t>
-  </si>
-  <si>
-    <t>Di Gregorio</t>
-  </si>
-  <si>
-    <t>Izzo</t>
-  </si>
-  <si>
-    <t>Marlon</t>
-  </si>
-  <si>
-    <t>Caldirola</t>
-  </si>
-  <si>
-    <t>Birindelli</t>
-  </si>
-  <si>
-    <t>Pessina</t>
-  </si>
-  <si>
-    <t>Rovella</t>
-  </si>
-  <si>
-    <t>Colpani</t>
-  </si>
-  <si>
-    <t>Carlos Augusto</t>
-  </si>
-  <si>
-    <t>Caprari</t>
-  </si>
-  <si>
-    <t>Petagna</t>
-  </si>
-  <si>
-    <t>Cragno</t>
-  </si>
-  <si>
-    <t>Donati</t>
-  </si>
-  <si>
-    <t>Antov</t>
-  </si>
-  <si>
-    <t>Carboni</t>
-  </si>
-  <si>
-    <t>D'alessandro</t>
-  </si>
-  <si>
-    <t>Ciurria</t>
-  </si>
-  <si>
-    <t>Barberis</t>
-  </si>
-  <si>
-    <t>Ranocchia F.</t>
-  </si>
-  <si>
-    <t>Machin</t>
-  </si>
-  <si>
-    <t>Bondo</t>
-  </si>
-  <si>
-    <t>Gytkjaer</t>
-  </si>
-  <si>
-    <t>Mota</t>
-  </si>
-  <si>
-    <t>Sepe</t>
-  </si>
-  <si>
-    <t>Lovato</t>
-  </si>
-  <si>
-    <t>Daniliuc</t>
-  </si>
-  <si>
-    <t>Fazio</t>
-  </si>
-  <si>
-    <t>Candreva</t>
-  </si>
-  <si>
-    <t>Maggiore</t>
-  </si>
-  <si>
-    <t>Radovanovic</t>
-  </si>
-  <si>
-    <t>Coulibaly L.</t>
-  </si>
-  <si>
-    <t>Mazzocchi</t>
-  </si>
-  <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>Piatek</t>
-  </si>
-  <si>
-    <t>Fiorillo</t>
-  </si>
-  <si>
-    <t>Sambia</t>
-  </si>
-  <si>
-    <t>Bronn</t>
-  </si>
-  <si>
-    <t>Pirola</t>
-  </si>
-  <si>
-    <t>Bradaric</t>
-  </si>
-  <si>
-    <t>Kastanos</t>
-  </si>
-  <si>
-    <t>Bohinen</t>
-  </si>
-  <si>
-    <t>Vilhena</t>
-  </si>
-  <si>
-    <t>Capezzi</t>
-  </si>
-  <si>
-    <t>Valencia D.</t>
-  </si>
-  <si>
-    <t>Bonazzoli</t>
-  </si>
-  <si>
-    <t>Botheim</t>
-  </si>
-  <si>
-    <t>Rui Patricio</t>
-  </si>
-  <si>
-    <t>Mancini</t>
-  </si>
-  <si>
-    <t>Smalling</t>
-  </si>
-  <si>
-    <t>Ibanez</t>
-  </si>
-  <si>
-    <t>Celik</t>
-  </si>
-  <si>
-    <t>Cristante</t>
-  </si>
-  <si>
-    <t>Matic</t>
-  </si>
-  <si>
-    <t>Zalewski</t>
-  </si>
-  <si>
-    <t>Volpato</t>
-  </si>
-  <si>
-    <t>Zaniolo</t>
-  </si>
-  <si>
-    <t>Abraham</t>
-  </si>
-  <si>
-    <t>Svilar</t>
-  </si>
-  <si>
-    <t>Boer</t>
-  </si>
-  <si>
-    <t>Vina</t>
-  </si>
-  <si>
-    <t>Kumbulla</t>
-  </si>
-  <si>
-    <t>Karsdorp</t>
-  </si>
-  <si>
-    <t>Bove</t>
-  </si>
-  <si>
-    <t>Camara Ma.</t>
-  </si>
-  <si>
-    <t>El Shaarawy</t>
-  </si>
-  <si>
-    <t>Dybala</t>
-  </si>
-  <si>
-    <t>Shomurodov</t>
-  </si>
-  <si>
-    <t>Belotti</t>
-  </si>
-  <si>
-    <t>Milinkovic-Savic V.</t>
-  </si>
-  <si>
-    <t>Djidji</t>
-  </si>
-  <si>
-    <t>Buongiorno</t>
-  </si>
-  <si>
-    <t>Rodriguez R.</t>
-  </si>
-  <si>
-    <t>Vojvoda</t>
-  </si>
-  <si>
-    <t>Ricci S.</t>
-  </si>
-  <si>
-    <t>Linetty</t>
-  </si>
-  <si>
-    <t>Lazaro</t>
-  </si>
-  <si>
-    <t>Miranchuk</t>
-  </si>
-  <si>
-    <t>Vlasic</t>
-  </si>
-  <si>
-    <t>Sanabria</t>
-  </si>
-  <si>
-    <t>Berisha</t>
-  </si>
-  <si>
-    <t>Gemello</t>
-  </si>
-  <si>
-    <t>Zima</t>
-  </si>
-  <si>
-    <t>Singo</t>
-  </si>
-  <si>
-    <t>Adopo</t>
-  </si>
-  <si>
-    <t>Bayeye</t>
-  </si>
-  <si>
-    <t>Radonjic</t>
-  </si>
-  <si>
-    <t>Garbett</t>
-  </si>
-  <si>
-    <t>Ilkhan</t>
-  </si>
-  <si>
-    <t>Seck</t>
-  </si>
-  <si>
-    <t>Karamoh</t>
-  </si>
-  <si>
-    <t>Pellegri</t>
-  </si>
-  <si>
-    <t>Tatarusanu</t>
-  </si>
-  <si>
-    <t>Kalulu</t>
-  </si>
-  <si>
-    <t>Kjaer</t>
-  </si>
-  <si>
-    <t>Tomori</t>
-  </si>
-  <si>
-    <t>Hernandez T.</t>
-  </si>
-  <si>
-    <t>Tonali</t>
-  </si>
-  <si>
-    <t>Bennacer</t>
-  </si>
-  <si>
-    <t>Krunic</t>
-  </si>
-  <si>
-    <t>De Ketelaere</t>
-  </si>
-  <si>
-    <t>Rafael Leao</t>
-  </si>
-  <si>
-    <t>Giroud</t>
-  </si>
-  <si>
-    <t>Mirante</t>
-  </si>
-  <si>
-    <t>Thiaw</t>
-  </si>
-  <si>
-    <t>Ballo-Toure'</t>
-  </si>
-  <si>
-    <t>Gabbia</t>
-  </si>
-  <si>
-    <t>Dest</t>
-  </si>
-  <si>
-    <t>Pobega</t>
-  </si>
-  <si>
-    <t>Adli</t>
-  </si>
-  <si>
-    <t>Messias</t>
-  </si>
-  <si>
-    <t>Diaz B.</t>
-  </si>
-  <si>
-    <t>Vranckx</t>
-  </si>
-  <si>
-    <t>Rebic</t>
-  </si>
-  <si>
-    <t>Origi</t>
-  </si>
-  <si>
-    <t>Terracciano</t>
-  </si>
-  <si>
-    <t>Dodo'</t>
-  </si>
-  <si>
-    <t>Milenkovic</t>
-  </si>
-  <si>
-    <t>Martinez Quarta</t>
-  </si>
-  <si>
-    <t>Biraghi</t>
-  </si>
-  <si>
-    <t>Bonaventura</t>
-  </si>
-  <si>
-    <t>Amrabat</t>
-  </si>
-  <si>
-    <t>Ikone'</t>
-  </si>
-  <si>
-    <t>Barak</t>
-  </si>
-  <si>
-    <t>Kouame'</t>
-  </si>
-  <si>
-    <t>Jovic</t>
-  </si>
-  <si>
-    <t>Cerofolini</t>
-  </si>
-  <si>
-    <t>Ranieri L.</t>
-  </si>
-  <si>
-    <t>Terzic</t>
-  </si>
-  <si>
-    <t>Igor</t>
-  </si>
-  <si>
-    <t>Venuti</t>
-  </si>
-  <si>
-    <t>Duncan</t>
-  </si>
-  <si>
-    <t>Maleh</t>
-  </si>
-  <si>
-    <t>Zurkowski</t>
-  </si>
-  <si>
-    <t>Mandragora</t>
-  </si>
-  <si>
-    <t>Saponara</t>
-  </si>
-  <si>
-    <t>Bianco</t>
-  </si>
-  <si>
-    <t>Cabral</t>
-  </si>
-  <si>
-    <t>Szczesny</t>
-  </si>
-  <si>
-    <t>Danilo</t>
-  </si>
-  <si>
-    <t>Bonucci</t>
-  </si>
-  <si>
-    <t>Bremer</t>
-  </si>
-  <si>
-    <t>Cuadrado</t>
-  </si>
-  <si>
-    <t>Fagioli</t>
-  </si>
-  <si>
-    <t>Locatelli</t>
-  </si>
-  <si>
-    <t>Rabiot</t>
-  </si>
-  <si>
-    <t>Kostic</t>
-  </si>
-  <si>
-    <t>Miretti</t>
-  </si>
-  <si>
-    <t>Milik</t>
-  </si>
-  <si>
-    <t>Perin</t>
-  </si>
-  <si>
-    <t>Pinsoglio</t>
-  </si>
-  <si>
-    <t>Rugani</t>
-  </si>
-  <si>
-    <t>Gatti</t>
-  </si>
-  <si>
-    <t>Paredes</t>
-  </si>
-  <si>
-    <t>Chiesa</t>
-  </si>
-  <si>
-    <t>Mckennie</t>
-  </si>
-  <si>
-    <t>Kean</t>
-  </si>
-  <si>
-    <t>Di Maria</t>
-  </si>
-  <si>
-    <t>Vlahovic</t>
-  </si>
-  <si>
-    <t>Soule'</t>
-  </si>
-  <si>
-    <t>Provedel</t>
-  </si>
-  <si>
-    <t>Hysaj</t>
-  </si>
-  <si>
-    <t>Casale</t>
-  </si>
-  <si>
-    <t>Romagnoli</t>
-  </si>
-  <si>
-    <t>Marusic</t>
-  </si>
-  <si>
-    <t>Milinkovic-Savic</t>
-  </si>
-  <si>
-    <t>Cataldi</t>
-  </si>
-  <si>
-    <t>Vecino</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Immobile</t>
-  </si>
-  <si>
-    <t>Felipe Anderson</t>
-  </si>
-  <si>
-    <t>Luis Maximiano</t>
-  </si>
-  <si>
-    <t>Adamonis</t>
-  </si>
-  <si>
-    <t>Radu</t>
-  </si>
-  <si>
-    <t>Kamenovic</t>
-  </si>
-  <si>
-    <t>Patric</t>
-  </si>
-  <si>
-    <t>Gila</t>
-  </si>
-  <si>
-    <t>Luis Alberto</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>Bertini</t>
-  </si>
-  <si>
-    <t>Marcos Antonio</t>
-  </si>
-  <si>
-    <t>Romero L.</t>
-  </si>
-  <si>
-    <t>Cancellieri</t>
+    <t>Piccoli</t>
+  </si>
+  <si>
+    <t>Ngonge</t>
+  </si>
+  <si>
+    <t>Braaf</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C450"/>
+  <dimension ref="A1:C441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1895,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1906,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1917,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1928,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1950,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1961,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1980,10 +1953,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1991,10 +1964,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2101,10 +2074,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2112,10 +2085,10 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2126,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2137,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2148,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2159,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2170,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2192,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2214,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2225,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2233,10 +2206,10 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2244,10 +2217,10 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2277,10 +2250,10 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C50">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2291,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2299,10 +2272,10 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2310,10 +2283,10 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2324,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2332,10 +2305,10 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C55">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2354,10 +2327,10 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2365,10 +2338,10 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2376,10 +2349,10 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2390,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2401,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2409,10 +2382,10 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2423,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2434,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2445,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2453,10 +2426,10 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2464,7 +2437,7 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="C67">
         <v>60</v>
@@ -2475,10 +2448,10 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C68">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2486,10 +2459,10 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2497,10 +2470,10 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C70">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2511,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2522,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2533,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2541,10 +2514,10 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2552,10 +2525,10 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="C75">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2566,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2577,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2585,10 +2558,10 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C78">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2596,10 +2569,10 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C79">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2607,10 +2580,10 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2621,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2629,10 +2602,10 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2640,10 +2613,10 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C83">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2665,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2673,10 +2646,10 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2687,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2695,10 +2668,10 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="C88">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2709,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2717,10 +2690,10 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="C90">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2728,10 +2701,10 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2742,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2750,10 +2723,10 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C93">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2772,10 +2745,10 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2786,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2794,10 +2767,10 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="C97">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2805,10 +2778,10 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C98">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2819,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2827,10 +2800,10 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2838,10 +2811,10 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2849,10 +2822,10 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2860,10 +2833,10 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2874,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2882,10 +2855,10 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C105">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2893,10 +2866,10 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2904,10 +2877,10 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2918,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2926,10 +2899,10 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C109">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2937,10 +2910,10 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2948,10 +2921,10 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C111">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2959,10 +2932,10 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2970,10 +2943,10 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2984,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="C114">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2992,10 +2965,10 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C115">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3003,10 +2976,10 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C116">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3028,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="C118">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3039,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3047,10 +3020,10 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="C120">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3058,10 +3031,10 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C121">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3069,10 +3042,10 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3080,10 +3053,10 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3091,10 +3064,10 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C124">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3105,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="C125">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3116,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3124,7 +3097,7 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C127">
         <v>55</v>
@@ -3138,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="C128">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3146,7 +3119,7 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>50</v>
@@ -3157,10 +3130,10 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C130">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3168,10 +3141,10 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C131">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3190,10 +3163,10 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3215,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="C135">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3223,10 +3196,10 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C136">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3245,10 +3218,10 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3259,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="C139">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3281,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3289,10 +3262,10 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C142">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3314,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="C144">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3336,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="C146">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3347,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="C147">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3355,10 +3328,10 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C148">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3366,7 +3339,7 @@
         <v>150</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C149">
         <v>35</v>
@@ -3380,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="C150">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3391,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="C151">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3399,7 +3372,7 @@
         <v>153</v>
       </c>
       <c r="B152">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C152">
         <v>60</v>
@@ -3413,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="C153">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3424,7 +3397,7 @@
         <v>0.45</v>
       </c>
       <c r="C154">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3435,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="C155">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3443,10 +3416,10 @@
         <v>157</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3454,10 +3427,10 @@
         <v>158</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C157">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3468,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="C158">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3487,10 +3460,10 @@
         <v>161</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C160">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3498,10 +3471,10 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="C161">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3512,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="C162">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3523,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3545,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="C165">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3556,7 +3529,7 @@
         <v>1</v>
       </c>
       <c r="C166">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3564,10 +3537,10 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C167">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3578,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="C168">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3597,10 +3570,10 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C170">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3611,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C171">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3619,10 +3592,10 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C172">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3630,10 +3603,10 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C173">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3655,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="C175">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3663,10 +3636,10 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3674,10 +3647,10 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3685,10 +3658,10 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3696,10 +3669,10 @@
         <v>180</v>
       </c>
       <c r="B179">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C179">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3710,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="C180">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3721,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="C181">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3732,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3751,10 +3724,10 @@
         <v>185</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C184">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3765,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3776,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="C186">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3784,10 +3757,10 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3795,10 +3768,10 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C188">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3806,10 +3779,10 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C189">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3817,10 +3790,10 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3828,10 +3801,10 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C191">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3842,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3853,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="C193">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3861,10 +3834,10 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C194">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3872,7 +3845,7 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C195">
         <v>55</v>
@@ -3886,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="C196">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3897,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="C197">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3905,10 +3878,10 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3916,10 +3889,10 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C199">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3927,10 +3900,10 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3938,10 +3911,10 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C201">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3952,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="C202">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3960,10 +3933,10 @@
         <v>204</v>
       </c>
       <c r="B203">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C203">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3971,10 +3944,10 @@
         <v>205</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C204">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3982,10 +3955,10 @@
         <v>206</v>
       </c>
       <c r="B205">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C205">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3996,7 +3969,7 @@
         <v>1</v>
       </c>
       <c r="C206">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4004,10 +3977,10 @@
         <v>208</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C207">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4015,10 +3988,10 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C208">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4026,10 +3999,10 @@
         <v>210</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4037,10 +4010,10 @@
         <v>211</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C210">
-        <v>85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4048,10 +4021,10 @@
         <v>212</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4059,10 +4032,10 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4073,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="C213">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4084,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4092,10 +4065,10 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C215">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4106,7 +4079,7 @@
         <v>0.45</v>
       </c>
       <c r="C216">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4114,10 +4087,10 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4125,10 +4098,10 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="C218">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4136,10 +4109,10 @@
         <v>220</v>
       </c>
       <c r="B219">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C219">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4147,10 +4120,10 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4158,10 +4131,10 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4169,10 +4142,10 @@
         <v>223</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4202,10 +4175,10 @@
         <v>226</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C225">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4216,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="C226">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4224,10 +4197,10 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="C227">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4235,10 +4208,10 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4246,10 +4219,10 @@
         <v>230</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C229">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4257,10 +4230,10 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C230">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4268,10 +4241,10 @@
         <v>232</v>
       </c>
       <c r="B231">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C231">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4279,10 +4252,10 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C232">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4290,10 +4263,10 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4301,10 +4274,10 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C234">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4315,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="C235">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4323,10 +4296,10 @@
         <v>237</v>
       </c>
       <c r="B236">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C236">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4345,10 +4318,10 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C238">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4359,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="C239">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4367,10 +4340,10 @@
         <v>241</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4378,10 +4351,10 @@
         <v>242</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4389,10 +4362,10 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C242">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4400,10 +4373,10 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4411,10 +4384,10 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4422,10 +4395,10 @@
         <v>246</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4433,10 +4406,10 @@
         <v>247</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C246">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4444,10 +4417,10 @@
         <v>248</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C247">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4458,7 +4431,7 @@
         <v>1</v>
       </c>
       <c r="C248">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4466,10 +4439,10 @@
         <v>250</v>
       </c>
       <c r="B249">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C249">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4480,7 +4453,7 @@
         <v>1</v>
       </c>
       <c r="C250">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4488,10 +4461,10 @@
         <v>252</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C251">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4499,10 +4472,10 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4510,10 +4483,10 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4521,10 +4494,10 @@
         <v>255</v>
       </c>
       <c r="B254">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C254">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4532,10 +4505,10 @@
         <v>256</v>
       </c>
       <c r="B255">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C255">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4543,10 +4516,10 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4557,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="C257">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4568,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4576,10 +4549,10 @@
         <v>260</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C259">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4587,10 +4560,10 @@
         <v>261</v>
       </c>
       <c r="B260">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C260">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4598,10 +4571,10 @@
         <v>262</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C261">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4609,10 +4582,10 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C262">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4620,10 +4593,10 @@
         <v>264</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4631,10 +4604,10 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4642,10 +4615,10 @@
         <v>266</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4653,10 +4626,10 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C266">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4664,10 +4637,10 @@
         <v>268</v>
       </c>
       <c r="B267">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C267">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4675,10 +4648,10 @@
         <v>269</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C268">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4689,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="C269">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4700,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4719,10 +4692,10 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="C272">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4730,10 +4703,10 @@
         <v>274</v>
       </c>
       <c r="B273">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C273">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4741,10 +4714,10 @@
         <v>275</v>
       </c>
       <c r="B274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4752,10 +4725,10 @@
         <v>276</v>
       </c>
       <c r="B275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C275">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4763,10 +4736,10 @@
         <v>277</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C276">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4774,10 +4747,10 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C277">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4785,10 +4758,10 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C278">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4796,7 +4769,7 @@
         <v>280</v>
       </c>
       <c r="B279">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="C279">
         <v>55</v>
@@ -4810,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="C280">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4821,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="C281">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4829,10 +4802,10 @@
         <v>283</v>
       </c>
       <c r="B282">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C282">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4840,10 +4813,10 @@
         <v>284</v>
       </c>
       <c r="B283">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="C283">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4851,10 +4824,10 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C284">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4862,10 +4835,10 @@
         <v>286</v>
       </c>
       <c r="B285">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C285">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4873,10 +4846,10 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4884,10 +4857,10 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4895,10 +4868,10 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C288">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4906,10 +4879,10 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4917,10 +4890,10 @@
         <v>291</v>
       </c>
       <c r="B290">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C290">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4928,10 +4901,10 @@
         <v>292</v>
       </c>
       <c r="B291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4939,10 +4912,10 @@
         <v>293</v>
       </c>
       <c r="B292">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C292">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -4950,10 +4923,10 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C293">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -4964,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="C294">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -4983,10 +4956,10 @@
         <v>297</v>
       </c>
       <c r="B296">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="C296">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -4994,10 +4967,10 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5005,10 +4978,10 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5016,10 +4989,10 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C299">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5027,10 +5000,10 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5038,10 +5011,10 @@
         <v>302</v>
       </c>
       <c r="B301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5049,10 +5022,10 @@
         <v>303</v>
       </c>
       <c r="B302">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C302">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5060,10 +5033,10 @@
         <v>304</v>
       </c>
       <c r="B303">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C303">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5074,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="C304">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5082,10 +5055,10 @@
         <v>306</v>
       </c>
       <c r="B305">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C305">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5096,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="C306">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5104,10 +5077,10 @@
         <v>308</v>
       </c>
       <c r="B307">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C307">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5115,10 +5088,10 @@
         <v>309</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C308">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5126,10 +5099,10 @@
         <v>310</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5137,10 +5110,10 @@
         <v>311</v>
       </c>
       <c r="B310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5148,10 +5121,10 @@
         <v>312</v>
       </c>
       <c r="B311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5159,10 +5132,10 @@
         <v>313</v>
       </c>
       <c r="B312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C312">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5170,10 +5143,10 @@
         <v>314</v>
       </c>
       <c r="B313">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="C313">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5181,10 +5154,10 @@
         <v>315</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5192,10 +5165,10 @@
         <v>316</v>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C315">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5206,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="C316">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5247,10 +5220,10 @@
         <v>321</v>
       </c>
       <c r="B320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5258,10 +5231,10 @@
         <v>322</v>
       </c>
       <c r="B321">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C321">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5269,10 +5242,10 @@
         <v>323</v>
       </c>
       <c r="B322">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C322">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5280,10 +5253,10 @@
         <v>324</v>
       </c>
       <c r="B323">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C323">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5291,10 +5264,10 @@
         <v>325</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5302,10 +5275,10 @@
         <v>326</v>
       </c>
       <c r="B325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C325">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5313,10 +5286,10 @@
         <v>327</v>
       </c>
       <c r="B326">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C326">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5327,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="C327">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5338,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="C328">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5349,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="C329">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5357,10 +5330,10 @@
         <v>331</v>
       </c>
       <c r="B330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C330">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5368,10 +5341,10 @@
         <v>332</v>
       </c>
       <c r="B331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5379,10 +5352,10 @@
         <v>333</v>
       </c>
       <c r="B332">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C332">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5390,7 +5363,7 @@
         <v>334</v>
       </c>
       <c r="B333">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C333">
         <v>60</v>
@@ -5401,10 +5374,10 @@
         <v>335</v>
       </c>
       <c r="B334">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C334">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5412,10 +5385,10 @@
         <v>336</v>
       </c>
       <c r="B335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -5423,10 +5396,10 @@
         <v>337</v>
       </c>
       <c r="B336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C336">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5437,7 +5410,7 @@
         <v>1</v>
       </c>
       <c r="C337">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5448,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="C338">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5456,10 +5429,10 @@
         <v>340</v>
       </c>
       <c r="B339">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C339">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5467,10 +5440,10 @@
         <v>341</v>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C340">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5478,10 +5451,10 @@
         <v>342</v>
       </c>
       <c r="B341">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C341">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5489,10 +5462,10 @@
         <v>343</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C342">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -5500,10 +5473,10 @@
         <v>344</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C343">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5511,10 +5484,10 @@
         <v>345</v>
       </c>
       <c r="B344">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C344">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5522,10 +5495,10 @@
         <v>346</v>
       </c>
       <c r="B345">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C345">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5533,10 +5506,10 @@
         <v>347</v>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C346">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5544,10 +5517,10 @@
         <v>348</v>
       </c>
       <c r="B347">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C347">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5558,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="C348">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -5569,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="C349">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5577,10 +5550,10 @@
         <v>351</v>
       </c>
       <c r="B350">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C350">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -5588,10 +5561,10 @@
         <v>352</v>
       </c>
       <c r="B351">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="C351">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -5599,10 +5572,10 @@
         <v>353</v>
       </c>
       <c r="B352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C352">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -5610,10 +5583,10 @@
         <v>354</v>
       </c>
       <c r="B353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C353">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -5621,10 +5594,10 @@
         <v>355</v>
       </c>
       <c r="B354">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C354">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -5632,10 +5605,10 @@
         <v>356</v>
       </c>
       <c r="B355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C355">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -5643,10 +5616,10 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C356">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -5654,10 +5627,10 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -5665,10 +5638,10 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -5676,10 +5649,10 @@
         <v>360</v>
       </c>
       <c r="B359">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C359">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -5687,10 +5660,10 @@
         <v>361</v>
       </c>
       <c r="B360">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C360">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -5709,10 +5682,10 @@
         <v>363</v>
       </c>
       <c r="B362">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C362">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -5720,10 +5693,10 @@
         <v>364</v>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -5731,10 +5704,10 @@
         <v>365</v>
       </c>
       <c r="B364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C364">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -5742,10 +5715,10 @@
         <v>366</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C365">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -5753,10 +5726,10 @@
         <v>367</v>
       </c>
       <c r="B366">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="C366">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5764,10 +5737,10 @@
         <v>368</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C367">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -5775,10 +5748,10 @@
         <v>369</v>
       </c>
       <c r="B368">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C368">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -5786,10 +5759,10 @@
         <v>370</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -5797,10 +5770,10 @@
         <v>371</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C370">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -5808,10 +5781,10 @@
         <v>372</v>
       </c>
       <c r="B371">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C371">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -5819,10 +5792,10 @@
         <v>373</v>
       </c>
       <c r="B372">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C372">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -5833,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="C373">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -5841,10 +5814,10 @@
         <v>375</v>
       </c>
       <c r="B374">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C374">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -5852,10 +5825,10 @@
         <v>376</v>
       </c>
       <c r="B375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C375">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -5863,10 +5836,10 @@
         <v>377</v>
       </c>
       <c r="B376">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C376">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -5874,10 +5847,10 @@
         <v>378</v>
       </c>
       <c r="B377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C377">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -5885,10 +5858,10 @@
         <v>379</v>
       </c>
       <c r="B378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C378">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -5896,10 +5869,10 @@
         <v>380</v>
       </c>
       <c r="B379">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C379">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -5907,10 +5880,10 @@
         <v>381</v>
       </c>
       <c r="B380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -5918,7 +5891,7 @@
         <v>382</v>
       </c>
       <c r="B381">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C381">
         <v>55</v>
@@ -5929,10 +5902,10 @@
         <v>383</v>
       </c>
       <c r="B382">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C382">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -5943,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="C383">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -5951,10 +5924,10 @@
         <v>385</v>
       </c>
       <c r="B384">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C384">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -5965,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="C385">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -5973,10 +5946,10 @@
         <v>387</v>
       </c>
       <c r="B386">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C386">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -5984,10 +5957,10 @@
         <v>388</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C387">
-        <v>85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -5995,10 +5968,10 @@
         <v>389</v>
       </c>
       <c r="B388">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C388">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6006,10 +5979,10 @@
         <v>390</v>
       </c>
       <c r="B389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C389">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6017,7 +5990,7 @@
         <v>391</v>
       </c>
       <c r="B390">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="C390">
         <v>55</v>
@@ -6028,10 +6001,10 @@
         <v>392</v>
       </c>
       <c r="B391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C391">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6039,10 +6012,10 @@
         <v>393</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C392">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6050,10 +6023,10 @@
         <v>394</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C393">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6064,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="C394">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6075,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="C395">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6086,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="C396">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6094,10 +6067,10 @@
         <v>398</v>
       </c>
       <c r="B397">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C397">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6105,10 +6078,10 @@
         <v>399</v>
       </c>
       <c r="B398">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C398">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6116,10 +6089,10 @@
         <v>400</v>
       </c>
       <c r="B399">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C399">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6127,10 +6100,10 @@
         <v>401</v>
       </c>
       <c r="B400">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C400">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6138,10 +6111,10 @@
         <v>402</v>
       </c>
       <c r="B401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6149,10 +6122,10 @@
         <v>403</v>
       </c>
       <c r="B402">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="C402">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6160,10 +6133,10 @@
         <v>404</v>
       </c>
       <c r="B403">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C403">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6171,10 +6144,10 @@
         <v>405</v>
       </c>
       <c r="B404">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C404">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6182,10 +6155,10 @@
         <v>406</v>
       </c>
       <c r="B405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C405">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6207,7 +6180,7 @@
         <v>1</v>
       </c>
       <c r="C407">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6215,10 +6188,10 @@
         <v>409</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C408">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6226,10 +6199,10 @@
         <v>410</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C409">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6237,10 +6210,10 @@
         <v>411</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C410">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6248,10 +6221,10 @@
         <v>412</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C411">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6259,10 +6232,10 @@
         <v>413</v>
       </c>
       <c r="B412">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C412">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6270,10 +6243,10 @@
         <v>414</v>
       </c>
       <c r="B413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C413">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6281,10 +6254,10 @@
         <v>415</v>
       </c>
       <c r="B414">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C414">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6292,7 +6265,7 @@
         <v>416</v>
       </c>
       <c r="B415">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="C415">
         <v>55</v>
@@ -6303,10 +6276,10 @@
         <v>417</v>
       </c>
       <c r="B416">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="C416">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -6317,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="C417">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -6328,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="C418">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6336,10 +6309,10 @@
         <v>420</v>
       </c>
       <c r="B419">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C419">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -6347,10 +6320,10 @@
         <v>421</v>
       </c>
       <c r="B420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C420">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -6358,10 +6331,10 @@
         <v>422</v>
       </c>
       <c r="B421">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C421">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -6369,10 +6342,10 @@
         <v>423</v>
       </c>
       <c r="B422">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C422">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -6380,10 +6353,10 @@
         <v>424</v>
       </c>
       <c r="B423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C423">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -6391,10 +6364,10 @@
         <v>425</v>
       </c>
       <c r="B424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C424">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -6402,10 +6375,10 @@
         <v>426</v>
       </c>
       <c r="B425">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C425">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -6413,10 +6386,10 @@
         <v>427</v>
       </c>
       <c r="B426">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="C426">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -6424,10 +6397,10 @@
         <v>428</v>
       </c>
       <c r="B427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C427">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -6435,10 +6408,10 @@
         <v>429</v>
       </c>
       <c r="B428">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C428">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -6449,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="C429">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -6457,10 +6430,10 @@
         <v>431</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C430">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -6468,10 +6441,10 @@
         <v>432</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C431">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -6479,10 +6452,10 @@
         <v>433</v>
       </c>
       <c r="B432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C432">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -6490,10 +6463,10 @@
         <v>434</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -6501,10 +6474,10 @@
         <v>435</v>
       </c>
       <c r="B434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C434">
-        <v>85</v>
+        <v>15</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -6512,10 +6485,10 @@
         <v>436</v>
       </c>
       <c r="B435">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C435">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -6523,10 +6496,10 @@
         <v>437</v>
       </c>
       <c r="B436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C436">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -6534,10 +6507,10 @@
         <v>438</v>
       </c>
       <c r="B437">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C437">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -6545,10 +6518,10 @@
         <v>439</v>
       </c>
       <c r="B438">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C438">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -6559,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="C439">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -6570,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="C440">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -6581,106 +6554,7 @@
         <v>0</v>
       </c>
       <c r="C441">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3">
-      <c r="A442" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B442">
-        <v>0</v>
-      </c>
-      <c r="C442">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3">
-      <c r="A443" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B443">
-        <v>0</v>
-      </c>
-      <c r="C443">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3">
-      <c r="A444" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B444">
-        <v>0</v>
-      </c>
-      <c r="C444">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3">
-      <c r="A445" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B445">
-        <v>0.45</v>
-      </c>
-      <c r="C445">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3">
-      <c r="A446" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B446">
-        <v>0</v>
-      </c>
-      <c r="C446">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3">
-      <c r="A447" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B447">
-        <v>0</v>
-      </c>
-      <c r="C447">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3">
-      <c r="A448" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B448">
-        <v>0</v>
-      </c>
-      <c r="C448">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3">
-      <c r="A449" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B449">
-        <v>0</v>
-      </c>
-      <c r="C449">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3">
-      <c r="A450" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B450">
-        <v>0.4</v>
-      </c>
-      <c r="C450">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/mid_outputs/match_probable_players.xlsx
+++ b/mid_outputs/match_probable_players.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="452">
   <si>
     <t>starter</t>
   </si>
@@ -25,6 +25,741 @@
     <t>player</t>
   </si>
   <si>
+    <t>Carnesecchi</t>
+  </si>
+  <si>
+    <t>Bianchetti</t>
+  </si>
+  <si>
+    <t>Chiriches</t>
+  </si>
+  <si>
+    <t>Vasquez</t>
+  </si>
+  <si>
+    <t>Sernicola</t>
+  </si>
+  <si>
+    <t>Meite'</t>
+  </si>
+  <si>
+    <t>Castagnetti</t>
+  </si>
+  <si>
+    <t>Pickel</t>
+  </si>
+  <si>
+    <t>Valeri</t>
+  </si>
+  <si>
+    <t>Dessers</t>
+  </si>
+  <si>
+    <t>Okereke</t>
+  </si>
+  <si>
+    <t>Sarr M.</t>
+  </si>
+  <si>
+    <t>Saro</t>
+  </si>
+  <si>
+    <t>Ghiglione</t>
+  </si>
+  <si>
+    <t>Aiwu</t>
+  </si>
+  <si>
+    <t>Ferrari A.</t>
+  </si>
+  <si>
+    <t>Benassi</t>
+  </si>
+  <si>
+    <t>Galdames</t>
+  </si>
+  <si>
+    <t>Tsadjout</t>
+  </si>
+  <si>
+    <t>Ciofani D.</t>
+  </si>
+  <si>
+    <t>Afena-Gyan</t>
+  </si>
+  <si>
+    <t>Falcone</t>
+  </si>
+  <si>
+    <t>Gendrey</t>
+  </si>
+  <si>
+    <t>Baschirotto</t>
+  </si>
+  <si>
+    <t>Umtiti</t>
+  </si>
+  <si>
+    <t>Pezzella Giu.</t>
+  </si>
+  <si>
+    <t>Gonzalez J.</t>
+  </si>
+  <si>
+    <t>Hjulmand</t>
+  </si>
+  <si>
+    <t>Blin</t>
+  </si>
+  <si>
+    <t>Strefezza</t>
+  </si>
+  <si>
+    <t>Colombo</t>
+  </si>
+  <si>
+    <t>Di Francesco F.</t>
+  </si>
+  <si>
+    <t>Bleve</t>
+  </si>
+  <si>
+    <t>Brancolini</t>
+  </si>
+  <si>
+    <t>Gallo</t>
+  </si>
+  <si>
+    <t>Cassandro</t>
+  </si>
+  <si>
+    <t>Tuia</t>
+  </si>
+  <si>
+    <t>Ceccaroni</t>
+  </si>
+  <si>
+    <t>Romagnoli S.</t>
+  </si>
+  <si>
+    <t>Askildsen</t>
+  </si>
+  <si>
+    <t>Oudin</t>
+  </si>
+  <si>
+    <t>Helgason</t>
+  </si>
+  <si>
+    <t>Banda</t>
+  </si>
+  <si>
+    <t>Voelkerling Persson</t>
+  </si>
+  <si>
+    <t>Rui Patricio</t>
+  </si>
+  <si>
+    <t>Mancini</t>
+  </si>
+  <si>
+    <t>Smalling</t>
+  </si>
+  <si>
+    <t>Ibanez</t>
+  </si>
+  <si>
+    <t>Celik</t>
+  </si>
+  <si>
+    <t>Cristante</t>
+  </si>
+  <si>
+    <t>Matic</t>
+  </si>
+  <si>
+    <t>Zalewski</t>
+  </si>
+  <si>
+    <t>Pellegrini Lo.</t>
+  </si>
+  <si>
+    <t>Dybala</t>
+  </si>
+  <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Svilar</t>
+  </si>
+  <si>
+    <t>Boer</t>
+  </si>
+  <si>
+    <t>Kumbulla</t>
+  </si>
+  <si>
+    <t>Llorente D.</t>
+  </si>
+  <si>
+    <t>Volpato</t>
+  </si>
+  <si>
+    <t>El Shaarawy</t>
+  </si>
+  <si>
+    <t>Tahirovic</t>
+  </si>
+  <si>
+    <t>Wijnaldum</t>
+  </si>
+  <si>
+    <t>Bove</t>
+  </si>
+  <si>
+    <t>Camara Ma.</t>
+  </si>
+  <si>
+    <t>Solbakken</t>
+  </si>
+  <si>
+    <t>Belotti</t>
+  </si>
+  <si>
+    <t>Vicario</t>
+  </si>
+  <si>
+    <t>Ebuehi</t>
+  </si>
+  <si>
+    <t>De Winter</t>
+  </si>
+  <si>
+    <t>Luperto</t>
+  </si>
+  <si>
+    <t>Parisi</t>
+  </si>
+  <si>
+    <t>Akpa Akpro</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>Bandinelli</t>
+  </si>
+  <si>
+    <t>Baldanzi</t>
+  </si>
+  <si>
+    <t>Caputo</t>
+  </si>
+  <si>
+    <t>Satriano</t>
+  </si>
+  <si>
+    <t>Ujkani</t>
+  </si>
+  <si>
+    <t>Perisan</t>
+  </si>
+  <si>
+    <t>Stojanovic</t>
+  </si>
+  <si>
+    <t>Walukiewicz</t>
+  </si>
+  <si>
+    <t>Cacace</t>
+  </si>
+  <si>
+    <t>Henderson L.</t>
+  </si>
+  <si>
+    <t>Fazzini</t>
+  </si>
+  <si>
+    <t>Haas</t>
+  </si>
+  <si>
+    <t>Vignato</t>
+  </si>
+  <si>
+    <t>Cambiaghi</t>
+  </si>
+  <si>
+    <t>Piccoli</t>
+  </si>
+  <si>
+    <t>Pjaca</t>
+  </si>
+  <si>
+    <t>Consigli</t>
+  </si>
+  <si>
+    <t>Zortea</t>
+  </si>
+  <si>
+    <t>Erlic</t>
+  </si>
+  <si>
+    <t>Ferrari G.</t>
+  </si>
+  <si>
+    <t>Rogerio</t>
+  </si>
+  <si>
+    <t>Frattesi</t>
+  </si>
+  <si>
+    <t>Obiang</t>
+  </si>
+  <si>
+    <t>Bajrami</t>
+  </si>
+  <si>
+    <t>Berardi</t>
+  </si>
+  <si>
+    <t>Defrel</t>
+  </si>
+  <si>
+    <t>Lauriente'</t>
+  </si>
+  <si>
+    <t>Pegolo</t>
+  </si>
+  <si>
+    <t>Russo A.</t>
+  </si>
+  <si>
+    <t>Marchizza</t>
+  </si>
+  <si>
+    <t>Ruan</t>
+  </si>
+  <si>
+    <t>Matheus Henrique</t>
+  </si>
+  <si>
+    <t>Harroui</t>
+  </si>
+  <si>
+    <t>Ceide</t>
+  </si>
+  <si>
+    <t>Thorstvedt</t>
+  </si>
+  <si>
+    <t>Lopez M.</t>
+  </si>
+  <si>
+    <t>D'andrea</t>
+  </si>
+  <si>
+    <t>Alvarez A.</t>
+  </si>
+  <si>
+    <t>Musso</t>
+  </si>
+  <si>
+    <t>Toloi</t>
+  </si>
+  <si>
+    <t>Scalvini</t>
+  </si>
+  <si>
+    <t>Demiral</t>
+  </si>
+  <si>
+    <t>Hateboer</t>
+  </si>
+  <si>
+    <t>De Roon</t>
+  </si>
+  <si>
+    <t>Koopmeiners</t>
+  </si>
+  <si>
+    <t>Maehle</t>
+  </si>
+  <si>
+    <t>Boga</t>
+  </si>
+  <si>
+    <t>Lookman</t>
+  </si>
+  <si>
+    <t>Hojlund</t>
+  </si>
+  <si>
+    <t>Sportiello</t>
+  </si>
+  <si>
+    <t>Rossi F.</t>
+  </si>
+  <si>
+    <t>Okoli</t>
+  </si>
+  <si>
+    <t>Djimsiti</t>
+  </si>
+  <si>
+    <t>Ruggeri</t>
+  </si>
+  <si>
+    <t>Soppy</t>
+  </si>
+  <si>
+    <t>Ederson D.s.</t>
+  </si>
+  <si>
+    <t>Pasalic</t>
+  </si>
+  <si>
+    <t>Zapata D.</t>
+  </si>
+  <si>
+    <t>Muriel</t>
+  </si>
+  <si>
+    <t>Dragowski</t>
+  </si>
+  <si>
+    <t>Amian</t>
+  </si>
+  <si>
+    <t>Caldara</t>
+  </si>
+  <si>
+    <t>Nikolaou</t>
+  </si>
+  <si>
+    <t>Holm</t>
+  </si>
+  <si>
+    <t>Ampadu</t>
+  </si>
+  <si>
+    <t>Bourabia</t>
+  </si>
+  <si>
+    <t>Agudelo</t>
+  </si>
+  <si>
+    <t>Reca</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>Shomurodov</t>
+  </si>
+  <si>
+    <t>Marchetti</t>
+  </si>
+  <si>
+    <t>Zovko</t>
+  </si>
+  <si>
+    <t>Ferrer</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>Wisniewski</t>
+  </si>
+  <si>
+    <t>Cipot</t>
+  </si>
+  <si>
+    <t>Esposito Sa.</t>
+  </si>
+  <si>
+    <t>Beck J.</t>
+  </si>
+  <si>
+    <t>Maldini</t>
+  </si>
+  <si>
+    <t>Krollis</t>
+  </si>
+  <si>
+    <t>Meret</t>
+  </si>
+  <si>
+    <t>Di Lorenzo</t>
+  </si>
+  <si>
+    <t>Rrahmani</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Mario Rui</t>
+  </si>
+  <si>
+    <t>Zambo Anguissa</t>
+  </si>
+  <si>
+    <t>Lobotka</t>
+  </si>
+  <si>
+    <t>Zielinski</t>
+  </si>
+  <si>
+    <t>Lozano</t>
+  </si>
+  <si>
+    <t>Osimhen</t>
+  </si>
+  <si>
+    <t>Kvaratskhelia</t>
+  </si>
+  <si>
+    <t>Gollini</t>
+  </si>
+  <si>
+    <t>Bereszynski</t>
+  </si>
+  <si>
+    <t>Juan Jesus</t>
+  </si>
+  <si>
+    <t>Olivera</t>
+  </si>
+  <si>
+    <t>Ostigard</t>
+  </si>
+  <si>
+    <t>Demme</t>
+  </si>
+  <si>
+    <t>Ndombele'</t>
+  </si>
+  <si>
+    <t>Gaetano</t>
+  </si>
+  <si>
+    <t>Politano</t>
+  </si>
+  <si>
+    <t>Elmas</t>
+  </si>
+  <si>
+    <t>Simeone</t>
+  </si>
+  <si>
+    <t>Raspadori</t>
+  </si>
+  <si>
+    <t>Milinkovic-Savic V.</t>
+  </si>
+  <si>
+    <t>Buongiorno</t>
+  </si>
+  <si>
+    <t>Schuurs</t>
+  </si>
+  <si>
+    <t>Rodriguez R.</t>
+  </si>
+  <si>
+    <t>Singo</t>
+  </si>
+  <si>
+    <t>Ricci S.</t>
+  </si>
+  <si>
+    <t>Ilic</t>
+  </si>
+  <si>
+    <t>Vojvoda</t>
+  </si>
+  <si>
+    <t>Miranchuk</t>
+  </si>
+  <si>
+    <t>Vlasic</t>
+  </si>
+  <si>
+    <t>Sanabria</t>
+  </si>
+  <si>
+    <t>Gemello</t>
+  </si>
+  <si>
+    <t>Berisha</t>
+  </si>
+  <si>
+    <t>Adopo</t>
+  </si>
+  <si>
+    <t>Bayeye</t>
+  </si>
+  <si>
+    <t>Djidji</t>
+  </si>
+  <si>
+    <t>Gravillon</t>
+  </si>
+  <si>
+    <t>Aina</t>
+  </si>
+  <si>
+    <t>Linetty</t>
+  </si>
+  <si>
+    <t>Radonjic</t>
+  </si>
+  <si>
+    <t>Vieira</t>
+  </si>
+  <si>
+    <t>Seck</t>
+  </si>
+  <si>
+    <t>Karamoh</t>
+  </si>
+  <si>
+    <t>Silvestri</t>
+  </si>
+  <si>
+    <t>Rodrigo Becao</t>
+  </si>
+  <si>
+    <t>Bijol</t>
+  </si>
+  <si>
+    <t>Perez N.</t>
+  </si>
+  <si>
+    <t>Ehizibue</t>
+  </si>
+  <si>
+    <t>Samardzic</t>
+  </si>
+  <si>
+    <t>Walace</t>
+  </si>
+  <si>
+    <t>Arslan</t>
+  </si>
+  <si>
+    <t>Udogie</t>
+  </si>
+  <si>
+    <t>Beto</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Padelli</t>
+  </si>
+  <si>
+    <t>Ebosse</t>
+  </si>
+  <si>
+    <t>Buta</t>
+  </si>
+  <si>
+    <t>Ebosele</t>
+  </si>
+  <si>
+    <t>Guessand A.</t>
+  </si>
+  <si>
+    <t>Lovric</t>
+  </si>
+  <si>
+    <t>Pereyra</t>
+  </si>
+  <si>
+    <t>Pafundi</t>
+  </si>
+  <si>
+    <t>Vivaldo</t>
+  </si>
+  <si>
+    <t>Thauvin</t>
+  </si>
+  <si>
+    <t>Nestorovski</t>
+  </si>
+  <si>
+    <t>Terracciano</t>
+  </si>
+  <si>
+    <t>Dodo'</t>
+  </si>
+  <si>
+    <t>Milenkovic</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Biraghi</t>
+  </si>
+  <si>
+    <t>Amrabat</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Gonzalez N.</t>
+  </si>
+  <si>
+    <t>Bonaventura</t>
+  </si>
+  <si>
+    <t>Brekalo</t>
+  </si>
+  <si>
+    <t>Jovic</t>
+  </si>
+  <si>
+    <t>Sirigu</t>
+  </si>
+  <si>
+    <t>Cerofolini</t>
+  </si>
+  <si>
+    <t>Venuti</t>
+  </si>
+  <si>
+    <t>Martinez Quarta</t>
+  </si>
+  <si>
+    <t>Terzic</t>
+  </si>
+  <si>
+    <t>Ranieri L.</t>
+  </si>
+  <si>
+    <t>Barak</t>
+  </si>
+  <si>
+    <t>Mandragora</t>
+  </si>
+  <si>
+    <t>Saponara</t>
+  </si>
+  <si>
+    <t>Ikone'</t>
+  </si>
+  <si>
+    <t>Cabral</t>
+  </si>
+  <si>
+    <t>Kouame'</t>
+  </si>
+  <si>
     <t>Skorupski</t>
   </si>
   <si>
@@ -40,240 +775,519 @@
     <t>Cambiaso</t>
   </si>
   <si>
+    <t>Dominguez</t>
+  </si>
+  <si>
+    <t>Schouten</t>
+  </si>
+  <si>
+    <t>Orsolini</t>
+  </si>
+  <si>
+    <t>Ferguson</t>
+  </si>
+  <si>
+    <t>Soriano</t>
+  </si>
+  <si>
+    <t>Zirkzee</t>
+  </si>
+  <si>
+    <t>Bardi</t>
+  </si>
+  <si>
+    <t>Ravaglia F.</t>
+  </si>
+  <si>
+    <t>Sosa</t>
+  </si>
+  <si>
+    <t>Lykogiannis</t>
+  </si>
+  <si>
+    <t>Amey</t>
+  </si>
+  <si>
+    <t>Kyriakopoulos</t>
+  </si>
+  <si>
     <t>Moro N.</t>
   </si>
   <si>
-    <t>Schouten</t>
-  </si>
-  <si>
-    <t>Orsolini</t>
-  </si>
-  <si>
-    <t>Ferguson</t>
-  </si>
-  <si>
-    <t>Soriano</t>
-  </si>
-  <si>
-    <t>Zirkzee</t>
-  </si>
-  <si>
-    <t>Bardi</t>
-  </si>
-  <si>
-    <t>Ravaglia F.</t>
-  </si>
-  <si>
-    <t>Sosa</t>
-  </si>
-  <si>
-    <t>Lykogiannis</t>
-  </si>
-  <si>
-    <t>Amey</t>
-  </si>
-  <si>
-    <t>Dominguez</t>
-  </si>
-  <si>
     <t>Pyyhtia</t>
   </si>
   <si>
     <t>Aebischer</t>
   </si>
   <si>
-    <t>Vignato</t>
-  </si>
-  <si>
     <t>Barrow</t>
   </si>
   <si>
-    <t>Dragowski</t>
-  </si>
-  <si>
-    <t>Amian</t>
-  </si>
-  <si>
-    <t>Caldara</t>
-  </si>
-  <si>
-    <t>Nikolaou</t>
-  </si>
-  <si>
-    <t>Holm</t>
-  </si>
-  <si>
-    <t>Ampadu</t>
-  </si>
-  <si>
-    <t>Bourabia</t>
-  </si>
-  <si>
-    <t>Kovalenko</t>
-  </si>
-  <si>
-    <t>Reca</t>
-  </si>
-  <si>
-    <t>Agudelo</t>
-  </si>
-  <si>
-    <t>Gyasi</t>
-  </si>
-  <si>
-    <t>Marchetti</t>
-  </si>
-  <si>
-    <t>Zovko</t>
-  </si>
-  <si>
-    <t>Moutinho J.</t>
-  </si>
-  <si>
-    <t>Ferrer</t>
-  </si>
-  <si>
-    <t>Sala</t>
-  </si>
-  <si>
-    <t>Wisniewski</t>
-  </si>
-  <si>
-    <t>Cipot</t>
-  </si>
-  <si>
-    <t>Esposito Sa.</t>
-  </si>
-  <si>
-    <t>Beck J.</t>
-  </si>
-  <si>
-    <t>Maldini</t>
-  </si>
-  <si>
-    <t>Verde</t>
-  </si>
-  <si>
-    <t>Strelec</t>
-  </si>
-  <si>
-    <t>Falcone</t>
-  </si>
-  <si>
-    <t>Gendrey</t>
-  </si>
-  <si>
-    <t>Baschirotto</t>
-  </si>
-  <si>
-    <t>Umtiti</t>
-  </si>
-  <si>
-    <t>Pezzella Giu.</t>
-  </si>
-  <si>
-    <t>Gonzalez J.</t>
-  </si>
-  <si>
-    <t>Hjulmand</t>
-  </si>
-  <si>
-    <t>Blin</t>
-  </si>
-  <si>
-    <t>Strefezza</t>
-  </si>
-  <si>
-    <t>Colombo</t>
-  </si>
-  <si>
-    <t>Banda</t>
-  </si>
-  <si>
-    <t>Bleve</t>
-  </si>
-  <si>
-    <t>Brancolini</t>
-  </si>
-  <si>
-    <t>Gallo</t>
-  </si>
-  <si>
-    <t>Cassandro</t>
-  </si>
-  <si>
-    <t>Tuia</t>
-  </si>
-  <si>
-    <t>Askildsen</t>
-  </si>
-  <si>
-    <t>Oudin</t>
-  </si>
-  <si>
-    <t>Maleh</t>
-  </si>
-  <si>
-    <t>Helgason</t>
-  </si>
-  <si>
-    <t>Voelkerling Persson</t>
-  </si>
-  <si>
-    <t>Ceesay</t>
-  </si>
-  <si>
-    <t>Di Francesco F.</t>
+    <t>Onana</t>
+  </si>
+  <si>
+    <t>Skriniar</t>
+  </si>
+  <si>
+    <t>Acerbi</t>
+  </si>
+  <si>
+    <t>Bastoni</t>
+  </si>
+  <si>
+    <t>Dumfries</t>
+  </si>
+  <si>
+    <t>Barella</t>
+  </si>
+  <si>
+    <t>Brozovic</t>
+  </si>
+  <si>
+    <t>Calhanoglu</t>
+  </si>
+  <si>
+    <t>Dimarco</t>
+  </si>
+  <si>
+    <t>Dzeko</t>
+  </si>
+  <si>
+    <t>Martinez L.</t>
+  </si>
+  <si>
+    <t>Handanovic</t>
+  </si>
+  <si>
+    <t>Cordaz</t>
+  </si>
+  <si>
+    <t>Bellanova</t>
+  </si>
+  <si>
+    <t>De Vrij</t>
+  </si>
+  <si>
+    <t>Gosens</t>
+  </si>
+  <si>
+    <t>D'ambrosio</t>
+  </si>
+  <si>
+    <t>Darmian</t>
+  </si>
+  <si>
+    <t>Mkhitaryan</t>
+  </si>
+  <si>
+    <t>Asllani</t>
+  </si>
+  <si>
+    <t>Gagliardini</t>
+  </si>
+  <si>
+    <t>Correa</t>
+  </si>
+  <si>
+    <t>Lukaku</t>
+  </si>
+  <si>
+    <t>Tatarusanu</t>
+  </si>
+  <si>
+    <t>Calabria</t>
+  </si>
+  <si>
+    <t>Kjaer</t>
+  </si>
+  <si>
+    <t>Kalulu</t>
+  </si>
+  <si>
+    <t>Hernandez T.</t>
+  </si>
+  <si>
+    <t>Krunic</t>
+  </si>
+  <si>
+    <t>Tonali</t>
+  </si>
+  <si>
+    <t>Saelemaekers</t>
+  </si>
+  <si>
+    <t>De Ketelaere</t>
+  </si>
+  <si>
+    <t>Rafael Leao</t>
+  </si>
+  <si>
+    <t>Giroud</t>
+  </si>
+  <si>
+    <t>Mirante</t>
+  </si>
+  <si>
+    <t>Gabbia</t>
+  </si>
+  <si>
+    <t>Thiaw</t>
+  </si>
+  <si>
+    <t>Ballo-Toure'</t>
+  </si>
+  <si>
+    <t>Dest</t>
+  </si>
+  <si>
+    <t>Vranckx</t>
+  </si>
+  <si>
+    <t>Messias</t>
+  </si>
+  <si>
+    <t>Pobega</t>
+  </si>
+  <si>
+    <t>Adli</t>
+  </si>
+  <si>
+    <t>Diaz B.</t>
+  </si>
+  <si>
+    <t>Origi</t>
+  </si>
+  <si>
+    <t>Rebic</t>
+  </si>
+  <si>
+    <t>Montipo'</t>
+  </si>
+  <si>
+    <t>Dawidowicz</t>
+  </si>
+  <si>
+    <t>Hien</t>
+  </si>
+  <si>
+    <t>Ceccherini</t>
+  </si>
+  <si>
+    <t>Depaoli</t>
+  </si>
+  <si>
+    <t>Lazovic</t>
+  </si>
+  <si>
+    <t>Tameze</t>
+  </si>
+  <si>
+    <t>Doig</t>
+  </si>
+  <si>
+    <t>Duda</t>
+  </si>
+  <si>
+    <t>Lasagna</t>
+  </si>
+  <si>
+    <t>Djuric</t>
+  </si>
+  <si>
+    <t>Berardi A.</t>
+  </si>
+  <si>
+    <t>Magnani</t>
+  </si>
+  <si>
+    <t>Coppola D.</t>
+  </si>
+  <si>
+    <t>Zeefuik</t>
+  </si>
+  <si>
+    <t>Terracciano F.</t>
+  </si>
+  <si>
+    <t>Sulemana I.</t>
+  </si>
+  <si>
+    <t>Abildgaard</t>
+  </si>
+  <si>
+    <t>Verdi</t>
+  </si>
+  <si>
+    <t>Kallon</t>
+  </si>
+  <si>
+    <t>Braaf</t>
+  </si>
+  <si>
+    <t>Gaich</t>
+  </si>
+  <si>
+    <t>Ngonge</t>
+  </si>
+  <si>
+    <t>Provedel</t>
+  </si>
+  <si>
+    <t>Lazzari</t>
+  </si>
+  <si>
+    <t>Casale</t>
+  </si>
+  <si>
+    <t>Romagnoli</t>
+  </si>
+  <si>
+    <t>Marusic</t>
+  </si>
+  <si>
+    <t>Milinkovic-Savic</t>
+  </si>
+  <si>
+    <t>Cataldi</t>
+  </si>
+  <si>
+    <t>Luis Alberto</t>
+  </si>
+  <si>
+    <t>Felipe Anderson</t>
+  </si>
+  <si>
+    <t>Immobile</t>
+  </si>
+  <si>
+    <t>Zaccagni</t>
+  </si>
+  <si>
+    <t>Luis Maximiano</t>
+  </si>
+  <si>
+    <t>Adamonis</t>
+  </si>
+  <si>
+    <t>Hysaj</t>
+  </si>
+  <si>
+    <t>Pellegrini Lu.</t>
+  </si>
+  <si>
+    <t>Gila</t>
+  </si>
+  <si>
+    <t>Patric</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Marcos Antonio</t>
+  </si>
+  <si>
+    <t>Romero L.</t>
+  </si>
+  <si>
+    <t>Vecino</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Cancellieri</t>
+  </si>
+  <si>
+    <t>Di Gregorio</t>
+  </si>
+  <si>
+    <t>Marlon</t>
+  </si>
+  <si>
+    <t>Mari'</t>
+  </si>
+  <si>
+    <t>Izzo</t>
+  </si>
+  <si>
+    <t>Birindelli</t>
+  </si>
+  <si>
+    <t>Pessina</t>
+  </si>
+  <si>
+    <t>Rovella</t>
+  </si>
+  <si>
+    <t>Carlos Augusto</t>
+  </si>
+  <si>
+    <t>Ciurria</t>
+  </si>
+  <si>
+    <t>Caprari</t>
+  </si>
+  <si>
+    <t>Petagna</t>
+  </si>
+  <si>
+    <t>Cragno</t>
+  </si>
+  <si>
+    <t>Caldirola</t>
+  </si>
+  <si>
+    <t>Donati</t>
+  </si>
+  <si>
+    <t>Antov</t>
+  </si>
+  <si>
+    <t>Carboni F.</t>
+  </si>
+  <si>
+    <t>D'alessandro</t>
+  </si>
+  <si>
+    <t>Colpani</t>
+  </si>
+  <si>
+    <t>Machin</t>
+  </si>
+  <si>
+    <t>Ranocchia F.</t>
+  </si>
+  <si>
+    <t>Valoti</t>
+  </si>
+  <si>
+    <t>Gytkjaer</t>
+  </si>
+  <si>
+    <t>Mota</t>
+  </si>
+  <si>
+    <t>Audero</t>
+  </si>
+  <si>
+    <t>Gunter</t>
+  </si>
+  <si>
+    <t>Colley</t>
+  </si>
+  <si>
+    <t>Nuytinck</t>
+  </si>
+  <si>
+    <t>Leris</t>
+  </si>
+  <si>
+    <t>Winks</t>
+  </si>
+  <si>
+    <t>Rincon</t>
+  </si>
+  <si>
+    <t>Augello</t>
+  </si>
+  <si>
+    <t>Djuricic</t>
+  </si>
+  <si>
+    <t>Gabbiadini</t>
+  </si>
+  <si>
+    <t>Lammers</t>
+  </si>
+  <si>
+    <t>Ravaglia</t>
+  </si>
+  <si>
+    <t>Turk</t>
+  </si>
+  <si>
+    <t>Zanoli</t>
+  </si>
+  <si>
+    <t>Amione</t>
+  </si>
+  <si>
+    <t>Murru</t>
+  </si>
+  <si>
+    <t>Murillo</t>
+  </si>
+  <si>
+    <t>Malagrida</t>
+  </si>
+  <si>
+    <t>Cuisance</t>
+  </si>
+  <si>
+    <t>Ilkhan</t>
+  </si>
+  <si>
+    <t>Paoletti</t>
+  </si>
+  <si>
+    <t>Pussetto</t>
+  </si>
+  <si>
+    <t>Quagliarella</t>
   </si>
   <si>
     <t>Ochoa</t>
   </si>
   <si>
+    <t>Sambia</t>
+  </si>
+  <si>
+    <t>Troost-Ekong</t>
+  </si>
+  <si>
+    <t>Bronn</t>
+  </si>
+  <si>
+    <t>Bradaric</t>
+  </si>
+  <si>
+    <t>Coulibaly L.</t>
+  </si>
+  <si>
+    <t>Nicolussi Caviglia</t>
+  </si>
+  <si>
+    <t>Vilhena</t>
+  </si>
+  <si>
+    <t>Candreva</t>
+  </si>
+  <si>
+    <t>Piatek</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Sepe</t>
+  </si>
+  <si>
+    <t>Fiorillo</t>
+  </si>
+  <si>
     <t>Lovato</t>
   </si>
   <si>
-    <t>Troost-Ekong</t>
-  </si>
-  <si>
     <t>Daniliuc</t>
   </si>
   <si>
-    <t>Candreva</t>
-  </si>
-  <si>
-    <t>Coulibaly L.</t>
-  </si>
-  <si>
-    <t>Nicolussi Caviglia</t>
-  </si>
-  <si>
-    <t>Vilhena</t>
-  </si>
-  <si>
-    <t>Bradaric</t>
-  </si>
-  <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>Piatek</t>
-  </si>
-  <si>
-    <t>Sepe</t>
-  </si>
-  <si>
-    <t>Fiorillo</t>
-  </si>
-  <si>
-    <t>Sambia</t>
-  </si>
-  <si>
-    <t>Bronn</t>
-  </si>
-  <si>
     <t>Radovanovic</t>
   </si>
   <si>
+    <t>Gyomber</t>
+  </si>
+  <si>
     <t>Pirola</t>
   </si>
   <si>
@@ -286,1063 +1300,76 @@
     <t>Bohinen</t>
   </si>
   <si>
-    <t>Valencia D.</t>
-  </si>
-  <si>
     <t>Bonazzoli</t>
   </si>
   <si>
     <t>Botheim</t>
   </si>
   <si>
-    <t>Vicario</t>
-  </si>
-  <si>
-    <t>Ebuehi</t>
-  </si>
-  <si>
-    <t>De Winter</t>
-  </si>
-  <si>
-    <t>Luperto</t>
-  </si>
-  <si>
-    <t>Cacace</t>
-  </si>
-  <si>
-    <t>Haas</t>
-  </si>
-  <si>
-    <t>Marin</t>
-  </si>
-  <si>
-    <t>Bandinelli</t>
-  </si>
-  <si>
-    <t>Baldanzi</t>
-  </si>
-  <si>
-    <t>Caputo</t>
-  </si>
-  <si>
-    <t>Satriano</t>
-  </si>
-  <si>
-    <t>Ujkani</t>
-  </si>
-  <si>
-    <t>Perisan</t>
-  </si>
-  <si>
-    <t>Stojanovic</t>
-  </si>
-  <si>
-    <t>Walukiewicz</t>
-  </si>
-  <si>
-    <t>Guarino</t>
-  </si>
-  <si>
-    <t>Fazzini</t>
-  </si>
-  <si>
-    <t>Akpa Akpro</t>
-  </si>
-  <si>
-    <t>Degli Innocenti</t>
-  </si>
-  <si>
-    <t>Bajrami</t>
-  </si>
-  <si>
-    <t>Cambiaghi</t>
-  </si>
-  <si>
-    <t>Pjaca</t>
-  </si>
-  <si>
-    <t>Milinkovic-Savic V.</t>
-  </si>
-  <si>
-    <t>Buongiorno</t>
-  </si>
-  <si>
-    <t>Schuurs</t>
-  </si>
-  <si>
-    <t>Rodriguez R.</t>
-  </si>
-  <si>
-    <t>Singo</t>
-  </si>
-  <si>
-    <t>Ricci S.</t>
-  </si>
-  <si>
-    <t>Linetty</t>
-  </si>
-  <si>
-    <t>Vojvoda</t>
-  </si>
-  <si>
-    <t>Miranchuk</t>
-  </si>
-  <si>
-    <t>Vlasic</t>
-  </si>
-  <si>
-    <t>Sanabria</t>
-  </si>
-  <si>
-    <t>Gemello</t>
-  </si>
-  <si>
-    <t>Berisha</t>
-  </si>
-  <si>
-    <t>Adopo</t>
-  </si>
-  <si>
-    <t>Bayeye</t>
-  </si>
-  <si>
-    <t>Aina</t>
-  </si>
-  <si>
-    <t>Lukic</t>
-  </si>
-  <si>
-    <t>Radonjic</t>
-  </si>
-  <si>
-    <t>Seck</t>
-  </si>
-  <si>
-    <t>Karamoh</t>
-  </si>
-  <si>
-    <t>Carnesecchi</t>
-  </si>
-  <si>
-    <t>Ferrari A.</t>
-  </si>
-  <si>
-    <t>Chiriches</t>
-  </si>
-  <si>
-    <t>Vasquez</t>
-  </si>
-  <si>
-    <t>Sernicola</t>
-  </si>
-  <si>
-    <t>Meite'</t>
-  </si>
-  <si>
-    <t>Castagnetti</t>
-  </si>
-  <si>
-    <t>Benassi</t>
-  </si>
-  <si>
-    <t>Valeri</t>
-  </si>
-  <si>
-    <t>Dessers</t>
-  </si>
-  <si>
-    <t>Okereke</t>
-  </si>
-  <si>
-    <t>Sarr M.</t>
-  </si>
-  <si>
-    <t>Saro</t>
-  </si>
-  <si>
-    <t>Ghiglione</t>
-  </si>
-  <si>
-    <t>Aiwu</t>
-  </si>
-  <si>
-    <t>Bianchetti</t>
-  </si>
-  <si>
-    <t>Milanese</t>
-  </si>
-  <si>
-    <t>Zanimacchia</t>
-  </si>
-  <si>
-    <t>Buonaiuto</t>
-  </si>
-  <si>
-    <t>Tsadjout</t>
-  </si>
-  <si>
-    <t>Ciofani D.</t>
-  </si>
-  <si>
-    <t>Afena-Gyan</t>
-  </si>
-  <si>
-    <t>Onana</t>
-  </si>
-  <si>
-    <t>Darmian</t>
-  </si>
-  <si>
-    <t>Acerbi</t>
-  </si>
-  <si>
-    <t>Bastoni</t>
-  </si>
-  <si>
-    <t>Dumfries</t>
-  </si>
-  <si>
-    <t>Asllani</t>
-  </si>
-  <si>
-    <t>Calhanoglu</t>
-  </si>
-  <si>
-    <t>Mkhitaryan</t>
-  </si>
-  <si>
-    <t>Dimarco</t>
-  </si>
-  <si>
-    <t>Dzeko</t>
-  </si>
-  <si>
-    <t>Martinez L.</t>
-  </si>
-  <si>
-    <t>Handanovic</t>
-  </si>
-  <si>
-    <t>Cordaz</t>
-  </si>
-  <si>
-    <t>Bellanova</t>
-  </si>
-  <si>
-    <t>De Vrij</t>
-  </si>
-  <si>
-    <t>Gosens</t>
-  </si>
-  <si>
-    <t>D'ambrosio</t>
-  </si>
-  <si>
-    <t>Gagliardini</t>
-  </si>
-  <si>
-    <t>Correa</t>
-  </si>
-  <si>
-    <t>Lukaku</t>
-  </si>
-  <si>
-    <t>Musso</t>
-  </si>
-  <si>
-    <t>Toloi</t>
-  </si>
-  <si>
-    <t>Scalvini</t>
-  </si>
-  <si>
-    <t>Demiral</t>
-  </si>
-  <si>
-    <t>Hateboer</t>
-  </si>
-  <si>
-    <t>De Roon</t>
-  </si>
-  <si>
-    <t>Koopmeiners</t>
-  </si>
-  <si>
-    <t>Maehle</t>
-  </si>
-  <si>
-    <t>Boga</t>
-  </si>
-  <si>
-    <t>Lookman</t>
-  </si>
-  <si>
-    <t>Hojlund</t>
-  </si>
-  <si>
-    <t>Sportiello</t>
-  </si>
-  <si>
-    <t>Rossi F.</t>
-  </si>
-  <si>
-    <t>Okoli</t>
-  </si>
-  <si>
-    <t>Djimsiti</t>
-  </si>
-  <si>
-    <t>Ruggeri</t>
-  </si>
-  <si>
-    <t>Soppy</t>
-  </si>
-  <si>
-    <t>Zortea</t>
-  </si>
-  <si>
-    <t>Ederson D.s.</t>
-  </si>
-  <si>
-    <t>Pasalic</t>
-  </si>
-  <si>
-    <t>Zapata D.</t>
-  </si>
-  <si>
-    <t>Muriel</t>
-  </si>
-  <si>
-    <t>Audero</t>
-  </si>
-  <si>
-    <t>Amione</t>
-  </si>
-  <si>
-    <t>Murillo</t>
-  </si>
-  <si>
-    <t>Nuytinck</t>
-  </si>
-  <si>
-    <t>Leris</t>
-  </si>
-  <si>
-    <t>Winks</t>
-  </si>
-  <si>
-    <t>Rincon</t>
-  </si>
-  <si>
-    <t>Augello</t>
-  </si>
-  <si>
-    <t>Djuricic</t>
-  </si>
-  <si>
-    <t>Gabbiadini</t>
-  </si>
-  <si>
-    <t>Lammers</t>
-  </si>
-  <si>
-    <t>Ravaglia</t>
-  </si>
-  <si>
-    <t>Turk</t>
-  </si>
-  <si>
-    <t>Zanoli</t>
-  </si>
-  <si>
-    <t>Murru</t>
-  </si>
-  <si>
-    <t>Yepes</t>
-  </si>
-  <si>
-    <t>Paoletti</t>
-  </si>
-  <si>
-    <t>Vieira</t>
-  </si>
-  <si>
-    <t>Quagliarella</t>
-  </si>
-  <si>
-    <t>Tatarusanu</t>
-  </si>
-  <si>
-    <t>Calabria</t>
-  </si>
-  <si>
-    <t>Kjaer</t>
-  </si>
-  <si>
-    <t>Kalulu</t>
-  </si>
-  <si>
-    <t>Hernandez T.</t>
-  </si>
-  <si>
-    <t>Krunic</t>
-  </si>
-  <si>
-    <t>Tonali</t>
-  </si>
-  <si>
-    <t>Saelemaekers</t>
-  </si>
-  <si>
-    <t>De Ketelaere</t>
-  </si>
-  <si>
-    <t>Rafael Leao</t>
-  </si>
-  <si>
-    <t>Giroud</t>
-  </si>
-  <si>
-    <t>Mirante</t>
-  </si>
-  <si>
-    <t>Gabbia</t>
-  </si>
-  <si>
-    <t>Thiaw</t>
-  </si>
-  <si>
-    <t>Dest</t>
-  </si>
-  <si>
-    <t>Ballo-Toure'</t>
-  </si>
-  <si>
-    <t>Vranckx</t>
-  </si>
-  <si>
-    <t>Messias</t>
-  </si>
-  <si>
-    <t>Pobega</t>
-  </si>
-  <si>
-    <t>Adli</t>
-  </si>
-  <si>
-    <t>Diaz B.</t>
-  </si>
-  <si>
-    <t>Origi</t>
-  </si>
-  <si>
-    <t>Rebic</t>
-  </si>
-  <si>
-    <t>Pegolo</t>
-  </si>
-  <si>
-    <t>Toljan</t>
-  </si>
-  <si>
-    <t>Erlic</t>
-  </si>
-  <si>
-    <t>Ferrari G.</t>
-  </si>
-  <si>
-    <t>Rogerio</t>
-  </si>
-  <si>
-    <t>Frattesi</t>
-  </si>
-  <si>
-    <t>Lopez M.</t>
-  </si>
-  <si>
-    <t>Traore' Hj.</t>
-  </si>
-  <si>
-    <t>Berardi</t>
-  </si>
-  <si>
-    <t>Defrel</t>
-  </si>
-  <si>
-    <t>Lauriente'</t>
-  </si>
-  <si>
-    <t>Russo A.</t>
-  </si>
-  <si>
-    <t>Muldur</t>
-  </si>
-  <si>
-    <t>Ruan</t>
-  </si>
-  <si>
-    <t>Ayhan</t>
-  </si>
-  <si>
-    <t>Kyriakopoulos</t>
-  </si>
-  <si>
-    <t>Matheus Henrique</t>
-  </si>
-  <si>
-    <t>Harroui</t>
-  </si>
-  <si>
-    <t>Ceide</t>
-  </si>
-  <si>
-    <t>Obiang</t>
-  </si>
-  <si>
-    <t>D'andrea</t>
-  </si>
-  <si>
-    <t>Thorstvedt</t>
-  </si>
-  <si>
-    <t>Alvarez A.</t>
-  </si>
-  <si>
     <t>Szczesny</t>
   </si>
   <si>
+    <t>Danilo</t>
+  </si>
+  <si>
     <t>Bremer</t>
   </si>
   <si>
+    <t>Alex Sandro</t>
+  </si>
+  <si>
+    <t>Chiesa</t>
+  </si>
+  <si>
+    <t>Fagioli</t>
+  </si>
+  <si>
+    <t>Locatelli</t>
+  </si>
+  <si>
+    <t>Rabiot</t>
+  </si>
+  <si>
+    <t>Kostic</t>
+  </si>
+  <si>
+    <t>Vlahovic</t>
+  </si>
+  <si>
+    <t>Di Maria</t>
+  </si>
+  <si>
+    <t>Perin</t>
+  </si>
+  <si>
+    <t>Pinsoglio</t>
+  </si>
+  <si>
+    <t>Rugani</t>
+  </si>
+  <si>
+    <t>De Sciglio</t>
+  </si>
+  <si>
     <t>Gatti</t>
   </si>
   <si>
-    <t>Danilo</t>
-  </si>
-  <si>
-    <t>Mckennie</t>
-  </si>
-  <si>
-    <t>Fagioli</t>
-  </si>
-  <si>
     <t>Paredes</t>
   </si>
   <si>
-    <t>Rabiot</t>
-  </si>
-  <si>
-    <t>Kostic</t>
+    <t>Cuadrado</t>
+  </si>
+  <si>
+    <t>Pogba</t>
+  </si>
+  <si>
+    <t>Miretti</t>
+  </si>
+  <si>
+    <t>Soule'</t>
   </si>
   <si>
     <t>Kean</t>
-  </si>
-  <si>
-    <t>Di Maria</t>
-  </si>
-  <si>
-    <t>Perin</t>
-  </si>
-  <si>
-    <t>Pinsoglio</t>
-  </si>
-  <si>
-    <t>Rugani</t>
-  </si>
-  <si>
-    <t>Alex Sandro</t>
-  </si>
-  <si>
-    <t>Cuadrado</t>
-  </si>
-  <si>
-    <t>Chiesa</t>
-  </si>
-  <si>
-    <t>Locatelli</t>
-  </si>
-  <si>
-    <t>Pogba</t>
-  </si>
-  <si>
-    <t>Miretti</t>
-  </si>
-  <si>
-    <t>Milik</t>
-  </si>
-  <si>
-    <t>Soule'</t>
-  </si>
-  <si>
-    <t>Vlahovic</t>
-  </si>
-  <si>
-    <t>Di Gregorio</t>
-  </si>
-  <si>
-    <t>Marlon</t>
-  </si>
-  <si>
-    <t>Mari'</t>
-  </si>
-  <si>
-    <t>Izzo</t>
-  </si>
-  <si>
-    <t>Birindelli</t>
-  </si>
-  <si>
-    <t>Pessina</t>
-  </si>
-  <si>
-    <t>Rovella</t>
-  </si>
-  <si>
-    <t>Carlos Augusto</t>
-  </si>
-  <si>
-    <t>Ciurria</t>
-  </si>
-  <si>
-    <t>Caprari</t>
-  </si>
-  <si>
-    <t>Petagna</t>
-  </si>
-  <si>
-    <t>Cragno</t>
-  </si>
-  <si>
-    <t>Carboni</t>
-  </si>
-  <si>
-    <t>Caldirola</t>
-  </si>
-  <si>
-    <t>Carboni F.</t>
-  </si>
-  <si>
-    <t>D'alessandro</t>
-  </si>
-  <si>
-    <t>Colpani</t>
-  </si>
-  <si>
-    <t>Machin</t>
-  </si>
-  <si>
-    <t>Ranocchia F.</t>
-  </si>
-  <si>
-    <t>Valoti</t>
-  </si>
-  <si>
-    <t>Sensi</t>
-  </si>
-  <si>
-    <t>Gytkjaer</t>
-  </si>
-  <si>
-    <t>Mota</t>
-  </si>
-  <si>
-    <t>Provedel</t>
-  </si>
-  <si>
-    <t>Lazzari</t>
-  </si>
-  <si>
-    <t>Casale</t>
-  </si>
-  <si>
-    <t>Romagnoli</t>
-  </si>
-  <si>
-    <t>Marusic</t>
-  </si>
-  <si>
-    <t>Milinkovic-Savic</t>
-  </si>
-  <si>
-    <t>Cataldi</t>
-  </si>
-  <si>
-    <t>Luis Alberto</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Felipe Anderson</t>
-  </si>
-  <si>
-    <t>Zaccagni</t>
-  </si>
-  <si>
-    <t>Luis Maximiano</t>
-  </si>
-  <si>
-    <t>Adamonis</t>
-  </si>
-  <si>
-    <t>Hysaj</t>
-  </si>
-  <si>
-    <t>Patric</t>
-  </si>
-  <si>
-    <t>Fares</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>Marcos Antonio</t>
-  </si>
-  <si>
-    <t>Romero L.</t>
-  </si>
-  <si>
-    <t>Vecino</t>
-  </si>
-  <si>
-    <t>Cancellieri</t>
-  </si>
-  <si>
-    <t>Terracciano</t>
-  </si>
-  <si>
-    <t>Dodo'</t>
-  </si>
-  <si>
-    <t>Milenkovic</t>
-  </si>
-  <si>
-    <t>Igor</t>
-  </si>
-  <si>
-    <t>Biraghi</t>
-  </si>
-  <si>
-    <t>Amrabat</t>
-  </si>
-  <si>
-    <t>Duncan</t>
-  </si>
-  <si>
-    <t>Ikone'</t>
-  </si>
-  <si>
-    <t>Bonaventura</t>
-  </si>
-  <si>
-    <t>Gonzalez N.</t>
-  </si>
-  <si>
-    <t>Kouame'</t>
-  </si>
-  <si>
-    <t>Sirigu</t>
-  </si>
-  <si>
-    <t>Cerofolini</t>
-  </si>
-  <si>
-    <t>Venuti</t>
-  </si>
-  <si>
-    <t>Martinez Quarta</t>
-  </si>
-  <si>
-    <t>Terzic</t>
-  </si>
-  <si>
-    <t>Ranieri L.</t>
-  </si>
-  <si>
-    <t>Barak</t>
-  </si>
-  <si>
-    <t>Mandragora</t>
-  </si>
-  <si>
-    <t>Bianco</t>
-  </si>
-  <si>
-    <t>Saponara</t>
-  </si>
-  <si>
-    <t>Jovic</t>
-  </si>
-  <si>
-    <t>Meret</t>
-  </si>
-  <si>
-    <t>Di Lorenzo</t>
-  </si>
-  <si>
-    <t>Rrahmani</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Mario Rui</t>
-  </si>
-  <si>
-    <t>Zambo Anguissa</t>
-  </si>
-  <si>
-    <t>Lobotka</t>
-  </si>
-  <si>
-    <t>Zielinski</t>
-  </si>
-  <si>
-    <t>Elmas</t>
-  </si>
-  <si>
-    <t>Osimhen</t>
-  </si>
-  <si>
-    <t>Kvaratskhelia</t>
-  </si>
-  <si>
-    <t>Gollini</t>
-  </si>
-  <si>
-    <t>Bereszynski</t>
-  </si>
-  <si>
-    <t>Juan Jesus</t>
-  </si>
-  <si>
-    <t>Olivera</t>
-  </si>
-  <si>
-    <t>Ostigard</t>
-  </si>
-  <si>
-    <t>Demme</t>
-  </si>
-  <si>
-    <t>Ndombele'</t>
-  </si>
-  <si>
-    <t>Gaetano</t>
-  </si>
-  <si>
-    <t>Politano</t>
-  </si>
-  <si>
-    <t>Lozano</t>
-  </si>
-  <si>
-    <t>Simeone</t>
-  </si>
-  <si>
-    <t>Raspadori</t>
-  </si>
-  <si>
-    <t>Rui Patricio</t>
-  </si>
-  <si>
-    <t>Mancini</t>
-  </si>
-  <si>
-    <t>Smalling</t>
-  </si>
-  <si>
-    <t>Ibanez</t>
-  </si>
-  <si>
-    <t>Zalewski</t>
-  </si>
-  <si>
-    <t>Cristante</t>
-  </si>
-  <si>
-    <t>Matic</t>
-  </si>
-  <si>
-    <t>Spinazzola</t>
-  </si>
-  <si>
-    <t>Pellegrini Lo.</t>
-  </si>
-  <si>
-    <t>Dybala</t>
-  </si>
-  <si>
-    <t>Abraham</t>
-  </si>
-  <si>
-    <t>Svilar</t>
-  </si>
-  <si>
-    <t>Boer</t>
-  </si>
-  <si>
-    <t>Kumbulla</t>
-  </si>
-  <si>
-    <t>Volpato</t>
-  </si>
-  <si>
-    <t>El Shaarawy</t>
-  </si>
-  <si>
-    <t>Tahirovic</t>
-  </si>
-  <si>
-    <t>Bove</t>
-  </si>
-  <si>
-    <t>Camara Ma.</t>
-  </si>
-  <si>
-    <t>Solbakken</t>
-  </si>
-  <si>
-    <t>Belotti</t>
-  </si>
-  <si>
-    <t>Shomurodov</t>
-  </si>
-  <si>
-    <t>Silvestri</t>
-  </si>
-  <si>
-    <t>Rodrigo Becao</t>
-  </si>
-  <si>
-    <t>Bijol</t>
-  </si>
-  <si>
-    <t>Perez N.</t>
-  </si>
-  <si>
-    <t>Ehizibue</t>
-  </si>
-  <si>
-    <t>Samardzic</t>
-  </si>
-  <si>
-    <t>Walace</t>
-  </si>
-  <si>
-    <t>Arslan</t>
-  </si>
-  <si>
-    <t>Udogie</t>
-  </si>
-  <si>
-    <t>Beto</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Padelli</t>
-  </si>
-  <si>
-    <t>Ebosse</t>
-  </si>
-  <si>
-    <t>Buta</t>
-  </si>
-  <si>
-    <t>Ebosele</t>
-  </si>
-  <si>
-    <t>Guessand A.</t>
-  </si>
-  <si>
-    <t>Jajalo</t>
-  </si>
-  <si>
-    <t>Lovric</t>
-  </si>
-  <si>
-    <t>Makengo</t>
-  </si>
-  <si>
-    <t>Pereyra</t>
-  </si>
-  <si>
-    <t>Pafundi</t>
-  </si>
-  <si>
-    <t>Nestorovski</t>
-  </si>
-  <si>
-    <t>Montipo'</t>
-  </si>
-  <si>
-    <t>Ceccherini</t>
-  </si>
-  <si>
-    <t>Hien</t>
-  </si>
-  <si>
-    <t>Magnani</t>
-  </si>
-  <si>
-    <t>Depaoli</t>
-  </si>
-  <si>
-    <t>Sulemana I.</t>
-  </si>
-  <si>
-    <t>Tameze</t>
-  </si>
-  <si>
-    <t>Doig</t>
-  </si>
-  <si>
-    <t>Lazovic</t>
-  </si>
-  <si>
-    <t>Lasagna</t>
-  </si>
-  <si>
-    <t>Djuric</t>
-  </si>
-  <si>
-    <t>Berardi A.</t>
-  </si>
-  <si>
-    <t>Gunter</t>
-  </si>
-  <si>
-    <t>Coppola D.</t>
-  </si>
-  <si>
-    <t>Zeefuik</t>
-  </si>
-  <si>
-    <t>Cabal</t>
-  </si>
-  <si>
-    <t>Terracciano F.</t>
-  </si>
-  <si>
-    <t>Ilic</t>
-  </si>
-  <si>
-    <t>Verdi</t>
-  </si>
-  <si>
-    <t>Kallon</t>
-  </si>
-  <si>
-    <t>Piccoli</t>
-  </si>
-  <si>
-    <t>Ngonge</t>
-  </si>
-  <si>
-    <t>Braaf</t>
   </si>
 </sst>
 </file>
@@ -1700,7 +1727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C441"/>
+  <dimension ref="A1:C450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1725,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1733,10 +1760,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1747,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1758,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1769,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1780,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1791,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1802,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1813,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1821,10 +1848,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1835,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1879,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1887,10 +1914,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1923,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1931,10 +1958,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1956,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1967,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1978,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1989,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1997,10 +2024,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C27">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2011,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2022,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2033,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2044,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2055,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2063,10 +2090,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C33">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2096,10 +2123,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C36">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2110,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2121,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2132,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2143,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2154,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2165,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2176,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2184,10 +2211,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C44">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2198,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2220,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2242,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2250,10 +2277,10 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2264,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2272,10 +2299,10 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C52">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2286,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2297,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2305,10 +2332,10 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2316,10 +2343,10 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="C56">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2349,10 +2376,10 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2363,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2374,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2385,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2396,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2407,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2415,10 +2442,10 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C65">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2429,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2437,10 +2464,10 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2448,10 +2475,10 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="C68">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2462,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2470,10 +2497,10 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="C70">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2484,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2514,10 +2541,10 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C74">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2525,10 +2552,10 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2550,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2558,10 +2585,10 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2569,10 +2596,10 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C79">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2602,10 +2629,10 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C82">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2613,10 +2640,10 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2638,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2649,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2657,10 +2684,10 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C87">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2668,10 +2695,10 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2679,10 +2706,10 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C89">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2690,10 +2717,10 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2704,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2748,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2767,10 +2794,10 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2778,10 +2805,10 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C98">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2789,10 +2816,10 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C99">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2803,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="C100">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2814,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2822,10 +2849,10 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2855,10 +2882,10 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2866,10 +2893,10 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C106">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2880,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2891,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2899,10 +2926,10 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2910,10 +2937,10 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C110">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2921,7 +2948,7 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C111">
         <v>60</v>
@@ -2935,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2946,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2965,10 +2992,10 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2979,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="C116">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2987,10 +3014,10 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C117">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3001,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="C118">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3020,10 +3047,10 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C120">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3031,10 +3058,10 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C121">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3042,10 +3069,10 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C122">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3064,10 +3091,10 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C124">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3097,10 +3124,10 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3108,10 +3135,10 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C128">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3119,7 +3146,7 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C129">
         <v>50</v>
@@ -3130,10 +3157,10 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3141,10 +3168,10 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3152,7 +3179,7 @@
         <v>133</v>
       </c>
       <c r="B132">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C132">
         <v>55</v>
@@ -3166,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="C133">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3174,10 +3201,10 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3188,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="C135">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3196,10 +3223,10 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C136">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3229,10 +3256,10 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C139">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3254,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3262,10 +3289,10 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C142">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3273,10 +3300,10 @@
         <v>144</v>
       </c>
       <c r="B143">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C143">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3284,10 +3311,10 @@
         <v>145</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C144">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3295,10 +3322,10 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3309,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3320,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C147">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3328,10 +3355,10 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C148">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3339,10 +3366,10 @@
         <v>150</v>
       </c>
       <c r="B149">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C149">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3353,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="C150">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3361,10 +3388,10 @@
         <v>152</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C151">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3375,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="C152">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3386,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="C153">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3394,10 +3421,10 @@
         <v>155</v>
       </c>
       <c r="B154">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C154">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3408,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="C155">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3427,10 +3454,10 @@
         <v>158</v>
       </c>
       <c r="B157">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C157">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3441,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="C158">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3452,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="C159">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3460,10 +3487,10 @@
         <v>161</v>
       </c>
       <c r="B160">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="C160">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3471,10 +3498,10 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3485,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="C162">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3496,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3504,10 +3531,10 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C164">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3518,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="C165">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3529,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="C166">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3551,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3570,10 +3597,10 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C170">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3584,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="C171">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3592,10 +3619,10 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C172">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3603,10 +3630,10 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C173">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3617,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="C174">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3625,10 +3652,10 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C175">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3636,10 +3663,10 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C176">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3647,10 +3674,10 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3658,10 +3685,10 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3680,10 +3707,10 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C180">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3694,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="C181">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3705,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3713,10 +3740,10 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C183">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3724,10 +3751,10 @@
         <v>185</v>
       </c>
       <c r="B184">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C184">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3738,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3746,10 +3773,10 @@
         <v>187</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C186">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3757,10 +3784,10 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3768,10 +3795,10 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3779,10 +3806,10 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C189">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3793,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="C190">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3801,10 +3828,10 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C191">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3812,7 +3839,7 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C192">
         <v>35</v>
@@ -3826,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="C193">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3837,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="C194">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3845,10 +3872,10 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C195">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3856,7 +3883,7 @@
         <v>197</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C196">
         <v>55</v>
@@ -3870,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="C197">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3878,10 +3905,10 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3889,10 +3916,10 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3900,10 +3927,10 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C200">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3911,10 +3938,10 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3944,10 +3971,10 @@
         <v>205</v>
       </c>
       <c r="B204">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C204">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3958,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="C205">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3969,7 +3996,7 @@
         <v>1</v>
       </c>
       <c r="C206">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3977,10 +4004,10 @@
         <v>208</v>
       </c>
       <c r="B207">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C207">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3999,10 +4026,10 @@
         <v>210</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C209">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4010,10 +4037,10 @@
         <v>211</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4021,10 +4048,10 @@
         <v>212</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4032,10 +4059,10 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="C212">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4046,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="C213">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4057,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="C214">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4065,10 +4092,10 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C215">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4076,10 +4103,10 @@
         <v>217</v>
       </c>
       <c r="B216">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C216">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4087,10 +4114,10 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4098,10 +4125,10 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C218">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4109,10 +4136,10 @@
         <v>220</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4120,10 +4147,10 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4131,10 +4158,10 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4142,10 +4169,10 @@
         <v>223</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="C222">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4153,10 +4180,10 @@
         <v>224</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4164,10 +4191,10 @@
         <v>225</v>
       </c>
       <c r="B224">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C224">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4186,10 +4213,10 @@
         <v>227</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C226">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4197,10 +4224,10 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C227">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4208,10 +4235,10 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4219,10 +4246,10 @@
         <v>230</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="C229">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4230,10 +4257,10 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4241,10 +4268,10 @@
         <v>232</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C231">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4252,10 +4279,10 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C232">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4263,10 +4290,10 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4274,10 +4301,10 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C234">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4288,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="C235">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4299,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="C236">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4310,7 +4337,7 @@
         <v>0.45</v>
       </c>
       <c r="C237">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4321,7 +4348,7 @@
         <v>0.4</v>
       </c>
       <c r="C238">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4332,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="C239">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4340,10 +4367,10 @@
         <v>241</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4351,10 +4378,10 @@
         <v>242</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C241">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4362,10 +4389,10 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="C242">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4373,10 +4400,10 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4384,10 +4411,10 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C244">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4395,10 +4422,10 @@
         <v>246</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4406,7 +4433,7 @@
         <v>247</v>
       </c>
       <c r="B246">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C246">
         <v>55</v>
@@ -4417,10 +4444,10 @@
         <v>248</v>
       </c>
       <c r="B247">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C247">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4439,10 +4466,10 @@
         <v>250</v>
       </c>
       <c r="B249">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C249">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4461,10 +4488,10 @@
         <v>252</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C251">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4472,10 +4499,10 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C252">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4483,10 +4510,10 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4494,10 +4521,10 @@
         <v>255</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4505,10 +4532,10 @@
         <v>256</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4516,10 +4543,10 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C256">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4527,10 +4554,10 @@
         <v>258</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4541,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="C258">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4549,10 +4576,10 @@
         <v>260</v>
       </c>
       <c r="B259">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C259">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4571,7 +4598,7 @@
         <v>262</v>
       </c>
       <c r="B261">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="C261">
         <v>55</v>
@@ -4582,10 +4609,10 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C262">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4593,10 +4620,10 @@
         <v>264</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4604,10 +4631,10 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C264">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4615,10 +4642,10 @@
         <v>266</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C265">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4626,10 +4653,10 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C266">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4637,7 +4664,7 @@
         <v>268</v>
       </c>
       <c r="B267">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C267">
         <v>55</v>
@@ -4648,10 +4675,10 @@
         <v>269</v>
       </c>
       <c r="B268">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C268">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4662,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="C269">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4673,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4692,10 +4719,10 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="C272">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4714,10 +4741,10 @@
         <v>275</v>
       </c>
       <c r="B274">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C274">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4725,10 +4752,10 @@
         <v>276</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4736,10 +4763,10 @@
         <v>277</v>
       </c>
       <c r="B276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4747,10 +4774,10 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="C277">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4758,10 +4785,10 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C278">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4769,10 +4796,10 @@
         <v>280</v>
       </c>
       <c r="B279">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C279">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4783,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="C280">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4802,10 +4829,10 @@
         <v>283</v>
       </c>
       <c r="B282">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C282">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4813,10 +4840,10 @@
         <v>284</v>
       </c>
       <c r="B283">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C283">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4827,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="C284">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4835,10 +4862,10 @@
         <v>286</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C285">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4846,10 +4873,10 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C286">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4857,10 +4884,10 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4868,10 +4895,10 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C288">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4879,10 +4906,10 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4890,10 +4917,10 @@
         <v>291</v>
       </c>
       <c r="B290">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="C290">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4904,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="C291">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4912,10 +4939,10 @@
         <v>293</v>
       </c>
       <c r="B292">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C292">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -4926,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="C293">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -4948,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="C295">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -4956,10 +4983,10 @@
         <v>297</v>
       </c>
       <c r="B296">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C296">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -4967,10 +4994,10 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C297">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -4978,10 +5005,10 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C298">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -4989,10 +5016,10 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
       <c r="C299">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5000,10 +5027,10 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C300">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5011,10 +5038,10 @@
         <v>302</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C301">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5025,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="C302">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5033,10 +5060,10 @@
         <v>304</v>
       </c>
       <c r="B303">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C303">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5047,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="C304">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5069,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="C306">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5080,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="C307">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5099,10 +5126,10 @@
         <v>310</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C309">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5110,10 +5137,10 @@
         <v>311</v>
       </c>
       <c r="B310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C310">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5121,10 +5148,10 @@
         <v>312</v>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C311">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5132,10 +5159,10 @@
         <v>313</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C312">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5143,10 +5170,10 @@
         <v>314</v>
       </c>
       <c r="B313">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C313">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5179,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="C316">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5190,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="C317">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5220,10 +5247,10 @@
         <v>321</v>
       </c>
       <c r="B320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C320">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5231,10 +5258,10 @@
         <v>322</v>
       </c>
       <c r="B321">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C321">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5242,10 +5269,10 @@
         <v>323</v>
       </c>
       <c r="B322">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C322">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5253,10 +5280,10 @@
         <v>324</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C323">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5264,10 +5291,10 @@
         <v>325</v>
       </c>
       <c r="B324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C324">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5278,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="C325">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5289,7 +5316,7 @@
         <v>0.35</v>
       </c>
       <c r="C326">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5311,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="C328">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5322,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="C329">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5330,10 +5357,10 @@
         <v>331</v>
       </c>
       <c r="B330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C330">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5341,10 +5368,10 @@
         <v>332</v>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C331">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5352,10 +5379,10 @@
         <v>333</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C332">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5363,10 +5390,10 @@
         <v>334</v>
       </c>
       <c r="B333">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C333">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5374,10 +5401,10 @@
         <v>335</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C334">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5385,10 +5412,10 @@
         <v>336</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -5396,10 +5423,10 @@
         <v>337</v>
       </c>
       <c r="B336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C336">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5410,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="C337">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5418,10 +5445,10 @@
         <v>339</v>
       </c>
       <c r="B338">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C338">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5429,10 +5456,10 @@
         <v>340</v>
       </c>
       <c r="B339">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C339">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5440,10 +5467,10 @@
         <v>341</v>
       </c>
       <c r="B340">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C340">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5451,10 +5478,10 @@
         <v>342</v>
       </c>
       <c r="B341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C341">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5462,10 +5489,10 @@
         <v>343</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C342">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -5473,10 +5500,10 @@
         <v>344</v>
       </c>
       <c r="B343">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="C343">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5484,10 +5511,10 @@
         <v>345</v>
       </c>
       <c r="B344">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C344">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5495,10 +5522,10 @@
         <v>346</v>
       </c>
       <c r="B345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C345">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5506,10 +5533,10 @@
         <v>347</v>
       </c>
       <c r="B346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C346">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5517,10 +5544,10 @@
         <v>348</v>
       </c>
       <c r="B347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5531,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="C348">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -5542,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="C349">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5550,7 +5577,7 @@
         <v>351</v>
       </c>
       <c r="B350">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C350">
         <v>55</v>
@@ -5561,10 +5588,10 @@
         <v>352</v>
       </c>
       <c r="B351">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C351">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -5572,10 +5599,10 @@
         <v>353</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -5583,10 +5610,10 @@
         <v>354</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -5594,10 +5621,10 @@
         <v>355</v>
       </c>
       <c r="B354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -5605,10 +5632,10 @@
         <v>356</v>
       </c>
       <c r="B355">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="C355">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -5616,10 +5643,10 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C356">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -5627,10 +5654,10 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C357">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -5638,10 +5665,10 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C358">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -5649,10 +5676,10 @@
         <v>360</v>
       </c>
       <c r="B359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -5660,10 +5687,10 @@
         <v>361</v>
       </c>
       <c r="B360">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C360">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -5671,10 +5698,10 @@
         <v>362</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C361">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -5693,10 +5720,10 @@
         <v>364</v>
       </c>
       <c r="B363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C363">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -5704,10 +5731,10 @@
         <v>365</v>
       </c>
       <c r="B364">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C364">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -5715,10 +5742,10 @@
         <v>366</v>
       </c>
       <c r="B365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -5726,10 +5753,10 @@
         <v>367</v>
       </c>
       <c r="B366">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C366">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5737,10 +5764,10 @@
         <v>368</v>
       </c>
       <c r="B367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C367">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -5748,10 +5775,10 @@
         <v>369</v>
       </c>
       <c r="B368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -5759,10 +5786,10 @@
         <v>370</v>
       </c>
       <c r="B369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C369">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -5770,10 +5797,10 @@
         <v>371</v>
       </c>
       <c r="B370">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C370">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -5781,10 +5808,10 @@
         <v>372</v>
       </c>
       <c r="B371">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C371">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -5792,7 +5819,7 @@
         <v>373</v>
       </c>
       <c r="B372">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C372">
         <v>55</v>
@@ -5806,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="C373">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -5817,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="C374">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -5825,10 +5852,10 @@
         <v>376</v>
       </c>
       <c r="B375">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C375">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -5836,10 +5863,10 @@
         <v>377</v>
       </c>
       <c r="B376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C376">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -5847,10 +5874,10 @@
         <v>378</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C377">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -5858,10 +5885,10 @@
         <v>379</v>
       </c>
       <c r="B378">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C378">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -5869,10 +5896,10 @@
         <v>380</v>
       </c>
       <c r="B379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C379">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -5880,10 +5907,10 @@
         <v>381</v>
       </c>
       <c r="B380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C380">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -5891,10 +5918,10 @@
         <v>382</v>
       </c>
       <c r="B381">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C381">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -5902,7 +5929,7 @@
         <v>383</v>
       </c>
       <c r="B382">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="C382">
         <v>60</v>
@@ -5916,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="C383">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -5927,7 +5954,7 @@
         <v>1</v>
       </c>
       <c r="C384">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -5935,10 +5962,10 @@
         <v>386</v>
       </c>
       <c r="B385">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C385">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -5946,10 +5973,10 @@
         <v>387</v>
       </c>
       <c r="B386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -5957,10 +5984,10 @@
         <v>388</v>
       </c>
       <c r="B387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C387">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -5968,10 +5995,10 @@
         <v>389</v>
       </c>
       <c r="B388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C388">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -5979,10 +6006,10 @@
         <v>390</v>
       </c>
       <c r="B389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C389">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -5990,10 +6017,10 @@
         <v>391</v>
       </c>
       <c r="B390">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C390">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6001,10 +6028,10 @@
         <v>392</v>
       </c>
       <c r="B391">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C391">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6012,10 +6039,10 @@
         <v>393</v>
       </c>
       <c r="B392">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C392">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6023,10 +6050,10 @@
         <v>394</v>
       </c>
       <c r="B393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C393">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6037,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="C394">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6048,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="C395">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6059,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="C396">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6067,10 +6094,10 @@
         <v>398</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C397">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6078,10 +6105,10 @@
         <v>399</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C398">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6089,10 +6116,10 @@
         <v>400</v>
       </c>
       <c r="B399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C399">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6100,10 +6127,10 @@
         <v>401</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C400">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6111,10 +6138,10 @@
         <v>402</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C401">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6122,7 +6149,7 @@
         <v>403</v>
       </c>
       <c r="B402">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C402">
         <v>55</v>
@@ -6133,10 +6160,10 @@
         <v>404</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6144,10 +6171,10 @@
         <v>405</v>
       </c>
       <c r="B404">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C404">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6155,10 +6182,10 @@
         <v>406</v>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C405">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6169,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="C406">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6177,10 +6204,10 @@
         <v>408</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C407">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6188,10 +6215,10 @@
         <v>409</v>
       </c>
       <c r="B408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C408">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6199,10 +6226,10 @@
         <v>410</v>
       </c>
       <c r="B409">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C409">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6210,10 +6237,10 @@
         <v>411</v>
       </c>
       <c r="B410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C410">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6221,10 +6248,10 @@
         <v>412</v>
       </c>
       <c r="B411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C411">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6232,10 +6259,10 @@
         <v>413</v>
       </c>
       <c r="B412">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C412">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6243,10 +6270,10 @@
         <v>414</v>
       </c>
       <c r="B413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C413">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6254,10 +6281,10 @@
         <v>415</v>
       </c>
       <c r="B414">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C414">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6265,10 +6292,10 @@
         <v>416</v>
       </c>
       <c r="B415">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C415">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -6276,10 +6303,10 @@
         <v>417</v>
       </c>
       <c r="B416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C416">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -6290,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="C417">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -6301,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="C418">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6309,10 +6336,10 @@
         <v>420</v>
       </c>
       <c r="B419">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C419">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -6320,10 +6347,10 @@
         <v>421</v>
       </c>
       <c r="B420">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C420">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -6331,10 +6358,10 @@
         <v>422</v>
       </c>
       <c r="B421">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C421">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -6342,10 +6369,10 @@
         <v>423</v>
       </c>
       <c r="B422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C422">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -6353,10 +6380,10 @@
         <v>424</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C423">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -6364,10 +6391,10 @@
         <v>425</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -6375,10 +6402,10 @@
         <v>426</v>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -6386,10 +6413,10 @@
         <v>427</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C426">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -6397,10 +6424,10 @@
         <v>428</v>
       </c>
       <c r="B427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C427">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -6408,10 +6435,10 @@
         <v>429</v>
       </c>
       <c r="B428">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C428">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -6430,10 +6457,10 @@
         <v>431</v>
       </c>
       <c r="B430">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C430">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -6441,10 +6468,10 @@
         <v>432</v>
       </c>
       <c r="B431">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C431">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -6452,10 +6479,10 @@
         <v>433</v>
       </c>
       <c r="B432">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C432">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -6463,10 +6490,10 @@
         <v>434</v>
       </c>
       <c r="B433">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C433">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -6474,10 +6501,10 @@
         <v>435</v>
       </c>
       <c r="B434">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C434">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -6485,10 +6512,10 @@
         <v>436</v>
       </c>
       <c r="B435">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C435">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -6496,10 +6523,10 @@
         <v>437</v>
       </c>
       <c r="B436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C436">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -6507,10 +6534,10 @@
         <v>438</v>
       </c>
       <c r="B437">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C437">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -6518,10 +6545,10 @@
         <v>439</v>
       </c>
       <c r="B438">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C438">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -6529,10 +6556,10 @@
         <v>440</v>
       </c>
       <c r="B439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C439">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -6543,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="C440">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -6554,7 +6581,106 @@
         <v>0</v>
       </c>
       <c r="C441">
-        <v>40</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B442">
+        <v>0</v>
+      </c>
+      <c r="C442">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B443">
+        <v>0.45</v>
+      </c>
+      <c r="C443">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B444">
+        <v>0.4</v>
+      </c>
+      <c r="C444">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+      <c r="C446">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+      <c r="C447">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B448">
+        <v>0</v>
+      </c>
+      <c r="C448">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B450">
+        <v>0.4</v>
+      </c>
+      <c r="C450">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/mid_outputs/match_probable_players.xlsx
+++ b/mid_outputs/match_probable_players.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="459">
   <si>
     <t>starter</t>
   </si>
@@ -25,6 +25,822 @@
     <t>player</t>
   </si>
   <si>
+    <t>Maignan</t>
+  </si>
+  <si>
+    <t>Calabria</t>
+  </si>
+  <si>
+    <t>Kjaer</t>
+  </si>
+  <si>
+    <t>Tomori</t>
+  </si>
+  <si>
+    <t>Hernandez T.</t>
+  </si>
+  <si>
+    <t>Tonali</t>
+  </si>
+  <si>
+    <t>Krunic</t>
+  </si>
+  <si>
+    <t>Messias</t>
+  </si>
+  <si>
+    <t>Bennacer</t>
+  </si>
+  <si>
+    <t>Rafael Leao</t>
+  </si>
+  <si>
+    <t>Giroud</t>
+  </si>
+  <si>
+    <t>Tatarusanu</t>
+  </si>
+  <si>
+    <t>Mirante</t>
+  </si>
+  <si>
+    <t>Gabbia</t>
+  </si>
+  <si>
+    <t>Ballo-Toure'</t>
+  </si>
+  <si>
+    <t>Thiaw</t>
+  </si>
+  <si>
+    <t>Kalulu</t>
+  </si>
+  <si>
+    <t>Florenzi</t>
+  </si>
+  <si>
+    <t>Bakayoko</t>
+  </si>
+  <si>
+    <t>Vranckx</t>
+  </si>
+  <si>
+    <t>Saelemaekers</t>
+  </si>
+  <si>
+    <t>De Ketelaere</t>
+  </si>
+  <si>
+    <t>Adli</t>
+  </si>
+  <si>
+    <t>Diaz B.</t>
+  </si>
+  <si>
+    <t>Rebic</t>
+  </si>
+  <si>
+    <t>Origi</t>
+  </si>
+  <si>
+    <t>Provedel</t>
+  </si>
+  <si>
+    <t>Hysaj</t>
+  </si>
+  <si>
+    <t>Casale</t>
+  </si>
+  <si>
+    <t>Romagnoli</t>
+  </si>
+  <si>
+    <t>Marusic</t>
+  </si>
+  <si>
+    <t>Milinkovic-Savic</t>
+  </si>
+  <si>
+    <t>Marcos Antonio</t>
+  </si>
+  <si>
+    <t>Luis Alberto</t>
+  </si>
+  <si>
+    <t>Felipe Anderson</t>
+  </si>
+  <si>
+    <t>Immobile</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Luis Maximiano</t>
+  </si>
+  <si>
+    <t>Adamonis</t>
+  </si>
+  <si>
+    <t>Pellegrini Lu.</t>
+  </si>
+  <si>
+    <t>Lazzari</t>
+  </si>
+  <si>
+    <t>Patric</t>
+  </si>
+  <si>
+    <t>Gila</t>
+  </si>
+  <si>
+    <t>Fares</t>
+  </si>
+  <si>
+    <t>Radu</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Bertini</t>
+  </si>
+  <si>
+    <t>Romero L.</t>
+  </si>
+  <si>
+    <t>Zaccagni</t>
+  </si>
+  <si>
+    <t>Cancellieri</t>
+  </si>
+  <si>
+    <t>Rui Patricio</t>
+  </si>
+  <si>
+    <t>Mancini</t>
+  </si>
+  <si>
+    <t>Cristante</t>
+  </si>
+  <si>
+    <t>Ibanez</t>
+  </si>
+  <si>
+    <t>Zalewski</t>
+  </si>
+  <si>
+    <t>Bove</t>
+  </si>
+  <si>
+    <t>Matic</t>
+  </si>
+  <si>
+    <t>Spinazzola</t>
+  </si>
+  <si>
+    <t>Pellegrini Lo.</t>
+  </si>
+  <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Solbakken</t>
+  </si>
+  <si>
+    <t>Svilar</t>
+  </si>
+  <si>
+    <t>Boer</t>
+  </si>
+  <si>
+    <t>Camara Ma.</t>
+  </si>
+  <si>
+    <t>Volpato</t>
+  </si>
+  <si>
+    <t>Tahirovic</t>
+  </si>
+  <si>
+    <t>Wijnaldum</t>
+  </si>
+  <si>
+    <t>Darboe</t>
+  </si>
+  <si>
+    <t>Belotti</t>
+  </si>
+  <si>
+    <t>Dybala</t>
+  </si>
+  <si>
+    <t>Onana</t>
+  </si>
+  <si>
+    <t>Darmian</t>
+  </si>
+  <si>
+    <t>De Vrij</t>
+  </si>
+  <si>
+    <t>Bastoni</t>
+  </si>
+  <si>
+    <t>Dumfries</t>
+  </si>
+  <si>
+    <t>Barella</t>
+  </si>
+  <si>
+    <t>Calhanoglu</t>
+  </si>
+  <si>
+    <t>Mkhitaryan</t>
+  </si>
+  <si>
+    <t>Dimarco</t>
+  </si>
+  <si>
+    <t>Correa</t>
+  </si>
+  <si>
+    <t>Lukaku</t>
+  </si>
+  <si>
+    <t>Handanovic</t>
+  </si>
+  <si>
+    <t>Cordaz</t>
+  </si>
+  <si>
+    <t>Bellanova</t>
+  </si>
+  <si>
+    <t>Acerbi</t>
+  </si>
+  <si>
+    <t>Zanotti</t>
+  </si>
+  <si>
+    <t>Gagliardini</t>
+  </si>
+  <si>
+    <t>Asllani</t>
+  </si>
+  <si>
+    <t>Brozovic</t>
+  </si>
+  <si>
+    <t>Carboni V.</t>
+  </si>
+  <si>
+    <t>Martinez L.</t>
+  </si>
+  <si>
+    <t>Dzeko</t>
+  </si>
+  <si>
+    <t>Carnesecchi</t>
+  </si>
+  <si>
+    <t>Sernicola</t>
+  </si>
+  <si>
+    <t>Chiriches</t>
+  </si>
+  <si>
+    <t>Lochoshvili</t>
+  </si>
+  <si>
+    <t>Valeri</t>
+  </si>
+  <si>
+    <t>Benassi</t>
+  </si>
+  <si>
+    <t>Castagnetti</t>
+  </si>
+  <si>
+    <t>Meite'</t>
+  </si>
+  <si>
+    <t>Galdames</t>
+  </si>
+  <si>
+    <t>Okereke</t>
+  </si>
+  <si>
+    <t>Ciofani D.</t>
+  </si>
+  <si>
+    <t>Sarr M.</t>
+  </si>
+  <si>
+    <t>Saro</t>
+  </si>
+  <si>
+    <t>Aiwu</t>
+  </si>
+  <si>
+    <t>Bianchetti</t>
+  </si>
+  <si>
+    <t>Vasquez</t>
+  </si>
+  <si>
+    <t>Ghiglione</t>
+  </si>
+  <si>
+    <t>Ferrari A.</t>
+  </si>
+  <si>
+    <t>Acella</t>
+  </si>
+  <si>
+    <t>Buonaiuto</t>
+  </si>
+  <si>
+    <t>Basso Ricci</t>
+  </si>
+  <si>
+    <t>Afena-Gyan</t>
+  </si>
+  <si>
+    <t>Dragowski</t>
+  </si>
+  <si>
+    <t>Amian</t>
+  </si>
+  <si>
+    <t>Ampadu</t>
+  </si>
+  <si>
+    <t>Nikolaou</t>
+  </si>
+  <si>
+    <t>Reca</t>
+  </si>
+  <si>
+    <t>Ekdal</t>
+  </si>
+  <si>
+    <t>Bourabia</t>
+  </si>
+  <si>
+    <t>Bastoni S.</t>
+  </si>
+  <si>
+    <t>Gyasi</t>
+  </si>
+  <si>
+    <t>Nzola</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>Zoet</t>
+  </si>
+  <si>
+    <t>Marchetti</t>
+  </si>
+  <si>
+    <t>Caldara</t>
+  </si>
+  <si>
+    <t>Ferrer</t>
+  </si>
+  <si>
+    <t>Wisniewski</t>
+  </si>
+  <si>
+    <t>Esposito Sa.</t>
+  </si>
+  <si>
+    <t>Kovalenko</t>
+  </si>
+  <si>
+    <t>Cipot</t>
+  </si>
+  <si>
+    <t>Agudelo</t>
+  </si>
+  <si>
+    <t>Shomurodov</t>
+  </si>
+  <si>
+    <t>Krollis</t>
+  </si>
+  <si>
+    <t>Musso</t>
+  </si>
+  <si>
+    <t>Toloi</t>
+  </si>
+  <si>
+    <t>Scalvini</t>
+  </si>
+  <si>
+    <t>Djimsiti</t>
+  </si>
+  <si>
+    <t>Zappacosta</t>
+  </si>
+  <si>
+    <t>Koopmeiners</t>
+  </si>
+  <si>
+    <t>De Roon</t>
+  </si>
+  <si>
+    <t>Maehle</t>
+  </si>
+  <si>
+    <t>Pasalic</t>
+  </si>
+  <si>
+    <t>Muriel</t>
+  </si>
+  <si>
+    <t>Zapata D.</t>
+  </si>
+  <si>
+    <t>Sportiello</t>
+  </si>
+  <si>
+    <t>Rossi F.</t>
+  </si>
+  <si>
+    <t>Demiral</t>
+  </si>
+  <si>
+    <t>Soppy</t>
+  </si>
+  <si>
+    <t>Ederson D.s.</t>
+  </si>
+  <si>
+    <t>Boga</t>
+  </si>
+  <si>
+    <t>Hojlund</t>
+  </si>
+  <si>
+    <t>Szczesny</t>
+  </si>
+  <si>
+    <t>Danilo</t>
+  </si>
+  <si>
+    <t>Bremer</t>
+  </si>
+  <si>
+    <t>Alex Sandro</t>
+  </si>
+  <si>
+    <t>Cuadrado</t>
+  </si>
+  <si>
+    <t>Fagioli</t>
+  </si>
+  <si>
+    <t>Locatelli</t>
+  </si>
+  <si>
+    <t>Rabiot</t>
+  </si>
+  <si>
+    <t>Kostic</t>
+  </si>
+  <si>
+    <t>Chiesa</t>
+  </si>
+  <si>
+    <t>Vlahovic</t>
+  </si>
+  <si>
+    <t>Perin</t>
+  </si>
+  <si>
+    <t>Pinsoglio</t>
+  </si>
+  <si>
+    <t>Rugani</t>
+  </si>
+  <si>
+    <t>Gatti</t>
+  </si>
+  <si>
+    <t>Bonucci</t>
+  </si>
+  <si>
+    <t>Miretti</t>
+  </si>
+  <si>
+    <t>Iling-Junior</t>
+  </si>
+  <si>
+    <t>Pogba</t>
+  </si>
+  <si>
+    <t>Di Maria</t>
+  </si>
+  <si>
+    <t>Soule'</t>
+  </si>
+  <si>
+    <t>Milik</t>
+  </si>
+  <si>
+    <t>Kean</t>
+  </si>
+  <si>
+    <t>Milinkovic-Savic V.</t>
+  </si>
+  <si>
+    <t>Gravillon</t>
+  </si>
+  <si>
+    <t>Buongiorno</t>
+  </si>
+  <si>
+    <t>Rodriguez R.</t>
+  </si>
+  <si>
+    <t>Lazaro</t>
+  </si>
+  <si>
+    <t>Ilic</t>
+  </si>
+  <si>
+    <t>Ricci S.</t>
+  </si>
+  <si>
+    <t>Vojvoda</t>
+  </si>
+  <si>
+    <t>Miranchuk</t>
+  </si>
+  <si>
+    <t>Vlasic</t>
+  </si>
+  <si>
+    <t>Sanabria</t>
+  </si>
+  <si>
+    <t>Gemello</t>
+  </si>
+  <si>
+    <t>Djidji</t>
+  </si>
+  <si>
+    <t>Bayeye</t>
+  </si>
+  <si>
+    <t>Adopo</t>
+  </si>
+  <si>
+    <t>Gineitis</t>
+  </si>
+  <si>
+    <t>Linetty</t>
+  </si>
+  <si>
+    <t>Seck</t>
+  </si>
+  <si>
+    <t>Pellegri</t>
+  </si>
+  <si>
+    <t>Karamoh</t>
+  </si>
+  <si>
+    <t>Di Gregorio</t>
+  </si>
+  <si>
+    <t>Marlon</t>
+  </si>
+  <si>
+    <t>Mari'</t>
+  </si>
+  <si>
+    <t>Caldirola</t>
+  </si>
+  <si>
+    <t>Ciurria</t>
+  </si>
+  <si>
+    <t>Pessina</t>
+  </si>
+  <si>
+    <t>Rovella</t>
+  </si>
+  <si>
+    <t>Carlos Augusto</t>
+  </si>
+  <si>
+    <t>Colpani</t>
+  </si>
+  <si>
+    <t>Mota</t>
+  </si>
+  <si>
+    <t>Caprari</t>
+  </si>
+  <si>
+    <t>Cragno</t>
+  </si>
+  <si>
+    <t>Antov</t>
+  </si>
+  <si>
+    <t>Carboni F.</t>
+  </si>
+  <si>
+    <t>Izzo</t>
+  </si>
+  <si>
+    <t>Donati</t>
+  </si>
+  <si>
+    <t>Birindelli</t>
+  </si>
+  <si>
+    <t>Machin</t>
+  </si>
+  <si>
+    <t>Barberis</t>
+  </si>
+  <si>
+    <t>Valoti</t>
+  </si>
+  <si>
+    <t>Sensi</t>
+  </si>
+  <si>
+    <t>Vignato S.</t>
+  </si>
+  <si>
+    <t>Ranocchia F.</t>
+  </si>
+  <si>
+    <t>D'alessandro</t>
+  </si>
+  <si>
+    <t>Petagna</t>
+  </si>
+  <si>
+    <t>Gytkjaer</t>
+  </si>
+  <si>
+    <t>Meret</t>
+  </si>
+  <si>
+    <t>Di Lorenzo</t>
+  </si>
+  <si>
+    <t>Rrahmani</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Olivera</t>
+  </si>
+  <si>
+    <t>Zambo Anguissa</t>
+  </si>
+  <si>
+    <t>Lobotka</t>
+  </si>
+  <si>
+    <t>Zielinski</t>
+  </si>
+  <si>
+    <t>Lozano</t>
+  </si>
+  <si>
+    <t>Osimhen</t>
+  </si>
+  <si>
+    <t>Kvaratskhelia</t>
+  </si>
+  <si>
+    <t>Gollini</t>
+  </si>
+  <si>
+    <t>Marfella</t>
+  </si>
+  <si>
+    <t>Juan Jesus</t>
+  </si>
+  <si>
+    <t>Ostigard</t>
+  </si>
+  <si>
+    <t>Zedadka</t>
+  </si>
+  <si>
+    <t>Bereszynski</t>
+  </si>
+  <si>
+    <t>Elmas</t>
+  </si>
+  <si>
+    <t>Ndombele'</t>
+  </si>
+  <si>
+    <t>Gaetano</t>
+  </si>
+  <si>
+    <t>Demme</t>
+  </si>
+  <si>
+    <t>Zerbin</t>
+  </si>
+  <si>
+    <t>Politano</t>
+  </si>
+  <si>
+    <t>Raspadori</t>
+  </si>
+  <si>
+    <t>Simeone</t>
+  </si>
+  <si>
+    <t>Terracciano</t>
+  </si>
+  <si>
+    <t>Dodo'</t>
+  </si>
+  <si>
+    <t>Milenkovic</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Biraghi</t>
+  </si>
+  <si>
+    <t>Barak</t>
+  </si>
+  <si>
+    <t>Amrabat</t>
+  </si>
+  <si>
+    <t>Mandragora</t>
+  </si>
+  <si>
+    <t>Gonzalez N.</t>
+  </si>
+  <si>
+    <t>Cabral</t>
+  </si>
+  <si>
+    <t>Saponara</t>
+  </si>
+  <si>
+    <t>Cerofolini</t>
+  </si>
+  <si>
+    <t>Venuti</t>
+  </si>
+  <si>
+    <t>Ranieri L.</t>
+  </si>
+  <si>
+    <t>Terzic</t>
+  </si>
+  <si>
+    <t>Bianco</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Sottil</t>
+  </si>
+  <si>
+    <t>Bonaventura</t>
+  </si>
+  <si>
+    <t>Castrovilli</t>
+  </si>
+  <si>
+    <t>Ikone'</t>
+  </si>
+  <si>
+    <t>Kouame'</t>
+  </si>
+  <si>
+    <t>Jovic</t>
+  </si>
+  <si>
+    <t>Brekalo</t>
+  </si>
+  <si>
     <t>Falcone</t>
   </si>
   <si>
@@ -40,48 +856,48 @@
     <t>Gallo</t>
   </si>
   <si>
+    <t>Blin</t>
+  </si>
+  <si>
+    <t>Hjulmand</t>
+  </si>
+  <si>
+    <t>Oudin</t>
+  </si>
+  <si>
+    <t>Strefezza</t>
+  </si>
+  <si>
+    <t>Ceesay</t>
+  </si>
+  <si>
+    <t>Di Francesco F.</t>
+  </si>
+  <si>
+    <t>Bleve</t>
+  </si>
+  <si>
+    <t>Brancolini</t>
+  </si>
+  <si>
+    <t>Tuia</t>
+  </si>
+  <si>
+    <t>Pezzella Giu.</t>
+  </si>
+  <si>
+    <t>Romagnoli S.</t>
+  </si>
+  <si>
+    <t>Cassandro</t>
+  </si>
+  <si>
+    <t>Ceccaroni</t>
+  </si>
+  <si>
     <t>Gonzalez J.</t>
   </si>
   <si>
-    <t>Hjulmand</t>
-  </si>
-  <si>
-    <t>Blin</t>
-  </si>
-  <si>
-    <t>Strefezza</t>
-  </si>
-  <si>
-    <t>Ceesay</t>
-  </si>
-  <si>
-    <t>Di Francesco F.</t>
-  </si>
-  <si>
-    <t>Bleve</t>
-  </si>
-  <si>
-    <t>Brancolini</t>
-  </si>
-  <si>
-    <t>Pezzella Giu.</t>
-  </si>
-  <si>
-    <t>Tuia</t>
-  </si>
-  <si>
-    <t>Cassandro</t>
-  </si>
-  <si>
-    <t>Romagnoli S.</t>
-  </si>
-  <si>
-    <t>Ceccaroni</t>
-  </si>
-  <si>
-    <t>Dermaku</t>
-  </si>
-  <si>
     <t>Askildsen</t>
   </si>
   <si>
@@ -91,16 +907,232 @@
     <t>Helgason</t>
   </si>
   <si>
-    <t>Oudin</t>
+    <t>Banda</t>
+  </si>
+  <si>
+    <t>Colombo</t>
   </si>
   <si>
     <t>Voelkerling Persson</t>
   </si>
   <si>
-    <t>Colombo</t>
-  </si>
-  <si>
-    <t>Banda</t>
+    <t>Montipo'</t>
+  </si>
+  <si>
+    <t>Dawidowicz</t>
+  </si>
+  <si>
+    <t>Hien</t>
+  </si>
+  <si>
+    <t>Magnani</t>
+  </si>
+  <si>
+    <t>Faraoni</t>
+  </si>
+  <si>
+    <t>Tameze</t>
+  </si>
+  <si>
+    <t>Abildgaard</t>
+  </si>
+  <si>
+    <t>Depaoli</t>
+  </si>
+  <si>
+    <t>Lazovic</t>
+  </si>
+  <si>
+    <t>Verdi</t>
+  </si>
+  <si>
+    <t>Djuric</t>
+  </si>
+  <si>
+    <t>Perilli</t>
+  </si>
+  <si>
+    <t>Berardi A.</t>
+  </si>
+  <si>
+    <t>Ceccherini</t>
+  </si>
+  <si>
+    <t>Cabal</t>
+  </si>
+  <si>
+    <t>Coppola D.</t>
+  </si>
+  <si>
+    <t>Zeefuik</t>
+  </si>
+  <si>
+    <t>Doig</t>
+  </si>
+  <si>
+    <t>Duda</t>
+  </si>
+  <si>
+    <t>Terracciano F.</t>
+  </si>
+  <si>
+    <t>Miguel Veloso</t>
+  </si>
+  <si>
+    <t>Sulemana I.</t>
+  </si>
+  <si>
+    <t>Braaf</t>
+  </si>
+  <si>
+    <t>Gaich</t>
+  </si>
+  <si>
+    <t>Kallon</t>
+  </si>
+  <si>
+    <t>Ngonge</t>
+  </si>
+  <si>
+    <t>Vicario</t>
+  </si>
+  <si>
+    <t>Ebuehi</t>
+  </si>
+  <si>
+    <t>Ismajli</t>
+  </si>
+  <si>
+    <t>Luperto</t>
+  </si>
+  <si>
+    <t>Parisi</t>
+  </si>
+  <si>
+    <t>Akpa Akpro</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>Bandinelli</t>
+  </si>
+  <si>
+    <t>Baldanzi</t>
+  </si>
+  <si>
+    <t>Caputo</t>
+  </si>
+  <si>
+    <t>Cambiaghi</t>
+  </si>
+  <si>
+    <t>Perisan</t>
+  </si>
+  <si>
+    <t>Ujkani</t>
+  </si>
+  <si>
+    <t>Stojanovic</t>
+  </si>
+  <si>
+    <t>Cacace</t>
+  </si>
+  <si>
+    <t>Walukiewicz</t>
+  </si>
+  <si>
+    <t>Tonelli</t>
+  </si>
+  <si>
+    <t>Fazzini</t>
+  </si>
+  <si>
+    <t>Vignato</t>
+  </si>
+  <si>
+    <t>Grassi</t>
+  </si>
+  <si>
+    <t>Henderson L.</t>
+  </si>
+  <si>
+    <t>Haas</t>
+  </si>
+  <si>
+    <t>Satriano</t>
+  </si>
+  <si>
+    <t>Destro</t>
+  </si>
+  <si>
+    <t>Piccoli</t>
+  </si>
+  <si>
+    <t>Pjaca</t>
+  </si>
+  <si>
+    <t>Ochoa</t>
+  </si>
+  <si>
+    <t>Daniliuc</t>
+  </si>
+  <si>
+    <t>Troost-Ekong</t>
+  </si>
+  <si>
+    <t>Pirola</t>
+  </si>
+  <si>
+    <t>Sambia</t>
+  </si>
+  <si>
+    <t>Coulibaly L.</t>
+  </si>
+  <si>
+    <t>Vilhena</t>
+  </si>
+  <si>
+    <t>Mazzocchi</t>
+  </si>
+  <si>
+    <t>Kastanos</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Botheim</t>
+  </si>
+  <si>
+    <t>Sepe</t>
+  </si>
+  <si>
+    <t>Fiorillo</t>
+  </si>
+  <si>
+    <t>Lovato</t>
+  </si>
+  <si>
+    <t>Bronn</t>
+  </si>
+  <si>
+    <t>Nicolussi Caviglia</t>
+  </si>
+  <si>
+    <t>Bohinen</t>
+  </si>
+  <si>
+    <t>Candreva</t>
+  </si>
+  <si>
+    <t>Maggiore</t>
+  </si>
+  <si>
+    <t>Piatek</t>
+  </si>
+  <si>
+    <t>Bonazzoli</t>
   </si>
   <si>
     <t>Silvestri</t>
@@ -115,7 +1147,7 @@
     <t>Perez N.</t>
   </si>
   <si>
-    <t>Ehizibue</t>
+    <t>Pereyra</t>
   </si>
   <si>
     <t>Samardzic</t>
@@ -130,892 +1162,97 @@
     <t>Udogie</t>
   </si>
   <si>
-    <t>Pereyra</t>
+    <t>Thauvin</t>
+  </si>
+  <si>
+    <t>Nestorovski</t>
+  </si>
+  <si>
+    <t>Padelli</t>
+  </si>
+  <si>
+    <t>Ebosele</t>
+  </si>
+  <si>
+    <t>Buta</t>
+  </si>
+  <si>
+    <t>Masina</t>
+  </si>
+  <si>
+    <t>Zeegelaar</t>
+  </si>
+  <si>
+    <t>Guessand A.</t>
+  </si>
+  <si>
+    <t>Arslan</t>
+  </si>
+  <si>
+    <t>Vivaldo</t>
   </si>
   <si>
     <t>Beto</t>
   </si>
   <si>
-    <t>Padelli</t>
-  </si>
-  <si>
-    <t>Ebosele</t>
-  </si>
-  <si>
-    <t>Buta</t>
-  </si>
-  <si>
-    <t>Masina</t>
-  </si>
-  <si>
-    <t>Zeegelaar</t>
-  </si>
-  <si>
-    <t>Guessand A.</t>
-  </si>
-  <si>
-    <t>Pafundi</t>
-  </si>
-  <si>
-    <t>Arslan</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Vivaldo</t>
-  </si>
-  <si>
-    <t>Nestorovski</t>
-  </si>
-  <si>
-    <t>Thauvin</t>
-  </si>
-  <si>
-    <t>Dragowski</t>
-  </si>
-  <si>
-    <t>Amian</t>
-  </si>
-  <si>
-    <t>Ampadu</t>
-  </si>
-  <si>
-    <t>Nikolaou</t>
-  </si>
-  <si>
-    <t>Bastoni S.</t>
-  </si>
-  <si>
-    <t>Ekdal</t>
-  </si>
-  <si>
-    <t>Bourabia</t>
-  </si>
-  <si>
-    <t>Esposito Sa.</t>
-  </si>
-  <si>
-    <t>Gyasi</t>
-  </si>
-  <si>
-    <t>Nzola</t>
-  </si>
-  <si>
-    <t>Verde</t>
-  </si>
-  <si>
-    <t>Zoet</t>
-  </si>
-  <si>
-    <t>Marchetti</t>
-  </si>
-  <si>
-    <t>Caldara</t>
-  </si>
-  <si>
-    <t>Ferrer</t>
-  </si>
-  <si>
-    <t>Sala</t>
-  </si>
-  <si>
-    <t>Wisniewski</t>
-  </si>
-  <si>
-    <t>Reca</t>
-  </si>
-  <si>
-    <t>Kovalenko</t>
-  </si>
-  <si>
-    <t>Cipot</t>
-  </si>
-  <si>
-    <t>Agudelo</t>
-  </si>
-  <si>
-    <t>Shomurodov</t>
-  </si>
-  <si>
-    <t>Krollis</t>
-  </si>
-  <si>
-    <t>Di Gregorio</t>
-  </si>
-  <si>
-    <t>Caldirola</t>
-  </si>
-  <si>
-    <t>Mari'</t>
-  </si>
-  <si>
-    <t>Izzo</t>
-  </si>
-  <si>
-    <t>Ciurria</t>
-  </si>
-  <si>
-    <t>Pessina</t>
-  </si>
-  <si>
-    <t>Rovella</t>
-  </si>
-  <si>
-    <t>Carlos Augusto</t>
-  </si>
-  <si>
-    <t>Colpani</t>
-  </si>
-  <si>
-    <t>Petagna</t>
-  </si>
-  <si>
-    <t>Caprari</t>
-  </si>
-  <si>
-    <t>Cragno</t>
-  </si>
-  <si>
-    <t>Sorrentino A.</t>
-  </si>
-  <si>
-    <t>Antov</t>
-  </si>
-  <si>
-    <t>Carboni F.</t>
-  </si>
-  <si>
-    <t>Donati</t>
-  </si>
-  <si>
-    <t>Marlon</t>
-  </si>
-  <si>
-    <t>Birindelli</t>
-  </si>
-  <si>
-    <t>Machin</t>
-  </si>
-  <si>
-    <t>D'alessandro</t>
-  </si>
-  <si>
-    <t>Barberis</t>
-  </si>
-  <si>
-    <t>Valoti</t>
-  </si>
-  <si>
-    <t>Vignato S.</t>
-  </si>
-  <si>
-    <t>Ranocchia F.</t>
-  </si>
-  <si>
-    <t>Mota</t>
-  </si>
-  <si>
-    <t>Gytkjaer</t>
-  </si>
-  <si>
-    <t>Meret</t>
-  </si>
-  <si>
-    <t>Di Lorenzo</t>
-  </si>
-  <si>
-    <t>Rrahmani</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Olivera</t>
-  </si>
-  <si>
-    <t>Zambo Anguissa</t>
-  </si>
-  <si>
-    <t>Lobotka</t>
-  </si>
-  <si>
-    <t>Zielinski</t>
-  </si>
-  <si>
-    <t>Lozano</t>
-  </si>
-  <si>
-    <t>Osimhen</t>
-  </si>
-  <si>
-    <t>Kvaratskhelia</t>
-  </si>
-  <si>
-    <t>Gollini</t>
-  </si>
-  <si>
-    <t>Marfella</t>
-  </si>
-  <si>
-    <t>Juan Jesus</t>
-  </si>
-  <si>
-    <t>Ostigard</t>
-  </si>
-  <si>
-    <t>Zedadka</t>
-  </si>
-  <si>
-    <t>Bereszynski</t>
-  </si>
-  <si>
-    <t>Elmas</t>
-  </si>
-  <si>
-    <t>Ndombele'</t>
-  </si>
-  <si>
-    <t>Gaetano</t>
-  </si>
-  <si>
-    <t>Demme</t>
-  </si>
-  <si>
-    <t>Politano</t>
-  </si>
-  <si>
-    <t>Zerbin</t>
-  </si>
-  <si>
-    <t>Raspadori</t>
-  </si>
-  <si>
-    <t>Ochoa</t>
-  </si>
-  <si>
-    <t>Lovato</t>
-  </si>
-  <si>
-    <t>Gyomber</t>
-  </si>
-  <si>
-    <t>Pirola</t>
-  </si>
-  <si>
-    <t>Kastanos</t>
-  </si>
-  <si>
-    <t>Coulibaly L.</t>
-  </si>
-  <si>
-    <t>Vilhena</t>
-  </si>
-  <si>
-    <t>Bradaric</t>
-  </si>
-  <si>
-    <t>Candreva</t>
-  </si>
-  <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>Piatek</t>
-  </si>
-  <si>
-    <t>Sepe</t>
-  </si>
-  <si>
-    <t>Fiorillo</t>
-  </si>
-  <si>
-    <t>Daniliuc</t>
-  </si>
-  <si>
-    <t>Bronn</t>
-  </si>
-  <si>
-    <t>Troost-Ekong</t>
-  </si>
-  <si>
-    <t>Sambia</t>
-  </si>
-  <si>
-    <t>Mazzocchi</t>
-  </si>
-  <si>
-    <t>Maggiore</t>
-  </si>
-  <si>
-    <t>Bohinen</t>
-  </si>
-  <si>
-    <t>Nicolussi Caviglia</t>
-  </si>
-  <si>
-    <t>Bonazzoli</t>
-  </si>
-  <si>
-    <t>Botheim</t>
-  </si>
-  <si>
-    <t>Rui Patricio</t>
-  </si>
-  <si>
-    <t>Mancini</t>
-  </si>
-  <si>
-    <t>Kumbulla</t>
-  </si>
-  <si>
-    <t>Ibanez</t>
-  </si>
-  <si>
-    <t>Zalewski</t>
-  </si>
-  <si>
-    <t>Cristante</t>
-  </si>
-  <si>
-    <t>Matic</t>
-  </si>
-  <si>
-    <t>Spinazzola</t>
-  </si>
-  <si>
-    <t>Pellegrini Lo.</t>
-  </si>
-  <si>
-    <t>El Shaarawy</t>
-  </si>
-  <si>
-    <t>Belotti</t>
-  </si>
-  <si>
-    <t>Svilar</t>
-  </si>
-  <si>
-    <t>Boer</t>
-  </si>
-  <si>
-    <t>Celik</t>
-  </si>
-  <si>
-    <t>Bove</t>
-  </si>
-  <si>
-    <t>Volpato</t>
-  </si>
-  <si>
-    <t>Tahirovic</t>
-  </si>
-  <si>
-    <t>Darboe</t>
-  </si>
-  <si>
-    <t>Camara Ma.</t>
-  </si>
-  <si>
-    <t>Dybala</t>
-  </si>
-  <si>
-    <t>Abraham</t>
-  </si>
-  <si>
-    <t>Solbakken</t>
-  </si>
-  <si>
-    <t>Maignan</t>
-  </si>
-  <si>
-    <t>Calabria</t>
-  </si>
-  <si>
-    <t>Kalulu</t>
-  </si>
-  <si>
-    <t>Tomori</t>
-  </si>
-  <si>
-    <t>Hernandez T.</t>
-  </si>
-  <si>
-    <t>Krunic</t>
-  </si>
-  <si>
-    <t>Tonali</t>
-  </si>
-  <si>
-    <t>Diaz B.</t>
-  </si>
-  <si>
-    <t>Bennacer</t>
-  </si>
-  <si>
-    <t>Rafael Leao</t>
-  </si>
-  <si>
-    <t>Giroud</t>
-  </si>
-  <si>
-    <t>Tatarusanu</t>
-  </si>
-  <si>
-    <t>Mirante</t>
-  </si>
-  <si>
-    <t>Gabbia</t>
-  </si>
-  <si>
-    <t>Thiaw</t>
-  </si>
-  <si>
-    <t>Ballo-Toure'</t>
-  </si>
-  <si>
-    <t>Kjaer</t>
-  </si>
-  <si>
-    <t>Florenzi</t>
-  </si>
-  <si>
-    <t>Bakayoko</t>
-  </si>
-  <si>
-    <t>Messias</t>
-  </si>
-  <si>
-    <t>De Ketelaere</t>
-  </si>
-  <si>
-    <t>Saelemaekers</t>
-  </si>
-  <si>
-    <t>Pobega</t>
-  </si>
-  <si>
-    <t>Vranckx</t>
-  </si>
-  <si>
-    <t>Rebic</t>
-  </si>
-  <si>
-    <t>Origi</t>
-  </si>
-  <si>
-    <t>Milinkovic-Savic V.</t>
-  </si>
-  <si>
-    <t>Gravillon</t>
-  </si>
-  <si>
-    <t>Schuurs</t>
-  </si>
-  <si>
-    <t>Buongiorno</t>
-  </si>
-  <si>
-    <t>Singo</t>
-  </si>
-  <si>
-    <t>Ilic</t>
-  </si>
-  <si>
-    <t>Ricci S.</t>
-  </si>
-  <si>
-    <t>Rodriguez R.</t>
-  </si>
-  <si>
-    <t>Miranchuk</t>
-  </si>
-  <si>
-    <t>Radonjic</t>
-  </si>
-  <si>
-    <t>Sanabria</t>
-  </si>
-  <si>
-    <t>Gemello</t>
-  </si>
-  <si>
-    <t>Djidji</t>
-  </si>
-  <si>
-    <t>Vojvoda</t>
-  </si>
-  <si>
-    <t>Bayeye</t>
-  </si>
-  <si>
-    <t>Adopo</t>
-  </si>
-  <si>
-    <t>Lazaro</t>
-  </si>
-  <si>
-    <t>Gineitis</t>
-  </si>
-  <si>
-    <t>Vlasic</t>
-  </si>
-  <si>
-    <t>Linetty</t>
-  </si>
-  <si>
-    <t>Seck</t>
-  </si>
-  <si>
-    <t>Karamoh</t>
-  </si>
-  <si>
-    <t>Sportiello</t>
-  </si>
-  <si>
-    <t>Toloi</t>
-  </si>
-  <si>
-    <t>Scalvini</t>
-  </si>
-  <si>
-    <t>Palomino</t>
-  </si>
-  <si>
-    <t>Zappacosta</t>
-  </si>
-  <si>
-    <t>De Roon</t>
-  </si>
-  <si>
-    <t>Koopmeiners</t>
-  </si>
-  <si>
-    <t>Maehle</t>
-  </si>
-  <si>
-    <t>Pasalic</t>
-  </si>
-  <si>
-    <t>Zapata D.</t>
-  </si>
-  <si>
-    <t>Hojlund</t>
-  </si>
-  <si>
-    <t>Musso</t>
-  </si>
-  <si>
-    <t>Rossi F.</t>
-  </si>
-  <si>
-    <t>Djimsiti</t>
-  </si>
-  <si>
-    <t>Demiral</t>
-  </si>
-  <si>
-    <t>Okoli</t>
-  </si>
-  <si>
-    <t>Soppy</t>
-  </si>
-  <si>
-    <t>Ederson D.s.</t>
-  </si>
-  <si>
-    <t>Boga</t>
-  </si>
-  <si>
-    <t>Muriel</t>
-  </si>
-  <si>
-    <t>Onana</t>
-  </si>
-  <si>
-    <t>Darmian</t>
-  </si>
-  <si>
-    <t>Acerbi</t>
-  </si>
-  <si>
-    <t>Bastoni</t>
-  </si>
-  <si>
-    <t>Dumfries</t>
-  </si>
-  <si>
-    <t>Barella</t>
-  </si>
-  <si>
-    <t>Brozovic</t>
-  </si>
-  <si>
-    <t>Calhanoglu</t>
-  </si>
-  <si>
-    <t>Dimarco</t>
-  </si>
-  <si>
-    <t>Martinez L.</t>
-  </si>
-  <si>
-    <t>Lukaku</t>
-  </si>
-  <si>
-    <t>Handanovic</t>
-  </si>
-  <si>
-    <t>Cordaz</t>
-  </si>
-  <si>
-    <t>Bellanova</t>
-  </si>
-  <si>
-    <t>D'ambrosio</t>
-  </si>
-  <si>
-    <t>Zanotti</t>
-  </si>
-  <si>
-    <t>De Vrij</t>
-  </si>
-  <si>
-    <t>Gosens</t>
-  </si>
-  <si>
-    <t>Gagliardini</t>
-  </si>
-  <si>
-    <t>Asllani</t>
-  </si>
-  <si>
-    <t>Mkhitaryan</t>
-  </si>
-  <si>
-    <t>Carboni V.</t>
-  </si>
-  <si>
-    <t>Correa</t>
-  </si>
-  <si>
-    <t>Dzeko</t>
-  </si>
-  <si>
-    <t>Provedel</t>
-  </si>
-  <si>
-    <t>Hysaj</t>
-  </si>
-  <si>
-    <t>Casale</t>
-  </si>
-  <si>
-    <t>Romagnoli</t>
-  </si>
-  <si>
-    <t>Marusic</t>
-  </si>
-  <si>
-    <t>Milinkovic-Savic</t>
-  </si>
-  <si>
-    <t>Cataldi</t>
-  </si>
-  <si>
-    <t>Luis Alberto</t>
-  </si>
-  <si>
-    <t>Felipe Anderson</t>
-  </si>
-  <si>
-    <t>Immobile</t>
-  </si>
-  <si>
-    <t>Zaccagni</t>
-  </si>
-  <si>
-    <t>Luis Maximiano</t>
-  </si>
-  <si>
-    <t>Adamonis</t>
-  </si>
-  <si>
-    <t>Pellegrini Lu.</t>
-  </si>
-  <si>
-    <t>Gila</t>
-  </si>
-  <si>
-    <t>Lazzari</t>
-  </si>
-  <si>
-    <t>Fares</t>
-  </si>
-  <si>
-    <t>Patric</t>
-  </si>
-  <si>
-    <t>Radu</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>Marcos Antonio</t>
-  </si>
-  <si>
-    <t>Vecino</t>
-  </si>
-  <si>
-    <t>Bertini</t>
-  </si>
-  <si>
-    <t>Romero L.</t>
-  </si>
-  <si>
-    <t>Cancellieri</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Carnesecchi</t>
-  </si>
-  <si>
-    <t>Ferrari A.</t>
-  </si>
-  <si>
-    <t>Bianchetti</t>
-  </si>
-  <si>
-    <t>Vasquez</t>
-  </si>
-  <si>
-    <t>Valeri</t>
-  </si>
-  <si>
-    <t>Pickel</t>
-  </si>
-  <si>
-    <t>Castagnetti</t>
-  </si>
-  <si>
-    <t>Meite'</t>
-  </si>
-  <si>
-    <t>Buonaiuto</t>
-  </si>
-  <si>
-    <t>Okereke</t>
-  </si>
-  <si>
-    <t>Dessers</t>
-  </si>
-  <si>
-    <t>Sarr M.</t>
-  </si>
-  <si>
-    <t>Saro</t>
-  </si>
-  <si>
-    <t>Aiwu</t>
-  </si>
-  <si>
-    <t>Quagliata</t>
-  </si>
-  <si>
-    <t>Lochoshvili</t>
-  </si>
-  <si>
-    <t>Ghiglione</t>
-  </si>
-  <si>
-    <t>Acella</t>
-  </si>
-  <si>
-    <t>Galdames</t>
-  </si>
-  <si>
-    <t>Afena-Gyan</t>
-  </si>
-  <si>
-    <t>Basso Ricci</t>
-  </si>
-  <si>
-    <t>Ciofani D.</t>
-  </si>
-  <si>
-    <t>Montipo'</t>
-  </si>
-  <si>
-    <t>Dawidowicz</t>
-  </si>
-  <si>
-    <t>Hien</t>
-  </si>
-  <si>
-    <t>Magnani</t>
-  </si>
-  <si>
-    <t>Depaoli</t>
-  </si>
-  <si>
-    <t>Tameze</t>
-  </si>
-  <si>
-    <t>Duda</t>
-  </si>
-  <si>
-    <t>Lazovic</t>
-  </si>
-  <si>
-    <t>Verdi</t>
-  </si>
-  <si>
-    <t>Lasagna</t>
-  </si>
-  <si>
-    <t>Gaich</t>
-  </si>
-  <si>
-    <t>Perilli</t>
-  </si>
-  <si>
-    <t>Berardi A.</t>
-  </si>
-  <si>
-    <t>Ceccherini</t>
-  </si>
-  <si>
-    <t>Cabal</t>
-  </si>
-  <si>
-    <t>Coppola D.</t>
-  </si>
-  <si>
-    <t>Doig</t>
-  </si>
-  <si>
-    <t>Sulemana I.</t>
-  </si>
-  <si>
-    <t>Abildgaard</t>
-  </si>
-  <si>
-    <t>Miguel Veloso</t>
-  </si>
-  <si>
-    <t>Braaf</t>
-  </si>
-  <si>
-    <t>Djuric</t>
-  </si>
-  <si>
-    <t>Kallon</t>
-  </si>
-  <si>
-    <t>Ngonge</t>
+    <t>Ravaglia</t>
+  </si>
+  <si>
+    <t>Gunter</t>
+  </si>
+  <si>
+    <t>Nuytinck</t>
+  </si>
+  <si>
+    <t>Murillo</t>
+  </si>
+  <si>
+    <t>Zanoli</t>
+  </si>
+  <si>
+    <t>Winks</t>
+  </si>
+  <si>
+    <t>Rincon</t>
+  </si>
+  <si>
+    <t>Augello</t>
+  </si>
+  <si>
+    <t>Cuisance</t>
+  </si>
+  <si>
+    <t>Lammers</t>
+  </si>
+  <si>
+    <t>Gabbiadini</t>
+  </si>
+  <si>
+    <t>Turk</t>
+  </si>
+  <si>
+    <t>Oikonomou</t>
+  </si>
+  <si>
+    <t>Murru</t>
+  </si>
+  <si>
+    <t>Malagrida</t>
+  </si>
+  <si>
+    <t>Ilkhan</t>
+  </si>
+  <si>
+    <t>Paoletti</t>
+  </si>
+  <si>
+    <t>Djuricic</t>
+  </si>
+  <si>
+    <t>Jese'</t>
+  </si>
+  <si>
+    <t>Quagliarella</t>
   </si>
   <si>
     <t>Consigli</t>
@@ -1042,409 +1279,118 @@
     <t>Matheus Henrique</t>
   </si>
   <si>
+    <t>Berardi</t>
+  </si>
+  <si>
+    <t>Defrel</t>
+  </si>
+  <si>
+    <t>Lauriente'</t>
+  </si>
+  <si>
+    <t>Pegolo</t>
+  </si>
+  <si>
+    <t>Russo A.</t>
+  </si>
+  <si>
+    <t>Marchizza</t>
+  </si>
+  <si>
+    <t>Romagna</t>
+  </si>
+  <si>
+    <t>Muldur</t>
+  </si>
+  <si>
+    <t>Ferrari G.</t>
+  </si>
+  <si>
+    <t>Harroui</t>
+  </si>
+  <si>
+    <t>Ceide</t>
+  </si>
+  <si>
+    <t>Obiang</t>
+  </si>
+  <si>
+    <t>Thorstvedt</t>
+  </si>
+  <si>
+    <t>D'andrea</t>
+  </si>
+  <si>
     <t>Bajrami</t>
   </si>
   <si>
-    <t>Pinamonti</t>
-  </si>
-  <si>
-    <t>Lauriente'</t>
-  </si>
-  <si>
-    <t>Pegolo</t>
-  </si>
-  <si>
-    <t>Russo A.</t>
-  </si>
-  <si>
-    <t>Marchizza</t>
-  </si>
-  <si>
-    <t>Zortea</t>
-  </si>
-  <si>
-    <t>Romagna</t>
-  </si>
-  <si>
-    <t>Muldur</t>
-  </si>
-  <si>
-    <t>Ferrari G.</t>
-  </si>
-  <si>
-    <t>Harroui</t>
-  </si>
-  <si>
-    <t>Ceide</t>
-  </si>
-  <si>
-    <t>Thorstvedt</t>
-  </si>
-  <si>
-    <t>Obiang</t>
-  </si>
-  <si>
-    <t>D'andrea</t>
-  </si>
-  <si>
-    <t>Defrel</t>
-  </si>
-  <si>
     <t>Alvarez A.</t>
   </si>
   <si>
-    <t>Vicario</t>
-  </si>
-  <si>
-    <t>Ebuehi</t>
-  </si>
-  <si>
-    <t>Ismajli</t>
-  </si>
-  <si>
-    <t>Luperto</t>
-  </si>
-  <si>
-    <t>Parisi</t>
-  </si>
-  <si>
-    <t>Haas</t>
-  </si>
-  <si>
-    <t>Marin</t>
-  </si>
-  <si>
-    <t>Bandinelli</t>
-  </si>
-  <si>
-    <t>Baldanzi</t>
-  </si>
-  <si>
-    <t>Caputo</t>
-  </si>
-  <si>
-    <t>Cambiaghi</t>
-  </si>
-  <si>
-    <t>Perisan</t>
-  </si>
-  <si>
-    <t>Ujkani</t>
-  </si>
-  <si>
-    <t>Stojanovic</t>
-  </si>
-  <si>
-    <t>Cacace</t>
-  </si>
-  <si>
-    <t>Walukiewicz</t>
-  </si>
-  <si>
-    <t>Tonelli</t>
-  </si>
-  <si>
-    <t>Fazzini</t>
-  </si>
-  <si>
-    <t>Vignato</t>
-  </si>
-  <si>
-    <t>Grassi</t>
-  </si>
-  <si>
-    <t>Henderson L.</t>
-  </si>
-  <si>
-    <t>Satriano</t>
-  </si>
-  <si>
-    <t>Destro</t>
-  </si>
-  <si>
-    <t>Piccoli</t>
-  </si>
-  <si>
-    <t>Pjaca</t>
-  </si>
-  <si>
-    <t>Terracciano</t>
-  </si>
-  <si>
-    <t>Dodo'</t>
-  </si>
-  <si>
-    <t>Milenkovic</t>
-  </si>
-  <si>
-    <t>Martinez Quarta</t>
-  </si>
-  <si>
-    <t>Biraghi</t>
-  </si>
-  <si>
-    <t>Barak</t>
-  </si>
-  <si>
-    <t>Amrabat</t>
-  </si>
-  <si>
-    <t>Mandragora</t>
-  </si>
-  <si>
-    <t>Gonzalez N.</t>
-  </si>
-  <si>
-    <t>Cabral</t>
-  </si>
-  <si>
-    <t>Saponara</t>
-  </si>
-  <si>
-    <t>Cerofolini</t>
-  </si>
-  <si>
-    <t>Venuti</t>
-  </si>
-  <si>
-    <t>Ranieri L.</t>
-  </si>
-  <si>
-    <t>Igor</t>
-  </si>
-  <si>
-    <t>Terzic</t>
-  </si>
-  <si>
-    <t>Bianco</t>
-  </si>
-  <si>
-    <t>Sottil</t>
-  </si>
-  <si>
-    <t>Ikone'</t>
-  </si>
-  <si>
-    <t>Castrovilli</t>
-  </si>
-  <si>
-    <t>Duncan</t>
-  </si>
-  <si>
-    <t>Kouame'</t>
-  </si>
-  <si>
-    <t>Jovic</t>
-  </si>
-  <si>
-    <t>Brekalo</t>
-  </si>
-  <si>
-    <t>Ravaglia</t>
-  </si>
-  <si>
-    <t>Zanoli</t>
-  </si>
-  <si>
-    <t>Gunter</t>
-  </si>
-  <si>
-    <t>Amione</t>
-  </si>
-  <si>
-    <t>Leris</t>
-  </si>
-  <si>
-    <t>Winks</t>
-  </si>
-  <si>
-    <t>Rincon</t>
-  </si>
-  <si>
-    <t>Augello</t>
-  </si>
-  <si>
-    <t>Djuricic</t>
-  </si>
-  <si>
-    <t>Lammers</t>
-  </si>
-  <si>
-    <t>Gabbiadini</t>
-  </si>
-  <si>
-    <t>Turk</t>
-  </si>
-  <si>
-    <t>Oikonomou</t>
-  </si>
-  <si>
-    <t>Murru</t>
-  </si>
-  <si>
-    <t>Murillo</t>
-  </si>
-  <si>
-    <t>Malagrida</t>
-  </si>
-  <si>
-    <t>Ilkhan</t>
-  </si>
-  <si>
-    <t>Paoletti</t>
-  </si>
-  <si>
-    <t>Cuisance</t>
-  </si>
-  <si>
-    <t>Sabiri</t>
-  </si>
-  <si>
-    <t>Jese'</t>
-  </si>
-  <si>
-    <t>Quagliarella</t>
-  </si>
-  <si>
     <t>Skorupski</t>
   </si>
   <si>
+    <t>Cambiaso</t>
+  </si>
+  <si>
     <t>Posch</t>
   </si>
   <si>
-    <t>Soumaoro</t>
-  </si>
-  <si>
     <t>Lucumi'</t>
   </si>
   <si>
     <t>Kyriakopoulos</t>
   </si>
   <si>
+    <t>Moro N.</t>
+  </si>
+  <si>
+    <t>Schouten</t>
+  </si>
+  <si>
     <t>Dominguez</t>
   </si>
   <si>
-    <t>Schouten</t>
+    <t>Orsolini</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Ferguson</t>
+  </si>
+  <si>
+    <t>Bardi</t>
+  </si>
+  <si>
+    <t>Ravaglia F.</t>
+  </si>
+  <si>
+    <t>Medel</t>
+  </si>
+  <si>
+    <t>De Silvestri</t>
+  </si>
+  <si>
+    <t>Lykogiannis</t>
+  </si>
+  <si>
+    <t>Sosa</t>
+  </si>
+  <si>
+    <t>Bonifazi</t>
+  </si>
+  <si>
+    <t>Pyyhtia</t>
   </si>
   <si>
     <t>Aebischer</t>
   </si>
   <si>
-    <t>Ferguson</t>
-  </si>
-  <si>
-    <t>Barrow</t>
+    <t>Arnautovic</t>
   </si>
   <si>
     <t>Zirkzee</t>
-  </si>
-  <si>
-    <t>Bardi</t>
-  </si>
-  <si>
-    <t>Ravaglia F.</t>
-  </si>
-  <si>
-    <t>Medel</t>
-  </si>
-  <si>
-    <t>De Silvestri</t>
-  </si>
-  <si>
-    <t>Lykogiannis</t>
-  </si>
-  <si>
-    <t>Sosa</t>
-  </si>
-  <si>
-    <t>Bonifazi</t>
-  </si>
-  <si>
-    <t>Pyyhtia</t>
-  </si>
-  <si>
-    <t>Orsolini</t>
-  </si>
-  <si>
-    <t>Moro N.</t>
-  </si>
-  <si>
-    <t>Sansone</t>
-  </si>
-  <si>
-    <t>Szczesny</t>
-  </si>
-  <si>
-    <t>Danilo</t>
-  </si>
-  <si>
-    <t>Bremer</t>
-  </si>
-  <si>
-    <t>Alex Sandro</t>
-  </si>
-  <si>
-    <t>Cuadrado</t>
-  </si>
-  <si>
-    <t>Fagioli</t>
-  </si>
-  <si>
-    <t>Locatelli</t>
-  </si>
-  <si>
-    <t>Rabiot</t>
-  </si>
-  <si>
-    <t>Kostic</t>
-  </si>
-  <si>
-    <t>Di Maria</t>
-  </si>
-  <si>
-    <t>Vlahovic</t>
-  </si>
-  <si>
-    <t>Perin</t>
-  </si>
-  <si>
-    <t>Pinsoglio</t>
-  </si>
-  <si>
-    <t>Rugani</t>
-  </si>
-  <si>
-    <t>Bonucci</t>
-  </si>
-  <si>
-    <t>Gatti</t>
-  </si>
-  <si>
-    <t>De Sciglio</t>
-  </si>
-  <si>
-    <t>Iling-Junior</t>
-  </si>
-  <si>
-    <t>Paredes</t>
-  </si>
-  <si>
-    <t>Miretti</t>
-  </si>
-  <si>
-    <t>Barrenechea</t>
-  </si>
-  <si>
-    <t>Pogba</t>
-  </si>
-  <si>
-    <t>Chiesa</t>
-  </si>
-  <si>
-    <t>Soule'</t>
-  </si>
-  <si>
-    <t>Milik</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1748,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C475"/>
+  <dimension ref="A1:C457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1835,10 +1781,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1846,10 +1792,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1860,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1868,10 +1814,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1879,10 +1825,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1904,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1912,10 +1858,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C10">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1923,10 +1869,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1937,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1967,10 +1913,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1981,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1989,10 +1935,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2000,10 +1946,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2014,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2025,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2036,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2058,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2066,10 +2012,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2077,10 +2023,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2088,10 +2034,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2102,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2121,10 +2067,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C29">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2135,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2157,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2165,10 +2111,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2179,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2187,10 +2133,10 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C35">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2212,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2220,10 +2166,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C38">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2245,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2256,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2264,10 +2210,10 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2278,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2289,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2300,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2311,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2319,7 +2265,7 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C47">
         <v>60</v>
@@ -2333,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2344,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2352,7 +2298,7 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C50">
         <v>50</v>
@@ -2363,10 +2309,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2407,10 +2353,10 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2440,10 +2386,10 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2465,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2473,10 +2419,10 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2484,10 +2430,10 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2498,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2509,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2520,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2531,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2542,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2550,7 +2496,7 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>55</v>
@@ -2564,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2583,10 +2529,10 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2594,10 +2540,10 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2605,10 +2551,10 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2616,10 +2562,10 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C74">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2627,10 +2573,10 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2638,10 +2584,10 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C76">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2663,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="C78">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2671,10 +2617,10 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C79">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2685,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2693,10 +2639,10 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C81">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2704,10 +2650,10 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2715,10 +2661,10 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2726,10 +2672,10 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2737,10 +2683,10 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2748,10 +2694,10 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2762,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2784,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2795,7 +2741,7 @@
         <v>0.4</v>
       </c>
       <c r="C90">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2806,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2814,7 +2760,7 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C92">
         <v>60</v>
@@ -2828,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2836,10 +2782,10 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2847,10 +2793,10 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2858,10 +2804,10 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2869,10 +2815,10 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C97">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2880,10 +2826,10 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C98">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2891,10 +2837,10 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2916,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2924,10 +2870,10 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C102">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2949,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="C104">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2957,10 +2903,10 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2968,10 +2914,10 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2979,10 +2925,10 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2990,10 +2936,10 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3001,10 +2947,10 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C109">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3012,10 +2958,10 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3026,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3037,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3045,10 +2991,10 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C113">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3059,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3070,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3078,10 +3024,10 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3089,10 +3035,10 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3100,10 +3046,10 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3111,10 +3057,10 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3122,10 +3068,10 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C120">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3133,10 +3079,10 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="C121">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3144,10 +3090,10 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3155,7 +3101,7 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C123">
         <v>60</v>
@@ -3169,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3191,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3199,10 +3145,10 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3210,10 +3156,10 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3221,10 +3167,10 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3232,10 +3178,10 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3243,10 +3189,10 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C131">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3254,10 +3200,10 @@
         <v>133</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C132">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3265,10 +3211,10 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3276,10 +3222,10 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3290,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3298,10 +3244,10 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3312,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3320,10 +3266,10 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C138">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3331,10 +3277,10 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C139">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3342,10 +3288,10 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3353,10 +3299,10 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3364,10 +3310,10 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3375,10 +3321,10 @@
         <v>144</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3386,10 +3332,10 @@
         <v>145</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3397,10 +3343,10 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3408,7 +3354,7 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="C146">
         <v>55</v>
@@ -3419,10 +3365,10 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C147">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3433,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="C148">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3441,10 +3387,10 @@
         <v>150</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C149">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3452,10 +3398,10 @@
         <v>151</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3463,10 +3409,10 @@
         <v>152</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3474,10 +3420,10 @@
         <v>153</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3485,10 +3431,10 @@
         <v>154</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C153">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3496,10 +3442,10 @@
         <v>155</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C154">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3507,10 +3453,10 @@
         <v>156</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3518,10 +3464,10 @@
         <v>157</v>
       </c>
       <c r="B156">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C156">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3529,10 +3475,10 @@
         <v>158</v>
       </c>
       <c r="B157">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C157">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3540,10 +3486,10 @@
         <v>159</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3551,10 +3497,10 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3562,10 +3508,10 @@
         <v>161</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3573,10 +3519,10 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3584,10 +3530,10 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3595,10 +3541,10 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3606,10 +3552,10 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C164">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3617,10 +3563,10 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C165">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3628,10 +3574,10 @@
         <v>167</v>
       </c>
       <c r="B166">
-        <v>0.35</v>
+        <v>0.55</v>
       </c>
       <c r="C166">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3639,10 +3585,10 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C167">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3653,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="C168">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3661,10 +3607,10 @@
         <v>170</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3672,10 +3618,10 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C170">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3683,10 +3629,10 @@
         <v>172</v>
       </c>
       <c r="B171">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C171">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3694,10 +3640,10 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3705,10 +3651,10 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C173">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3716,10 +3662,10 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3727,10 +3673,10 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C175">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3738,10 +3684,10 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C176">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3749,10 +3695,10 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C177">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3760,10 +3706,10 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3771,10 +3717,10 @@
         <v>180</v>
       </c>
       <c r="B179">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C179">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3782,10 +3728,10 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C180">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3793,10 +3739,10 @@
         <v>182</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3804,10 +3750,10 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3815,10 +3761,10 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3826,10 +3772,10 @@
         <v>185</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3837,10 +3783,10 @@
         <v>186</v>
       </c>
       <c r="B185">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C185">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3848,10 +3794,10 @@
         <v>187</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3859,10 +3805,10 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C187">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3870,10 +3816,10 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3881,10 +3827,10 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3892,10 +3838,10 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C190">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3903,10 +3849,10 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C191">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3917,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="C192">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3928,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="C193">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3936,10 +3882,10 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C194">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3947,10 +3893,10 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3958,10 +3904,10 @@
         <v>197</v>
       </c>
       <c r="B196">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C196">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3969,10 +3915,10 @@
         <v>198</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3980,10 +3926,10 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C198">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4005,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="C200">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4013,10 +3959,10 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C201">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4027,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="C202">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4035,10 +3981,10 @@
         <v>204</v>
       </c>
       <c r="B203">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C203">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4049,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="C204">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4060,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="C205">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4068,10 +4014,10 @@
         <v>207</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4079,10 +4025,10 @@
         <v>208</v>
       </c>
       <c r="B207">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C207">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4090,7 +4036,7 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C208">
         <v>60</v>
@@ -4101,10 +4047,10 @@
         <v>210</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C209">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4115,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="C210">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4126,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="C211">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4137,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="C212">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4145,10 +4091,10 @@
         <v>214</v>
       </c>
       <c r="B213">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C213">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4156,10 +4102,10 @@
         <v>215</v>
       </c>
       <c r="B214">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C214">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4170,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="C215">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4181,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="C216">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4189,10 +4135,10 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4200,10 +4146,10 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C218">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4211,10 +4157,10 @@
         <v>220</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C219">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4222,10 +4168,10 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C220">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4233,10 +4179,10 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4244,10 +4190,10 @@
         <v>223</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4255,10 +4201,10 @@
         <v>224</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4266,10 +4212,10 @@
         <v>225</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C224">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4277,10 +4223,10 @@
         <v>226</v>
       </c>
       <c r="B225">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C225">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4291,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="C226">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4310,10 +4256,10 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4321,10 +4267,10 @@
         <v>230</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4332,10 +4278,10 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C230">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4343,10 +4289,10 @@
         <v>232</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4354,10 +4300,10 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C232">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4365,10 +4311,10 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C233">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4376,10 +4322,10 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C234">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4387,10 +4333,10 @@
         <v>236</v>
       </c>
       <c r="B235">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C235">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4401,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="C236">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4409,10 +4355,10 @@
         <v>238</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4420,10 +4366,10 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C238">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4431,10 +4377,10 @@
         <v>240</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4442,10 +4388,10 @@
         <v>241</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4453,10 +4399,10 @@
         <v>242</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4464,10 +4410,10 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C242">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4475,10 +4421,10 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C243">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4486,10 +4432,10 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4497,10 +4443,10 @@
         <v>246</v>
       </c>
       <c r="B245">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C245">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4508,10 +4454,10 @@
         <v>247</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4519,10 +4465,10 @@
         <v>248</v>
       </c>
       <c r="B247">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C247">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4533,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="C248">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4544,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4552,10 +4498,10 @@
         <v>251</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4563,10 +4509,10 @@
         <v>252</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C251">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4574,10 +4520,10 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C252">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4585,10 +4531,10 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4596,10 +4542,10 @@
         <v>255</v>
       </c>
       <c r="B254">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C254">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4607,10 +4553,10 @@
         <v>256</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C255">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4618,10 +4564,10 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4629,10 +4575,10 @@
         <v>258</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4640,10 +4586,10 @@
         <v>259</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C258">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4651,10 +4597,10 @@
         <v>260</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C259">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4662,10 +4608,10 @@
         <v>261</v>
       </c>
       <c r="B260">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C260">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4673,10 +4619,10 @@
         <v>262</v>
       </c>
       <c r="B261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C261">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4684,10 +4630,10 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="C262">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4695,10 +4641,10 @@
         <v>264</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4706,10 +4652,10 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C264">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4717,10 +4663,10 @@
         <v>266</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C265">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4728,10 +4674,10 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4739,10 +4685,10 @@
         <v>268</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4750,10 +4696,10 @@
         <v>269</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C268">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4761,10 +4707,10 @@
         <v>270</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4772,7 +4718,7 @@
         <v>271</v>
       </c>
       <c r="B270">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="C270">
         <v>60</v>
@@ -4783,10 +4729,10 @@
         <v>272</v>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4794,10 +4740,10 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C272">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4808,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4816,10 +4762,10 @@
         <v>275</v>
       </c>
       <c r="B274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4827,10 +4773,10 @@
         <v>276</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4838,10 +4784,10 @@
         <v>277</v>
       </c>
       <c r="B276">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="C276">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4849,10 +4795,10 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4860,10 +4806,10 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C278">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4871,10 +4817,10 @@
         <v>280</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C279">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4882,10 +4828,10 @@
         <v>281</v>
       </c>
       <c r="B280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4893,10 +4839,10 @@
         <v>282</v>
       </c>
       <c r="B281">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C281">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4904,10 +4850,10 @@
         <v>283</v>
       </c>
       <c r="B282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C282">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4915,10 +4861,10 @@
         <v>284</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C283">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4926,10 +4872,10 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4940,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="C285">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4948,10 +4894,10 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C286">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4959,10 +4905,10 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4970,10 +4916,10 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C288">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4981,10 +4927,10 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4992,10 +4938,10 @@
         <v>291</v>
       </c>
       <c r="B290">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C290">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5003,10 +4949,10 @@
         <v>292</v>
       </c>
       <c r="B291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C291">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5014,10 +4960,10 @@
         <v>293</v>
       </c>
       <c r="B292">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C292">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5025,10 +4971,10 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C293">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5036,10 +4982,10 @@
         <v>295</v>
       </c>
       <c r="B294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5047,10 +4993,10 @@
         <v>296</v>
       </c>
       <c r="B295">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C295">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5058,10 +5004,10 @@
         <v>297</v>
       </c>
       <c r="B296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C296">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5069,10 +5015,10 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C297">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5083,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="C298">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5091,10 +5037,10 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5102,10 +5048,10 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C300">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5113,10 +5059,10 @@
         <v>302</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5124,7 +5070,7 @@
         <v>303</v>
       </c>
       <c r="B302">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
       <c r="C302">
         <v>55</v>
@@ -5135,10 +5081,10 @@
         <v>304</v>
       </c>
       <c r="B303">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C303">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5146,10 +5092,10 @@
         <v>305</v>
       </c>
       <c r="B304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C304">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5157,10 +5103,10 @@
         <v>306</v>
       </c>
       <c r="B305">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C305">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5168,10 +5114,10 @@
         <v>307</v>
       </c>
       <c r="B306">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C306">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5179,10 +5125,10 @@
         <v>308</v>
       </c>
       <c r="B307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C307">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5190,10 +5136,10 @@
         <v>309</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5204,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="C309">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5212,10 +5158,10 @@
         <v>311</v>
       </c>
       <c r="B310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C310">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5223,10 +5169,10 @@
         <v>312</v>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C311">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5234,10 +5180,10 @@
         <v>313</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C312">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5245,10 +5191,10 @@
         <v>314</v>
       </c>
       <c r="B313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C313">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5256,10 +5202,10 @@
         <v>315</v>
       </c>
       <c r="B314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C314">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5267,10 +5213,10 @@
         <v>316</v>
       </c>
       <c r="B315">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C315">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5278,10 +5224,10 @@
         <v>317</v>
       </c>
       <c r="B316">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C316">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5289,10 +5235,10 @@
         <v>318</v>
       </c>
       <c r="B317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C317">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5300,10 +5246,10 @@
         <v>319</v>
       </c>
       <c r="B318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C318">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5311,10 +5257,10 @@
         <v>320</v>
       </c>
       <c r="B319">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C319">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5325,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="C320">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5336,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="C321">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5347,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="C322">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5358,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="C323">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5369,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="C324">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5377,10 +5323,10 @@
         <v>326</v>
       </c>
       <c r="B325">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C325">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5388,10 +5334,10 @@
         <v>327</v>
       </c>
       <c r="B326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C326">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5399,10 +5345,10 @@
         <v>328</v>
       </c>
       <c r="B327">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="C327">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5410,10 +5356,10 @@
         <v>329</v>
       </c>
       <c r="B328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5421,10 +5367,10 @@
         <v>330</v>
       </c>
       <c r="B329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C329">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5432,7 +5378,7 @@
         <v>331</v>
       </c>
       <c r="B330">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="C330">
         <v>60</v>
@@ -5443,10 +5389,10 @@
         <v>332</v>
       </c>
       <c r="B331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5454,10 +5400,10 @@
         <v>333</v>
       </c>
       <c r="B332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C332">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5476,10 +5422,10 @@
         <v>335</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C334">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5490,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="C335">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -5498,10 +5444,10 @@
         <v>337</v>
       </c>
       <c r="B336">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C336">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5509,10 +5455,10 @@
         <v>338</v>
       </c>
       <c r="B337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C337">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5520,10 +5466,10 @@
         <v>339</v>
       </c>
       <c r="B338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C338">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5531,10 +5477,10 @@
         <v>340</v>
       </c>
       <c r="B339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5542,10 +5488,10 @@
         <v>341</v>
       </c>
       <c r="B340">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="C340">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5553,10 +5499,10 @@
         <v>342</v>
       </c>
       <c r="B341">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C341">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5564,10 +5510,10 @@
         <v>343</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C342">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -5575,10 +5521,10 @@
         <v>344</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C343">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5589,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="C344">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5600,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="C345">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5608,10 +5554,10 @@
         <v>347</v>
       </c>
       <c r="B346">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C346">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5622,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="C347">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5633,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="C348">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -5641,10 +5587,10 @@
         <v>350</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C349">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5652,10 +5598,10 @@
         <v>351</v>
       </c>
       <c r="B350">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C350">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -5663,10 +5609,10 @@
         <v>352</v>
       </c>
       <c r="B351">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C351">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -5674,10 +5620,10 @@
         <v>353</v>
       </c>
       <c r="B352">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C352">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -5685,10 +5631,10 @@
         <v>354</v>
       </c>
       <c r="B353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C353">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -5696,10 +5642,10 @@
         <v>355</v>
       </c>
       <c r="B354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -5707,10 +5653,10 @@
         <v>356</v>
       </c>
       <c r="B355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C355">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -5718,10 +5664,10 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C356">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -5729,10 +5675,10 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -5740,10 +5686,10 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C358">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -5765,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="C360">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -5773,10 +5719,10 @@
         <v>362</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C361">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -5784,10 +5730,10 @@
         <v>363</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -5795,10 +5741,10 @@
         <v>364</v>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -5806,10 +5752,10 @@
         <v>365</v>
       </c>
       <c r="B364">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="C364">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -5817,10 +5763,10 @@
         <v>366</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C365">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -5828,10 +5774,10 @@
         <v>367</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C366">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5839,10 +5785,10 @@
         <v>368</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C367">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -5850,10 +5796,10 @@
         <v>369</v>
       </c>
       <c r="B368">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C368">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -5861,10 +5807,10 @@
         <v>370</v>
       </c>
       <c r="B369">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C369">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -5872,10 +5818,10 @@
         <v>371</v>
       </c>
       <c r="B370">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C370">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -5886,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="C371">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -5894,10 +5840,10 @@
         <v>373</v>
       </c>
       <c r="B372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -5905,10 +5851,10 @@
         <v>374</v>
       </c>
       <c r="B373">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C373">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -5916,10 +5862,10 @@
         <v>375</v>
       </c>
       <c r="B374">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C374">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -5927,10 +5873,10 @@
         <v>376</v>
       </c>
       <c r="B375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C375">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -5938,10 +5884,10 @@
         <v>377</v>
       </c>
       <c r="B376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -5949,10 +5895,10 @@
         <v>378</v>
       </c>
       <c r="B377">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="C377">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -5960,10 +5906,10 @@
         <v>379</v>
       </c>
       <c r="B378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C378">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -5971,10 +5917,10 @@
         <v>380</v>
       </c>
       <c r="B379">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C379">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -5982,10 +5928,10 @@
         <v>381</v>
       </c>
       <c r="B380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -5993,10 +5939,10 @@
         <v>382</v>
       </c>
       <c r="B381">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C381">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6004,10 +5950,10 @@
         <v>383</v>
       </c>
       <c r="B382">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C382">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6015,10 +5961,10 @@
         <v>384</v>
       </c>
       <c r="B383">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C383">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6026,10 +5972,10 @@
         <v>385</v>
       </c>
       <c r="B384">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C384">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6037,10 +5983,10 @@
         <v>386</v>
       </c>
       <c r="B385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C385">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6048,10 +5994,10 @@
         <v>387</v>
       </c>
       <c r="B386">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C386">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6059,10 +6005,10 @@
         <v>388</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C387">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6070,10 +6016,10 @@
         <v>389</v>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C388">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6081,10 +6027,10 @@
         <v>390</v>
       </c>
       <c r="B389">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="C389">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6092,10 +6038,10 @@
         <v>391</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C390">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6103,10 +6049,10 @@
         <v>392</v>
       </c>
       <c r="B391">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="C391">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6125,10 +6071,10 @@
         <v>394</v>
       </c>
       <c r="B393">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C393">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6136,10 +6082,10 @@
         <v>395</v>
       </c>
       <c r="B394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C394">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6147,10 +6093,10 @@
         <v>396</v>
       </c>
       <c r="B395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C395">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6158,10 +6104,10 @@
         <v>397</v>
       </c>
       <c r="B396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C396">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6169,10 +6115,10 @@
         <v>398</v>
       </c>
       <c r="B397">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C397">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6180,10 +6126,10 @@
         <v>399</v>
       </c>
       <c r="B398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C398">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6191,10 +6137,10 @@
         <v>400</v>
       </c>
       <c r="B399">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C399">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6202,7 +6148,7 @@
         <v>401</v>
       </c>
       <c r="B400">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
       <c r="C400">
         <v>55</v>
@@ -6213,10 +6159,10 @@
         <v>402</v>
       </c>
       <c r="B401">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="C401">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6224,10 +6170,10 @@
         <v>403</v>
       </c>
       <c r="B402">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="C402">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6238,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="C403">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6249,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="C404">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6271,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="C406">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6279,10 +6225,10 @@
         <v>408</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C407">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6290,10 +6236,10 @@
         <v>409</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C408">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6301,10 +6247,10 @@
         <v>410</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C409">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6312,10 +6258,10 @@
         <v>411</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C410">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6323,10 +6269,10 @@
         <v>412</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="C411">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6359,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="C414">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6367,10 +6313,10 @@
         <v>416</v>
       </c>
       <c r="B415">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="C415">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -6378,10 +6324,10 @@
         <v>417</v>
       </c>
       <c r="B416">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C416">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -6400,10 +6346,10 @@
         <v>419</v>
       </c>
       <c r="B418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C418">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6411,10 +6357,10 @@
         <v>420</v>
       </c>
       <c r="B419">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C419">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -6422,10 +6368,10 @@
         <v>421</v>
       </c>
       <c r="B420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C420">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -6433,10 +6379,10 @@
         <v>422</v>
       </c>
       <c r="B421">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="C421">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -6444,10 +6390,10 @@
         <v>423</v>
       </c>
       <c r="B422">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="C422">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -6458,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="C423">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -6469,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="C424">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -6477,10 +6423,10 @@
         <v>426</v>
       </c>
       <c r="B425">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C425">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -6491,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="C426">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -6499,10 +6445,10 @@
         <v>428</v>
       </c>
       <c r="B427">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C427">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -6510,10 +6456,10 @@
         <v>429</v>
       </c>
       <c r="B428">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C428">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -6521,10 +6467,10 @@
         <v>430</v>
       </c>
       <c r="B429">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C429">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -6532,10 +6478,10 @@
         <v>431</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C430">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -6543,10 +6489,10 @@
         <v>432</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C431">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -6554,10 +6500,10 @@
         <v>433</v>
       </c>
       <c r="B432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C432">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -6565,10 +6511,10 @@
         <v>434</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -6576,7 +6522,7 @@
         <v>435</v>
       </c>
       <c r="B434">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
       <c r="C434">
         <v>60</v>
@@ -6587,10 +6533,10 @@
         <v>436</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="C435">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -6598,10 +6544,10 @@
         <v>437</v>
       </c>
       <c r="B436">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C436">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -6609,10 +6555,10 @@
         <v>438</v>
       </c>
       <c r="B437">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C437">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -6623,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="C438">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -6631,10 +6577,10 @@
         <v>440</v>
       </c>
       <c r="B439">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C439">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -6642,10 +6588,10 @@
         <v>441</v>
       </c>
       <c r="B440">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -6653,10 +6599,10 @@
         <v>442</v>
       </c>
       <c r="B441">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C441">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -6664,10 +6610,10 @@
         <v>443</v>
       </c>
       <c r="B442">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C442">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -6675,10 +6621,10 @@
         <v>444</v>
       </c>
       <c r="B443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C443">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -6686,10 +6632,10 @@
         <v>445</v>
       </c>
       <c r="B444">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C444">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -6697,10 +6643,10 @@
         <v>446</v>
       </c>
       <c r="B445">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C445">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -6708,10 +6654,10 @@
         <v>447</v>
       </c>
       <c r="B446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C446">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -6722,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="C447">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -6730,10 +6676,10 @@
         <v>449</v>
       </c>
       <c r="B448">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C448">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -6741,10 +6687,10 @@
         <v>450</v>
       </c>
       <c r="B449">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C449">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -6752,10 +6698,10 @@
         <v>451</v>
       </c>
       <c r="B450">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C450">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -6763,10 +6709,10 @@
         <v>452</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C451">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -6774,10 +6720,10 @@
         <v>453</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C452">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -6785,10 +6731,10 @@
         <v>454</v>
       </c>
       <c r="B453">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C453">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -6796,10 +6742,10 @@
         <v>455</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C454">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -6807,7 +6753,7 @@
         <v>456</v>
       </c>
       <c r="B455">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="C455">
         <v>60</v>
@@ -6818,10 +6764,10 @@
         <v>457</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C456">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -6829,208 +6775,10 @@
         <v>458</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C457">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3">
-      <c r="A458" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B458">
-        <v>1</v>
-      </c>
-      <c r="C458">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3">
-      <c r="A459" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B459">
-        <v>1</v>
-      </c>
-      <c r="C459">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3">
-      <c r="A460" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B460">
-        <v>0.6</v>
-      </c>
-      <c r="C460">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3">
-      <c r="A461" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B461">
-        <v>0.6</v>
-      </c>
-      <c r="C461">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3">
-      <c r="A462" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B462">
-        <v>0</v>
-      </c>
-      <c r="C462">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3">
-      <c r="A463" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B463">
-        <v>0</v>
-      </c>
-      <c r="C463">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3">
-      <c r="A464" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B464">
-        <v>0</v>
-      </c>
-      <c r="C464">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3">
-      <c r="A465" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B465">
-        <v>0</v>
-      </c>
-      <c r="C465">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3">
-      <c r="A466" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B466">
-        <v>0</v>
-      </c>
-      <c r="C466">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3">
-      <c r="A467" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B467">
-        <v>0.4</v>
-      </c>
-      <c r="C467">
         <v>55</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3">
-      <c r="A468" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B468">
-        <v>0</v>
-      </c>
-      <c r="C468">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3">
-      <c r="A469" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B469">
-        <v>0</v>
-      </c>
-      <c r="C469">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3">
-      <c r="A470" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B470">
-        <v>0</v>
-      </c>
-      <c r="C470">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3">
-      <c r="A471" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B471">
-        <v>0</v>
-      </c>
-      <c r="C471">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3">
-      <c r="A472" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B472">
-        <v>0</v>
-      </c>
-      <c r="C472">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3">
-      <c r="A473" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B473">
-        <v>0.4</v>
-      </c>
-      <c r="C473">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3">
-      <c r="A474" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B474">
-        <v>0</v>
-      </c>
-      <c r="C474">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3">
-      <c r="A475" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B475">
-        <v>0.4</v>
-      </c>
-      <c r="C475">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/mid_outputs/match_probable_players.xlsx
+++ b/mid_outputs/match_probable_players.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="482">
   <si>
     <t>starter</t>
   </si>
@@ -25,6 +25,219 @@
     <t>player</t>
   </si>
   <si>
+    <t>Szczesny</t>
+  </si>
+  <si>
+    <t>Danilo</t>
+  </si>
+  <si>
+    <t>Bremer</t>
+  </si>
+  <si>
+    <t>Gatti</t>
+  </si>
+  <si>
+    <t>Weah</t>
+  </si>
+  <si>
+    <t>Fagioli</t>
+  </si>
+  <si>
+    <t>Locatelli</t>
+  </si>
+  <si>
+    <t>Rabiot</t>
+  </si>
+  <si>
+    <t>Kostic</t>
+  </si>
+  <si>
+    <t>Chiesa</t>
+  </si>
+  <si>
+    <t>Vlahovic</t>
+  </si>
+  <si>
+    <t>Perin</t>
+  </si>
+  <si>
+    <t>Pinsoglio</t>
+  </si>
+  <si>
+    <t>Rugani</t>
+  </si>
+  <si>
+    <t>Alex Sandro</t>
+  </si>
+  <si>
+    <t>Cambiaso</t>
+  </si>
+  <si>
+    <t>Mckennie</t>
+  </si>
+  <si>
+    <t>Miretti</t>
+  </si>
+  <si>
+    <t>Nicolussi Caviglia</t>
+  </si>
+  <si>
+    <t>Iling Junior</t>
+  </si>
+  <si>
+    <t>Yildiz</t>
+  </si>
+  <si>
+    <t>Kean</t>
+  </si>
+  <si>
+    <t>Milik</t>
+  </si>
+  <si>
+    <t>Provedel</t>
+  </si>
+  <si>
+    <t>Marusic</t>
+  </si>
+  <si>
+    <t>Casale</t>
+  </si>
+  <si>
+    <t>Romagnoli</t>
+  </si>
+  <si>
+    <t>Hysaj</t>
+  </si>
+  <si>
+    <t>Kamada</t>
+  </si>
+  <si>
+    <t>Cataldi</t>
+  </si>
+  <si>
+    <t>Luis Alberto</t>
+  </si>
+  <si>
+    <t>Felipe Anderson</t>
+  </si>
+  <si>
+    <t>Immobile</t>
+  </si>
+  <si>
+    <t>Zaccagni</t>
+  </si>
+  <si>
+    <t>Sepe</t>
+  </si>
+  <si>
+    <t>Mandas</t>
+  </si>
+  <si>
+    <t>Gila</t>
+  </si>
+  <si>
+    <t>Lazzari</t>
+  </si>
+  <si>
+    <t>Patric</t>
+  </si>
+  <si>
+    <t>Pellegrini Lu.</t>
+  </si>
+  <si>
+    <t>Vecino</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Guendouzi</t>
+  </si>
+  <si>
+    <t>Rovella</t>
+  </si>
+  <si>
+    <t>Isaksen</t>
+  </si>
+  <si>
+    <t>Castellanos</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Sommer</t>
+  </si>
+  <si>
+    <t>Darmian</t>
+  </si>
+  <si>
+    <t>De Vrij</t>
+  </si>
+  <si>
+    <t>Bastoni</t>
+  </si>
+  <si>
+    <t>Dumfries</t>
+  </si>
+  <si>
+    <t>Barella</t>
+  </si>
+  <si>
+    <t>Calhanoglu</t>
+  </si>
+  <si>
+    <t>Mkhitaryan</t>
+  </si>
+  <si>
+    <t>Dimarco</t>
+  </si>
+  <si>
+    <t>Thuram</t>
+  </si>
+  <si>
+    <t>Martinez L.</t>
+  </si>
+  <si>
+    <t>Audero</t>
+  </si>
+  <si>
+    <t>Di Gennaro</t>
+  </si>
+  <si>
+    <t>Bisseck</t>
+  </si>
+  <si>
+    <t>Acerbi</t>
+  </si>
+  <si>
+    <t>Cuadrado</t>
+  </si>
+  <si>
+    <t>Carlos Augusto</t>
+  </si>
+  <si>
+    <t>Pavard</t>
+  </si>
+  <si>
+    <t>Asllani</t>
+  </si>
+  <si>
+    <t>Frattesi</t>
+  </si>
+  <si>
+    <t>Klaassen</t>
+  </si>
+  <si>
+    <t>Sensi</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Arnautovic</t>
+  </si>
+  <si>
     <t>Maignan</t>
   </si>
   <si>
@@ -34,579 +247,1083 @@
     <t>Kjaer</t>
   </si>
   <si>
-    <t>Tomori</t>
+    <t>Thiaw</t>
   </si>
   <si>
     <t>Hernandez T.</t>
   </si>
   <si>
-    <t>Tonali</t>
+    <t>Loftus-Cheek</t>
   </si>
   <si>
     <t>Krunic</t>
   </si>
   <si>
-    <t>Messias</t>
-  </si>
-  <si>
-    <t>Bennacer</t>
+    <t>Reijnders</t>
+  </si>
+  <si>
+    <t>Pulisic</t>
+  </si>
+  <si>
+    <t>Giroud</t>
   </si>
   <si>
     <t>Rafael Leao</t>
   </si>
   <si>
-    <t>Giroud</t>
-  </si>
-  <si>
-    <t>Tatarusanu</t>
+    <t>Sportiello</t>
   </si>
   <si>
     <t>Mirante</t>
   </si>
   <si>
-    <t>Gabbia</t>
-  </si>
-  <si>
-    <t>Ballo-Toure'</t>
-  </si>
-  <si>
-    <t>Thiaw</t>
+    <t>Florenzi</t>
   </si>
   <si>
     <t>Kalulu</t>
   </si>
   <si>
-    <t>Florenzi</t>
-  </si>
-  <si>
-    <t>Bakayoko</t>
-  </si>
-  <si>
-    <t>Vranckx</t>
-  </si>
-  <si>
-    <t>Saelemaekers</t>
+    <t>Pellegrino</t>
+  </si>
+  <si>
+    <t>Pobega</t>
+  </si>
+  <si>
+    <t>Adli</t>
+  </si>
+  <si>
+    <t>Musah</t>
+  </si>
+  <si>
+    <t>Chukwueze</t>
+  </si>
+  <si>
+    <t>Romero L.</t>
+  </si>
+  <si>
+    <t>Okafor</t>
+  </si>
+  <si>
+    <t>Jovic</t>
+  </si>
+  <si>
+    <t>Martinez Jo.</t>
+  </si>
+  <si>
+    <t>Sabelli</t>
+  </si>
+  <si>
+    <t>Bani</t>
+  </si>
+  <si>
+    <t>Dragusin</t>
+  </si>
+  <si>
+    <t>Vasquez</t>
+  </si>
+  <si>
+    <t>Strootman</t>
+  </si>
+  <si>
+    <t>Badelj</t>
+  </si>
+  <si>
+    <t>Frendrup</t>
+  </si>
+  <si>
+    <t>Malinovskyi</t>
+  </si>
+  <si>
+    <t>Gudmundsson A.</t>
+  </si>
+  <si>
+    <t>Retegui</t>
+  </si>
+  <si>
+    <t>Leali</t>
+  </si>
+  <si>
+    <t>Sommariva</t>
+  </si>
+  <si>
+    <t>De Winter</t>
+  </si>
+  <si>
+    <t>Hefti</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Haps</t>
+  </si>
+  <si>
+    <t>Matturro</t>
+  </si>
+  <si>
+    <t>Kutlu</t>
+  </si>
+  <si>
+    <t>Jagiello</t>
+  </si>
+  <si>
+    <t>Thorsby</t>
+  </si>
+  <si>
+    <t>Ekuban</t>
+  </si>
+  <si>
+    <t>Puscas</t>
+  </si>
+  <si>
+    <t>Meret</t>
+  </si>
+  <si>
+    <t>Di Lorenzo</t>
+  </si>
+  <si>
+    <t>Rrahmani</t>
+  </si>
+  <si>
+    <t>Juan Jesus</t>
+  </si>
+  <si>
+    <t>Olivera</t>
+  </si>
+  <si>
+    <t>Zambo Anguissa</t>
+  </si>
+  <si>
+    <t>Lobotka</t>
+  </si>
+  <si>
+    <t>Zielinski</t>
+  </si>
+  <si>
+    <t>Politano</t>
+  </si>
+  <si>
+    <t>Osimhen</t>
+  </si>
+  <si>
+    <t>Kvaratskhelia</t>
+  </si>
+  <si>
+    <t>Gollini</t>
+  </si>
+  <si>
+    <t>Contini</t>
+  </si>
+  <si>
+    <t>Ostigard</t>
+  </si>
+  <si>
+    <t>Natan</t>
+  </si>
+  <si>
+    <t>Zanoli</t>
+  </si>
+  <si>
+    <t>Mario Rui</t>
+  </si>
+  <si>
+    <t>Elmas</t>
+  </si>
+  <si>
+    <t>Zerbin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cajuste </t>
+  </si>
+  <si>
+    <t>Gaetano</t>
+  </si>
+  <si>
+    <t>Lindstrom</t>
+  </si>
+  <si>
+    <t>Raspadori</t>
+  </si>
+  <si>
+    <t>Simeone</t>
+  </si>
+  <si>
+    <t>Radunovic</t>
+  </si>
+  <si>
+    <t>Zappa</t>
+  </si>
+  <si>
+    <t>Dossena</t>
+  </si>
+  <si>
+    <t>Wieteska</t>
+  </si>
+  <si>
+    <t>Augello</t>
+  </si>
+  <si>
+    <t>Nandez</t>
+  </si>
+  <si>
+    <t>Makoumbou</t>
+  </si>
+  <si>
+    <t>Sulemana I.</t>
+  </si>
+  <si>
+    <t>Jankto</t>
+  </si>
+  <si>
+    <t>Luvumbo</t>
+  </si>
+  <si>
+    <t>Petagna</t>
+  </si>
+  <si>
+    <t>Scuffet</t>
+  </si>
+  <si>
+    <t>Aresti</t>
+  </si>
+  <si>
+    <t>Di Pardo</t>
+  </si>
+  <si>
+    <t>Goldaniga</t>
+  </si>
+  <si>
+    <t>Obert</t>
+  </si>
+  <si>
+    <t>Azzi</t>
+  </si>
+  <si>
+    <t>Deiola</t>
+  </si>
+  <si>
+    <t>Viola</t>
+  </si>
+  <si>
+    <t>Prati</t>
+  </si>
+  <si>
+    <t>Oristanio</t>
+  </si>
+  <si>
+    <t>Mancosu</t>
+  </si>
+  <si>
+    <t>Pavoletti</t>
+  </si>
+  <si>
+    <t>Shomurodov</t>
+  </si>
+  <si>
+    <t>Silvestri</t>
+  </si>
+  <si>
+    <t>Perez N.</t>
+  </si>
+  <si>
+    <t>Bijol</t>
+  </si>
+  <si>
+    <t>Kabasele</t>
+  </si>
+  <si>
+    <t>Ferreira J.</t>
+  </si>
+  <si>
+    <t>Samardzic</t>
+  </si>
+  <si>
+    <t>Walace</t>
+  </si>
+  <si>
+    <t>Lovric</t>
+  </si>
+  <si>
+    <t>Kamara H.</t>
+  </si>
+  <si>
+    <t>Lucca</t>
+  </si>
+  <si>
+    <t>Thauvin</t>
+  </si>
+  <si>
+    <t>Okoye</t>
+  </si>
+  <si>
+    <t>Zemura</t>
+  </si>
+  <si>
+    <t>Guessand A.</t>
+  </si>
+  <si>
+    <t>Ebosele</t>
+  </si>
+  <si>
+    <t>Kristensen T.</t>
+  </si>
+  <si>
+    <t>Camara E.</t>
+  </si>
+  <si>
+    <t>Zarraga</t>
+  </si>
+  <si>
+    <t>Quina</t>
+  </si>
+  <si>
+    <t>Payero</t>
+  </si>
+  <si>
+    <t>Pafundi</t>
+  </si>
+  <si>
+    <t>Ake' M.</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Davis K.</t>
+  </si>
+  <si>
+    <t>Vivaldo</t>
+  </si>
+  <si>
+    <t>Turati</t>
+  </si>
+  <si>
+    <t>Oyono</t>
+  </si>
+  <si>
+    <t>Monterisi</t>
+  </si>
+  <si>
+    <t>Romagnoli S.</t>
+  </si>
+  <si>
+    <t>Marchizza</t>
+  </si>
+  <si>
+    <t>Mazzitelli</t>
+  </si>
+  <si>
+    <t>Barrenechea</t>
+  </si>
+  <si>
+    <t>Gelli</t>
+  </si>
+  <si>
+    <t>Soule'</t>
+  </si>
+  <si>
+    <t>Cheddira</t>
+  </si>
+  <si>
+    <t>Harroui</t>
+  </si>
+  <si>
+    <t>Cerofolini</t>
+  </si>
+  <si>
+    <t>Frattali</t>
+  </si>
+  <si>
+    <t>Okoli</t>
+  </si>
+  <si>
+    <t>Mateus Lusuardi</t>
+  </si>
+  <si>
+    <t>Lirola</t>
+  </si>
+  <si>
+    <t>Brescianini</t>
+  </si>
+  <si>
+    <t>Garritano</t>
+  </si>
+  <si>
+    <t>Bourabia</t>
+  </si>
+  <si>
+    <t>Reinier</t>
+  </si>
+  <si>
+    <t>Baez</t>
+  </si>
+  <si>
+    <t>Caso</t>
+  </si>
+  <si>
+    <t>Kvernadze</t>
+  </si>
+  <si>
+    <t>Cuni</t>
+  </si>
+  <si>
+    <t>Kaio Jorge</t>
+  </si>
+  <si>
+    <t>Consigli</t>
+  </si>
+  <si>
+    <t>Toljan</t>
+  </si>
+  <si>
+    <t>Erlic</t>
+  </si>
+  <si>
+    <t>Tressoldi</t>
+  </si>
+  <si>
+    <t>Vina</t>
+  </si>
+  <si>
+    <t>Boloca</t>
+  </si>
+  <si>
+    <t>Matheus Henrique</t>
+  </si>
+  <si>
+    <t>Berardi</t>
+  </si>
+  <si>
+    <t>Thorstvedt</t>
+  </si>
+  <si>
+    <t>Lauriente'</t>
+  </si>
+  <si>
+    <t>Pinamonti</t>
+  </si>
+  <si>
+    <t>Cragno</t>
+  </si>
+  <si>
+    <t>Pegolo</t>
+  </si>
+  <si>
+    <t>Ferrari G.</t>
+  </si>
+  <si>
+    <t>Missori</t>
+  </si>
+  <si>
+    <t>Viti</t>
+  </si>
+  <si>
+    <t>Pedersen</t>
+  </si>
+  <si>
+    <t>Obiang</t>
+  </si>
+  <si>
+    <t>Bajrami</t>
+  </si>
+  <si>
+    <t>Lipani</t>
+  </si>
+  <si>
+    <t>Volpato</t>
+  </si>
+  <si>
+    <t>Castillejo</t>
+  </si>
+  <si>
+    <t>Racic</t>
+  </si>
+  <si>
+    <t>Ceide</t>
+  </si>
+  <si>
+    <t>Defrel</t>
+  </si>
+  <si>
+    <t>Mulattieri</t>
+  </si>
+  <si>
+    <t>Di Gregorio</t>
+  </si>
+  <si>
+    <t>Izzo</t>
+  </si>
+  <si>
+    <t>Mari'</t>
+  </si>
+  <si>
+    <t>Caldirola</t>
+  </si>
+  <si>
+    <t>Ciurria</t>
+  </si>
+  <si>
+    <t>Gagliardini</t>
+  </si>
+  <si>
+    <t>Pessina</t>
+  </si>
+  <si>
+    <t>Birindelli</t>
+  </si>
+  <si>
+    <t>Colpani</t>
+  </si>
+  <si>
+    <t>Caprari</t>
+  </si>
+  <si>
+    <t>Colombo</t>
+  </si>
+  <si>
+    <t>Gori</t>
+  </si>
+  <si>
+    <t>Sorrentino A.</t>
+  </si>
+  <si>
+    <t>Carboni A.</t>
+  </si>
+  <si>
+    <t>Cittadini</t>
+  </si>
+  <si>
+    <t>Kyriakopoulos</t>
+  </si>
+  <si>
+    <t>Carboni F.</t>
+  </si>
+  <si>
+    <t>Pereira P.</t>
+  </si>
+  <si>
+    <t>Machin</t>
+  </si>
+  <si>
+    <t>Bondo</t>
+  </si>
+  <si>
+    <t>Carboni V.</t>
+  </si>
+  <si>
+    <t>Akpa Akpro</t>
+  </si>
+  <si>
+    <t>Vignato S.</t>
+  </si>
+  <si>
+    <t>Mota</t>
+  </si>
+  <si>
+    <t>Maric</t>
+  </si>
+  <si>
+    <t>Falcone</t>
+  </si>
+  <si>
+    <t>Gendrey</t>
+  </si>
+  <si>
+    <t>Baschirotto</t>
+  </si>
+  <si>
+    <t>Pongracic</t>
+  </si>
+  <si>
+    <t>Gallo</t>
+  </si>
+  <si>
+    <t>Rafia</t>
+  </si>
+  <si>
+    <t>Ramadani</t>
+  </si>
+  <si>
+    <t>Kaba</t>
+  </si>
+  <si>
+    <t>Strefezza</t>
+  </si>
+  <si>
+    <t>Krstovic</t>
+  </si>
+  <si>
+    <t>Almqvist</t>
+  </si>
+  <si>
+    <t>Brancolini</t>
+  </si>
+  <si>
+    <t>Borbei</t>
+  </si>
+  <si>
+    <t>Touba</t>
+  </si>
+  <si>
+    <t>Dermaku</t>
+  </si>
+  <si>
+    <t>Dorgu</t>
+  </si>
+  <si>
+    <t>Venuti</t>
+  </si>
+  <si>
+    <t>Smajlovic</t>
+  </si>
+  <si>
+    <t>Gonzalez J.</t>
+  </si>
+  <si>
+    <t>Blin</t>
+  </si>
+  <si>
+    <t>Oudin</t>
+  </si>
+  <si>
+    <t>Faticanti</t>
+  </si>
+  <si>
+    <t>Burnete</t>
+  </si>
+  <si>
+    <t>Piccoli</t>
+  </si>
+  <si>
+    <t>Banda</t>
+  </si>
+  <si>
+    <t>Corfitzen</t>
+  </si>
+  <si>
+    <t>Terracciano</t>
+  </si>
+  <si>
+    <t>Dodo'</t>
+  </si>
+  <si>
+    <t>Milenkovic</t>
+  </si>
+  <si>
+    <t>Ranieri L.</t>
+  </si>
+  <si>
+    <t>Biraghi</t>
+  </si>
+  <si>
+    <t>Mandragora</t>
+  </si>
+  <si>
+    <t>Arthur Melo</t>
+  </si>
+  <si>
+    <t>Gonzalez N.</t>
+  </si>
+  <si>
+    <t>Bonaventura</t>
+  </si>
+  <si>
+    <t>Kouame'</t>
+  </si>
+  <si>
+    <t>Nzola</t>
+  </si>
+  <si>
+    <t>Christensen O.</t>
+  </si>
+  <si>
+    <t>Martinelli T.</t>
+  </si>
+  <si>
+    <t>Parisi</t>
+  </si>
+  <si>
+    <t>Martinez Quarta</t>
+  </si>
+  <si>
+    <t>Mina</t>
+  </si>
+  <si>
+    <t>Kayode</t>
+  </si>
+  <si>
+    <t>Infantino</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Sottil</t>
+  </si>
+  <si>
+    <t>Amatucci</t>
+  </si>
+  <si>
+    <t>Beltran L.</t>
+  </si>
+  <si>
+    <t>Brekalo</t>
+  </si>
+  <si>
+    <t>Musso</t>
+  </si>
+  <si>
+    <t>Djimsiti</t>
+  </si>
+  <si>
+    <t>Scalvini</t>
+  </si>
+  <si>
+    <t>Kolasinac</t>
+  </si>
+  <si>
+    <t>Zappacosta</t>
+  </si>
+  <si>
+    <t>De Roon</t>
+  </si>
+  <si>
+    <t>Ederson D.s.</t>
+  </si>
+  <si>
+    <t>Ruggeri</t>
+  </si>
+  <si>
+    <t>Koopmeiners</t>
   </si>
   <si>
     <t>De Ketelaere</t>
   </si>
   <si>
-    <t>Adli</t>
-  </si>
-  <si>
-    <t>Diaz B.</t>
-  </si>
-  <si>
-    <t>Rebic</t>
-  </si>
-  <si>
-    <t>Origi</t>
-  </si>
-  <si>
-    <t>Provedel</t>
-  </si>
-  <si>
-    <t>Hysaj</t>
-  </si>
-  <si>
-    <t>Casale</t>
-  </si>
-  <si>
-    <t>Romagnoli</t>
-  </si>
-  <si>
-    <t>Marusic</t>
-  </si>
-  <si>
-    <t>Milinkovic-Savic</t>
-  </si>
-  <si>
-    <t>Marcos Antonio</t>
-  </si>
-  <si>
-    <t>Luis Alberto</t>
-  </si>
-  <si>
-    <t>Felipe Anderson</t>
-  </si>
-  <si>
-    <t>Immobile</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Luis Maximiano</t>
-  </si>
-  <si>
-    <t>Adamonis</t>
-  </si>
-  <si>
-    <t>Pellegrini Lu.</t>
-  </si>
-  <si>
-    <t>Lazzari</t>
-  </si>
-  <si>
-    <t>Patric</t>
-  </si>
-  <si>
-    <t>Gila</t>
-  </si>
-  <si>
-    <t>Fares</t>
-  </si>
-  <si>
-    <t>Radu</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>Bertini</t>
-  </si>
-  <si>
-    <t>Romero L.</t>
-  </si>
-  <si>
-    <t>Zaccagni</t>
+    <t>Scamacca</t>
+  </si>
+  <si>
+    <t>Carnesecchi</t>
+  </si>
+  <si>
+    <t>Rossi F.</t>
+  </si>
+  <si>
+    <t>Holm</t>
+  </si>
+  <si>
+    <t>Toloi</t>
+  </si>
+  <si>
+    <t>Bakker</t>
+  </si>
+  <si>
+    <t>Bonfanti</t>
+  </si>
+  <si>
+    <t>Hateboer</t>
+  </si>
+  <si>
+    <t>Palomino</t>
+  </si>
+  <si>
+    <t>Adopo</t>
+  </si>
+  <si>
+    <t>Miranchuk</t>
+  </si>
+  <si>
+    <t>Pasalic</t>
+  </si>
+  <si>
+    <t>Lookman</t>
+  </si>
+  <si>
+    <t>Muriel</t>
+  </si>
+  <si>
+    <t>Rui Patricio</t>
+  </si>
+  <si>
+    <t>Mancini</t>
+  </si>
+  <si>
+    <t>Smalling</t>
+  </si>
+  <si>
+    <t>Llorente D.</t>
+  </si>
+  <si>
+    <t>Kristensen</t>
+  </si>
+  <si>
+    <t>Paredes</t>
+  </si>
+  <si>
+    <t>Cristante</t>
+  </si>
+  <si>
+    <t>Pellegrini Lo.</t>
+  </si>
+  <si>
+    <t>Spinazzola</t>
+  </si>
+  <si>
+    <t>Dybala</t>
+  </si>
+  <si>
+    <t>Lukaku</t>
+  </si>
+  <si>
+    <t>Svilar</t>
+  </si>
+  <si>
+    <t>Boer</t>
+  </si>
+  <si>
+    <t>N'dicka</t>
+  </si>
+  <si>
+    <t>Celik</t>
+  </si>
+  <si>
+    <t>Karsdorp</t>
+  </si>
+  <si>
+    <t>Bove</t>
+  </si>
+  <si>
+    <t>Zalewski</t>
+  </si>
+  <si>
+    <t>Pagano</t>
+  </si>
+  <si>
+    <t>Renato Sanches</t>
+  </si>
+  <si>
+    <t>Aouar</t>
+  </si>
+  <si>
+    <t>El Shaarawy</t>
+  </si>
+  <si>
+    <t>Belotti</t>
+  </si>
+  <si>
+    <t>Azmoun</t>
+  </si>
+  <si>
+    <t>Berisha</t>
+  </si>
+  <si>
+    <t>Ebuehi</t>
+  </si>
+  <si>
+    <t>Ismajli</t>
+  </si>
+  <si>
+    <t>Luperto</t>
+  </si>
+  <si>
+    <t>Pezzella Giu.</t>
+  </si>
+  <si>
+    <t>Fazzini</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>Maleh</t>
+  </si>
+  <si>
+    <t>Baldanzi</t>
+  </si>
+  <si>
+    <t>Caputo</t>
+  </si>
+  <si>
+    <t>Cambiaghi</t>
+  </si>
+  <si>
+    <t>Perisan</t>
+  </si>
+  <si>
+    <t>Stubljar</t>
+  </si>
+  <si>
+    <t>Bereszynski</t>
+  </si>
+  <si>
+    <t>Walukiewicz</t>
+  </si>
+  <si>
+    <t>Cacace</t>
+  </si>
+  <si>
+    <t>Tonelli</t>
+  </si>
+  <si>
+    <t>Bastoni S.</t>
+  </si>
+  <si>
+    <t>Grassi</t>
+  </si>
+  <si>
+    <t>Haas</t>
+  </si>
+  <si>
+    <t>Ranocchia F.</t>
+  </si>
+  <si>
+    <t>Kovalenko</t>
+  </si>
+  <si>
+    <t>Gyasi</t>
   </si>
   <si>
     <t>Cancellieri</t>
   </si>
   <si>
-    <t>Rui Patricio</t>
-  </si>
-  <si>
-    <t>Mancini</t>
-  </si>
-  <si>
-    <t>Cristante</t>
-  </si>
-  <si>
-    <t>Ibanez</t>
-  </si>
-  <si>
-    <t>Zalewski</t>
-  </si>
-  <si>
-    <t>Bove</t>
-  </si>
-  <si>
-    <t>Matic</t>
-  </si>
-  <si>
-    <t>Spinazzola</t>
-  </si>
-  <si>
-    <t>Pellegrini Lo.</t>
-  </si>
-  <si>
-    <t>Abraham</t>
-  </si>
-  <si>
-    <t>Solbakken</t>
-  </si>
-  <si>
-    <t>Svilar</t>
-  </si>
-  <si>
-    <t>Boer</t>
-  </si>
-  <si>
-    <t>Camara Ma.</t>
-  </si>
-  <si>
-    <t>Volpato</t>
-  </si>
-  <si>
-    <t>Tahirovic</t>
-  </si>
-  <si>
-    <t>Wijnaldum</t>
-  </si>
-  <si>
-    <t>Darboe</t>
-  </si>
-  <si>
-    <t>Belotti</t>
-  </si>
-  <si>
-    <t>Dybala</t>
-  </si>
-  <si>
-    <t>Onana</t>
-  </si>
-  <si>
-    <t>Darmian</t>
-  </si>
-  <si>
-    <t>De Vrij</t>
-  </si>
-  <si>
-    <t>Bastoni</t>
-  </si>
-  <si>
-    <t>Dumfries</t>
-  </si>
-  <si>
-    <t>Barella</t>
-  </si>
-  <si>
-    <t>Calhanoglu</t>
-  </si>
-  <si>
-    <t>Mkhitaryan</t>
-  </si>
-  <si>
-    <t>Dimarco</t>
-  </si>
-  <si>
-    <t>Correa</t>
-  </si>
-  <si>
-    <t>Lukaku</t>
-  </si>
-  <si>
-    <t>Handanovic</t>
-  </si>
-  <si>
-    <t>Cordaz</t>
+    <t>Shpendi S.</t>
+  </si>
+  <si>
+    <t>Destro</t>
+  </si>
+  <si>
+    <t>Ochoa</t>
+  </si>
+  <si>
+    <t>Lovato</t>
+  </si>
+  <si>
+    <t>Gyomber</t>
+  </si>
+  <si>
+    <t>Pirola</t>
+  </si>
+  <si>
+    <t>Mazzocchi</t>
+  </si>
+  <si>
+    <t>Coulibaly L.</t>
+  </si>
+  <si>
+    <t>Legowski</t>
+  </si>
+  <si>
+    <t>Bradaric</t>
+  </si>
+  <si>
+    <t>Candreva</t>
+  </si>
+  <si>
+    <t>Kastanos</t>
+  </si>
+  <si>
+    <t>Botheim</t>
+  </si>
+  <si>
+    <t>Costil</t>
+  </si>
+  <si>
+    <t>Fiorillo</t>
+  </si>
+  <si>
+    <t>Sambia</t>
+  </si>
+  <si>
+    <t>Fazio</t>
+  </si>
+  <si>
+    <t>Bohinen</t>
+  </si>
+  <si>
+    <t>Martegani</t>
+  </si>
+  <si>
+    <t>Tchaouna</t>
+  </si>
+  <si>
+    <t>Sfait</t>
+  </si>
+  <si>
+    <t>Stewart</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Ikwuemesi</t>
+  </si>
+  <si>
+    <t>Jovane</t>
+  </si>
+  <si>
+    <t>Milinkovic-Savic V.</t>
+  </si>
+  <si>
+    <t>Schuurs</t>
+  </si>
+  <si>
+    <t>Buongiorno</t>
+  </si>
+  <si>
+    <t>Rodriguez R.</t>
   </si>
   <si>
     <t>Bellanova</t>
   </si>
   <si>
-    <t>Acerbi</t>
-  </si>
-  <si>
-    <t>Zanotti</t>
-  </si>
-  <si>
-    <t>Gagliardini</t>
-  </si>
-  <si>
-    <t>Asllani</t>
-  </si>
-  <si>
-    <t>Brozovic</t>
-  </si>
-  <si>
-    <t>Carboni V.</t>
-  </si>
-  <si>
-    <t>Martinez L.</t>
-  </si>
-  <si>
-    <t>Dzeko</t>
-  </si>
-  <si>
-    <t>Carnesecchi</t>
-  </si>
-  <si>
-    <t>Sernicola</t>
-  </si>
-  <si>
-    <t>Chiriches</t>
-  </si>
-  <si>
-    <t>Lochoshvili</t>
-  </si>
-  <si>
-    <t>Valeri</t>
-  </si>
-  <si>
-    <t>Benassi</t>
-  </si>
-  <si>
-    <t>Castagnetti</t>
-  </si>
-  <si>
-    <t>Meite'</t>
-  </si>
-  <si>
-    <t>Galdames</t>
-  </si>
-  <si>
-    <t>Okereke</t>
-  </si>
-  <si>
-    <t>Ciofani D.</t>
-  </si>
-  <si>
-    <t>Sarr M.</t>
-  </si>
-  <si>
-    <t>Saro</t>
-  </si>
-  <si>
-    <t>Aiwu</t>
-  </si>
-  <si>
-    <t>Bianchetti</t>
-  </si>
-  <si>
-    <t>Vasquez</t>
-  </si>
-  <si>
-    <t>Ghiglione</t>
-  </si>
-  <si>
-    <t>Ferrari A.</t>
-  </si>
-  <si>
-    <t>Acella</t>
-  </si>
-  <si>
-    <t>Buonaiuto</t>
-  </si>
-  <si>
-    <t>Basso Ricci</t>
-  </si>
-  <si>
-    <t>Afena-Gyan</t>
-  </si>
-  <si>
-    <t>Dragowski</t>
-  </si>
-  <si>
-    <t>Amian</t>
-  </si>
-  <si>
-    <t>Ampadu</t>
-  </si>
-  <si>
-    <t>Nikolaou</t>
-  </si>
-  <si>
-    <t>Reca</t>
-  </si>
-  <si>
-    <t>Ekdal</t>
-  </si>
-  <si>
-    <t>Bourabia</t>
-  </si>
-  <si>
-    <t>Bastoni S.</t>
-  </si>
-  <si>
-    <t>Gyasi</t>
-  </si>
-  <si>
-    <t>Nzola</t>
-  </si>
-  <si>
-    <t>Verde</t>
-  </si>
-  <si>
-    <t>Zoet</t>
-  </si>
-  <si>
-    <t>Marchetti</t>
-  </si>
-  <si>
-    <t>Caldara</t>
-  </si>
-  <si>
-    <t>Ferrer</t>
-  </si>
-  <si>
-    <t>Wisniewski</t>
-  </si>
-  <si>
-    <t>Esposito Sa.</t>
-  </si>
-  <si>
-    <t>Kovalenko</t>
-  </si>
-  <si>
-    <t>Cipot</t>
-  </si>
-  <si>
-    <t>Agudelo</t>
-  </si>
-  <si>
-    <t>Shomurodov</t>
-  </si>
-  <si>
-    <t>Krollis</t>
-  </si>
-  <si>
-    <t>Musso</t>
-  </si>
-  <si>
-    <t>Toloi</t>
-  </si>
-  <si>
-    <t>Scalvini</t>
-  </si>
-  <si>
-    <t>Djimsiti</t>
-  </si>
-  <si>
-    <t>Zappacosta</t>
-  </si>
-  <si>
-    <t>Koopmeiners</t>
-  </si>
-  <si>
-    <t>De Roon</t>
-  </si>
-  <si>
-    <t>Maehle</t>
-  </si>
-  <si>
-    <t>Pasalic</t>
-  </si>
-  <si>
-    <t>Muriel</t>
+    <t>Ilic</t>
+  </si>
+  <si>
+    <t>Ricci S.</t>
+  </si>
+  <si>
+    <t>Vojvoda</t>
+  </si>
+  <si>
+    <t>Vlasic</t>
+  </si>
+  <si>
+    <t>Radonjic</t>
   </si>
   <si>
     <t>Zapata D.</t>
   </si>
   <si>
-    <t>Sportiello</t>
-  </si>
-  <si>
-    <t>Rossi F.</t>
-  </si>
-  <si>
-    <t>Demiral</t>
+    <t>Gemello</t>
+  </si>
+  <si>
+    <t>Popa</t>
+  </si>
+  <si>
+    <t>Zima</t>
+  </si>
+  <si>
+    <t>N'guessan</t>
+  </si>
+  <si>
+    <t>Sazonov</t>
   </si>
   <si>
     <t>Soppy</t>
   </si>
   <si>
-    <t>Ederson D.s.</t>
-  </si>
-  <si>
-    <t>Boga</t>
-  </si>
-  <si>
-    <t>Hojlund</t>
-  </si>
-  <si>
-    <t>Szczesny</t>
-  </si>
-  <si>
-    <t>Danilo</t>
-  </si>
-  <si>
-    <t>Bremer</t>
-  </si>
-  <si>
-    <t>Alex Sandro</t>
-  </si>
-  <si>
-    <t>Cuadrado</t>
-  </si>
-  <si>
-    <t>Fagioli</t>
-  </si>
-  <si>
-    <t>Locatelli</t>
-  </si>
-  <si>
-    <t>Rabiot</t>
-  </si>
-  <si>
-    <t>Kostic</t>
-  </si>
-  <si>
-    <t>Chiesa</t>
-  </si>
-  <si>
-    <t>Vlahovic</t>
-  </si>
-  <si>
-    <t>Perin</t>
-  </si>
-  <si>
-    <t>Pinsoglio</t>
-  </si>
-  <si>
-    <t>Rugani</t>
-  </si>
-  <si>
-    <t>Gatti</t>
-  </si>
-  <si>
-    <t>Bonucci</t>
-  </si>
-  <si>
-    <t>Miretti</t>
-  </si>
-  <si>
-    <t>Iling-Junior</t>
-  </si>
-  <si>
-    <t>Pogba</t>
-  </si>
-  <si>
-    <t>Di Maria</t>
-  </si>
-  <si>
-    <t>Soule'</t>
-  </si>
-  <si>
-    <t>Milik</t>
-  </si>
-  <si>
-    <t>Kean</t>
-  </si>
-  <si>
-    <t>Milinkovic-Savic V.</t>
-  </si>
-  <si>
-    <t>Gravillon</t>
-  </si>
-  <si>
-    <t>Buongiorno</t>
-  </si>
-  <si>
-    <t>Rodriguez R.</t>
-  </si>
-  <si>
     <t>Lazaro</t>
   </si>
   <si>
-    <t>Ilic</t>
-  </si>
-  <si>
-    <t>Ricci S.</t>
-  </si>
-  <si>
-    <t>Vojvoda</t>
-  </si>
-  <si>
-    <t>Miranchuk</t>
-  </si>
-  <si>
-    <t>Vlasic</t>
-  </si>
-  <si>
-    <t>Sanabria</t>
-  </si>
-  <si>
-    <t>Gemello</t>
-  </si>
-  <si>
-    <t>Djidji</t>
-  </si>
-  <si>
-    <t>Bayeye</t>
-  </si>
-  <si>
-    <t>Adopo</t>
+    <t>Linetty</t>
+  </si>
+  <si>
+    <t>Tameze</t>
   </si>
   <si>
     <t>Gineitis</t>
   </si>
   <si>
-    <t>Linetty</t>
-  </si>
-  <si>
     <t>Seck</t>
   </si>
   <si>
@@ -616,781 +1333,133 @@
     <t>Karamoh</t>
   </si>
   <si>
-    <t>Di Gregorio</t>
-  </si>
-  <si>
-    <t>Marlon</t>
-  </si>
-  <si>
-    <t>Mari'</t>
-  </si>
-  <si>
-    <t>Caldirola</t>
-  </si>
-  <si>
-    <t>Ciurria</t>
-  </si>
-  <si>
-    <t>Pessina</t>
-  </si>
-  <si>
-    <t>Rovella</t>
-  </si>
-  <si>
-    <t>Carlos Augusto</t>
-  </si>
-  <si>
-    <t>Colpani</t>
-  </si>
-  <si>
-    <t>Mota</t>
-  </si>
-  <si>
-    <t>Caprari</t>
-  </si>
-  <si>
-    <t>Cragno</t>
-  </si>
-  <si>
-    <t>Antov</t>
-  </si>
-  <si>
-    <t>Carboni F.</t>
-  </si>
-  <si>
-    <t>Izzo</t>
-  </si>
-  <si>
-    <t>Donati</t>
-  </si>
-  <si>
-    <t>Birindelli</t>
-  </si>
-  <si>
-    <t>Machin</t>
-  </si>
-  <si>
-    <t>Barberis</t>
-  </si>
-  <si>
-    <t>Valoti</t>
-  </si>
-  <si>
-    <t>Sensi</t>
-  </si>
-  <si>
-    <t>Vignato S.</t>
-  </si>
-  <si>
-    <t>Ranocchia F.</t>
-  </si>
-  <si>
-    <t>D'alessandro</t>
-  </si>
-  <si>
-    <t>Petagna</t>
-  </si>
-  <si>
-    <t>Gytkjaer</t>
-  </si>
-  <si>
-    <t>Meret</t>
-  </si>
-  <si>
-    <t>Di Lorenzo</t>
-  </si>
-  <si>
-    <t>Rrahmani</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Olivera</t>
-  </si>
-  <si>
-    <t>Zambo Anguissa</t>
-  </si>
-  <si>
-    <t>Lobotka</t>
-  </si>
-  <si>
-    <t>Zielinski</t>
-  </si>
-  <si>
-    <t>Lozano</t>
-  </si>
-  <si>
-    <t>Osimhen</t>
-  </si>
-  <si>
-    <t>Kvaratskhelia</t>
-  </si>
-  <si>
-    <t>Gollini</t>
-  </si>
-  <si>
-    <t>Marfella</t>
-  </si>
-  <si>
-    <t>Juan Jesus</t>
-  </si>
-  <si>
-    <t>Ostigard</t>
-  </si>
-  <si>
-    <t>Zedadka</t>
-  </si>
-  <si>
-    <t>Bereszynski</t>
-  </si>
-  <si>
-    <t>Elmas</t>
-  </si>
-  <si>
-    <t>Ndombele'</t>
-  </si>
-  <si>
-    <t>Gaetano</t>
-  </si>
-  <si>
-    <t>Demme</t>
-  </si>
-  <si>
-    <t>Zerbin</t>
-  </si>
-  <si>
-    <t>Politano</t>
-  </si>
-  <si>
-    <t>Raspadori</t>
-  </si>
-  <si>
-    <t>Simeone</t>
-  </si>
-  <si>
-    <t>Terracciano</t>
-  </si>
-  <si>
-    <t>Dodo'</t>
-  </si>
-  <si>
-    <t>Milenkovic</t>
-  </si>
-  <si>
-    <t>Igor</t>
-  </si>
-  <si>
-    <t>Biraghi</t>
-  </si>
-  <si>
-    <t>Barak</t>
-  </si>
-  <si>
-    <t>Amrabat</t>
-  </si>
-  <si>
-    <t>Mandragora</t>
-  </si>
-  <si>
-    <t>Gonzalez N.</t>
-  </si>
-  <si>
-    <t>Cabral</t>
+    <t>Montipo'</t>
+  </si>
+  <si>
+    <t>Dawidowicz</t>
+  </si>
+  <si>
+    <t>Hien</t>
+  </si>
+  <si>
+    <t>Magnani</t>
+  </si>
+  <si>
+    <t>Faraoni</t>
+  </si>
+  <si>
+    <t>Serdar</t>
+  </si>
+  <si>
+    <t>Duda</t>
+  </si>
+  <si>
+    <t>Doig</t>
+  </si>
+  <si>
+    <t>Mboula</t>
+  </si>
+  <si>
+    <t>Lazovic</t>
+  </si>
+  <si>
+    <t>Ngonge</t>
+  </si>
+  <si>
+    <t>Perilli</t>
+  </si>
+  <si>
+    <t>Berardi A.</t>
+  </si>
+  <si>
+    <t>Amione</t>
+  </si>
+  <si>
+    <t>Coppola D.</t>
+  </si>
+  <si>
+    <t>Cabal</t>
+  </si>
+  <si>
+    <t>Terracciano F.</t>
+  </si>
+  <si>
+    <t>Suslov</t>
+  </si>
+  <si>
+    <t>Folorunsho</t>
   </si>
   <si>
     <t>Saponara</t>
   </si>
   <si>
-    <t>Cerofolini</t>
-  </si>
-  <si>
-    <t>Venuti</t>
-  </si>
-  <si>
-    <t>Ranieri L.</t>
-  </si>
-  <si>
-    <t>Terzic</t>
-  </si>
-  <si>
-    <t>Bianco</t>
-  </si>
-  <si>
-    <t>Duncan</t>
-  </si>
-  <si>
-    <t>Sottil</t>
-  </si>
-  <si>
-    <t>Bonaventura</t>
-  </si>
-  <si>
-    <t>Castrovilli</t>
-  </si>
-  <si>
-    <t>Ikone'</t>
-  </si>
-  <si>
-    <t>Kouame'</t>
-  </si>
-  <si>
-    <t>Jovic</t>
-  </si>
-  <si>
-    <t>Brekalo</t>
-  </si>
-  <si>
-    <t>Falcone</t>
-  </si>
-  <si>
-    <t>Gendrey</t>
-  </si>
-  <si>
-    <t>Baschirotto</t>
-  </si>
-  <si>
-    <t>Umtiti</t>
-  </si>
-  <si>
-    <t>Gallo</t>
-  </si>
-  <si>
-    <t>Blin</t>
-  </si>
-  <si>
-    <t>Hjulmand</t>
-  </si>
-  <si>
-    <t>Oudin</t>
-  </si>
-  <si>
-    <t>Strefezza</t>
-  </si>
-  <si>
-    <t>Ceesay</t>
-  </si>
-  <si>
-    <t>Di Francesco F.</t>
-  </si>
-  <si>
-    <t>Bleve</t>
-  </si>
-  <si>
-    <t>Brancolini</t>
-  </si>
-  <si>
-    <t>Tuia</t>
-  </si>
-  <si>
-    <t>Pezzella Giu.</t>
-  </si>
-  <si>
-    <t>Romagnoli S.</t>
-  </si>
-  <si>
-    <t>Cassandro</t>
-  </si>
-  <si>
-    <t>Ceccaroni</t>
-  </si>
-  <si>
-    <t>Gonzalez J.</t>
-  </si>
-  <si>
-    <t>Askildsen</t>
-  </si>
-  <si>
-    <t>Maleh</t>
-  </si>
-  <si>
-    <t>Helgason</t>
-  </si>
-  <si>
-    <t>Banda</t>
-  </si>
-  <si>
-    <t>Colombo</t>
-  </si>
-  <si>
-    <t>Voelkerling Persson</t>
-  </si>
-  <si>
-    <t>Montipo'</t>
-  </si>
-  <si>
-    <t>Dawidowicz</t>
-  </si>
-  <si>
-    <t>Hien</t>
-  </si>
-  <si>
-    <t>Magnani</t>
-  </si>
-  <si>
-    <t>Faraoni</t>
-  </si>
-  <si>
-    <t>Tameze</t>
-  </si>
-  <si>
-    <t>Abildgaard</t>
-  </si>
-  <si>
-    <t>Depaoli</t>
-  </si>
-  <si>
-    <t>Lazovic</t>
-  </si>
-  <si>
-    <t>Verdi</t>
-  </si>
-  <si>
     <t>Djuric</t>
   </si>
   <si>
-    <t>Perilli</t>
-  </si>
-  <si>
-    <t>Berardi A.</t>
-  </si>
-  <si>
-    <t>Ceccherini</t>
-  </si>
-  <si>
-    <t>Cabal</t>
-  </si>
-  <si>
-    <t>Coppola D.</t>
-  </si>
-  <si>
-    <t>Zeefuik</t>
-  </si>
-  <si>
-    <t>Doig</t>
-  </si>
-  <si>
-    <t>Duda</t>
-  </si>
-  <si>
-    <t>Terracciano F.</t>
-  </si>
-  <si>
-    <t>Miguel Veloso</t>
-  </si>
-  <si>
-    <t>Sulemana I.</t>
-  </si>
-  <si>
-    <t>Braaf</t>
-  </si>
-  <si>
-    <t>Gaich</t>
-  </si>
-  <si>
-    <t>Kallon</t>
-  </si>
-  <si>
-    <t>Ngonge</t>
-  </si>
-  <si>
-    <t>Vicario</t>
-  </si>
-  <si>
-    <t>Ebuehi</t>
-  </si>
-  <si>
-    <t>Ismajli</t>
-  </si>
-  <si>
-    <t>Luperto</t>
-  </si>
-  <si>
-    <t>Parisi</t>
-  </si>
-  <si>
-    <t>Akpa Akpro</t>
-  </si>
-  <si>
-    <t>Marin</t>
-  </si>
-  <si>
-    <t>Bandinelli</t>
-  </si>
-  <si>
-    <t>Baldanzi</t>
-  </si>
-  <si>
-    <t>Caputo</t>
-  </si>
-  <si>
-    <t>Cambiaghi</t>
-  </si>
-  <si>
-    <t>Perisan</t>
-  </si>
-  <si>
-    <t>Ujkani</t>
-  </si>
-  <si>
-    <t>Stojanovic</t>
-  </si>
-  <si>
-    <t>Cacace</t>
-  </si>
-  <si>
-    <t>Walukiewicz</t>
-  </si>
-  <si>
-    <t>Tonelli</t>
-  </si>
-  <si>
-    <t>Fazzini</t>
-  </si>
-  <si>
-    <t>Vignato</t>
-  </si>
-  <si>
-    <t>Grassi</t>
-  </si>
-  <si>
-    <t>Henderson L.</t>
-  </si>
-  <si>
-    <t>Haas</t>
-  </si>
-  <si>
-    <t>Satriano</t>
-  </si>
-  <si>
-    <t>Destro</t>
-  </si>
-  <si>
-    <t>Piccoli</t>
-  </si>
-  <si>
-    <t>Pjaca</t>
-  </si>
-  <si>
-    <t>Ochoa</t>
-  </si>
-  <si>
-    <t>Daniliuc</t>
-  </si>
-  <si>
-    <t>Troost-Ekong</t>
-  </si>
-  <si>
-    <t>Pirola</t>
-  </si>
-  <si>
-    <t>Sambia</t>
-  </si>
-  <si>
-    <t>Coulibaly L.</t>
-  </si>
-  <si>
-    <t>Vilhena</t>
-  </si>
-  <si>
-    <t>Mazzocchi</t>
-  </si>
-  <si>
-    <t>Kastanos</t>
-  </si>
-  <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>Botheim</t>
-  </si>
-  <si>
-    <t>Sepe</t>
-  </si>
-  <si>
-    <t>Fiorillo</t>
-  </si>
-  <si>
-    <t>Lovato</t>
-  </si>
-  <si>
-    <t>Bronn</t>
-  </si>
-  <si>
-    <t>Nicolussi Caviglia</t>
-  </si>
-  <si>
-    <t>Bohinen</t>
-  </si>
-  <si>
-    <t>Candreva</t>
-  </si>
-  <si>
-    <t>Maggiore</t>
-  </si>
-  <si>
-    <t>Piatek</t>
-  </si>
-  <si>
     <t>Bonazzoli</t>
   </si>
   <si>
-    <t>Silvestri</t>
-  </si>
-  <si>
-    <t>Rodrigo Becao</t>
-  </si>
-  <si>
-    <t>Bijol</t>
-  </si>
-  <si>
-    <t>Perez N.</t>
-  </si>
-  <si>
-    <t>Pereyra</t>
-  </si>
-  <si>
-    <t>Samardzic</t>
-  </si>
-  <si>
-    <t>Walace</t>
-  </si>
-  <si>
-    <t>Lovric</t>
-  </si>
-  <si>
-    <t>Udogie</t>
-  </si>
-  <si>
-    <t>Thauvin</t>
-  </si>
-  <si>
-    <t>Nestorovski</t>
-  </si>
-  <si>
-    <t>Padelli</t>
-  </si>
-  <si>
-    <t>Ebosele</t>
-  </si>
-  <si>
-    <t>Buta</t>
-  </si>
-  <si>
-    <t>Masina</t>
-  </si>
-  <si>
-    <t>Zeegelaar</t>
-  </si>
-  <si>
-    <t>Guessand A.</t>
-  </si>
-  <si>
-    <t>Arslan</t>
-  </si>
-  <si>
-    <t>Vivaldo</t>
-  </si>
-  <si>
-    <t>Beto</t>
-  </si>
-  <si>
-    <t>Ravaglia</t>
-  </si>
-  <si>
-    <t>Gunter</t>
-  </si>
-  <si>
-    <t>Nuytinck</t>
-  </si>
-  <si>
-    <t>Murillo</t>
-  </si>
-  <si>
-    <t>Zanoli</t>
-  </si>
-  <si>
-    <t>Winks</t>
-  </si>
-  <si>
-    <t>Rincon</t>
-  </si>
-  <si>
-    <t>Augello</t>
-  </si>
-  <si>
-    <t>Cuisance</t>
-  </si>
-  <si>
-    <t>Lammers</t>
-  </si>
-  <si>
-    <t>Gabbiadini</t>
-  </si>
-  <si>
-    <t>Turk</t>
-  </si>
-  <si>
-    <t>Oikonomou</t>
-  </si>
-  <si>
-    <t>Murru</t>
-  </si>
-  <si>
-    <t>Malagrida</t>
-  </si>
-  <si>
-    <t>Ilkhan</t>
-  </si>
-  <si>
-    <t>Paoletti</t>
-  </si>
-  <si>
-    <t>Djuricic</t>
-  </si>
-  <si>
-    <t>Jese'</t>
-  </si>
-  <si>
-    <t>Quagliarella</t>
-  </si>
-  <si>
-    <t>Consigli</t>
-  </si>
-  <si>
-    <t>Toljan</t>
-  </si>
-  <si>
-    <t>Ruan</t>
-  </si>
-  <si>
-    <t>Erlic</t>
-  </si>
-  <si>
-    <t>Rogerio</t>
-  </si>
-  <si>
-    <t>Frattesi</t>
-  </si>
-  <si>
-    <t>Lopez M.</t>
-  </si>
-  <si>
-    <t>Matheus Henrique</t>
-  </si>
-  <si>
-    <t>Berardi</t>
-  </si>
-  <si>
-    <t>Defrel</t>
-  </si>
-  <si>
-    <t>Lauriente'</t>
-  </si>
-  <si>
-    <t>Pegolo</t>
-  </si>
-  <si>
-    <t>Russo A.</t>
-  </si>
-  <si>
-    <t>Marchizza</t>
-  </si>
-  <si>
-    <t>Romagna</t>
-  </si>
-  <si>
-    <t>Muldur</t>
-  </si>
-  <si>
-    <t>Ferrari G.</t>
-  </si>
-  <si>
-    <t>Harroui</t>
-  </si>
-  <si>
-    <t>Ceide</t>
-  </si>
-  <si>
-    <t>Obiang</t>
-  </si>
-  <si>
-    <t>Thorstvedt</t>
-  </si>
-  <si>
-    <t>D'andrea</t>
-  </si>
-  <si>
-    <t>Bajrami</t>
-  </si>
-  <si>
-    <t>Alvarez A.</t>
-  </si>
-  <si>
     <t>Skorupski</t>
   </si>
   <si>
-    <t>Cambiaso</t>
-  </si>
-  <si>
     <t>Posch</t>
   </si>
   <si>
+    <t>Beukema</t>
+  </si>
+  <si>
     <t>Lucumi'</t>
   </si>
   <si>
-    <t>Kyriakopoulos</t>
+    <t>Kristiansen</t>
   </si>
   <si>
     <t>Moro N.</t>
   </si>
   <si>
-    <t>Schouten</t>
-  </si>
-  <si>
-    <t>Dominguez</t>
+    <t>Freuler</t>
   </si>
   <si>
     <t>Orsolini</t>
   </si>
   <si>
-    <t>Barrow</t>
-  </si>
-  <si>
     <t>Ferguson</t>
   </si>
   <si>
-    <t>Bardi</t>
+    <t>Karlsson</t>
+  </si>
+  <si>
+    <t>Zirkzee</t>
   </si>
   <si>
     <t>Ravaglia F.</t>
   </si>
   <si>
-    <t>Medel</t>
+    <t>Bonifazi</t>
+  </si>
+  <si>
+    <t>Calafiori</t>
+  </si>
+  <si>
+    <t>Corazza</t>
   </si>
   <si>
     <t>De Silvestri</t>
   </si>
   <si>
-    <t>Lykogiannis</t>
-  </si>
-  <si>
-    <t>Sosa</t>
-  </si>
-  <si>
-    <t>Bonifazi</t>
-  </si>
-  <si>
-    <t>Pyyhtia</t>
+    <t>Fabbian</t>
   </si>
   <si>
     <t>Aebischer</t>
   </si>
   <si>
-    <t>Arnautovic</t>
-  </si>
-  <si>
-    <t>Zirkzee</t>
+    <t>El Azzouzi</t>
+  </si>
+  <si>
+    <t>Urbanski</t>
+  </si>
+  <si>
+    <t>Ndoye</t>
   </si>
 </sst>
 </file>
@@ -1748,7 +1817,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C457"/>
+  <dimension ref="A1:C480"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1773,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1781,10 +1850,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1792,10 +1861,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1803,10 +1872,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1817,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1825,10 +1894,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1850,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1872,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1883,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1916,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1924,10 +1993,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1938,7 +2007,7 @@
         <v>0.45</v>
       </c>
       <c r="C17">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1946,7 +2015,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>50</v>
@@ -1957,10 +2026,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C19">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1971,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1993,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2004,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2015,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2023,10 +2092,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2034,10 +2103,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2045,10 +2114,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2067,10 +2136,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2078,10 +2147,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C30">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2092,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2103,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2114,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2125,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2133,10 +2202,10 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2144,10 +2213,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2155,10 +2224,10 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2166,10 +2235,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2180,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2191,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2202,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2210,10 +2279,10 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2224,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2232,10 +2301,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C44">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2246,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2257,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2265,10 +2334,10 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2279,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2287,10 +2356,10 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2298,10 +2367,10 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2309,10 +2378,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C51">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2331,10 +2400,10 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C53">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2364,10 +2433,10 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C56">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2389,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2408,10 +2477,10 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2419,10 +2488,10 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2430,10 +2499,10 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2441,10 +2510,10 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2452,10 +2521,10 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2466,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2477,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2488,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2496,7 +2565,7 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C68">
         <v>55</v>
@@ -2510,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2521,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2540,10 +2609,10 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2562,10 +2631,10 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2576,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2584,10 +2653,10 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2609,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="C78">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2617,10 +2686,10 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="C79">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2631,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2639,10 +2708,10 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2650,10 +2719,10 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C82">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2661,10 +2730,10 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2675,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2683,10 +2752,10 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2694,10 +2763,10 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2708,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2719,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2738,10 +2807,10 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2749,10 +2818,10 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C91">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2760,7 +2829,7 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>60</v>
@@ -2774,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2782,10 +2851,10 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C94">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2793,10 +2862,10 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2807,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2840,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2851,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="C100">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2862,7 +2931,7 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2884,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="C103">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2895,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="C104">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2903,10 +2972,10 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2914,10 +2983,10 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2928,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2939,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2947,10 +3016,10 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2961,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2969,7 +3038,7 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C111">
         <v>50</v>
@@ -2983,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2991,10 +3060,10 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3005,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3016,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3024,10 +3093,10 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C116">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3035,10 +3104,10 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3046,10 +3115,10 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3068,10 +3137,10 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C120">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3101,10 +3170,10 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="C123">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3115,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3123,10 +3192,10 @@
         <v>126</v>
       </c>
       <c r="B125">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C125">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3137,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3145,10 +3214,10 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C127">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3156,10 +3225,10 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3167,10 +3236,10 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3181,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="C130">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3189,10 +3258,10 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3200,10 +3269,10 @@
         <v>133</v>
       </c>
       <c r="B132">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3214,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="C133">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3225,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="C134">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3233,7 +3302,7 @@
         <v>136</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C135">
         <v>60</v>
@@ -3244,10 +3313,10 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3258,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3266,10 +3335,10 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C138">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3277,10 +3346,10 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3288,10 +3357,10 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3299,10 +3368,10 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C141">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3310,10 +3379,10 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3324,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="C143">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3346,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="C145">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3354,10 +3423,10 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C146">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3365,10 +3434,10 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C147">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3379,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="C148">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3387,10 +3456,10 @@
         <v>150</v>
       </c>
       <c r="B149">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C149">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3398,10 +3467,10 @@
         <v>151</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3409,10 +3478,10 @@
         <v>152</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3420,10 +3489,10 @@
         <v>153</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C152">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3431,10 +3500,10 @@
         <v>154</v>
       </c>
       <c r="B153">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="C153">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3442,10 +3511,10 @@
         <v>155</v>
       </c>
       <c r="B154">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C154">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3456,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="C155">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3464,10 +3533,10 @@
         <v>157</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3475,10 +3544,10 @@
         <v>158</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3486,10 +3555,10 @@
         <v>159</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3497,10 +3566,10 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C159">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3508,10 +3577,10 @@
         <v>161</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3519,10 +3588,10 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3530,10 +3599,10 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3541,10 +3610,10 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C163">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3552,10 +3621,10 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C164">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3563,10 +3632,10 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C165">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3574,7 +3643,7 @@
         <v>167</v>
       </c>
       <c r="B166">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
       <c r="C166">
         <v>55</v>
@@ -3585,10 +3654,10 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3596,10 +3665,10 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3607,10 +3676,10 @@
         <v>170</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3618,10 +3687,10 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C170">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3629,10 +3698,10 @@
         <v>172</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C171">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3640,10 +3709,10 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3651,10 +3720,10 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C173">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3662,10 +3731,10 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3673,7 +3742,7 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C175">
         <v>60</v>
@@ -3684,10 +3753,10 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="C176">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3695,10 +3764,10 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C177">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3709,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="C178">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3717,10 +3786,10 @@
         <v>180</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C179">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3728,10 +3797,10 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C180">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3739,10 +3808,10 @@
         <v>182</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C181">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3750,10 +3819,10 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3761,10 +3830,10 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3772,10 +3841,10 @@
         <v>185</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3783,10 +3852,10 @@
         <v>186</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3794,10 +3863,10 @@
         <v>187</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3805,10 +3874,10 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C187">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3816,10 +3885,10 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3827,10 +3896,10 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="C189">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3841,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="C190">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3849,10 +3918,10 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C191">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3860,10 +3929,10 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3871,10 +3940,10 @@
         <v>194</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3882,10 +3951,10 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3893,10 +3962,10 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3904,10 +3973,10 @@
         <v>197</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3915,10 +3984,10 @@
         <v>198</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3926,10 +3995,10 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C198">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3937,10 +4006,10 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C199">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3948,10 +4017,10 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C200">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3981,10 +4050,10 @@
         <v>204</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3992,10 +4061,10 @@
         <v>205</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4003,10 +4072,10 @@
         <v>206</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4014,10 +4083,10 @@
         <v>207</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4025,10 +4094,10 @@
         <v>208</v>
       </c>
       <c r="B207">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C207">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4036,10 +4105,10 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C208">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4047,10 +4116,10 @@
         <v>210</v>
       </c>
       <c r="B209">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C209">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4061,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="C210">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4072,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="C211">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4080,10 +4149,10 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C212">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4091,10 +4160,10 @@
         <v>214</v>
       </c>
       <c r="B213">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C213">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4127,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="C216">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4135,10 +4204,10 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4146,10 +4215,10 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C218">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4157,10 +4226,10 @@
         <v>220</v>
       </c>
       <c r="B219">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C219">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4168,10 +4237,10 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4179,10 +4248,10 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4190,10 +4259,10 @@
         <v>223</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4201,10 +4270,10 @@
         <v>224</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4212,10 +4281,10 @@
         <v>225</v>
       </c>
       <c r="B224">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C224">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4223,10 +4292,10 @@
         <v>226</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C225">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4237,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="C226">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4245,10 +4314,10 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C227">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4256,10 +4325,10 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4267,10 +4336,10 @@
         <v>230</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C229">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4278,10 +4347,10 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C230">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4289,10 +4358,10 @@
         <v>232</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4300,10 +4369,10 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C232">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4311,10 +4380,10 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C233">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4322,10 +4391,10 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4333,10 +4402,10 @@
         <v>236</v>
       </c>
       <c r="B235">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C235">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4347,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="C236">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4358,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4366,10 +4435,10 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C238">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4380,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="C239">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4391,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="C240">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4402,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="C241">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4410,10 +4479,10 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C242">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4421,10 +4490,10 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C243">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4432,10 +4501,10 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4443,10 +4512,10 @@
         <v>246</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4454,10 +4523,10 @@
         <v>247</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4465,10 +4534,10 @@
         <v>248</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4476,10 +4545,10 @@
         <v>249</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4487,10 +4556,10 @@
         <v>250</v>
       </c>
       <c r="B249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C249">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4498,10 +4567,10 @@
         <v>251</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C250">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4509,10 +4578,10 @@
         <v>252</v>
       </c>
       <c r="B251">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C251">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4531,10 +4600,10 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C253">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4542,10 +4611,10 @@
         <v>255</v>
       </c>
       <c r="B254">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C254">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4553,10 +4622,10 @@
         <v>256</v>
       </c>
       <c r="B255">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C255">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4564,10 +4633,10 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4575,10 +4644,10 @@
         <v>258</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C257">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4586,10 +4655,10 @@
         <v>259</v>
       </c>
       <c r="B258">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="C258">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4597,10 +4666,10 @@
         <v>260</v>
       </c>
       <c r="B259">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C259">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4608,10 +4677,10 @@
         <v>261</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4622,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="C261">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4630,10 +4699,10 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C262">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4644,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="C263">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4652,10 +4721,10 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C264">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4666,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="C265">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4674,10 +4743,10 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C266">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4688,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="C267">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4696,10 +4765,10 @@
         <v>269</v>
       </c>
       <c r="B268">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C268">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4707,10 +4776,10 @@
         <v>270</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C269">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4718,10 +4787,10 @@
         <v>271</v>
       </c>
       <c r="B270">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C270">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4729,10 +4798,10 @@
         <v>272</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4740,10 +4809,10 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C272">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4751,10 +4820,10 @@
         <v>274</v>
       </c>
       <c r="B273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C273">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4773,10 +4842,10 @@
         <v>276</v>
       </c>
       <c r="B275">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C275">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4787,7 +4856,7 @@
         <v>1</v>
       </c>
       <c r="C276">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4798,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="C277">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4806,10 +4875,10 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C278">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4817,10 +4886,10 @@
         <v>280</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4828,10 +4897,10 @@
         <v>281</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4839,10 +4908,10 @@
         <v>282</v>
       </c>
       <c r="B281">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C281">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4850,10 +4919,10 @@
         <v>283</v>
       </c>
       <c r="B282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C282">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4861,10 +4930,10 @@
         <v>284</v>
       </c>
       <c r="B283">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C283">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4872,10 +4941,10 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4886,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="C285">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4894,10 +4963,10 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4908,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="C287">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4916,7 +4985,7 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C288">
         <v>50</v>
@@ -4930,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="C289">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4941,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="C290">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4952,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="C291">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4960,7 +5029,7 @@
         <v>293</v>
       </c>
       <c r="B292">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C292">
         <v>60</v>
@@ -4974,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="C293">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -4982,10 +5051,10 @@
         <v>295</v>
       </c>
       <c r="B294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C294">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -4993,10 +5062,10 @@
         <v>296</v>
       </c>
       <c r="B295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C295">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5004,10 +5073,10 @@
         <v>297</v>
       </c>
       <c r="B296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C296">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5015,10 +5084,10 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C297">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5026,10 +5095,10 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C298">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5051,7 +5120,7 @@
         <v>1</v>
       </c>
       <c r="C300">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5062,7 +5131,7 @@
         <v>1</v>
       </c>
       <c r="C301">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5070,10 +5139,10 @@
         <v>303</v>
       </c>
       <c r="B302">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C302">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5084,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="C303">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5095,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="C304">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5103,10 +5172,10 @@
         <v>306</v>
       </c>
       <c r="B305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5114,10 +5183,10 @@
         <v>307</v>
       </c>
       <c r="B306">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C306">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5125,10 +5194,10 @@
         <v>308</v>
       </c>
       <c r="B307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C307">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5136,10 +5205,10 @@
         <v>309</v>
       </c>
       <c r="B308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C308">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5147,10 +5216,10 @@
         <v>310</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C309">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5161,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="C310">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5172,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="C311">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5180,10 +5249,10 @@
         <v>313</v>
       </c>
       <c r="B312">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C312">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5194,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="C313">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5205,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="C314">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5216,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="C315">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5224,10 +5293,10 @@
         <v>317</v>
       </c>
       <c r="B316">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C316">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5235,10 +5304,10 @@
         <v>318</v>
       </c>
       <c r="B317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5246,10 +5315,10 @@
         <v>319</v>
       </c>
       <c r="B318">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C318">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5257,10 +5326,10 @@
         <v>320</v>
       </c>
       <c r="B319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C319">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5268,10 +5337,10 @@
         <v>321</v>
       </c>
       <c r="B320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C320">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5279,10 +5348,10 @@
         <v>322</v>
       </c>
       <c r="B321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5290,10 +5359,10 @@
         <v>323</v>
       </c>
       <c r="B322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5301,10 +5370,10 @@
         <v>324</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C323">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5312,10 +5381,10 @@
         <v>325</v>
       </c>
       <c r="B324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C324">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5334,10 +5403,10 @@
         <v>327</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C326">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5345,10 +5414,10 @@
         <v>328</v>
       </c>
       <c r="B327">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C327">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5356,10 +5425,10 @@
         <v>329</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C328">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5367,10 +5436,10 @@
         <v>330</v>
       </c>
       <c r="B329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C329">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5378,10 +5447,10 @@
         <v>331</v>
       </c>
       <c r="B330">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C330">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5389,10 +5458,10 @@
         <v>332</v>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C331">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5400,10 +5469,10 @@
         <v>333</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C332">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5411,10 +5480,10 @@
         <v>334</v>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C333">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5422,10 +5491,10 @@
         <v>335</v>
       </c>
       <c r="B334">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C334">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5433,10 +5502,10 @@
         <v>336</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -5447,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="C336">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5458,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="C337">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5466,10 +5535,10 @@
         <v>339</v>
       </c>
       <c r="B338">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C338">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5477,10 +5546,10 @@
         <v>340</v>
       </c>
       <c r="B339">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C339">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5488,10 +5557,10 @@
         <v>341</v>
       </c>
       <c r="B340">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C340">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5499,10 +5568,10 @@
         <v>342</v>
       </c>
       <c r="B341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C341">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5510,10 +5579,10 @@
         <v>343</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C342">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -5521,10 +5590,10 @@
         <v>344</v>
       </c>
       <c r="B343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C343">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5532,10 +5601,10 @@
         <v>345</v>
       </c>
       <c r="B344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5543,10 +5612,10 @@
         <v>346</v>
       </c>
       <c r="B345">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C345">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5554,10 +5623,10 @@
         <v>347</v>
       </c>
       <c r="B346">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C346">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5565,10 +5634,10 @@
         <v>348</v>
       </c>
       <c r="B347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5576,10 +5645,10 @@
         <v>349</v>
       </c>
       <c r="B348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C348">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -5587,10 +5656,10 @@
         <v>350</v>
       </c>
       <c r="B349">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
       <c r="C349">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5598,10 +5667,10 @@
         <v>351</v>
       </c>
       <c r="B350">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C350">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -5620,10 +5689,10 @@
         <v>353</v>
       </c>
       <c r="B352">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C352">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -5631,10 +5700,10 @@
         <v>354</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -5642,10 +5711,10 @@
         <v>355</v>
       </c>
       <c r="B354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -5653,10 +5722,10 @@
         <v>356</v>
       </c>
       <c r="B355">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C355">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -5664,10 +5733,10 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C356">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -5675,10 +5744,10 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C357">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -5686,10 +5755,10 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C358">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -5697,10 +5766,10 @@
         <v>360</v>
       </c>
       <c r="B359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -5708,10 +5777,10 @@
         <v>361</v>
       </c>
       <c r="B360">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -5719,10 +5788,10 @@
         <v>362</v>
       </c>
       <c r="B361">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C361">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -5730,10 +5799,10 @@
         <v>363</v>
       </c>
       <c r="B362">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C362">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -5744,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="C363">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -5752,7 +5821,7 @@
         <v>365</v>
       </c>
       <c r="B364">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C364">
         <v>50</v>
@@ -5763,10 +5832,10 @@
         <v>366</v>
       </c>
       <c r="B365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -5774,10 +5843,10 @@
         <v>367</v>
       </c>
       <c r="B366">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C366">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5785,10 +5854,10 @@
         <v>368</v>
       </c>
       <c r="B367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C367">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -5796,10 +5865,10 @@
         <v>369</v>
       </c>
       <c r="B368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -5807,7 +5876,7 @@
         <v>370</v>
       </c>
       <c r="B369">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C369">
         <v>55</v>
@@ -5818,10 +5887,10 @@
         <v>371</v>
       </c>
       <c r="B370">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C370">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -5829,10 +5898,10 @@
         <v>372</v>
       </c>
       <c r="B371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C371">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -5843,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="C372">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -5884,10 +5953,10 @@
         <v>377</v>
       </c>
       <c r="B376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C376">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -5895,10 +5964,10 @@
         <v>378</v>
       </c>
       <c r="B377">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="C377">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -5906,10 +5975,10 @@
         <v>379</v>
       </c>
       <c r="B378">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C378">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -5917,10 +5986,10 @@
         <v>380</v>
       </c>
       <c r="B379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C379">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -5928,10 +5997,10 @@
         <v>381</v>
       </c>
       <c r="B380">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C380">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -5939,10 +6008,10 @@
         <v>382</v>
       </c>
       <c r="B381">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C381">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -5950,10 +6019,10 @@
         <v>383</v>
       </c>
       <c r="B382">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C382">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -5961,10 +6030,10 @@
         <v>384</v>
       </c>
       <c r="B383">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C383">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -5972,10 +6041,10 @@
         <v>385</v>
       </c>
       <c r="B384">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C384">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -5986,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="C385">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -5997,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="C386">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6008,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="C387">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6019,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="C388">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6027,10 +6096,10 @@
         <v>390</v>
       </c>
       <c r="B389">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C389">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6041,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="C390">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6049,10 +6118,10 @@
         <v>392</v>
       </c>
       <c r="B391">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C391">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6085,7 +6154,7 @@
         <v>1</v>
       </c>
       <c r="C394">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6096,7 +6165,7 @@
         <v>1</v>
       </c>
       <c r="C395">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6107,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="C396">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6129,7 +6198,7 @@
         <v>1</v>
       </c>
       <c r="C398">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6140,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="C399">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6148,10 +6217,10 @@
         <v>401</v>
       </c>
       <c r="B400">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C400">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6159,10 +6228,10 @@
         <v>402</v>
       </c>
       <c r="B401">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="C401">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6170,10 +6239,10 @@
         <v>403</v>
       </c>
       <c r="B402">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="C402">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6184,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="C403">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6206,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="C405">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6217,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="C406">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6228,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="C407">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6247,10 +6316,10 @@
         <v>410</v>
       </c>
       <c r="B409">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C409">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6258,10 +6327,10 @@
         <v>411</v>
       </c>
       <c r="B410">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C410">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6272,7 +6341,7 @@
         <v>0.35</v>
       </c>
       <c r="C411">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6280,10 +6349,10 @@
         <v>413</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6291,10 +6360,10 @@
         <v>414</v>
       </c>
       <c r="B413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C413">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6305,7 +6374,7 @@
         <v>1</v>
       </c>
       <c r="C414">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6313,10 +6382,10 @@
         <v>416</v>
       </c>
       <c r="B415">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C415">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -6346,10 +6415,10 @@
         <v>419</v>
       </c>
       <c r="B418">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C418">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6357,10 +6426,10 @@
         <v>420</v>
       </c>
       <c r="B419">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C419">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -6379,10 +6448,10 @@
         <v>422</v>
       </c>
       <c r="B421">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C421">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -6390,10 +6459,10 @@
         <v>423</v>
       </c>
       <c r="B422">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C422">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -6401,10 +6470,10 @@
         <v>424</v>
       </c>
       <c r="B423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C423">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -6412,10 +6481,10 @@
         <v>425</v>
       </c>
       <c r="B424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C424">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -6426,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="C425">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -6437,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="C426">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -6448,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="C427">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -6456,10 +6525,10 @@
         <v>429</v>
       </c>
       <c r="B428">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C428">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -6470,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="C429">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -6481,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="C430">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -6489,10 +6558,10 @@
         <v>432</v>
       </c>
       <c r="B431">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C431">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -6500,10 +6569,10 @@
         <v>433</v>
       </c>
       <c r="B432">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C432">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -6514,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="C433">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -6522,10 +6591,10 @@
         <v>435</v>
       </c>
       <c r="B434">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C434">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -6533,10 +6602,10 @@
         <v>436</v>
       </c>
       <c r="B435">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C435">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -6544,10 +6613,10 @@
         <v>437</v>
       </c>
       <c r="B436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C436">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -6555,10 +6624,10 @@
         <v>438</v>
       </c>
       <c r="B437">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C437">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -6602,7 +6671,7 @@
         <v>1</v>
       </c>
       <c r="C441">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -6624,7 +6693,7 @@
         <v>1</v>
       </c>
       <c r="C443">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -6632,10 +6701,10 @@
         <v>445</v>
       </c>
       <c r="B444">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C444">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -6643,10 +6712,10 @@
         <v>446</v>
       </c>
       <c r="B445">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C445">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -6654,10 +6723,10 @@
         <v>447</v>
       </c>
       <c r="B446">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C446">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -6665,10 +6734,10 @@
         <v>448</v>
       </c>
       <c r="B447">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C447">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -6676,10 +6745,10 @@
         <v>449</v>
       </c>
       <c r="B448">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C448">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -6690,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="C449">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -6701,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="C450">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -6712,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="C451">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -6723,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="C452">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -6731,7 +6800,7 @@
         <v>454</v>
       </c>
       <c r="B453">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C453">
         <v>30</v>
@@ -6745,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="C454">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -6753,10 +6822,10 @@
         <v>456</v>
       </c>
       <c r="B455">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C455">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -6764,10 +6833,10 @@
         <v>457</v>
       </c>
       <c r="B456">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C456">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -6775,10 +6844,263 @@
         <v>458</v>
       </c>
       <c r="B457">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C457">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+      <c r="C458">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B459">
+        <v>0.4</v>
+      </c>
+      <c r="C459">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+      <c r="C460">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B461">
+        <v>1</v>
+      </c>
+      <c r="C461">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+      <c r="C462">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B463">
+        <v>1</v>
+      </c>
+      <c r="C463">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B464">
+        <v>1</v>
+      </c>
+      <c r="C464">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B465">
+        <v>1</v>
+      </c>
+      <c r="C465">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B466">
+        <v>1</v>
+      </c>
+      <c r="C466">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B467">
+        <v>0.6</v>
+      </c>
+      <c r="C467">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B468">
+        <v>1</v>
+      </c>
+      <c r="C468">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B469">
+        <v>0.6</v>
+      </c>
+      <c r="C469">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+      <c r="C470">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+      <c r="C471">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+      <c r="C472">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+      <c r="C473">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B474">
+        <v>0</v>
+      </c>
+      <c r="C474">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+      <c r="C475">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B476">
+        <v>0</v>
+      </c>
+      <c r="C476">
         <v>55</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+      <c r="C478">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B480">
+        <v>0.4</v>
+      </c>
+      <c r="C480">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/mid_outputs/match_probable_players.xlsx
+++ b/mid_outputs/match_probable_players.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="479">
   <si>
     <t>starter</t>
   </si>
@@ -25,57 +25,555 @@
     <t>player</t>
   </si>
   <si>
+    <t>Ochoa</t>
+  </si>
+  <si>
+    <t>Lovato</t>
+  </si>
+  <si>
+    <t>Gyomber</t>
+  </si>
+  <si>
+    <t>Pirola</t>
+  </si>
+  <si>
+    <t>Mazzocchi</t>
+  </si>
+  <si>
+    <t>Bohinen</t>
+  </si>
+  <si>
+    <t>Legowski</t>
+  </si>
+  <si>
+    <t>Bradaric</t>
+  </si>
+  <si>
+    <t>Candreva</t>
+  </si>
+  <si>
+    <t>Jovane</t>
+  </si>
+  <si>
+    <t>Ikwuemesi</t>
+  </si>
+  <si>
+    <t>Costil</t>
+  </si>
+  <si>
+    <t>Fiorillo</t>
+  </si>
+  <si>
+    <t>Sambia</t>
+  </si>
+  <si>
+    <t>Fazio</t>
+  </si>
+  <si>
+    <t>Daniliuc</t>
+  </si>
+  <si>
+    <t>Martegani</t>
+  </si>
+  <si>
+    <t>Tchaouna</t>
+  </si>
+  <si>
+    <t>Sfait</t>
+  </si>
+  <si>
+    <t>Maggiore</t>
+  </si>
+  <si>
+    <t>Kastanos</t>
+  </si>
+  <si>
+    <t>Botheim</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Stewart</t>
+  </si>
+  <si>
+    <t>Turati</t>
+  </si>
+  <si>
+    <t>Oyono</t>
+  </si>
+  <si>
+    <t>Okoli</t>
+  </si>
+  <si>
+    <t>Romagnoli S.</t>
+  </si>
+  <si>
+    <t>Marchizza</t>
+  </si>
+  <si>
+    <t>Mazzitelli</t>
+  </si>
+  <si>
+    <t>Barrenechea</t>
+  </si>
+  <si>
+    <t>Brescianini</t>
+  </si>
+  <si>
+    <t>Soule'</t>
+  </si>
+  <si>
+    <t>Cheddira</t>
+  </si>
+  <si>
+    <t>Caso</t>
+  </si>
+  <si>
+    <t>Cerofolini</t>
+  </si>
+  <si>
+    <t>Frattali</t>
+  </si>
+  <si>
+    <t>Monterisi</t>
+  </si>
+  <si>
+    <t>Mateus Lusuardi</t>
+  </si>
+  <si>
+    <t>Lirola</t>
+  </si>
+  <si>
+    <t>Garritano</t>
+  </si>
+  <si>
+    <t>Bourabia</t>
+  </si>
+  <si>
+    <t>Reinier</t>
+  </si>
+  <si>
+    <t>Ibrahimovic A.</t>
+  </si>
+  <si>
+    <t>Baez</t>
+  </si>
+  <si>
+    <t>Kvernadze</t>
+  </si>
+  <si>
+    <t>Cuni</t>
+  </si>
+  <si>
+    <t>Kaio Jorge</t>
+  </si>
+  <si>
+    <t>Falcone</t>
+  </si>
+  <si>
+    <t>Gendrey</t>
+  </si>
+  <si>
+    <t>Touba</t>
+  </si>
+  <si>
+    <t>Pongracic</t>
+  </si>
+  <si>
+    <t>Gallo</t>
+  </si>
+  <si>
+    <t>Rafia</t>
+  </si>
+  <si>
+    <t>Ramadani</t>
+  </si>
+  <si>
+    <t>Kaba</t>
+  </si>
+  <si>
+    <t>Almqvist</t>
+  </si>
+  <si>
+    <t>Krstovic</t>
+  </si>
+  <si>
+    <t>Strefezza</t>
+  </si>
+  <si>
+    <t>Brancolini</t>
+  </si>
+  <si>
+    <t>Borbei</t>
+  </si>
+  <si>
+    <t>Dorgu</t>
+  </si>
+  <si>
+    <t>Smajlovic</t>
+  </si>
+  <si>
+    <t>Venuti</t>
+  </si>
+  <si>
+    <t>Gonzalez J.</t>
+  </si>
+  <si>
+    <t>Blin</t>
+  </si>
+  <si>
+    <t>Oudin</t>
+  </si>
+  <si>
+    <t>Faticanti</t>
+  </si>
+  <si>
+    <t>Berisha M.</t>
+  </si>
+  <si>
+    <t>Listkowski</t>
+  </si>
+  <si>
+    <t>Piccoli</t>
+  </si>
+  <si>
+    <t>Sansone</t>
+  </si>
+  <si>
+    <t>Corfitzen</t>
+  </si>
+  <si>
+    <t>Burnete</t>
+  </si>
+  <si>
+    <t>Martinez Jo.</t>
+  </si>
+  <si>
+    <t>Sabelli</t>
+  </si>
+  <si>
+    <t>Bani</t>
+  </si>
+  <si>
+    <t>Dragusin</t>
+  </si>
+  <si>
+    <t>Vasquez</t>
+  </si>
+  <si>
+    <t>Strootman</t>
+  </si>
+  <si>
+    <t>Badelj</t>
+  </si>
+  <si>
+    <t>Frendrup</t>
+  </si>
+  <si>
+    <t>Malinovskyi</t>
+  </si>
+  <si>
+    <t>Gudmundsson A.</t>
+  </si>
+  <si>
+    <t>Retegui</t>
+  </si>
+  <si>
+    <t>Leali</t>
+  </si>
+  <si>
+    <t>Sommariva</t>
+  </si>
+  <si>
+    <t>Hefti</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Haps</t>
+  </si>
+  <si>
+    <t>Matturro</t>
+  </si>
+  <si>
+    <t>De Winter</t>
+  </si>
+  <si>
+    <t>Kutlu</t>
+  </si>
+  <si>
+    <t>Jagiello</t>
+  </si>
+  <si>
+    <t>Thorsby</t>
+  </si>
+  <si>
+    <t>Ekuban</t>
+  </si>
+  <si>
+    <t>Puscas</t>
+  </si>
+  <si>
+    <t>Sportiello</t>
+  </si>
+  <si>
+    <t>Calabria</t>
+  </si>
+  <si>
+    <t>Kjaer</t>
+  </si>
+  <si>
+    <t>Tomori</t>
+  </si>
+  <si>
+    <t>Hernandez T.</t>
+  </si>
+  <si>
+    <t>Musah</t>
+  </si>
+  <si>
+    <t>Krunic</t>
+  </si>
+  <si>
+    <t>Reijnders</t>
+  </si>
+  <si>
+    <t>Pulisic</t>
+  </si>
+  <si>
+    <t>Giroud</t>
+  </si>
+  <si>
+    <t>Rafael Leao</t>
+  </si>
+  <si>
+    <t>Mirante</t>
+  </si>
+  <si>
+    <t>Florenzi</t>
+  </si>
+  <si>
+    <t>Thiaw</t>
+  </si>
+  <si>
+    <t>Pellegrino</t>
+  </si>
+  <si>
+    <t>Pobega</t>
+  </si>
+  <si>
+    <t>Adli</t>
+  </si>
+  <si>
+    <t>Chukwueze</t>
+  </si>
+  <si>
+    <t>Loftus-Cheek</t>
+  </si>
+  <si>
+    <t>Romero L.</t>
+  </si>
+  <si>
+    <t>Okafor</t>
+  </si>
+  <si>
+    <t>Jovic</t>
+  </si>
+  <si>
+    <t>Montipo'</t>
+  </si>
+  <si>
+    <t>Magnani</t>
+  </si>
+  <si>
+    <t>Hien</t>
+  </si>
+  <si>
+    <t>Dawidowicz</t>
+  </si>
+  <si>
+    <t>Faraoni</t>
+  </si>
+  <si>
+    <t>Hongla</t>
+  </si>
+  <si>
+    <t>Duda</t>
+  </si>
+  <si>
+    <t>Lazovic</t>
+  </si>
+  <si>
+    <t>Ngonge</t>
+  </si>
+  <si>
+    <t>Mboula</t>
+  </si>
+  <si>
+    <t>Bonazzoli</t>
+  </si>
+  <si>
+    <t>Perilli</t>
+  </si>
+  <si>
+    <t>Berardi A.</t>
+  </si>
+  <si>
+    <t>Amione</t>
+  </si>
+  <si>
+    <t>Coppola D.</t>
+  </si>
+  <si>
+    <t>Cabal</t>
+  </si>
+  <si>
+    <t>Terracciano F.</t>
+  </si>
+  <si>
+    <t>Suslov</t>
+  </si>
+  <si>
+    <t>Saponara</t>
+  </si>
+  <si>
+    <t>Folorunsho</t>
+  </si>
+  <si>
+    <t>Serdar</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Djuric</t>
+  </si>
+  <si>
+    <t>Cragno</t>
+  </si>
+  <si>
+    <t>Toljan</t>
+  </si>
+  <si>
+    <t>Erlic</t>
+  </si>
+  <si>
+    <t>Tressoldi</t>
+  </si>
+  <si>
+    <t>Vina</t>
+  </si>
+  <si>
+    <t>Boloca</t>
+  </si>
+  <si>
+    <t>Matheus Henrique</t>
+  </si>
+  <si>
+    <t>Berardi</t>
+  </si>
+  <si>
+    <t>Bajrami</t>
+  </si>
+  <si>
+    <t>Lauriente'</t>
+  </si>
+  <si>
+    <t>Pinamonti</t>
+  </si>
+  <si>
+    <t>Pegolo</t>
+  </si>
+  <si>
+    <t>Ferrari G.</t>
+  </si>
+  <si>
+    <t>Missori</t>
+  </si>
+  <si>
+    <t>Viti</t>
+  </si>
+  <si>
+    <t>Pedersen</t>
+  </si>
+  <si>
+    <t>Obiang</t>
+  </si>
+  <si>
+    <t>Thorstvedt</t>
+  </si>
+  <si>
+    <t>Lipani</t>
+  </si>
+  <si>
+    <t>Volpato</t>
+  </si>
+  <si>
+    <t>Castillejo</t>
+  </si>
+  <si>
+    <t>Racic</t>
+  </si>
+  <si>
+    <t>Ceide</t>
+  </si>
+  <si>
+    <t>Defrel</t>
+  </si>
+  <si>
+    <t>Mulattieri</t>
+  </si>
+  <si>
     <t>Szczesny</t>
   </si>
   <si>
+    <t>Gatti</t>
+  </si>
+  <si>
+    <t>Bremer</t>
+  </si>
+  <si>
     <t>Danilo</t>
   </si>
   <si>
-    <t>Bremer</t>
-  </si>
-  <si>
-    <t>Gatti</t>
+    <t>Mckennie</t>
+  </si>
+  <si>
+    <t>Fagioli</t>
+  </si>
+  <si>
+    <t>Locatelli</t>
+  </si>
+  <si>
+    <t>Rabiot</t>
+  </si>
+  <si>
+    <t>Kostic</t>
+  </si>
+  <si>
+    <t>Chiesa</t>
+  </si>
+  <si>
+    <t>Vlahovic</t>
+  </si>
+  <si>
+    <t>Perin</t>
+  </si>
+  <si>
+    <t>Pinsoglio</t>
+  </si>
+  <si>
+    <t>Rugani</t>
+  </si>
+  <si>
+    <t>Cambiaso</t>
   </si>
   <si>
     <t>Weah</t>
   </si>
   <si>
-    <t>Fagioli</t>
-  </si>
-  <si>
-    <t>Locatelli</t>
-  </si>
-  <si>
-    <t>Rabiot</t>
-  </si>
-  <si>
-    <t>Kostic</t>
-  </si>
-  <si>
-    <t>Chiesa</t>
-  </si>
-  <si>
-    <t>Vlahovic</t>
-  </si>
-  <si>
-    <t>Perin</t>
-  </si>
-  <si>
-    <t>Pinsoglio</t>
-  </si>
-  <si>
-    <t>Rugani</t>
-  </si>
-  <si>
-    <t>Alex Sandro</t>
-  </si>
-  <si>
-    <t>Cambiaso</t>
-  </si>
-  <si>
-    <t>Mckennie</t>
-  </si>
-  <si>
     <t>Miretti</t>
   </si>
   <si>
@@ -109,51 +607,48 @@
     <t>Hysaj</t>
   </si>
   <si>
+    <t>Guendouzi</t>
+  </si>
+  <si>
+    <t>Cataldi</t>
+  </si>
+  <si>
+    <t>Luis Alberto</t>
+  </si>
+  <si>
+    <t>Felipe Anderson</t>
+  </si>
+  <si>
+    <t>Immobile</t>
+  </si>
+  <si>
+    <t>Zaccagni</t>
+  </si>
+  <si>
+    <t>Sepe</t>
+  </si>
+  <si>
+    <t>Mandas</t>
+  </si>
+  <si>
+    <t>Gila</t>
+  </si>
+  <si>
+    <t>Lazzari</t>
+  </si>
+  <si>
+    <t>Patric</t>
+  </si>
+  <si>
+    <t>Vecino</t>
+  </si>
+  <si>
     <t>Kamada</t>
   </si>
   <si>
-    <t>Cataldi</t>
-  </si>
-  <si>
-    <t>Luis Alberto</t>
-  </si>
-  <si>
-    <t>Felipe Anderson</t>
-  </si>
-  <si>
-    <t>Immobile</t>
-  </si>
-  <si>
-    <t>Zaccagni</t>
-  </si>
-  <si>
-    <t>Sepe</t>
-  </si>
-  <si>
-    <t>Mandas</t>
-  </si>
-  <si>
-    <t>Gila</t>
-  </si>
-  <si>
-    <t>Lazzari</t>
-  </si>
-  <si>
-    <t>Patric</t>
-  </si>
-  <si>
-    <t>Pellegrini Lu.</t>
-  </si>
-  <si>
-    <t>Vecino</t>
-  </si>
-  <si>
     <t>Basic</t>
   </si>
   <si>
-    <t>Guendouzi</t>
-  </si>
-  <si>
     <t>Rovella</t>
   </si>
   <si>
@@ -166,214 +661,583 @@
     <t>Pedro</t>
   </si>
   <si>
+    <t>Di Gregorio</t>
+  </si>
+  <si>
+    <t>Izzo</t>
+  </si>
+  <si>
+    <t>Mari'</t>
+  </si>
+  <si>
+    <t>Carboni A.</t>
+  </si>
+  <si>
+    <t>Ciurria</t>
+  </si>
+  <si>
+    <t>Gagliardini</t>
+  </si>
+  <si>
+    <t>Pessina</t>
+  </si>
+  <si>
+    <t>Birindelli</t>
+  </si>
+  <si>
+    <t>Colpani</t>
+  </si>
+  <si>
+    <t>Mota</t>
+  </si>
+  <si>
+    <t>Colombo</t>
+  </si>
+  <si>
+    <t>Sorrentino A.</t>
+  </si>
+  <si>
+    <t>Gori</t>
+  </si>
+  <si>
+    <t>Cittadini</t>
+  </si>
+  <si>
+    <t>Kyriakopoulos</t>
+  </si>
+  <si>
+    <t>D'ambrosio</t>
+  </si>
+  <si>
+    <t>Carboni F.</t>
+  </si>
+  <si>
+    <t>Pereira P.</t>
+  </si>
+  <si>
+    <t>Bettella</t>
+  </si>
+  <si>
+    <t>Machin</t>
+  </si>
+  <si>
+    <t>Bondo</t>
+  </si>
+  <si>
+    <t>Carboni V.</t>
+  </si>
+  <si>
+    <t>Akpa Akpro</t>
+  </si>
+  <si>
+    <t>Vignato S.</t>
+  </si>
+  <si>
+    <t>Maric</t>
+  </si>
+  <si>
+    <t>Berisha</t>
+  </si>
+  <si>
+    <t>Bereszynski</t>
+  </si>
+  <si>
+    <t>Ismajli</t>
+  </si>
+  <si>
+    <t>Luperto</t>
+  </si>
+  <si>
+    <t>Pezzella Giu.</t>
+  </si>
+  <si>
+    <t>Fazzini</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>Maleh</t>
+  </si>
+  <si>
+    <t>Baldanzi</t>
+  </si>
+  <si>
+    <t>Caputo</t>
+  </si>
+  <si>
+    <t>Cambiaghi</t>
+  </si>
+  <si>
+    <t>Perisan</t>
+  </si>
+  <si>
+    <t>Stubljar</t>
+  </si>
+  <si>
+    <t>Ebuehi</t>
+  </si>
+  <si>
+    <t>Walukiewicz</t>
+  </si>
+  <si>
+    <t>Cacace</t>
+  </si>
+  <si>
+    <t>Bastoni S.</t>
+  </si>
+  <si>
+    <t>Grassi</t>
+  </si>
+  <si>
+    <t>Ranocchia F.</t>
+  </si>
+  <si>
+    <t>Kovalenko</t>
+  </si>
+  <si>
+    <t>Maldini</t>
+  </si>
+  <si>
+    <t>Gyasi</t>
+  </si>
+  <si>
+    <t>Cancellieri</t>
+  </si>
+  <si>
+    <t>Shpendi S.</t>
+  </si>
+  <si>
+    <t>Destro</t>
+  </si>
+  <si>
     <t>Sommer</t>
   </si>
   <si>
+    <t>Pavard</t>
+  </si>
+  <si>
+    <t>De Vrij</t>
+  </si>
+  <si>
+    <t>Bastoni</t>
+  </si>
+  <si>
+    <t>Dumfries</t>
+  </si>
+  <si>
+    <t>Barella</t>
+  </si>
+  <si>
+    <t>Asllani</t>
+  </si>
+  <si>
+    <t>Frattesi</t>
+  </si>
+  <si>
+    <t>Dimarco</t>
+  </si>
+  <si>
+    <t>Thuram</t>
+  </si>
+  <si>
+    <t>Martinez L.</t>
+  </si>
+  <si>
+    <t>Audero</t>
+  </si>
+  <si>
+    <t>Di Gennaro</t>
+  </si>
+  <si>
+    <t>Bisseck</t>
+  </si>
+  <si>
+    <t>Acerbi</t>
+  </si>
+  <si>
+    <t>Cuadrado</t>
+  </si>
+  <si>
+    <t>Carlos Augusto</t>
+  </si>
+  <si>
     <t>Darmian</t>
   </si>
   <si>
-    <t>De Vrij</t>
-  </si>
-  <si>
-    <t>Bastoni</t>
-  </si>
-  <si>
-    <t>Dumfries</t>
-  </si>
-  <si>
-    <t>Barella</t>
-  </si>
-  <si>
     <t>Calhanoglu</t>
   </si>
   <si>
     <t>Mkhitaryan</t>
   </si>
   <si>
-    <t>Dimarco</t>
-  </si>
-  <si>
-    <t>Thuram</t>
-  </si>
-  <si>
-    <t>Martinez L.</t>
-  </si>
-  <si>
-    <t>Audero</t>
-  </si>
-  <si>
-    <t>Di Gennaro</t>
-  </si>
-  <si>
-    <t>Bisseck</t>
-  </si>
-  <si>
-    <t>Acerbi</t>
-  </si>
-  <si>
-    <t>Cuadrado</t>
-  </si>
-  <si>
-    <t>Carlos Augusto</t>
-  </si>
-  <si>
-    <t>Pavard</t>
-  </si>
-  <si>
-    <t>Asllani</t>
-  </si>
-  <si>
-    <t>Frattesi</t>
-  </si>
-  <si>
     <t>Klaassen</t>
   </si>
   <si>
-    <t>Sensi</t>
-  </si>
-  <si>
     <t>Sanchez</t>
   </si>
   <si>
     <t>Arnautovic</t>
   </si>
   <si>
-    <t>Maignan</t>
-  </si>
-  <si>
-    <t>Calabria</t>
-  </si>
-  <si>
-    <t>Kjaer</t>
-  </si>
-  <si>
-    <t>Thiaw</t>
-  </si>
-  <si>
-    <t>Hernandez T.</t>
-  </si>
-  <si>
-    <t>Loftus-Cheek</t>
-  </si>
-  <si>
-    <t>Krunic</t>
-  </si>
-  <si>
-    <t>Reijnders</t>
-  </si>
-  <si>
-    <t>Pulisic</t>
-  </si>
-  <si>
-    <t>Giroud</t>
-  </si>
-  <si>
-    <t>Rafael Leao</t>
-  </si>
-  <si>
-    <t>Sportiello</t>
-  </si>
-  <si>
-    <t>Mirante</t>
-  </si>
-  <si>
-    <t>Florenzi</t>
-  </si>
-  <si>
-    <t>Kalulu</t>
-  </si>
-  <si>
-    <t>Pellegrino</t>
-  </si>
-  <si>
-    <t>Pobega</t>
-  </si>
-  <si>
-    <t>Adli</t>
-  </si>
-  <si>
-    <t>Musah</t>
-  </si>
-  <si>
-    <t>Chukwueze</t>
-  </si>
-  <si>
-    <t>Romero L.</t>
-  </si>
-  <si>
-    <t>Okafor</t>
-  </si>
-  <si>
-    <t>Jovic</t>
-  </si>
-  <si>
-    <t>Martinez Jo.</t>
-  </si>
-  <si>
-    <t>Sabelli</t>
-  </si>
-  <si>
-    <t>Bani</t>
-  </si>
-  <si>
-    <t>Dragusin</t>
-  </si>
-  <si>
-    <t>Vasquez</t>
-  </si>
-  <si>
-    <t>Strootman</t>
-  </si>
-  <si>
-    <t>Badelj</t>
-  </si>
-  <si>
-    <t>Frendrup</t>
-  </si>
-  <si>
-    <t>Malinovskyi</t>
-  </si>
-  <si>
-    <t>Gudmundsson A.</t>
-  </si>
-  <si>
-    <t>Retegui</t>
-  </si>
-  <si>
-    <t>Leali</t>
-  </si>
-  <si>
-    <t>Sommariva</t>
-  </si>
-  <si>
-    <t>De Winter</t>
-  </si>
-  <si>
-    <t>Hefti</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Haps</t>
-  </si>
-  <si>
-    <t>Matturro</t>
-  </si>
-  <si>
-    <t>Kutlu</t>
-  </si>
-  <si>
-    <t>Jagiello</t>
-  </si>
-  <si>
-    <t>Thorsby</t>
-  </si>
-  <si>
-    <t>Ekuban</t>
-  </si>
-  <si>
-    <t>Puscas</t>
+    <t>Musso</t>
+  </si>
+  <si>
+    <t>Toloi</t>
+  </si>
+  <si>
+    <t>Scalvini</t>
+  </si>
+  <si>
+    <t>Kolasinac</t>
+  </si>
+  <si>
+    <t>Zappacosta</t>
+  </si>
+  <si>
+    <t>De Roon</t>
+  </si>
+  <si>
+    <t>Ederson D.s.</t>
+  </si>
+  <si>
+    <t>Ruggeri</t>
+  </si>
+  <si>
+    <t>Koopmeiners</t>
+  </si>
+  <si>
+    <t>De Ketelaere</t>
+  </si>
+  <si>
+    <t>Lookman</t>
+  </si>
+  <si>
+    <t>Carnesecchi</t>
+  </si>
+  <si>
+    <t>Rossi F.</t>
+  </si>
+  <si>
+    <t>Djimsiti</t>
+  </si>
+  <si>
+    <t>Zortea</t>
+  </si>
+  <si>
+    <t>Bakker</t>
+  </si>
+  <si>
+    <t>Holm</t>
+  </si>
+  <si>
+    <t>Hateboer</t>
+  </si>
+  <si>
+    <t>Palomino</t>
+  </si>
+  <si>
+    <t>Adopo</t>
+  </si>
+  <si>
+    <t>Miranchuk</t>
+  </si>
+  <si>
+    <t>Pasalic</t>
+  </si>
+  <si>
+    <t>Muriel</t>
+  </si>
+  <si>
+    <t>Radunovic</t>
+  </si>
+  <si>
+    <t>Hatzidiakos</t>
+  </si>
+  <si>
+    <t>Dossena</t>
+  </si>
+  <si>
+    <t>Obert</t>
+  </si>
+  <si>
+    <t>Zappa</t>
+  </si>
+  <si>
+    <t>Nandez</t>
+  </si>
+  <si>
+    <t>Makoumbou</t>
+  </si>
+  <si>
+    <t>Jankto</t>
+  </si>
+  <si>
+    <t>Augello</t>
+  </si>
+  <si>
+    <t>Luvumbo</t>
+  </si>
+  <si>
+    <t>Pavoletti</t>
+  </si>
+  <si>
+    <t>Scuffet</t>
+  </si>
+  <si>
+    <t>Aresti</t>
+  </si>
+  <si>
+    <t>Di Pardo</t>
+  </si>
+  <si>
+    <t>Goldaniga</t>
+  </si>
+  <si>
+    <t>Azzi</t>
+  </si>
+  <si>
+    <t>Sulemana I.</t>
+  </si>
+  <si>
+    <t>Deiola</t>
+  </si>
+  <si>
+    <t>Viola</t>
+  </si>
+  <si>
+    <t>Prati</t>
+  </si>
+  <si>
+    <t>Oristanio</t>
+  </si>
+  <si>
+    <t>Mancosu</t>
+  </si>
+  <si>
+    <t>Petagna</t>
+  </si>
+  <si>
+    <t>Shomurodov</t>
+  </si>
+  <si>
+    <t>Silvestri</t>
+  </si>
+  <si>
+    <t>Perez N.</t>
+  </si>
+  <si>
+    <t>Bijol</t>
+  </si>
+  <si>
+    <t>Kristensen T.</t>
+  </si>
+  <si>
+    <t>Ebosele</t>
+  </si>
+  <si>
+    <t>Samardzic</t>
+  </si>
+  <si>
+    <t>Walace</t>
+  </si>
+  <si>
+    <t>Lovric</t>
+  </si>
+  <si>
+    <t>Kamara H.</t>
+  </si>
+  <si>
+    <t>Lucca</t>
+  </si>
+  <si>
+    <t>Thauvin</t>
+  </si>
+  <si>
+    <t>Okoye</t>
+  </si>
+  <si>
+    <t>Zemura</t>
+  </si>
+  <si>
+    <t>Ferreira J.</t>
+  </si>
+  <si>
+    <t>Guessand A.</t>
+  </si>
+  <si>
+    <t>Camara E.</t>
+  </si>
+  <si>
+    <t>Zarraga</t>
+  </si>
+  <si>
+    <t>Quina</t>
+  </si>
+  <si>
+    <t>Payero</t>
+  </si>
+  <si>
+    <t>Pereyra</t>
+  </si>
+  <si>
+    <t>Pafundi</t>
+  </si>
+  <si>
+    <t>Ake' M.</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Terracciano</t>
+  </si>
+  <si>
+    <t>Dodo'</t>
+  </si>
+  <si>
+    <t>Milenkovic</t>
+  </si>
+  <si>
+    <t>Ranieri L.</t>
+  </si>
+  <si>
+    <t>Biraghi</t>
+  </si>
+  <si>
+    <t>Mandragora</t>
+  </si>
+  <si>
+    <t>Arthur Melo</t>
+  </si>
+  <si>
+    <t>Gonzalez N.</t>
+  </si>
+  <si>
+    <t>Bonaventura</t>
+  </si>
+  <si>
+    <t>Kouame'</t>
+  </si>
+  <si>
+    <t>Nzola</t>
+  </si>
+  <si>
+    <t>Christensen O.</t>
+  </si>
+  <si>
+    <t>Martinelli T.</t>
+  </si>
+  <si>
+    <t>Parisi</t>
+  </si>
+  <si>
+    <t>Martinez Quarta</t>
+  </si>
+  <si>
+    <t>Comuzzo</t>
+  </si>
+  <si>
+    <t>Kayode</t>
+  </si>
+  <si>
+    <t>Infantino</t>
+  </si>
+  <si>
+    <t>Amatucci</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Lopez M.</t>
+  </si>
+  <si>
+    <t>Sottil</t>
+  </si>
+  <si>
+    <t>Barak</t>
+  </si>
+  <si>
+    <t>Ikone'</t>
+  </si>
+  <si>
+    <t>Brekalo</t>
+  </si>
+  <si>
+    <t>Beltran L.</t>
+  </si>
+  <si>
+    <t>Skorupski</t>
+  </si>
+  <si>
+    <t>Posch</t>
+  </si>
+  <si>
+    <t>Beukema</t>
+  </si>
+  <si>
+    <t>Lucumi'</t>
+  </si>
+  <si>
+    <t>Kristiansen</t>
+  </si>
+  <si>
+    <t>Moro N.</t>
+  </si>
+  <si>
+    <t>Freuler</t>
+  </si>
+  <si>
+    <t>Ndoye</t>
+  </si>
+  <si>
+    <t>Ferguson</t>
+  </si>
+  <si>
+    <t>Karlsson</t>
+  </si>
+  <si>
+    <t>Zirkzee</t>
+  </si>
+  <si>
+    <t>Ravaglia F.</t>
+  </si>
+  <si>
+    <t>Bagnolini</t>
+  </si>
+  <si>
+    <t>Bonifazi</t>
+  </si>
+  <si>
+    <t>Calafiori</t>
+  </si>
+  <si>
+    <t>Corazza</t>
+  </si>
+  <si>
+    <t>De Silvestri</t>
+  </si>
+  <si>
+    <t>Lykogiannis</t>
+  </si>
+  <si>
+    <t>Fabbian</t>
+  </si>
+  <si>
+    <t>Aebischer</t>
+  </si>
+  <si>
+    <t>El Azzouzi</t>
+  </si>
+  <si>
+    <t>Urbanski</t>
+  </si>
+  <si>
+    <t>Orsolini</t>
+  </si>
+  <si>
+    <t>Van Hooijdonk</t>
   </si>
   <si>
     <t>Meret</t>
@@ -382,51 +1246,48 @@
     <t>Di Lorenzo</t>
   </si>
   <si>
-    <t>Rrahmani</t>
+    <t>Ostigard</t>
   </si>
   <si>
     <t>Juan Jesus</t>
   </si>
   <si>
+    <t>Mario Rui</t>
+  </si>
+  <si>
+    <t>Zambo Anguissa</t>
+  </si>
+  <si>
+    <t>Lobotka</t>
+  </si>
+  <si>
+    <t>Zielinski</t>
+  </si>
+  <si>
+    <t>Politano</t>
+  </si>
+  <si>
+    <t>Osimhen</t>
+  </si>
+  <si>
+    <t>Kvaratskhelia</t>
+  </si>
+  <si>
+    <t>Gollini</t>
+  </si>
+  <si>
+    <t>Contini</t>
+  </si>
+  <si>
+    <t>Natan</t>
+  </si>
+  <si>
+    <t>Zanoli</t>
+  </si>
+  <si>
     <t>Olivera</t>
   </si>
   <si>
-    <t>Zambo Anguissa</t>
-  </si>
-  <si>
-    <t>Lobotka</t>
-  </si>
-  <si>
-    <t>Zielinski</t>
-  </si>
-  <si>
-    <t>Politano</t>
-  </si>
-  <si>
-    <t>Osimhen</t>
-  </si>
-  <si>
-    <t>Kvaratskhelia</t>
-  </si>
-  <si>
-    <t>Gollini</t>
-  </si>
-  <si>
-    <t>Contini</t>
-  </si>
-  <si>
-    <t>Ostigard</t>
-  </si>
-  <si>
-    <t>Natan</t>
-  </si>
-  <si>
-    <t>Zanoli</t>
-  </si>
-  <si>
-    <t>Mario Rui</t>
-  </si>
-  <si>
     <t>Elmas</t>
   </si>
   <si>
@@ -439,6 +1300,9 @@
     <t>Gaetano</t>
   </si>
   <si>
+    <t>Demme</t>
+  </si>
+  <si>
     <t>Lindstrom</t>
   </si>
   <si>
@@ -448,598 +1312,73 @@
     <t>Simeone</t>
   </si>
   <si>
-    <t>Radunovic</t>
-  </si>
-  <si>
-    <t>Zappa</t>
-  </si>
-  <si>
-    <t>Dossena</t>
-  </si>
-  <si>
-    <t>Wieteska</t>
-  </si>
-  <si>
-    <t>Augello</t>
-  </si>
-  <si>
-    <t>Nandez</t>
-  </si>
-  <si>
-    <t>Makoumbou</t>
-  </si>
-  <si>
-    <t>Sulemana I.</t>
-  </si>
-  <si>
-    <t>Jankto</t>
-  </si>
-  <si>
-    <t>Luvumbo</t>
-  </si>
-  <si>
-    <t>Petagna</t>
-  </si>
-  <si>
-    <t>Scuffet</t>
-  </si>
-  <si>
-    <t>Aresti</t>
-  </si>
-  <si>
-    <t>Di Pardo</t>
-  </si>
-  <si>
-    <t>Goldaniga</t>
-  </si>
-  <si>
-    <t>Obert</t>
-  </si>
-  <si>
-    <t>Azzi</t>
-  </si>
-  <si>
-    <t>Deiola</t>
-  </si>
-  <si>
-    <t>Viola</t>
-  </si>
-  <si>
-    <t>Prati</t>
-  </si>
-  <si>
-    <t>Oristanio</t>
-  </si>
-  <si>
-    <t>Mancosu</t>
-  </si>
-  <si>
-    <t>Pavoletti</t>
-  </si>
-  <si>
-    <t>Shomurodov</t>
-  </si>
-  <si>
-    <t>Silvestri</t>
-  </si>
-  <si>
-    <t>Perez N.</t>
-  </si>
-  <si>
-    <t>Bijol</t>
-  </si>
-  <si>
-    <t>Kabasele</t>
-  </si>
-  <si>
-    <t>Ferreira J.</t>
-  </si>
-  <si>
-    <t>Samardzic</t>
-  </si>
-  <si>
-    <t>Walace</t>
-  </si>
-  <si>
-    <t>Lovric</t>
-  </si>
-  <si>
-    <t>Kamara H.</t>
-  </si>
-  <si>
-    <t>Lucca</t>
-  </si>
-  <si>
-    <t>Thauvin</t>
-  </si>
-  <si>
-    <t>Okoye</t>
-  </si>
-  <si>
-    <t>Zemura</t>
-  </si>
-  <si>
-    <t>Guessand A.</t>
-  </si>
-  <si>
-    <t>Ebosele</t>
-  </si>
-  <si>
-    <t>Kristensen T.</t>
-  </si>
-  <si>
-    <t>Camara E.</t>
-  </si>
-  <si>
-    <t>Zarraga</t>
-  </si>
-  <si>
-    <t>Quina</t>
-  </si>
-  <si>
-    <t>Payero</t>
-  </si>
-  <si>
-    <t>Pafundi</t>
-  </si>
-  <si>
-    <t>Ake' M.</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Davis K.</t>
-  </si>
-  <si>
-    <t>Vivaldo</t>
-  </si>
-  <si>
-    <t>Turati</t>
-  </si>
-  <si>
-    <t>Oyono</t>
-  </si>
-  <si>
-    <t>Monterisi</t>
-  </si>
-  <si>
-    <t>Romagnoli S.</t>
-  </si>
-  <si>
-    <t>Marchizza</t>
-  </si>
-  <si>
-    <t>Mazzitelli</t>
-  </si>
-  <si>
-    <t>Barrenechea</t>
-  </si>
-  <si>
-    <t>Gelli</t>
-  </si>
-  <si>
-    <t>Soule'</t>
-  </si>
-  <si>
-    <t>Cheddira</t>
-  </si>
-  <si>
-    <t>Harroui</t>
-  </si>
-  <si>
-    <t>Cerofolini</t>
-  </si>
-  <si>
-    <t>Frattali</t>
-  </si>
-  <si>
-    <t>Okoli</t>
-  </si>
-  <si>
-    <t>Mateus Lusuardi</t>
-  </si>
-  <si>
-    <t>Lirola</t>
-  </si>
-  <si>
-    <t>Brescianini</t>
-  </si>
-  <si>
-    <t>Garritano</t>
-  </si>
-  <si>
-    <t>Bourabia</t>
-  </si>
-  <si>
-    <t>Reinier</t>
-  </si>
-  <si>
-    <t>Baez</t>
-  </si>
-  <si>
-    <t>Caso</t>
-  </si>
-  <si>
-    <t>Kvernadze</t>
-  </si>
-  <si>
-    <t>Cuni</t>
-  </si>
-  <si>
-    <t>Kaio Jorge</t>
-  </si>
-  <si>
-    <t>Consigli</t>
-  </si>
-  <si>
-    <t>Toljan</t>
-  </si>
-  <si>
-    <t>Erlic</t>
-  </si>
-  <si>
-    <t>Tressoldi</t>
-  </si>
-  <si>
-    <t>Vina</t>
-  </si>
-  <si>
-    <t>Boloca</t>
-  </si>
-  <si>
-    <t>Matheus Henrique</t>
-  </si>
-  <si>
-    <t>Berardi</t>
-  </si>
-  <si>
-    <t>Thorstvedt</t>
-  </si>
-  <si>
-    <t>Lauriente'</t>
-  </si>
-  <si>
-    <t>Pinamonti</t>
-  </si>
-  <si>
-    <t>Cragno</t>
-  </si>
-  <si>
-    <t>Pegolo</t>
-  </si>
-  <si>
-    <t>Ferrari G.</t>
-  </si>
-  <si>
-    <t>Missori</t>
-  </si>
-  <si>
-    <t>Viti</t>
-  </si>
-  <si>
-    <t>Pedersen</t>
-  </si>
-  <si>
-    <t>Obiang</t>
-  </si>
-  <si>
-    <t>Bajrami</t>
-  </si>
-  <si>
-    <t>Lipani</t>
-  </si>
-  <si>
-    <t>Volpato</t>
-  </si>
-  <si>
-    <t>Castillejo</t>
-  </si>
-  <si>
-    <t>Racic</t>
-  </si>
-  <si>
-    <t>Ceide</t>
-  </si>
-  <si>
-    <t>Defrel</t>
-  </si>
-  <si>
-    <t>Mulattieri</t>
-  </si>
-  <si>
-    <t>Di Gregorio</t>
-  </si>
-  <si>
-    <t>Izzo</t>
-  </si>
-  <si>
-    <t>Mari'</t>
-  </si>
-  <si>
-    <t>Caldirola</t>
-  </si>
-  <si>
-    <t>Ciurria</t>
-  </si>
-  <si>
-    <t>Gagliardini</t>
-  </si>
-  <si>
-    <t>Pessina</t>
-  </si>
-  <si>
-    <t>Birindelli</t>
-  </si>
-  <si>
-    <t>Colpani</t>
-  </si>
-  <si>
-    <t>Caprari</t>
-  </si>
-  <si>
-    <t>Colombo</t>
-  </si>
-  <si>
-    <t>Gori</t>
-  </si>
-  <si>
-    <t>Sorrentino A.</t>
-  </si>
-  <si>
-    <t>Carboni A.</t>
-  </si>
-  <si>
-    <t>Cittadini</t>
-  </si>
-  <si>
-    <t>Kyriakopoulos</t>
-  </si>
-  <si>
-    <t>Carboni F.</t>
-  </si>
-  <si>
-    <t>Pereira P.</t>
-  </si>
-  <si>
-    <t>Machin</t>
-  </si>
-  <si>
-    <t>Bondo</t>
-  </si>
-  <si>
-    <t>Carboni V.</t>
-  </si>
-  <si>
-    <t>Akpa Akpro</t>
-  </si>
-  <si>
-    <t>Vignato S.</t>
-  </si>
-  <si>
-    <t>Mota</t>
-  </si>
-  <si>
-    <t>Maric</t>
-  </si>
-  <si>
-    <t>Falcone</t>
-  </si>
-  <si>
-    <t>Gendrey</t>
-  </si>
-  <si>
-    <t>Baschirotto</t>
-  </si>
-  <si>
-    <t>Pongracic</t>
-  </si>
-  <si>
-    <t>Gallo</t>
-  </si>
-  <si>
-    <t>Rafia</t>
-  </si>
-  <si>
-    <t>Ramadani</t>
-  </si>
-  <si>
-    <t>Kaba</t>
-  </si>
-  <si>
-    <t>Strefezza</t>
-  </si>
-  <si>
-    <t>Krstovic</t>
-  </si>
-  <si>
-    <t>Almqvist</t>
-  </si>
-  <si>
-    <t>Brancolini</t>
-  </si>
-  <si>
-    <t>Borbei</t>
-  </si>
-  <si>
-    <t>Touba</t>
-  </si>
-  <si>
-    <t>Dermaku</t>
-  </si>
-  <si>
-    <t>Dorgu</t>
-  </si>
-  <si>
-    <t>Venuti</t>
-  </si>
-  <si>
-    <t>Smajlovic</t>
-  </si>
-  <si>
-    <t>Gonzalez J.</t>
-  </si>
-  <si>
-    <t>Blin</t>
-  </si>
-  <si>
-    <t>Oudin</t>
-  </si>
-  <si>
-    <t>Faticanti</t>
-  </si>
-  <si>
-    <t>Burnete</t>
-  </si>
-  <si>
-    <t>Piccoli</t>
-  </si>
-  <si>
-    <t>Banda</t>
-  </si>
-  <si>
-    <t>Corfitzen</t>
-  </si>
-  <si>
-    <t>Terracciano</t>
-  </si>
-  <si>
-    <t>Dodo'</t>
-  </si>
-  <si>
-    <t>Milenkovic</t>
-  </si>
-  <si>
-    <t>Ranieri L.</t>
-  </si>
-  <si>
-    <t>Biraghi</t>
-  </si>
-  <si>
-    <t>Mandragora</t>
-  </si>
-  <si>
-    <t>Arthur Melo</t>
-  </si>
-  <si>
-    <t>Gonzalez N.</t>
-  </si>
-  <si>
-    <t>Bonaventura</t>
-  </si>
-  <si>
-    <t>Kouame'</t>
-  </si>
-  <si>
-    <t>Nzola</t>
-  </si>
-  <si>
-    <t>Christensen O.</t>
-  </si>
-  <si>
-    <t>Martinelli T.</t>
-  </si>
-  <si>
-    <t>Parisi</t>
-  </si>
-  <si>
-    <t>Martinez Quarta</t>
-  </si>
-  <si>
-    <t>Mina</t>
-  </si>
-  <si>
-    <t>Kayode</t>
-  </si>
-  <si>
-    <t>Infantino</t>
-  </si>
-  <si>
-    <t>Duncan</t>
-  </si>
-  <si>
-    <t>Sottil</t>
-  </si>
-  <si>
-    <t>Amatucci</t>
-  </si>
-  <si>
-    <t>Beltran L.</t>
-  </si>
-  <si>
-    <t>Brekalo</t>
-  </si>
-  <si>
-    <t>Musso</t>
-  </si>
-  <si>
-    <t>Djimsiti</t>
-  </si>
-  <si>
-    <t>Scalvini</t>
-  </si>
-  <si>
-    <t>Kolasinac</t>
-  </si>
-  <si>
-    <t>Zappacosta</t>
-  </si>
-  <si>
-    <t>De Roon</t>
-  </si>
-  <si>
-    <t>Ederson D.s.</t>
-  </si>
-  <si>
-    <t>Ruggeri</t>
-  </si>
-  <si>
-    <t>Koopmeiners</t>
-  </si>
-  <si>
-    <t>De Ketelaere</t>
-  </si>
-  <si>
-    <t>Scamacca</t>
-  </si>
-  <si>
-    <t>Carnesecchi</t>
-  </si>
-  <si>
-    <t>Rossi F.</t>
-  </si>
-  <si>
-    <t>Holm</t>
-  </si>
-  <si>
-    <t>Toloi</t>
-  </si>
-  <si>
-    <t>Bakker</t>
-  </si>
-  <si>
-    <t>Bonfanti</t>
-  </si>
-  <si>
-    <t>Hateboer</t>
-  </si>
-  <si>
-    <t>Palomino</t>
-  </si>
-  <si>
-    <t>Adopo</t>
-  </si>
-  <si>
-    <t>Miranchuk</t>
-  </si>
-  <si>
-    <t>Pasalic</t>
-  </si>
-  <si>
-    <t>Lookman</t>
-  </si>
-  <si>
-    <t>Muriel</t>
+    <t>Milinkovic-Savic V.</t>
+  </si>
+  <si>
+    <t>Schuurs</t>
+  </si>
+  <si>
+    <t>Buongiorno</t>
+  </si>
+  <si>
+    <t>Rodriguez R.</t>
+  </si>
+  <si>
+    <t>Bellanova</t>
+  </si>
+  <si>
+    <t>Ilic</t>
+  </si>
+  <si>
+    <t>Ricci S.</t>
+  </si>
+  <si>
+    <t>Lazaro</t>
+  </si>
+  <si>
+    <t>Vlasic</t>
+  </si>
+  <si>
+    <t>Radonjic</t>
+  </si>
+  <si>
+    <t>Zapata D.</t>
+  </si>
+  <si>
+    <t>Gemello</t>
+  </si>
+  <si>
+    <t>N'guessan</t>
+  </si>
+  <si>
+    <t>Sazonov</t>
+  </si>
+  <si>
+    <t>Zima</t>
+  </si>
+  <si>
+    <t>Soppy</t>
+  </si>
+  <si>
+    <t>Gineitis</t>
+  </si>
+  <si>
+    <t>Tameze</t>
+  </si>
+  <si>
+    <t>Linetty</t>
+  </si>
+  <si>
+    <t>Seck</t>
+  </si>
+  <si>
+    <t>Pellegri</t>
+  </si>
+  <si>
+    <t>Sanabria</t>
+  </si>
+  <si>
+    <t>Karamoh</t>
   </si>
   <si>
     <t>Rui Patricio</t>
@@ -1048,58 +1387,58 @@
     <t>Mancini</t>
   </si>
   <si>
+    <t>Llorente D.</t>
+  </si>
+  <si>
+    <t>N'dicka</t>
+  </si>
+  <si>
+    <t>Kristensen</t>
+  </si>
+  <si>
+    <t>Paredes</t>
+  </si>
+  <si>
+    <t>Cristante</t>
+  </si>
+  <si>
+    <t>Renato Sanches</t>
+  </si>
+  <si>
+    <t>Spinazzola</t>
+  </si>
+  <si>
+    <t>Dybala</t>
+  </si>
+  <si>
+    <t>Lukaku</t>
+  </si>
+  <si>
+    <t>Svilar</t>
+  </si>
+  <si>
+    <t>Boer</t>
+  </si>
+  <si>
     <t>Smalling</t>
   </si>
   <si>
-    <t>Llorente D.</t>
-  </si>
-  <si>
-    <t>Kristensen</t>
-  </si>
-  <si>
-    <t>Paredes</t>
-  </si>
-  <si>
-    <t>Cristante</t>
-  </si>
-  <si>
-    <t>Pellegrini Lo.</t>
-  </si>
-  <si>
-    <t>Spinazzola</t>
-  </si>
-  <si>
-    <t>Dybala</t>
-  </si>
-  <si>
-    <t>Lukaku</t>
-  </si>
-  <si>
-    <t>Svilar</t>
-  </si>
-  <si>
-    <t>Boer</t>
-  </si>
-  <si>
-    <t>N'dicka</t>
+    <t>Karsdorp</t>
   </si>
   <si>
     <t>Celik</t>
   </si>
   <si>
-    <t>Karsdorp</t>
+    <t>Zalewski</t>
+  </si>
+  <si>
+    <t>Pagano</t>
   </si>
   <si>
     <t>Bove</t>
   </si>
   <si>
-    <t>Zalewski</t>
-  </si>
-  <si>
-    <t>Pagano</t>
-  </si>
-  <si>
-    <t>Renato Sanches</t>
+    <t>Pisilli</t>
   </si>
   <si>
     <t>Aouar</t>
@@ -1112,354 +1451,6 @@
   </si>
   <si>
     <t>Azmoun</t>
-  </si>
-  <si>
-    <t>Berisha</t>
-  </si>
-  <si>
-    <t>Ebuehi</t>
-  </si>
-  <si>
-    <t>Ismajli</t>
-  </si>
-  <si>
-    <t>Luperto</t>
-  </si>
-  <si>
-    <t>Pezzella Giu.</t>
-  </si>
-  <si>
-    <t>Fazzini</t>
-  </si>
-  <si>
-    <t>Marin</t>
-  </si>
-  <si>
-    <t>Maleh</t>
-  </si>
-  <si>
-    <t>Baldanzi</t>
-  </si>
-  <si>
-    <t>Caputo</t>
-  </si>
-  <si>
-    <t>Cambiaghi</t>
-  </si>
-  <si>
-    <t>Perisan</t>
-  </si>
-  <si>
-    <t>Stubljar</t>
-  </si>
-  <si>
-    <t>Bereszynski</t>
-  </si>
-  <si>
-    <t>Walukiewicz</t>
-  </si>
-  <si>
-    <t>Cacace</t>
-  </si>
-  <si>
-    <t>Tonelli</t>
-  </si>
-  <si>
-    <t>Bastoni S.</t>
-  </si>
-  <si>
-    <t>Grassi</t>
-  </si>
-  <si>
-    <t>Haas</t>
-  </si>
-  <si>
-    <t>Ranocchia F.</t>
-  </si>
-  <si>
-    <t>Kovalenko</t>
-  </si>
-  <si>
-    <t>Gyasi</t>
-  </si>
-  <si>
-    <t>Cancellieri</t>
-  </si>
-  <si>
-    <t>Shpendi S.</t>
-  </si>
-  <si>
-    <t>Destro</t>
-  </si>
-  <si>
-    <t>Ochoa</t>
-  </si>
-  <si>
-    <t>Lovato</t>
-  </si>
-  <si>
-    <t>Gyomber</t>
-  </si>
-  <si>
-    <t>Pirola</t>
-  </si>
-  <si>
-    <t>Mazzocchi</t>
-  </si>
-  <si>
-    <t>Coulibaly L.</t>
-  </si>
-  <si>
-    <t>Legowski</t>
-  </si>
-  <si>
-    <t>Bradaric</t>
-  </si>
-  <si>
-    <t>Candreva</t>
-  </si>
-  <si>
-    <t>Kastanos</t>
-  </si>
-  <si>
-    <t>Botheim</t>
-  </si>
-  <si>
-    <t>Costil</t>
-  </si>
-  <si>
-    <t>Fiorillo</t>
-  </si>
-  <si>
-    <t>Sambia</t>
-  </si>
-  <si>
-    <t>Fazio</t>
-  </si>
-  <si>
-    <t>Bohinen</t>
-  </si>
-  <si>
-    <t>Martegani</t>
-  </si>
-  <si>
-    <t>Tchaouna</t>
-  </si>
-  <si>
-    <t>Sfait</t>
-  </si>
-  <si>
-    <t>Stewart</t>
-  </si>
-  <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>Ikwuemesi</t>
-  </si>
-  <si>
-    <t>Jovane</t>
-  </si>
-  <si>
-    <t>Milinkovic-Savic V.</t>
-  </si>
-  <si>
-    <t>Schuurs</t>
-  </si>
-  <si>
-    <t>Buongiorno</t>
-  </si>
-  <si>
-    <t>Rodriguez R.</t>
-  </si>
-  <si>
-    <t>Bellanova</t>
-  </si>
-  <si>
-    <t>Ilic</t>
-  </si>
-  <si>
-    <t>Ricci S.</t>
-  </si>
-  <si>
-    <t>Vojvoda</t>
-  </si>
-  <si>
-    <t>Vlasic</t>
-  </si>
-  <si>
-    <t>Radonjic</t>
-  </si>
-  <si>
-    <t>Zapata D.</t>
-  </si>
-  <si>
-    <t>Gemello</t>
-  </si>
-  <si>
-    <t>Popa</t>
-  </si>
-  <si>
-    <t>Zima</t>
-  </si>
-  <si>
-    <t>N'guessan</t>
-  </si>
-  <si>
-    <t>Sazonov</t>
-  </si>
-  <si>
-    <t>Soppy</t>
-  </si>
-  <si>
-    <t>Lazaro</t>
-  </si>
-  <si>
-    <t>Linetty</t>
-  </si>
-  <si>
-    <t>Tameze</t>
-  </si>
-  <si>
-    <t>Gineitis</t>
-  </si>
-  <si>
-    <t>Seck</t>
-  </si>
-  <si>
-    <t>Pellegri</t>
-  </si>
-  <si>
-    <t>Karamoh</t>
-  </si>
-  <si>
-    <t>Montipo'</t>
-  </si>
-  <si>
-    <t>Dawidowicz</t>
-  </si>
-  <si>
-    <t>Hien</t>
-  </si>
-  <si>
-    <t>Magnani</t>
-  </si>
-  <si>
-    <t>Faraoni</t>
-  </si>
-  <si>
-    <t>Serdar</t>
-  </si>
-  <si>
-    <t>Duda</t>
-  </si>
-  <si>
-    <t>Doig</t>
-  </si>
-  <si>
-    <t>Mboula</t>
-  </si>
-  <si>
-    <t>Lazovic</t>
-  </si>
-  <si>
-    <t>Ngonge</t>
-  </si>
-  <si>
-    <t>Perilli</t>
-  </si>
-  <si>
-    <t>Berardi A.</t>
-  </si>
-  <si>
-    <t>Amione</t>
-  </si>
-  <si>
-    <t>Coppola D.</t>
-  </si>
-  <si>
-    <t>Cabal</t>
-  </si>
-  <si>
-    <t>Terracciano F.</t>
-  </si>
-  <si>
-    <t>Suslov</t>
-  </si>
-  <si>
-    <t>Folorunsho</t>
-  </si>
-  <si>
-    <t>Saponara</t>
-  </si>
-  <si>
-    <t>Djuric</t>
-  </si>
-  <si>
-    <t>Bonazzoli</t>
-  </si>
-  <si>
-    <t>Skorupski</t>
-  </si>
-  <si>
-    <t>Posch</t>
-  </si>
-  <si>
-    <t>Beukema</t>
-  </si>
-  <si>
-    <t>Lucumi'</t>
-  </si>
-  <si>
-    <t>Kristiansen</t>
-  </si>
-  <si>
-    <t>Moro N.</t>
-  </si>
-  <si>
-    <t>Freuler</t>
-  </si>
-  <si>
-    <t>Orsolini</t>
-  </si>
-  <si>
-    <t>Ferguson</t>
-  </si>
-  <si>
-    <t>Karlsson</t>
-  </si>
-  <si>
-    <t>Zirkzee</t>
-  </si>
-  <si>
-    <t>Ravaglia F.</t>
-  </si>
-  <si>
-    <t>Bonifazi</t>
-  </si>
-  <si>
-    <t>Calafiori</t>
-  </si>
-  <si>
-    <t>Corazza</t>
-  </si>
-  <si>
-    <t>De Silvestri</t>
-  </si>
-  <si>
-    <t>Fabbian</t>
-  </si>
-  <si>
-    <t>Aebischer</t>
-  </si>
-  <si>
-    <t>El Azzouzi</t>
-  </si>
-  <si>
-    <t>Urbanski</t>
-  </si>
-  <si>
-    <t>Ndoye</t>
   </si>
 </sst>
 </file>
@@ -1817,7 +1808,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C480"/>
+  <dimension ref="A1:C477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1842,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1853,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1864,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1872,10 +1863,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1894,10 +1885,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1919,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1927,10 +1918,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1938,10 +1929,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C11">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1949,10 +1940,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C12">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1985,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1993,10 +1984,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2004,10 +1995,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2018,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2026,10 +2017,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2051,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2059,10 +2050,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2070,10 +2061,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2084,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2092,10 +2083,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2117,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2125,10 +2116,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C28">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2147,10 +2138,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2161,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2183,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2213,10 +2204,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2227,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2238,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2246,10 +2237,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C39">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2260,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2282,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2293,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2301,10 +2292,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2315,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2323,10 +2314,10 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C46">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2337,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2348,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2356,10 +2347,10 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2370,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2378,10 +2369,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2392,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2400,10 +2391,10 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2414,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2433,10 +2424,10 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2447,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2458,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2477,10 +2468,10 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2491,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2502,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2510,7 +2501,7 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>30</v>
@@ -2521,10 +2512,10 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2535,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2546,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2557,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2565,7 +2556,7 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>55</v>
@@ -2579,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2590,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2601,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2612,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2620,10 +2611,10 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2631,10 +2622,10 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2642,10 +2633,10 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2656,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2686,10 +2677,10 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C79">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2697,10 +2688,10 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C80">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2711,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2719,10 +2710,10 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2741,10 +2732,10 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2752,10 +2743,10 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2763,10 +2754,10 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2777,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2788,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2807,10 +2798,10 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C90">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2818,10 +2809,10 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2832,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2840,10 +2831,10 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C93">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2851,10 +2842,10 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2865,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2873,10 +2864,10 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2884,10 +2875,10 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2895,10 +2886,10 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2928,10 +2919,10 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C101">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2939,10 +2930,10 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2953,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="C103">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2964,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="C104">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2975,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="C105">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2994,10 +2985,10 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3005,10 +2996,10 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3016,10 +3007,10 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C109">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3030,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3038,10 +3029,10 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3049,10 +3040,10 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C112">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3063,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3074,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3085,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3107,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3118,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3126,10 +3117,10 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3137,10 +3128,10 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C120">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3170,10 +3161,10 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3195,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3206,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3214,10 +3205,10 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C127">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3228,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="C128">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3239,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="C129">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3247,10 +3238,10 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C130">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3258,10 +3249,10 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3272,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3283,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="C133">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3294,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="C134">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3302,10 +3293,10 @@
         <v>136</v>
       </c>
       <c r="B135">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C135">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3316,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="C136">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3327,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3338,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="C138">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3349,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="C139">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3357,10 +3348,10 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C140">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3368,10 +3359,10 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C141">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3382,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="C142">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3390,10 +3381,10 @@
         <v>144</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C143">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3415,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="C145">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3426,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3434,10 +3425,10 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C147">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3445,10 +3436,10 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C148">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3459,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="C149">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3470,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3500,10 +3491,10 @@
         <v>154</v>
       </c>
       <c r="B153">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C153">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3511,10 +3502,10 @@
         <v>155</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3525,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3536,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="C156">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3547,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="C157">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3555,10 +3546,10 @@
         <v>159</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C158">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3566,10 +3557,10 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C159">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3580,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="C160">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3588,10 +3579,10 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C161">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3602,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="C162">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3610,10 +3601,10 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C163">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3624,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="C164">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3635,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="C165">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3643,10 +3634,10 @@
         <v>167</v>
       </c>
       <c r="B166">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C166">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3654,10 +3645,10 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3665,10 +3656,10 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3690,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3698,10 +3689,10 @@
         <v>172</v>
       </c>
       <c r="B171">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C171">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3720,10 +3711,10 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C173">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3731,10 +3722,10 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C174">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3742,10 +3733,10 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C175">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3753,10 +3744,10 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C176">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3767,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="C177">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3775,10 +3766,10 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3786,10 +3777,10 @@
         <v>180</v>
       </c>
       <c r="B179">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C179">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3800,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="C180">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3808,10 +3799,10 @@
         <v>182</v>
       </c>
       <c r="B181">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C181">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3822,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="C182">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3833,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="C183">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3841,7 +3832,7 @@
         <v>185</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C184">
         <v>50</v>
@@ -3852,10 +3843,10 @@
         <v>186</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C185">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3866,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="C186">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3877,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="C187">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3888,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="C188">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3896,10 +3887,10 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C189">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3910,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="C190">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3918,10 +3909,10 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3932,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3943,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="C193">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3951,10 +3942,10 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C194">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3965,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="C195">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3973,10 +3964,10 @@
         <v>197</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C196">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3987,7 +3978,7 @@
         <v>1</v>
       </c>
       <c r="C197">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3998,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="C198">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4006,10 +3997,10 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C199">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4017,10 +4008,10 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C200">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4028,10 +4019,10 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C201">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4039,10 +4030,10 @@
         <v>203</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4053,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="C203">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4064,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4075,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="C205">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4083,10 +4074,10 @@
         <v>207</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C206">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4097,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="C207">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4105,10 +4096,10 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C208">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4119,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="C209">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4130,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C210">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4141,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="C211">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4149,10 +4140,10 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C212">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4160,7 +4151,7 @@
         <v>214</v>
       </c>
       <c r="B213">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C213">
         <v>60</v>
@@ -4171,10 +4162,10 @@
         <v>215</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4182,10 +4173,10 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4193,10 +4184,10 @@
         <v>217</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4207,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="C217">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4240,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="C220">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4248,10 +4239,10 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C221">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4262,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="C222">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4273,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="C223">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4284,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="C224">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4292,10 +4283,10 @@
         <v>226</v>
       </c>
       <c r="B225">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C225">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4303,10 +4294,10 @@
         <v>227</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C226">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4314,10 +4305,10 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4325,10 +4316,10 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C228">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4339,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4361,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="C231">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4372,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="C232">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4383,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="C233">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4402,10 +4393,10 @@
         <v>236</v>
       </c>
       <c r="B235">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C235">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4416,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="C236">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4427,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="C237">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4446,10 +4437,10 @@
         <v>240</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4457,10 +4448,10 @@
         <v>241</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C240">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4468,10 +4459,10 @@
         <v>242</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4479,10 +4470,10 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4493,7 +4484,7 @@
         <v>1</v>
       </c>
       <c r="C243">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4501,10 +4492,10 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C244">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4515,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="C245">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4523,10 +4514,10 @@
         <v>247</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C246">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4548,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="C248">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4559,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="C249">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4567,10 +4558,10 @@
         <v>251</v>
       </c>
       <c r="B250">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C250">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4578,10 +4569,10 @@
         <v>252</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C251">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4589,10 +4580,10 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C252">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4600,10 +4591,10 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C253">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4614,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="C254">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4622,10 +4613,10 @@
         <v>256</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4633,10 +4624,10 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C256">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4647,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="C257">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4655,10 +4646,10 @@
         <v>259</v>
       </c>
       <c r="B258">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C258">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4669,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="C259">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4691,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="C261">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4713,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="C263">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4721,10 +4712,10 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4732,10 +4723,10 @@
         <v>266</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C265">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4743,7 +4734,7 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C266">
         <v>60</v>
@@ -4754,10 +4745,10 @@
         <v>268</v>
       </c>
       <c r="B267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4768,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="C268">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4779,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="C269">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4790,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4798,10 +4789,10 @@
         <v>272</v>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C271">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4809,10 +4800,10 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C272">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4820,10 +4811,10 @@
         <v>274</v>
       </c>
       <c r="B273">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C273">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4834,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4842,10 +4833,10 @@
         <v>276</v>
       </c>
       <c r="B275">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C275">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4853,10 +4844,10 @@
         <v>277</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C276">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4864,10 +4855,10 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C277">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4875,10 +4866,10 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C278">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4889,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="C279">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4897,10 +4888,10 @@
         <v>281</v>
       </c>
       <c r="B280">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4908,10 +4899,10 @@
         <v>282</v>
       </c>
       <c r="B281">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C281">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4922,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="C282">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4930,10 +4921,10 @@
         <v>284</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C283">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4944,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="C284">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4955,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="C285">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4974,10 +4965,10 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4985,10 +4976,10 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C288">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4996,10 +4987,10 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5007,10 +4998,10 @@
         <v>291</v>
       </c>
       <c r="B290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C290">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5018,10 +5009,10 @@
         <v>292</v>
       </c>
       <c r="B291">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C291">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5029,10 +5020,10 @@
         <v>293</v>
       </c>
       <c r="B292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C292">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5040,10 +5031,10 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C293">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5051,10 +5042,10 @@
         <v>295</v>
       </c>
       <c r="B294">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C294">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5076,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="C296">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5095,10 +5086,10 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5106,10 +5097,10 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C299">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5117,10 +5108,10 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C300">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5128,10 +5119,10 @@
         <v>302</v>
       </c>
       <c r="B301">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C301">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5139,10 +5130,10 @@
         <v>303</v>
       </c>
       <c r="B302">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C302">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5150,10 +5141,10 @@
         <v>304</v>
       </c>
       <c r="B303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5161,10 +5152,10 @@
         <v>305</v>
       </c>
       <c r="B304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5175,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="C305">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5186,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="C306">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5197,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="C307">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5208,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="C308">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5219,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="C309">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5227,10 +5218,10 @@
         <v>311</v>
       </c>
       <c r="B310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5238,10 +5229,10 @@
         <v>312</v>
       </c>
       <c r="B311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5249,10 +5240,10 @@
         <v>313</v>
       </c>
       <c r="B312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C312">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5260,7 +5251,7 @@
         <v>314</v>
       </c>
       <c r="B313">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C313">
         <v>55</v>
@@ -5271,10 +5262,10 @@
         <v>315</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5282,10 +5273,10 @@
         <v>316</v>
       </c>
       <c r="B315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C315">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5293,10 +5284,10 @@
         <v>317</v>
       </c>
       <c r="B316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C316">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5304,10 +5295,10 @@
         <v>318</v>
       </c>
       <c r="B317">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C317">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5315,10 +5306,10 @@
         <v>319</v>
       </c>
       <c r="B318">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C318">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5340,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="C320">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5348,10 +5339,10 @@
         <v>322</v>
       </c>
       <c r="B321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C321">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5359,10 +5350,10 @@
         <v>323</v>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5370,10 +5361,10 @@
         <v>324</v>
       </c>
       <c r="B323">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C323">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5381,10 +5372,10 @@
         <v>325</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5392,10 +5383,10 @@
         <v>326</v>
       </c>
       <c r="B325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C325">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5403,10 +5394,10 @@
         <v>327</v>
       </c>
       <c r="B326">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C326">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5414,10 +5405,10 @@
         <v>328</v>
       </c>
       <c r="B327">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C327">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5428,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="C328">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5436,10 +5427,10 @@
         <v>330</v>
       </c>
       <c r="B329">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C329">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5450,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="C330">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5458,10 +5449,10 @@
         <v>332</v>
       </c>
       <c r="B331">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C331">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5472,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="C332">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5483,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="C333">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5491,10 +5482,10 @@
         <v>335</v>
       </c>
       <c r="B334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C334">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5502,10 +5493,10 @@
         <v>336</v>
       </c>
       <c r="B335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -5513,10 +5504,10 @@
         <v>337</v>
       </c>
       <c r="B336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C336">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5524,10 +5515,10 @@
         <v>338</v>
       </c>
       <c r="B337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5535,7 +5526,7 @@
         <v>339</v>
       </c>
       <c r="B338">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="C338">
         <v>60</v>
@@ -5546,10 +5537,10 @@
         <v>340</v>
       </c>
       <c r="B339">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C339">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5557,10 +5548,10 @@
         <v>341</v>
       </c>
       <c r="B340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C340">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5579,10 +5570,10 @@
         <v>343</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C342">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -5593,7 +5584,7 @@
         <v>1</v>
       </c>
       <c r="C343">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5604,7 +5595,7 @@
         <v>1</v>
       </c>
       <c r="C344">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5612,10 +5603,10 @@
         <v>346</v>
       </c>
       <c r="B345">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C345">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5623,10 +5614,10 @@
         <v>347</v>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C346">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5634,10 +5625,10 @@
         <v>348</v>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C347">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5645,10 +5636,10 @@
         <v>349</v>
       </c>
       <c r="B348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -5656,10 +5647,10 @@
         <v>350</v>
       </c>
       <c r="B349">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C349">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5667,10 +5658,10 @@
         <v>351</v>
       </c>
       <c r="B350">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C350">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -5678,10 +5669,10 @@
         <v>352</v>
       </c>
       <c r="B351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -5692,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="C352">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -5703,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="C353">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -5714,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="C354">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -5722,10 +5713,10 @@
         <v>356</v>
       </c>
       <c r="B355">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C355">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -5736,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="C356">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -5744,10 +5735,10 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -5755,10 +5746,10 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C358">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -5766,10 +5757,10 @@
         <v>360</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C359">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -5777,10 +5768,10 @@
         <v>361</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C360">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -5788,10 +5779,10 @@
         <v>362</v>
       </c>
       <c r="B361">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C361">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -5799,10 +5790,10 @@
         <v>363</v>
       </c>
       <c r="B362">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
       <c r="C362">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -5810,10 +5801,10 @@
         <v>364</v>
       </c>
       <c r="B363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C363">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -5821,10 +5812,10 @@
         <v>365</v>
       </c>
       <c r="B364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -5835,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="C365">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -5843,10 +5834,10 @@
         <v>367</v>
       </c>
       <c r="B366">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="C366">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5854,10 +5845,10 @@
         <v>368</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C367">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -5865,10 +5856,10 @@
         <v>369</v>
       </c>
       <c r="B368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C368">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -5876,10 +5867,10 @@
         <v>370</v>
       </c>
       <c r="B369">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C369">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -5887,10 +5878,10 @@
         <v>371</v>
       </c>
       <c r="B370">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C370">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -5898,10 +5889,10 @@
         <v>372</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C371">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -5909,10 +5900,10 @@
         <v>373</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C372">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -5920,10 +5911,10 @@
         <v>374</v>
       </c>
       <c r="B373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C373">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -5931,10 +5922,10 @@
         <v>375</v>
       </c>
       <c r="B374">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C374">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -5942,10 +5933,10 @@
         <v>376</v>
       </c>
       <c r="B375">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C375">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -5953,10 +5944,10 @@
         <v>377</v>
       </c>
       <c r="B376">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C376">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -5967,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="C377">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -5975,10 +5966,10 @@
         <v>379</v>
       </c>
       <c r="B378">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="C378">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -5989,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="C379">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -5997,10 +5988,10 @@
         <v>381</v>
       </c>
       <c r="B380">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C380">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6011,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="C381">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6019,10 +6010,10 @@
         <v>383</v>
       </c>
       <c r="B382">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C382">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6030,10 +6021,10 @@
         <v>384</v>
       </c>
       <c r="B383">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C383">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6041,10 +6032,10 @@
         <v>385</v>
       </c>
       <c r="B384">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6052,10 +6043,10 @@
         <v>386</v>
       </c>
       <c r="B385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C385">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6063,10 +6054,10 @@
         <v>387</v>
       </c>
       <c r="B386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6074,10 +6065,10 @@
         <v>388</v>
       </c>
       <c r="B387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C387">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6085,7 +6076,7 @@
         <v>389</v>
       </c>
       <c r="B388">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C388">
         <v>55</v>
@@ -6096,10 +6087,10 @@
         <v>390</v>
       </c>
       <c r="B389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C389">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6107,10 +6098,10 @@
         <v>391</v>
       </c>
       <c r="B390">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C390">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6132,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="C392">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6151,10 +6142,10 @@
         <v>395</v>
       </c>
       <c r="B394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C394">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6162,10 +6153,10 @@
         <v>396</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C395">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6173,10 +6164,10 @@
         <v>397</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C396">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6184,10 +6175,10 @@
         <v>398</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C397">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6195,10 +6186,10 @@
         <v>399</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C398">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6206,10 +6197,10 @@
         <v>400</v>
       </c>
       <c r="B399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C399">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6217,10 +6208,10 @@
         <v>401</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C400">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6228,10 +6219,10 @@
         <v>402</v>
       </c>
       <c r="B401">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="C401">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6239,10 +6230,10 @@
         <v>403</v>
       </c>
       <c r="B402">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C402">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6253,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="C403">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6264,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="C404">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6272,10 +6263,10 @@
         <v>406</v>
       </c>
       <c r="B405">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C405">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6286,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="C406">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6294,10 +6285,10 @@
         <v>408</v>
       </c>
       <c r="B407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C407">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6305,10 +6296,10 @@
         <v>409</v>
       </c>
       <c r="B408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C408">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6316,10 +6307,10 @@
         <v>410</v>
       </c>
       <c r="B409">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C409">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6327,10 +6318,10 @@
         <v>411</v>
       </c>
       <c r="B410">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C410">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6338,10 +6329,10 @@
         <v>412</v>
       </c>
       <c r="B411">
-        <v>0.35</v>
+        <v>0.55</v>
       </c>
       <c r="C411">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6349,10 +6340,10 @@
         <v>413</v>
       </c>
       <c r="B412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C412">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6360,10 +6351,10 @@
         <v>414</v>
       </c>
       <c r="B413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C413">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6371,10 +6362,10 @@
         <v>415</v>
       </c>
       <c r="B414">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C414">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6382,10 +6373,10 @@
         <v>416</v>
       </c>
       <c r="B415">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C415">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -6407,7 +6398,7 @@
         <v>1</v>
       </c>
       <c r="C417">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -6415,10 +6406,10 @@
         <v>419</v>
       </c>
       <c r="B418">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C418">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6426,10 +6417,10 @@
         <v>420</v>
       </c>
       <c r="B419">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="C419">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -6437,10 +6428,10 @@
         <v>421</v>
       </c>
       <c r="B420">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C420">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -6448,10 +6439,10 @@
         <v>422</v>
       </c>
       <c r="B421">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C421">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -6459,10 +6450,10 @@
         <v>423</v>
       </c>
       <c r="B422">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C422">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -6470,10 +6461,10 @@
         <v>424</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="C423">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -6481,10 +6472,10 @@
         <v>425</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -6495,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="C425">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -6506,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="C426">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -6517,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="C427">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -6528,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="C428">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -6536,10 +6527,10 @@
         <v>430</v>
       </c>
       <c r="B429">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C429">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -6558,10 +6549,10 @@
         <v>432</v>
       </c>
       <c r="B431">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C431">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -6569,10 +6560,10 @@
         <v>433</v>
       </c>
       <c r="B432">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="C432">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -6580,10 +6571,10 @@
         <v>434</v>
       </c>
       <c r="B433">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C433">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -6591,10 +6582,10 @@
         <v>435</v>
       </c>
       <c r="B434">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C434">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -6602,10 +6593,10 @@
         <v>436</v>
       </c>
       <c r="B435">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C435">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -6613,10 +6604,10 @@
         <v>437</v>
       </c>
       <c r="B436">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C436">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -6624,10 +6615,10 @@
         <v>438</v>
       </c>
       <c r="B437">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C437">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -6638,7 +6629,7 @@
         <v>1</v>
       </c>
       <c r="C438">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -6646,10 +6637,10 @@
         <v>440</v>
       </c>
       <c r="B439">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C439">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -6679,10 +6670,10 @@
         <v>443</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C442">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -6690,10 +6681,10 @@
         <v>444</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C443">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -6701,10 +6692,10 @@
         <v>445</v>
       </c>
       <c r="B444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C444">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -6712,10 +6703,10 @@
         <v>446</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C445">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -6723,7 +6714,7 @@
         <v>447</v>
       </c>
       <c r="B446">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C446">
         <v>60</v>
@@ -6734,10 +6725,10 @@
         <v>448</v>
       </c>
       <c r="B447">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C447">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -6745,10 +6736,10 @@
         <v>449</v>
       </c>
       <c r="B448">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C448">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -6759,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="C449">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -6767,10 +6758,10 @@
         <v>451</v>
       </c>
       <c r="B450">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C450">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -6781,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="C451">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -6792,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="C452">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -6803,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="C453">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -6811,10 +6802,10 @@
         <v>455</v>
       </c>
       <c r="B454">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C454">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -6822,10 +6813,10 @@
         <v>456</v>
       </c>
       <c r="B455">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -6833,10 +6824,10 @@
         <v>457</v>
       </c>
       <c r="B456">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C456">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -6844,10 +6835,10 @@
         <v>458</v>
       </c>
       <c r="B457">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C457">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -6855,7 +6846,7 @@
         <v>459</v>
       </c>
       <c r="B458">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C458">
         <v>60</v>
@@ -6866,7 +6857,7 @@
         <v>460</v>
       </c>
       <c r="B459">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C459">
         <v>60</v>
@@ -6880,7 +6871,7 @@
         <v>1</v>
       </c>
       <c r="C460">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -6891,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="C461">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -6899,10 +6890,10 @@
         <v>463</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C462">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -6924,7 +6915,7 @@
         <v>1</v>
       </c>
       <c r="C464">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -6932,10 +6923,10 @@
         <v>466</v>
       </c>
       <c r="B465">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C465">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -6943,10 +6934,10 @@
         <v>467</v>
       </c>
       <c r="B466">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C466">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -6954,10 +6945,10 @@
         <v>468</v>
       </c>
       <c r="B467">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C467">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -6965,10 +6956,10 @@
         <v>469</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C468">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -6976,10 +6967,10 @@
         <v>470</v>
       </c>
       <c r="B469">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C469">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -6987,10 +6978,10 @@
         <v>471</v>
       </c>
       <c r="B470">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C470">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7001,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="C471">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7012,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="C472">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7023,7 +7014,7 @@
         <v>0</v>
       </c>
       <c r="C473">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7031,10 +7022,10 @@
         <v>475</v>
       </c>
       <c r="B474">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C474">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7045,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="C475">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -7056,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="C476">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -7067,40 +7058,7 @@
         <v>0</v>
       </c>
       <c r="C477">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3">
-      <c r="A478" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B478">
-        <v>0</v>
-      </c>
-      <c r="C478">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3">
-      <c r="A479" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B479">
-        <v>0</v>
-      </c>
-      <c r="C479">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3">
-      <c r="A480" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B480">
-        <v>0.4</v>
-      </c>
-      <c r="C480">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/mid_outputs/match_probable_players.xlsx
+++ b/mid_outputs/match_probable_players.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="470">
   <si>
     <t>starter</t>
   </si>
@@ -25,78 +25,894 @@
     <t>player</t>
   </si>
   <si>
+    <t>Falcone</t>
+  </si>
+  <si>
+    <t>Gendrey</t>
+  </si>
+  <si>
+    <t>Baschirotto</t>
+  </si>
+  <si>
+    <t>Pongracic</t>
+  </si>
+  <si>
+    <t>Gallo</t>
+  </si>
+  <si>
+    <t>Rafia</t>
+  </si>
+  <si>
+    <t>Ramadani</t>
+  </si>
+  <si>
+    <t>Blin</t>
+  </si>
+  <si>
+    <t>Almqvist</t>
+  </si>
+  <si>
+    <t>Krstovic</t>
+  </si>
+  <si>
+    <t>Strefezza</t>
+  </si>
+  <si>
+    <t>Brancolini</t>
+  </si>
+  <si>
+    <t>Venuti</t>
+  </si>
+  <si>
+    <t>Dorgu</t>
+  </si>
+  <si>
+    <t>Touba</t>
+  </si>
+  <si>
+    <t>Oudin</t>
+  </si>
+  <si>
+    <t>Gonzalez J.</t>
+  </si>
+  <si>
+    <t>Berisha M.</t>
+  </si>
+  <si>
+    <t>Listkowski</t>
+  </si>
+  <si>
+    <t>Piccoli</t>
+  </si>
+  <si>
+    <t>Sansone</t>
+  </si>
+  <si>
+    <t>Corfitzen</t>
+  </si>
+  <si>
+    <t>Burnete</t>
+  </si>
+  <si>
+    <t>Meret</t>
+  </si>
+  <si>
+    <t>Di Lorenzo</t>
+  </si>
+  <si>
+    <t>Ostigard</t>
+  </si>
+  <si>
+    <t>Natan</t>
+  </si>
+  <si>
+    <t>Mario Rui</t>
+  </si>
+  <si>
+    <t>Zambo Anguissa</t>
+  </si>
+  <si>
+    <t>Lobotka</t>
+  </si>
+  <si>
+    <t>Zielinski</t>
+  </si>
+  <si>
+    <t>Politano</t>
+  </si>
+  <si>
+    <t>Osimhen</t>
+  </si>
+  <si>
+    <t>Kvaratskhelia</t>
+  </si>
+  <si>
+    <t>Contini</t>
+  </si>
+  <si>
+    <t>Zanoli</t>
+  </si>
+  <si>
+    <t>Olivera</t>
+  </si>
+  <si>
+    <t>Demme</t>
+  </si>
+  <si>
+    <t>Zerbin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cajuste </t>
+  </si>
+  <si>
+    <t>Gaetano</t>
+  </si>
+  <si>
+    <t>Elmas</t>
+  </si>
+  <si>
+    <t>Lindstrom</t>
+  </si>
+  <si>
+    <t>Raspadori</t>
+  </si>
+  <si>
+    <t>Simeone</t>
+  </si>
+  <si>
+    <t>Maignan</t>
+  </si>
+  <si>
+    <t>Calabria</t>
+  </si>
+  <si>
+    <t>Kjaer</t>
+  </si>
+  <si>
+    <t>Tomori</t>
+  </si>
+  <si>
+    <t>Hernandez T.</t>
+  </si>
+  <si>
+    <t>Loftus-Cheek</t>
+  </si>
+  <si>
+    <t>Adli</t>
+  </si>
+  <si>
+    <t>Reijnders</t>
+  </si>
+  <si>
+    <t>Pulisic</t>
+  </si>
+  <si>
+    <t>Giroud</t>
+  </si>
+  <si>
+    <t>Rafael Leao</t>
+  </si>
+  <si>
+    <t>Sportiello</t>
+  </si>
+  <si>
+    <t>Mirante</t>
+  </si>
+  <si>
+    <t>Florenzi</t>
+  </si>
+  <si>
+    <t>Pellegrino</t>
+  </si>
+  <si>
+    <t>Bartesaghi</t>
+  </si>
+  <si>
+    <t>Thiaw</t>
+  </si>
+  <si>
+    <t>Musah</t>
+  </si>
+  <si>
+    <t>Pobega</t>
+  </si>
+  <si>
+    <t>Romero L.</t>
+  </si>
+  <si>
+    <t>Chukwueze</t>
+  </si>
+  <si>
+    <t>Jovic</t>
+  </si>
+  <si>
+    <t>Okafor</t>
+  </si>
+  <si>
+    <t>Provedel</t>
+  </si>
+  <si>
+    <t>Hysaj</t>
+  </si>
+  <si>
+    <t>Casale</t>
+  </si>
+  <si>
+    <t>Romagnoli</t>
+  </si>
+  <si>
+    <t>Pellegrini Lu.</t>
+  </si>
+  <si>
+    <t>Kamada</t>
+  </si>
+  <si>
+    <t>Cataldi</t>
+  </si>
+  <si>
+    <t>Luis Alberto</t>
+  </si>
+  <si>
+    <t>Felipe Anderson</t>
+  </si>
+  <si>
+    <t>Immobile</t>
+  </si>
+  <si>
+    <t>Zaccagni</t>
+  </si>
+  <si>
+    <t>Sepe</t>
+  </si>
+  <si>
+    <t>Mandas</t>
+  </si>
+  <si>
+    <t>Patric</t>
+  </si>
+  <si>
+    <t>Lazzari</t>
+  </si>
+  <si>
+    <t>Gila</t>
+  </si>
+  <si>
+    <t>Marusic</t>
+  </si>
+  <si>
+    <t>Vecino</t>
+  </si>
+  <si>
+    <t>Rovella</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Guendouzi</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Castellanos</t>
+  </si>
+  <si>
+    <t>Isaksen</t>
+  </si>
+  <si>
     <t>Ochoa</t>
   </si>
   <si>
+    <t>Daniliuc</t>
+  </si>
+  <si>
+    <t>Gyomber</t>
+  </si>
+  <si>
+    <t>Pirola</t>
+  </si>
+  <si>
+    <t>Mazzocchi</t>
+  </si>
+  <si>
+    <t>Legowski</t>
+  </si>
+  <si>
+    <t>Maggiore</t>
+  </si>
+  <si>
+    <t>Bradaric</t>
+  </si>
+  <si>
+    <t>Kastanos</t>
+  </si>
+  <si>
+    <t>Martegani</t>
+  </si>
+  <si>
+    <t>Jovane</t>
+  </si>
+  <si>
+    <t>Costil</t>
+  </si>
+  <si>
+    <t>Fiorillo</t>
+  </si>
+  <si>
+    <t>Fazio</t>
+  </si>
+  <si>
+    <t>Sambia</t>
+  </si>
+  <si>
     <t>Lovato</t>
   </si>
   <si>
-    <t>Gyomber</t>
-  </si>
-  <si>
-    <t>Pirola</t>
-  </si>
-  <si>
-    <t>Mazzocchi</t>
+    <t>Bronn</t>
+  </si>
+  <si>
+    <t>Tchaouna</t>
+  </si>
+  <si>
+    <t>Sfait</t>
   </si>
   <si>
     <t>Bohinen</t>
   </si>
   <si>
-    <t>Legowski</t>
-  </si>
-  <si>
-    <t>Bradaric</t>
-  </si>
-  <si>
-    <t>Candreva</t>
-  </si>
-  <si>
-    <t>Jovane</t>
-  </si>
-  <si>
-    <t>Ikwuemesi</t>
-  </si>
-  <si>
-    <t>Costil</t>
-  </si>
-  <si>
-    <t>Fiorillo</t>
-  </si>
-  <si>
-    <t>Sambia</t>
-  </si>
-  <si>
-    <t>Fazio</t>
-  </si>
-  <si>
-    <t>Daniliuc</t>
-  </si>
-  <si>
-    <t>Martegani</t>
-  </si>
-  <si>
-    <t>Tchaouna</t>
-  </si>
-  <si>
-    <t>Sfait</t>
-  </si>
-  <si>
-    <t>Maggiore</t>
-  </si>
-  <si>
-    <t>Kastanos</t>
+    <t>Dia</t>
   </si>
   <si>
     <t>Botheim</t>
   </si>
   <si>
-    <t>Dia</t>
-  </si>
-  <si>
     <t>Stewart</t>
   </si>
   <si>
+    <t>Sommer</t>
+  </si>
+  <si>
+    <t>Pavard</t>
+  </si>
+  <si>
+    <t>De Vrij</t>
+  </si>
+  <si>
+    <t>Acerbi</t>
+  </si>
+  <si>
+    <t>Dumfries</t>
+  </si>
+  <si>
+    <t>Barella</t>
+  </si>
+  <si>
+    <t>Calhanoglu</t>
+  </si>
+  <si>
+    <t>Mkhitaryan</t>
+  </si>
+  <si>
+    <t>Carlos Augusto</t>
+  </si>
+  <si>
+    <t>Thuram</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Audero</t>
+  </si>
+  <si>
+    <t>Di Gennaro</t>
+  </si>
+  <si>
+    <t>Darmian</t>
+  </si>
+  <si>
+    <t>Bastoni</t>
+  </si>
+  <si>
+    <t>Bisseck</t>
+  </si>
+  <si>
+    <t>Cuadrado</t>
+  </si>
+  <si>
+    <t>Dimarco</t>
+  </si>
+  <si>
+    <t>Asllani</t>
+  </si>
+  <si>
+    <t>Agoume</t>
+  </si>
+  <si>
+    <t>Klaassen</t>
+  </si>
+  <si>
+    <t>Martinez L.</t>
+  </si>
+  <si>
+    <t>Skorupski</t>
+  </si>
+  <si>
+    <t>De Silvestri</t>
+  </si>
+  <si>
+    <t>Beukema</t>
+  </si>
+  <si>
+    <t>Calafiori</t>
+  </si>
+  <si>
+    <t>Kristiansen</t>
+  </si>
+  <si>
+    <t>Moro N.</t>
+  </si>
+  <si>
+    <t>Freuler</t>
+  </si>
+  <si>
+    <t>Ndoye</t>
+  </si>
+  <si>
+    <t>Ferguson</t>
+  </si>
+  <si>
+    <t>Karlsson</t>
+  </si>
+  <si>
+    <t>Zirkzee</t>
+  </si>
+  <si>
+    <t>Ravaglia F.</t>
+  </si>
+  <si>
+    <t>Bagnolini</t>
+  </si>
+  <si>
+    <t>Bonifazi</t>
+  </si>
+  <si>
+    <t>Corazza</t>
+  </si>
+  <si>
+    <t>Lykogiannis</t>
+  </si>
+  <si>
+    <t>Fabbian</t>
+  </si>
+  <si>
+    <t>Aebischer</t>
+  </si>
+  <si>
+    <t>El Azzouzi</t>
+  </si>
+  <si>
+    <t>Urbanski</t>
+  </si>
+  <si>
+    <t>Orsolini</t>
+  </si>
+  <si>
+    <t>Van Hooijdonk</t>
+  </si>
+  <si>
+    <t>Berisha</t>
+  </si>
+  <si>
+    <t>Ebuehi</t>
+  </si>
+  <si>
+    <t>Walukiewicz</t>
+  </si>
+  <si>
+    <t>Luperto</t>
+  </si>
+  <si>
+    <t>Cacace</t>
+  </si>
+  <si>
+    <t>Fazzini</t>
+  </si>
+  <si>
+    <t>Grassi</t>
+  </si>
+  <si>
+    <t>Maleh</t>
+  </si>
+  <si>
+    <t>Baldanzi</t>
+  </si>
+  <si>
+    <t>Cancellieri</t>
+  </si>
+  <si>
+    <t>Cambiaghi</t>
+  </si>
+  <si>
+    <t>Perisan</t>
+  </si>
+  <si>
+    <t>Stubljar</t>
+  </si>
+  <si>
+    <t>Bastoni S.</t>
+  </si>
+  <si>
+    <t>Kovalenko</t>
+  </si>
+  <si>
+    <t>Ranocchia F.</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>Gyasi</t>
+  </si>
+  <si>
+    <t>Shpendi S.</t>
+  </si>
+  <si>
+    <t>Destro</t>
+  </si>
+  <si>
+    <t>Caputo</t>
+  </si>
+  <si>
+    <t>Silvestri</t>
+  </si>
+  <si>
+    <t>Perez N.</t>
+  </si>
+  <si>
+    <t>Bijol</t>
+  </si>
+  <si>
+    <t>Kristensen T.</t>
+  </si>
+  <si>
+    <t>Ebosele</t>
+  </si>
+  <si>
+    <t>Samardzic</t>
+  </si>
+  <si>
+    <t>Walace</t>
+  </si>
+  <si>
+    <t>Lovric</t>
+  </si>
+  <si>
+    <t>Kamara H.</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Thauvin</t>
+  </si>
+  <si>
+    <t>Okoye</t>
+  </si>
+  <si>
+    <t>Ferreira J.</t>
+  </si>
+  <si>
+    <t>Zemura</t>
+  </si>
+  <si>
+    <t>Kabasele</t>
+  </si>
+  <si>
+    <t>Guessand A.</t>
+  </si>
+  <si>
+    <t>Camara E.</t>
+  </si>
+  <si>
+    <t>Zarraga</t>
+  </si>
+  <si>
+    <t>Payero</t>
+  </si>
+  <si>
+    <t>Pereyra</t>
+  </si>
+  <si>
+    <t>Quina</t>
+  </si>
+  <si>
+    <t>Pafundi</t>
+  </si>
+  <si>
+    <t>Ake' M.</t>
+  </si>
+  <si>
+    <t>Lucca</t>
+  </si>
+  <si>
+    <t>Martinez Jo.</t>
+  </si>
+  <si>
+    <t>Bani</t>
+  </si>
+  <si>
+    <t>Dragusin</t>
+  </si>
+  <si>
+    <t>Vasquez</t>
+  </si>
+  <si>
+    <t>Sabelli</t>
+  </si>
+  <si>
+    <t>Thorsby</t>
+  </si>
+  <si>
+    <t>Kutlu</t>
+  </si>
+  <si>
+    <t>Frendrup</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Gudmundsson A.</t>
+  </si>
+  <si>
+    <t>Retegui</t>
+  </si>
+  <si>
+    <t>Leali</t>
+  </si>
+  <si>
+    <t>Sommariva</t>
+  </si>
+  <si>
+    <t>Hefti</t>
+  </si>
+  <si>
+    <t>Haps</t>
+  </si>
+  <si>
+    <t>De Winter</t>
+  </si>
+  <si>
+    <t>Vogliacco</t>
+  </si>
+  <si>
+    <t>Matturro</t>
+  </si>
+  <si>
+    <t>Messias</t>
+  </si>
+  <si>
+    <t>Jagiello</t>
+  </si>
+  <si>
+    <t>Malinovskyi</t>
+  </si>
+  <si>
+    <t>Galdames</t>
+  </si>
+  <si>
+    <t>Puscas</t>
+  </si>
+  <si>
+    <t>Ekuban</t>
+  </si>
+  <si>
+    <t>Musso</t>
+  </si>
+  <si>
+    <t>Toloi</t>
+  </si>
+  <si>
+    <t>Scalvini</t>
+  </si>
+  <si>
+    <t>Kolasinac</t>
+  </si>
+  <si>
+    <t>Zappacosta</t>
+  </si>
+  <si>
+    <t>De Roon</t>
+  </si>
+  <si>
+    <t>Ederson D.s.</t>
+  </si>
+  <si>
+    <t>Ruggeri</t>
+  </si>
+  <si>
+    <t>Koopmeiners</t>
+  </si>
+  <si>
+    <t>Pasalic</t>
+  </si>
+  <si>
+    <t>Lookman</t>
+  </si>
+  <si>
+    <t>Carnesecchi</t>
+  </si>
+  <si>
+    <t>Rossi F.</t>
+  </si>
+  <si>
+    <t>Djimsiti</t>
+  </si>
+  <si>
+    <t>Zortea</t>
+  </si>
+  <si>
+    <t>Holm</t>
+  </si>
+  <si>
+    <t>Hateboer</t>
+  </si>
+  <si>
+    <t>Palomino</t>
+  </si>
+  <si>
+    <t>Bakker</t>
+  </si>
+  <si>
+    <t>Adopo</t>
+  </si>
+  <si>
+    <t>Miranchuk</t>
+  </si>
+  <si>
+    <t>De Ketelaere</t>
+  </si>
+  <si>
+    <t>Muriel</t>
+  </si>
+  <si>
+    <t>Szczesny</t>
+  </si>
+  <si>
+    <t>Danilo</t>
+  </si>
+  <si>
+    <t>Bremer</t>
+  </si>
+  <si>
+    <t>Gatti</t>
+  </si>
+  <si>
+    <t>Mckennie</t>
+  </si>
+  <si>
+    <t>Fagioli</t>
+  </si>
+  <si>
+    <t>Locatelli</t>
+  </si>
+  <si>
+    <t>Rabiot</t>
+  </si>
+  <si>
+    <t>Kostic</t>
+  </si>
+  <si>
+    <t>Chiesa</t>
+  </si>
+  <si>
+    <t>Vlahovic</t>
+  </si>
+  <si>
+    <t>Perin</t>
+  </si>
+  <si>
+    <t>Pinsoglio</t>
+  </si>
+  <si>
+    <t>Rugani</t>
+  </si>
+  <si>
+    <t>Huijsen</t>
+  </si>
+  <si>
+    <t>Cambiaso</t>
+  </si>
+  <si>
+    <t>Weah</t>
+  </si>
+  <si>
+    <t>Miretti</t>
+  </si>
+  <si>
+    <t>Nicolussi Caviglia</t>
+  </si>
+  <si>
+    <t>Iling Junior</t>
+  </si>
+  <si>
+    <t>Yildiz</t>
+  </si>
+  <si>
+    <t>Kean</t>
+  </si>
+  <si>
+    <t>Milik</t>
+  </si>
+  <si>
+    <t>Rui Patricio</t>
+  </si>
+  <si>
+    <t>Mancini</t>
+  </si>
+  <si>
+    <t>Cristante</t>
+  </si>
+  <si>
+    <t>N'dicka</t>
+  </si>
+  <si>
+    <t>Kristensen</t>
+  </si>
+  <si>
+    <t>Bove</t>
+  </si>
+  <si>
+    <t>Paredes</t>
+  </si>
+  <si>
+    <t>Pellegrini Lo.</t>
+  </si>
+  <si>
+    <t>Zalewski</t>
+  </si>
+  <si>
+    <t>Dybala</t>
+  </si>
+  <si>
+    <t>Lukaku</t>
+  </si>
+  <si>
+    <t>Svilar</t>
+  </si>
+  <si>
+    <t>Boer</t>
+  </si>
+  <si>
+    <t>Karsdorp</t>
+  </si>
+  <si>
+    <t>Celik</t>
+  </si>
+  <si>
+    <t>Spinazzola</t>
+  </si>
+  <si>
+    <t>Pagano</t>
+  </si>
+  <si>
+    <t>Aouar</t>
+  </si>
+  <si>
+    <t>Pisilli</t>
+  </si>
+  <si>
+    <t>El Shaarawy</t>
+  </si>
+  <si>
+    <t>Belotti</t>
+  </si>
+  <si>
+    <t>Azmoun</t>
+  </si>
+  <si>
     <t>Turati</t>
   </si>
   <si>
@@ -142,9 +958,6 @@
     <t>Mateus Lusuardi</t>
   </si>
   <si>
-    <t>Lirola</t>
-  </si>
-  <si>
     <t>Garritano</t>
   </si>
   <si>
@@ -157,229 +970,241 @@
     <t>Ibrahimovic A.</t>
   </si>
   <si>
+    <t>Lulic K.</t>
+  </si>
+  <si>
     <t>Baez</t>
   </si>
   <si>
+    <t>Bidaoui</t>
+  </si>
+  <si>
     <t>Kvernadze</t>
   </si>
   <si>
     <t>Cuni</t>
   </si>
   <si>
-    <t>Kaio Jorge</t>
-  </si>
-  <si>
-    <t>Falcone</t>
-  </si>
-  <si>
-    <t>Gendrey</t>
-  </si>
-  <si>
-    <t>Touba</t>
-  </si>
-  <si>
-    <t>Pongracic</t>
-  </si>
-  <si>
-    <t>Gallo</t>
-  </si>
-  <si>
-    <t>Rafia</t>
-  </si>
-  <si>
-    <t>Ramadani</t>
-  </si>
-  <si>
-    <t>Kaba</t>
-  </si>
-  <si>
-    <t>Almqvist</t>
-  </si>
-  <si>
-    <t>Krstovic</t>
-  </si>
-  <si>
-    <t>Strefezza</t>
-  </si>
-  <si>
-    <t>Brancolini</t>
-  </si>
-  <si>
-    <t>Borbei</t>
-  </si>
-  <si>
-    <t>Dorgu</t>
-  </si>
-  <si>
-    <t>Smajlovic</t>
-  </si>
-  <si>
-    <t>Venuti</t>
-  </si>
-  <si>
-    <t>Gonzalez J.</t>
-  </si>
-  <si>
-    <t>Blin</t>
-  </si>
-  <si>
-    <t>Oudin</t>
-  </si>
-  <si>
-    <t>Faticanti</t>
-  </si>
-  <si>
-    <t>Berisha M.</t>
-  </si>
-  <si>
-    <t>Listkowski</t>
-  </si>
-  <si>
-    <t>Piccoli</t>
-  </si>
-  <si>
-    <t>Sansone</t>
-  </si>
-  <si>
-    <t>Corfitzen</t>
-  </si>
-  <si>
-    <t>Burnete</t>
-  </si>
-  <si>
-    <t>Martinez Jo.</t>
-  </si>
-  <si>
-    <t>Sabelli</t>
-  </si>
-  <si>
-    <t>Bani</t>
-  </si>
-  <si>
-    <t>Dragusin</t>
-  </si>
-  <si>
-    <t>Vasquez</t>
-  </si>
-  <si>
-    <t>Strootman</t>
-  </si>
-  <si>
-    <t>Badelj</t>
-  </si>
-  <si>
-    <t>Frendrup</t>
-  </si>
-  <si>
-    <t>Malinovskyi</t>
-  </si>
-  <si>
-    <t>Gudmundsson A.</t>
-  </si>
-  <si>
-    <t>Retegui</t>
-  </si>
-  <si>
-    <t>Leali</t>
-  </si>
-  <si>
-    <t>Sommariva</t>
-  </si>
-  <si>
-    <t>Hefti</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Haps</t>
-  </si>
-  <si>
-    <t>Matturro</t>
-  </si>
-  <si>
-    <t>De Winter</t>
-  </si>
-  <si>
-    <t>Kutlu</t>
-  </si>
-  <si>
-    <t>Jagiello</t>
-  </si>
-  <si>
-    <t>Thorsby</t>
-  </si>
-  <si>
-    <t>Ekuban</t>
-  </si>
-  <si>
-    <t>Puscas</t>
-  </si>
-  <si>
-    <t>Sportiello</t>
-  </si>
-  <si>
-    <t>Calabria</t>
-  </si>
-  <si>
-    <t>Kjaer</t>
-  </si>
-  <si>
-    <t>Tomori</t>
-  </si>
-  <si>
-    <t>Hernandez T.</t>
-  </si>
-  <si>
-    <t>Musah</t>
-  </si>
-  <si>
-    <t>Krunic</t>
-  </si>
-  <si>
-    <t>Reijnders</t>
-  </si>
-  <si>
-    <t>Pulisic</t>
-  </si>
-  <si>
-    <t>Giroud</t>
-  </si>
-  <si>
-    <t>Rafael Leao</t>
-  </si>
-  <si>
-    <t>Mirante</t>
-  </si>
-  <si>
-    <t>Florenzi</t>
-  </si>
-  <si>
-    <t>Thiaw</t>
-  </si>
-  <si>
-    <t>Pellegrino</t>
-  </si>
-  <si>
-    <t>Pobega</t>
-  </si>
-  <si>
-    <t>Adli</t>
-  </si>
-  <si>
-    <t>Chukwueze</t>
-  </si>
-  <si>
-    <t>Loftus-Cheek</t>
-  </si>
-  <si>
-    <t>Romero L.</t>
-  </si>
-  <si>
-    <t>Okafor</t>
-  </si>
-  <si>
-    <t>Jovic</t>
+    <t>Consigli</t>
+  </si>
+  <si>
+    <t>Toljan</t>
+  </si>
+  <si>
+    <t>Erlic</t>
+  </si>
+  <si>
+    <t>Tressoldi</t>
+  </si>
+  <si>
+    <t>Vina</t>
+  </si>
+  <si>
+    <t>Boloca</t>
+  </si>
+  <si>
+    <t>Matheus Henrique</t>
+  </si>
+  <si>
+    <t>Berardi</t>
+  </si>
+  <si>
+    <t>Bajrami</t>
+  </si>
+  <si>
+    <t>Lauriente'</t>
+  </si>
+  <si>
+    <t>Pinamonti</t>
+  </si>
+  <si>
+    <t>Cragno</t>
+  </si>
+  <si>
+    <t>Pegolo</t>
+  </si>
+  <si>
+    <t>Ferrari G.</t>
+  </si>
+  <si>
+    <t>Missori</t>
+  </si>
+  <si>
+    <t>Viti</t>
+  </si>
+  <si>
+    <t>Pedersen</t>
+  </si>
+  <si>
+    <t>Obiang</t>
+  </si>
+  <si>
+    <t>Thorstvedt</t>
+  </si>
+  <si>
+    <t>Lipani</t>
+  </si>
+  <si>
+    <t>Volpato</t>
+  </si>
+  <si>
+    <t>Castillejo</t>
+  </si>
+  <si>
+    <t>Racic</t>
+  </si>
+  <si>
+    <t>Ceide</t>
+  </si>
+  <si>
+    <t>Defrel</t>
+  </si>
+  <si>
+    <t>Mulattieri</t>
+  </si>
+  <si>
+    <t>Di Gregorio</t>
+  </si>
+  <si>
+    <t>Izzo</t>
+  </si>
+  <si>
+    <t>Mari'</t>
+  </si>
+  <si>
+    <t>Caldirola</t>
+  </si>
+  <si>
+    <t>Ciurria</t>
+  </si>
+  <si>
+    <t>Gagliardini</t>
+  </si>
+  <si>
+    <t>Pessina</t>
+  </si>
+  <si>
+    <t>Birindelli</t>
+  </si>
+  <si>
+    <t>Colpani</t>
+  </si>
+  <si>
+    <t>Mota</t>
+  </si>
+  <si>
+    <t>Colombo</t>
+  </si>
+  <si>
+    <t>Sorrentino A.</t>
+  </si>
+  <si>
+    <t>Gori</t>
+  </si>
+  <si>
+    <t>Kyriakopoulos</t>
+  </si>
+  <si>
+    <t>D'ambrosio</t>
+  </si>
+  <si>
+    <t>Carboni F.</t>
+  </si>
+  <si>
+    <t>Pereira P.</t>
+  </si>
+  <si>
+    <t>Carboni A.</t>
+  </si>
+  <si>
+    <t>Donati</t>
+  </si>
+  <si>
+    <t>Machin</t>
+  </si>
+  <si>
+    <t>Bondo</t>
+  </si>
+  <si>
+    <t>Carboni V.</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>Akpa Akpro</t>
+  </si>
+  <si>
+    <t>Vignato S.</t>
+  </si>
+  <si>
+    <t>Maric</t>
+  </si>
+  <si>
+    <t>Milinkovic-Savic V.</t>
+  </si>
+  <si>
+    <t>Schuurs</t>
+  </si>
+  <si>
+    <t>Sazonov</t>
+  </si>
+  <si>
+    <t>Rodriguez R.</t>
+  </si>
+  <si>
+    <t>Bellanova</t>
+  </si>
+  <si>
+    <t>Ilic</t>
+  </si>
+  <si>
+    <t>Ricci S.</t>
+  </si>
+  <si>
+    <t>Lazaro</t>
+  </si>
+  <si>
+    <t>Vlasic</t>
+  </si>
+  <si>
+    <t>Radonjic</t>
+  </si>
+  <si>
+    <t>Zapata D.</t>
+  </si>
+  <si>
+    <t>Gemello</t>
+  </si>
+  <si>
+    <t>N'guessan</t>
+  </si>
+  <si>
+    <t>Soppy</t>
+  </si>
+  <si>
+    <t>Vojvoda</t>
+  </si>
+  <si>
+    <t>Gineitis</t>
+  </si>
+  <si>
+    <t>Tameze</t>
+  </si>
+  <si>
+    <t>Linetty</t>
+  </si>
+  <si>
+    <t>Seck</t>
+  </si>
+  <si>
+    <t>Pellegri</t>
+  </si>
+  <si>
+    <t>Sanabria</t>
+  </si>
+  <si>
+    <t>Karamoh</t>
   </si>
   <si>
     <t>Montipo'</t>
@@ -400,18 +1225,18 @@
     <t>Hongla</t>
   </si>
   <si>
+    <t>Folorunsho</t>
+  </si>
+  <si>
+    <t>Lazovic</t>
+  </si>
+  <si>
+    <t>Ngonge</t>
+  </si>
+  <si>
     <t>Duda</t>
   </si>
   <si>
-    <t>Lazovic</t>
-  </si>
-  <si>
-    <t>Ngonge</t>
-  </si>
-  <si>
-    <t>Mboula</t>
-  </si>
-  <si>
     <t>Bonazzoli</t>
   </si>
   <si>
@@ -421,15 +1246,12 @@
     <t>Berardi A.</t>
   </si>
   <si>
+    <t>Coppola D.</t>
+  </si>
+  <si>
     <t>Amione</t>
   </si>
   <si>
-    <t>Coppola D.</t>
-  </si>
-  <si>
-    <t>Cabal</t>
-  </si>
-  <si>
     <t>Terracciano F.</t>
   </si>
   <si>
@@ -439,7 +1261,13 @@
     <t>Saponara</t>
   </si>
   <si>
-    <t>Folorunsho</t>
+    <t>Charlys</t>
+  </si>
+  <si>
+    <t>Tchatchoua</t>
+  </si>
+  <si>
+    <t>Joselito</t>
   </si>
   <si>
     <t>Serdar</t>
@@ -448,1009 +1276,154 @@
     <t>Cruz</t>
   </si>
   <si>
-    <t>Djuric</t>
-  </si>
-  <si>
-    <t>Cragno</t>
-  </si>
-  <si>
-    <t>Toljan</t>
-  </si>
-  <si>
-    <t>Erlic</t>
-  </si>
-  <si>
-    <t>Tressoldi</t>
-  </si>
-  <si>
-    <t>Vina</t>
-  </si>
-  <si>
-    <t>Boloca</t>
-  </si>
-  <si>
-    <t>Matheus Henrique</t>
-  </si>
-  <si>
-    <t>Berardi</t>
-  </si>
-  <si>
-    <t>Bajrami</t>
-  </si>
-  <si>
-    <t>Lauriente'</t>
-  </si>
-  <si>
-    <t>Pinamonti</t>
-  </si>
-  <si>
-    <t>Pegolo</t>
-  </si>
-  <si>
-    <t>Ferrari G.</t>
-  </si>
-  <si>
-    <t>Missori</t>
-  </si>
-  <si>
-    <t>Viti</t>
-  </si>
-  <si>
-    <t>Pedersen</t>
-  </si>
-  <si>
-    <t>Obiang</t>
-  </si>
-  <si>
-    <t>Thorstvedt</t>
-  </si>
-  <si>
-    <t>Lipani</t>
-  </si>
-  <si>
-    <t>Volpato</t>
-  </si>
-  <si>
-    <t>Castillejo</t>
-  </si>
-  <si>
-    <t>Racic</t>
-  </si>
-  <si>
-    <t>Ceide</t>
-  </si>
-  <si>
-    <t>Defrel</t>
-  </si>
-  <si>
-    <t>Mulattieri</t>
-  </si>
-  <si>
-    <t>Szczesny</t>
-  </si>
-  <si>
-    <t>Gatti</t>
-  </si>
-  <si>
-    <t>Bremer</t>
-  </si>
-  <si>
-    <t>Danilo</t>
-  </si>
-  <si>
-    <t>Mckennie</t>
-  </si>
-  <si>
-    <t>Fagioli</t>
-  </si>
-  <si>
-    <t>Locatelli</t>
-  </si>
-  <si>
-    <t>Rabiot</t>
-  </si>
-  <si>
-    <t>Kostic</t>
-  </si>
-  <si>
-    <t>Chiesa</t>
-  </si>
-  <si>
-    <t>Vlahovic</t>
-  </si>
-  <si>
-    <t>Perin</t>
-  </si>
-  <si>
-    <t>Pinsoglio</t>
-  </si>
-  <si>
-    <t>Rugani</t>
-  </si>
-  <si>
-    <t>Cambiaso</t>
-  </si>
-  <si>
-    <t>Weah</t>
-  </si>
-  <si>
-    <t>Miretti</t>
-  </si>
-  <si>
-    <t>Nicolussi Caviglia</t>
-  </si>
-  <si>
-    <t>Iling Junior</t>
-  </si>
-  <si>
-    <t>Yildiz</t>
-  </si>
-  <si>
-    <t>Kean</t>
-  </si>
-  <si>
-    <t>Milik</t>
-  </si>
-  <si>
-    <t>Provedel</t>
-  </si>
-  <si>
-    <t>Marusic</t>
-  </si>
-  <si>
-    <t>Casale</t>
-  </si>
-  <si>
-    <t>Romagnoli</t>
-  </si>
-  <si>
-    <t>Hysaj</t>
-  </si>
-  <si>
-    <t>Guendouzi</t>
-  </si>
-  <si>
-    <t>Cataldi</t>
-  </si>
-  <si>
-    <t>Luis Alberto</t>
-  </si>
-  <si>
-    <t>Felipe Anderson</t>
-  </si>
-  <si>
-    <t>Immobile</t>
-  </si>
-  <si>
-    <t>Zaccagni</t>
-  </si>
-  <si>
-    <t>Sepe</t>
-  </si>
-  <si>
-    <t>Mandas</t>
-  </si>
-  <si>
-    <t>Gila</t>
-  </si>
-  <si>
-    <t>Lazzari</t>
-  </si>
-  <si>
-    <t>Patric</t>
-  </si>
-  <si>
-    <t>Vecino</t>
-  </si>
-  <si>
-    <t>Kamada</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>Rovella</t>
-  </si>
-  <si>
-    <t>Isaksen</t>
-  </si>
-  <si>
-    <t>Castellanos</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Di Gregorio</t>
-  </si>
-  <si>
-    <t>Izzo</t>
-  </si>
-  <si>
-    <t>Mari'</t>
-  </si>
-  <si>
-    <t>Carboni A.</t>
-  </si>
-  <si>
-    <t>Ciurria</t>
-  </si>
-  <si>
-    <t>Gagliardini</t>
-  </si>
-  <si>
-    <t>Pessina</t>
-  </si>
-  <si>
-    <t>Birindelli</t>
-  </si>
-  <si>
-    <t>Colpani</t>
-  </si>
-  <si>
-    <t>Mota</t>
-  </si>
-  <si>
-    <t>Colombo</t>
-  </si>
-  <si>
-    <t>Sorrentino A.</t>
-  </si>
-  <si>
-    <t>Gori</t>
-  </si>
-  <si>
-    <t>Cittadini</t>
-  </si>
-  <si>
-    <t>Kyriakopoulos</t>
-  </si>
-  <si>
-    <t>D'ambrosio</t>
-  </si>
-  <si>
-    <t>Carboni F.</t>
-  </si>
-  <si>
-    <t>Pereira P.</t>
-  </si>
-  <si>
-    <t>Bettella</t>
-  </si>
-  <si>
-    <t>Machin</t>
-  </si>
-  <si>
-    <t>Bondo</t>
-  </si>
-  <si>
-    <t>Carboni V.</t>
-  </si>
-  <si>
-    <t>Akpa Akpro</t>
-  </si>
-  <si>
-    <t>Vignato S.</t>
-  </si>
-  <si>
-    <t>Maric</t>
-  </si>
-  <si>
-    <t>Berisha</t>
-  </si>
-  <si>
-    <t>Bereszynski</t>
-  </si>
-  <si>
-    <t>Ismajli</t>
-  </si>
-  <si>
-    <t>Luperto</t>
-  </si>
-  <si>
-    <t>Pezzella Giu.</t>
-  </si>
-  <si>
-    <t>Fazzini</t>
-  </si>
-  <si>
-    <t>Marin</t>
-  </si>
-  <si>
-    <t>Maleh</t>
-  </si>
-  <si>
-    <t>Baldanzi</t>
-  </si>
-  <si>
-    <t>Caputo</t>
-  </si>
-  <si>
-    <t>Cambiaghi</t>
-  </si>
-  <si>
-    <t>Perisan</t>
-  </si>
-  <si>
-    <t>Stubljar</t>
-  </si>
-  <si>
-    <t>Ebuehi</t>
-  </si>
-  <si>
-    <t>Walukiewicz</t>
-  </si>
-  <si>
-    <t>Cacace</t>
-  </si>
-  <si>
-    <t>Bastoni S.</t>
-  </si>
-  <si>
-    <t>Grassi</t>
-  </si>
-  <si>
-    <t>Ranocchia F.</t>
-  </si>
-  <si>
-    <t>Kovalenko</t>
-  </si>
-  <si>
-    <t>Maldini</t>
-  </si>
-  <si>
-    <t>Gyasi</t>
-  </si>
-  <si>
-    <t>Cancellieri</t>
-  </si>
-  <si>
-    <t>Shpendi S.</t>
-  </si>
-  <si>
-    <t>Destro</t>
-  </si>
-  <si>
-    <t>Sommer</t>
-  </si>
-  <si>
-    <t>Pavard</t>
-  </si>
-  <si>
-    <t>De Vrij</t>
-  </si>
-  <si>
-    <t>Bastoni</t>
-  </si>
-  <si>
-    <t>Dumfries</t>
-  </si>
-  <si>
-    <t>Barella</t>
-  </si>
-  <si>
-    <t>Asllani</t>
-  </si>
-  <si>
-    <t>Frattesi</t>
-  </si>
-  <si>
-    <t>Dimarco</t>
-  </si>
-  <si>
-    <t>Thuram</t>
-  </si>
-  <si>
-    <t>Martinez L.</t>
-  </si>
-  <si>
-    <t>Audero</t>
-  </si>
-  <si>
-    <t>Di Gennaro</t>
-  </si>
-  <si>
-    <t>Bisseck</t>
-  </si>
-  <si>
-    <t>Acerbi</t>
-  </si>
-  <si>
-    <t>Cuadrado</t>
-  </si>
-  <si>
-    <t>Carlos Augusto</t>
-  </si>
-  <si>
-    <t>Darmian</t>
-  </si>
-  <si>
-    <t>Calhanoglu</t>
-  </si>
-  <si>
-    <t>Mkhitaryan</t>
-  </si>
-  <si>
-    <t>Klaassen</t>
-  </si>
-  <si>
-    <t>Sanchez</t>
-  </si>
-  <si>
-    <t>Arnautovic</t>
-  </si>
-  <si>
-    <t>Musso</t>
-  </si>
-  <si>
-    <t>Toloi</t>
-  </si>
-  <si>
-    <t>Scalvini</t>
-  </si>
-  <si>
-    <t>Kolasinac</t>
-  </si>
-  <si>
-    <t>Zappacosta</t>
-  </si>
-  <si>
-    <t>De Roon</t>
-  </si>
-  <si>
-    <t>Ederson D.s.</t>
-  </si>
-  <si>
-    <t>Ruggeri</t>
-  </si>
-  <si>
-    <t>Koopmeiners</t>
-  </si>
-  <si>
-    <t>De Ketelaere</t>
-  </si>
-  <si>
-    <t>Lookman</t>
-  </si>
-  <si>
-    <t>Carnesecchi</t>
-  </si>
-  <si>
-    <t>Rossi F.</t>
-  </si>
-  <si>
-    <t>Djimsiti</t>
-  </si>
-  <si>
-    <t>Zortea</t>
-  </si>
-  <si>
-    <t>Bakker</t>
-  </si>
-  <si>
-    <t>Holm</t>
-  </si>
-  <si>
-    <t>Hateboer</t>
-  </si>
-  <si>
-    <t>Palomino</t>
-  </si>
-  <si>
-    <t>Adopo</t>
-  </si>
-  <si>
-    <t>Miranchuk</t>
-  </si>
-  <si>
-    <t>Pasalic</t>
-  </si>
-  <si>
-    <t>Muriel</t>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Terracciano</t>
+  </si>
+  <si>
+    <t>Kayode</t>
+  </si>
+  <si>
+    <t>Milenkovic</t>
+  </si>
+  <si>
+    <t>Ranieri L.</t>
+  </si>
+  <si>
+    <t>Parisi</t>
+  </si>
+  <si>
+    <t>Lopez M.</t>
+  </si>
+  <si>
+    <t>Mandragora</t>
+  </si>
+  <si>
+    <t>Gonzalez N.</t>
+  </si>
+  <si>
+    <t>Bonaventura</t>
+  </si>
+  <si>
+    <t>Sottil</t>
+  </si>
+  <si>
+    <t>Nzola</t>
+  </si>
+  <si>
+    <t>Christensen O.</t>
+  </si>
+  <si>
+    <t>Martinelli T.</t>
+  </si>
+  <si>
+    <t>Martinez Quarta</t>
+  </si>
+  <si>
+    <t>Comuzzo</t>
+  </si>
+  <si>
+    <t>Infantino</t>
+  </si>
+  <si>
+    <t>Amatucci</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Arthur Melo</t>
+  </si>
+  <si>
+    <t>Ikone'</t>
+  </si>
+  <si>
+    <t>Barak</t>
+  </si>
+  <si>
+    <t>Kouame'</t>
+  </si>
+  <si>
+    <t>Brekalo</t>
+  </si>
+  <si>
+    <t>Beltran L.</t>
   </si>
   <si>
     <t>Radunovic</t>
   </si>
   <si>
+    <t>Wieteska</t>
+  </si>
+  <si>
+    <t>Dossena</t>
+  </si>
+  <si>
     <t>Hatzidiakos</t>
   </si>
   <si>
-    <t>Dossena</t>
+    <t>Zappa</t>
+  </si>
+  <si>
+    <t>Nandez</t>
+  </si>
+  <si>
+    <t>Makoumbou</t>
+  </si>
+  <si>
+    <t>Sulemana I.</t>
+  </si>
+  <si>
+    <t>Augello</t>
+  </si>
+  <si>
+    <t>Luvumbo</t>
+  </si>
+  <si>
+    <t>Petagna</t>
+  </si>
+  <si>
+    <t>Scuffet</t>
+  </si>
+  <si>
+    <t>Aresti</t>
+  </si>
+  <si>
+    <t>Goldaniga</t>
   </si>
   <si>
     <t>Obert</t>
   </si>
   <si>
-    <t>Zappa</t>
-  </si>
-  <si>
-    <t>Nandez</t>
-  </si>
-  <si>
-    <t>Makoumbou</t>
+    <t>Azzi</t>
+  </si>
+  <si>
+    <t>Di Pardo</t>
+  </si>
+  <si>
+    <t>Prati</t>
+  </si>
+  <si>
+    <t>Viola</t>
+  </si>
+  <si>
+    <t>Deiola</t>
+  </si>
+  <si>
+    <t>Oristanio</t>
   </si>
   <si>
     <t>Jankto</t>
   </si>
   <si>
-    <t>Augello</t>
-  </si>
-  <si>
-    <t>Luvumbo</t>
+    <t>Mancosu</t>
   </si>
   <si>
     <t>Pavoletti</t>
   </si>
   <si>
-    <t>Scuffet</t>
-  </si>
-  <si>
-    <t>Aresti</t>
-  </si>
-  <si>
-    <t>Di Pardo</t>
-  </si>
-  <si>
-    <t>Goldaniga</t>
-  </si>
-  <si>
-    <t>Azzi</t>
-  </si>
-  <si>
-    <t>Sulemana I.</t>
-  </si>
-  <si>
-    <t>Deiola</t>
-  </si>
-  <si>
-    <t>Viola</t>
-  </si>
-  <si>
-    <t>Prati</t>
-  </si>
-  <si>
-    <t>Oristanio</t>
-  </si>
-  <si>
-    <t>Mancosu</t>
-  </si>
-  <si>
-    <t>Petagna</t>
-  </si>
-  <si>
     <t>Shomurodov</t>
-  </si>
-  <si>
-    <t>Silvestri</t>
-  </si>
-  <si>
-    <t>Perez N.</t>
-  </si>
-  <si>
-    <t>Bijol</t>
-  </si>
-  <si>
-    <t>Kristensen T.</t>
-  </si>
-  <si>
-    <t>Ebosele</t>
-  </si>
-  <si>
-    <t>Samardzic</t>
-  </si>
-  <si>
-    <t>Walace</t>
-  </si>
-  <si>
-    <t>Lovric</t>
-  </si>
-  <si>
-    <t>Kamara H.</t>
-  </si>
-  <si>
-    <t>Lucca</t>
-  </si>
-  <si>
-    <t>Thauvin</t>
-  </si>
-  <si>
-    <t>Okoye</t>
-  </si>
-  <si>
-    <t>Zemura</t>
-  </si>
-  <si>
-    <t>Ferreira J.</t>
-  </si>
-  <si>
-    <t>Guessand A.</t>
-  </si>
-  <si>
-    <t>Camara E.</t>
-  </si>
-  <si>
-    <t>Zarraga</t>
-  </si>
-  <si>
-    <t>Quina</t>
-  </si>
-  <si>
-    <t>Payero</t>
-  </si>
-  <si>
-    <t>Pereyra</t>
-  </si>
-  <si>
-    <t>Pafundi</t>
-  </si>
-  <si>
-    <t>Ake' M.</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Terracciano</t>
-  </si>
-  <si>
-    <t>Dodo'</t>
-  </si>
-  <si>
-    <t>Milenkovic</t>
-  </si>
-  <si>
-    <t>Ranieri L.</t>
-  </si>
-  <si>
-    <t>Biraghi</t>
-  </si>
-  <si>
-    <t>Mandragora</t>
-  </si>
-  <si>
-    <t>Arthur Melo</t>
-  </si>
-  <si>
-    <t>Gonzalez N.</t>
-  </si>
-  <si>
-    <t>Bonaventura</t>
-  </si>
-  <si>
-    <t>Kouame'</t>
-  </si>
-  <si>
-    <t>Nzola</t>
-  </si>
-  <si>
-    <t>Christensen O.</t>
-  </si>
-  <si>
-    <t>Martinelli T.</t>
-  </si>
-  <si>
-    <t>Parisi</t>
-  </si>
-  <si>
-    <t>Martinez Quarta</t>
-  </si>
-  <si>
-    <t>Comuzzo</t>
-  </si>
-  <si>
-    <t>Kayode</t>
-  </si>
-  <si>
-    <t>Infantino</t>
-  </si>
-  <si>
-    <t>Amatucci</t>
-  </si>
-  <si>
-    <t>Duncan</t>
-  </si>
-  <si>
-    <t>Lopez M.</t>
-  </si>
-  <si>
-    <t>Sottil</t>
-  </si>
-  <si>
-    <t>Barak</t>
-  </si>
-  <si>
-    <t>Ikone'</t>
-  </si>
-  <si>
-    <t>Brekalo</t>
-  </si>
-  <si>
-    <t>Beltran L.</t>
-  </si>
-  <si>
-    <t>Skorupski</t>
-  </si>
-  <si>
-    <t>Posch</t>
-  </si>
-  <si>
-    <t>Beukema</t>
-  </si>
-  <si>
-    <t>Lucumi'</t>
-  </si>
-  <si>
-    <t>Kristiansen</t>
-  </si>
-  <si>
-    <t>Moro N.</t>
-  </si>
-  <si>
-    <t>Freuler</t>
-  </si>
-  <si>
-    <t>Ndoye</t>
-  </si>
-  <si>
-    <t>Ferguson</t>
-  </si>
-  <si>
-    <t>Karlsson</t>
-  </si>
-  <si>
-    <t>Zirkzee</t>
-  </si>
-  <si>
-    <t>Ravaglia F.</t>
-  </si>
-  <si>
-    <t>Bagnolini</t>
-  </si>
-  <si>
-    <t>Bonifazi</t>
-  </si>
-  <si>
-    <t>Calafiori</t>
-  </si>
-  <si>
-    <t>Corazza</t>
-  </si>
-  <si>
-    <t>De Silvestri</t>
-  </si>
-  <si>
-    <t>Lykogiannis</t>
-  </si>
-  <si>
-    <t>Fabbian</t>
-  </si>
-  <si>
-    <t>Aebischer</t>
-  </si>
-  <si>
-    <t>El Azzouzi</t>
-  </si>
-  <si>
-    <t>Urbanski</t>
-  </si>
-  <si>
-    <t>Orsolini</t>
-  </si>
-  <si>
-    <t>Van Hooijdonk</t>
-  </si>
-  <si>
-    <t>Meret</t>
-  </si>
-  <si>
-    <t>Di Lorenzo</t>
-  </si>
-  <si>
-    <t>Ostigard</t>
-  </si>
-  <si>
-    <t>Juan Jesus</t>
-  </si>
-  <si>
-    <t>Mario Rui</t>
-  </si>
-  <si>
-    <t>Zambo Anguissa</t>
-  </si>
-  <si>
-    <t>Lobotka</t>
-  </si>
-  <si>
-    <t>Zielinski</t>
-  </si>
-  <si>
-    <t>Politano</t>
-  </si>
-  <si>
-    <t>Osimhen</t>
-  </si>
-  <si>
-    <t>Kvaratskhelia</t>
-  </si>
-  <si>
-    <t>Gollini</t>
-  </si>
-  <si>
-    <t>Contini</t>
-  </si>
-  <si>
-    <t>Natan</t>
-  </si>
-  <si>
-    <t>Zanoli</t>
-  </si>
-  <si>
-    <t>Olivera</t>
-  </si>
-  <si>
-    <t>Elmas</t>
-  </si>
-  <si>
-    <t>Zerbin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cajuste </t>
-  </si>
-  <si>
-    <t>Gaetano</t>
-  </si>
-  <si>
-    <t>Demme</t>
-  </si>
-  <si>
-    <t>Lindstrom</t>
-  </si>
-  <si>
-    <t>Raspadori</t>
-  </si>
-  <si>
-    <t>Simeone</t>
-  </si>
-  <si>
-    <t>Milinkovic-Savic V.</t>
-  </si>
-  <si>
-    <t>Schuurs</t>
-  </si>
-  <si>
-    <t>Buongiorno</t>
-  </si>
-  <si>
-    <t>Rodriguez R.</t>
-  </si>
-  <si>
-    <t>Bellanova</t>
-  </si>
-  <si>
-    <t>Ilic</t>
-  </si>
-  <si>
-    <t>Ricci S.</t>
-  </si>
-  <si>
-    <t>Lazaro</t>
-  </si>
-  <si>
-    <t>Vlasic</t>
-  </si>
-  <si>
-    <t>Radonjic</t>
-  </si>
-  <si>
-    <t>Zapata D.</t>
-  </si>
-  <si>
-    <t>Gemello</t>
-  </si>
-  <si>
-    <t>N'guessan</t>
-  </si>
-  <si>
-    <t>Sazonov</t>
-  </si>
-  <si>
-    <t>Zima</t>
-  </si>
-  <si>
-    <t>Soppy</t>
-  </si>
-  <si>
-    <t>Gineitis</t>
-  </si>
-  <si>
-    <t>Tameze</t>
-  </si>
-  <si>
-    <t>Linetty</t>
-  </si>
-  <si>
-    <t>Seck</t>
-  </si>
-  <si>
-    <t>Pellegri</t>
-  </si>
-  <si>
-    <t>Sanabria</t>
-  </si>
-  <si>
-    <t>Karamoh</t>
-  </si>
-  <si>
-    <t>Rui Patricio</t>
-  </si>
-  <si>
-    <t>Mancini</t>
-  </si>
-  <si>
-    <t>Llorente D.</t>
-  </si>
-  <si>
-    <t>N'dicka</t>
-  </si>
-  <si>
-    <t>Kristensen</t>
-  </si>
-  <si>
-    <t>Paredes</t>
-  </si>
-  <si>
-    <t>Cristante</t>
-  </si>
-  <si>
-    <t>Renato Sanches</t>
-  </si>
-  <si>
-    <t>Spinazzola</t>
-  </si>
-  <si>
-    <t>Dybala</t>
-  </si>
-  <si>
-    <t>Lukaku</t>
-  </si>
-  <si>
-    <t>Svilar</t>
-  </si>
-  <si>
-    <t>Boer</t>
-  </si>
-  <si>
-    <t>Smalling</t>
-  </si>
-  <si>
-    <t>Karsdorp</t>
-  </si>
-  <si>
-    <t>Celik</t>
-  </si>
-  <si>
-    <t>Zalewski</t>
-  </si>
-  <si>
-    <t>Pagano</t>
-  </si>
-  <si>
-    <t>Bove</t>
-  </si>
-  <si>
-    <t>Pisilli</t>
-  </si>
-  <si>
-    <t>Aouar</t>
-  </si>
-  <si>
-    <t>El Shaarawy</t>
-  </si>
-  <si>
-    <t>Belotti</t>
-  </si>
-  <si>
-    <t>Azmoun</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C477"/>
+  <dimension ref="A1:C468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1844,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1855,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1874,10 +1847,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1888,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1899,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1907,10 +1880,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1929,10 +1902,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1940,10 +1913,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1965,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1973,10 +1946,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1987,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1998,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2006,10 +1979,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C18">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2020,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2031,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2042,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2050,10 +2023,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2061,10 +2034,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2075,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2083,10 +2056,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2097,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2116,10 +2089,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2127,10 +2100,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C29">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2138,10 +2111,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C30">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2152,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2160,10 +2133,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C32">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2171,10 +2144,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C33">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2185,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2193,10 +2166,10 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C35">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2204,10 +2177,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2218,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2226,10 +2199,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2237,10 +2210,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2251,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2259,7 +2232,7 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C41">
         <v>50</v>
@@ -2273,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2281,7 +2254,7 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C43">
         <v>60</v>
@@ -2292,10 +2265,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C44">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2303,10 +2276,10 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2314,10 +2287,10 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2325,10 +2298,10 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2336,10 +2309,10 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C48">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2347,10 +2320,10 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2383,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2394,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2402,10 +2375,10 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C54">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2413,10 +2386,10 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C55">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2438,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2446,10 +2419,10 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2457,10 +2430,10 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2468,10 +2441,10 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C60">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2482,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2493,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2504,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2512,10 +2485,10 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C64">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2526,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2537,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2545,10 +2518,10 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C67">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2559,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2570,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2578,10 +2551,10 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2589,10 +2562,10 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2600,10 +2573,10 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2611,10 +2584,10 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="C73">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2622,10 +2595,10 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="C74">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2633,10 +2606,10 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2647,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2655,10 +2628,10 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C77">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2677,10 +2650,10 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C79">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2688,10 +2661,10 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2699,10 +2672,10 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2710,10 +2683,10 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2721,10 +2694,10 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="C83">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2732,10 +2705,10 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2743,10 +2716,10 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2754,10 +2727,10 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="C86">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2768,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2779,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2790,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2801,7 +2774,7 @@
         <v>0.4</v>
       </c>
       <c r="C90">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2812,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2820,10 +2793,10 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C92">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2831,10 +2804,10 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2842,10 +2815,10 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2853,10 +2826,10 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C95">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2864,10 +2837,10 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2875,10 +2848,10 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2886,10 +2859,10 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2897,10 +2870,10 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C99">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2911,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="C100">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2919,10 +2892,10 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C101">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2941,10 +2914,10 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C103">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2955,7 +2928,7 @@
         <v>1</v>
       </c>
       <c r="C104">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2963,10 +2936,10 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2974,10 +2947,10 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2985,10 +2958,10 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2996,10 +2969,10 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3007,10 +2980,10 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C109">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3021,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3032,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="C111">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3040,10 +3013,10 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3051,10 +3024,10 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C113">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3062,10 +3035,10 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C114">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3076,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3084,10 +3057,10 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3095,10 +3068,10 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3106,10 +3079,10 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3117,10 +3090,10 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3128,7 +3101,7 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
       <c r="C120">
         <v>55</v>
@@ -3164,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3172,10 +3145,10 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C124">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3197,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3205,10 +3178,10 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C127">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3216,10 +3189,10 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3227,10 +3200,10 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3238,7 +3211,7 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C130">
         <v>55</v>
@@ -3249,10 +3222,10 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="C131">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3263,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3274,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3285,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="C134">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3307,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="C136">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3315,10 +3288,10 @@
         <v>138</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C137">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3326,10 +3299,10 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C138">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3337,10 +3310,10 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3348,10 +3321,10 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3359,10 +3332,10 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3370,10 +3343,10 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3381,10 +3354,10 @@
         <v>144</v>
       </c>
       <c r="B143">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C143">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3392,10 +3365,10 @@
         <v>145</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C144">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3406,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="C145">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3414,10 +3387,10 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C146">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3436,10 +3409,10 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C148">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3450,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="C149">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3458,10 +3431,10 @@
         <v>151</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3469,10 +3442,10 @@
         <v>152</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3480,10 +3453,10 @@
         <v>153</v>
       </c>
       <c r="B152">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C152">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3491,10 +3464,10 @@
         <v>154</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3502,10 +3475,10 @@
         <v>155</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3513,10 +3486,10 @@
         <v>156</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C155">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3524,10 +3497,10 @@
         <v>157</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C156">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3538,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="C157">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3546,10 +3519,10 @@
         <v>159</v>
       </c>
       <c r="B158">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C158">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3557,10 +3530,10 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="C159">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3571,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="C160">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3579,10 +3552,10 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3590,10 +3563,10 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3601,10 +3574,10 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3612,10 +3585,10 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3623,10 +3596,10 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3634,10 +3607,10 @@
         <v>167</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C166">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3645,10 +3618,10 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C167">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3656,10 +3629,10 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3678,10 +3651,10 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C170">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3692,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="C171">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3700,10 +3673,10 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3711,10 +3684,10 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C173">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3722,10 +3695,10 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C174">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3733,10 +3706,10 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3744,10 +3717,10 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C176">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3755,10 +3728,10 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C177">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3766,10 +3739,10 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3777,10 +3750,10 @@
         <v>180</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C179">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3791,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="C180">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3802,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3810,10 +3783,10 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3821,10 +3794,10 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3832,10 +3805,10 @@
         <v>185</v>
       </c>
       <c r="B184">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C184">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3843,10 +3816,10 @@
         <v>186</v>
       </c>
       <c r="B185">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C185">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3854,10 +3827,10 @@
         <v>187</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C186">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3865,10 +3838,10 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3876,10 +3849,10 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3887,10 +3860,10 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3898,7 +3871,7 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C190">
         <v>60</v>
@@ -3909,10 +3882,10 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C191">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3923,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3931,10 +3904,10 @@
         <v>194</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3942,7 +3915,7 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C194">
         <v>60</v>
@@ -3953,10 +3926,10 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C195">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3964,10 +3937,10 @@
         <v>197</v>
       </c>
       <c r="B196">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C196">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3975,10 +3948,10 @@
         <v>198</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3986,10 +3959,10 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3997,10 +3970,10 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4008,10 +3981,10 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4019,10 +3992,10 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C201">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4033,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="C202">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4044,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4055,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="C204">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4063,10 +4036,10 @@
         <v>206</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C205">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4074,10 +4047,10 @@
         <v>207</v>
       </c>
       <c r="B206">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C206">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4085,10 +4058,10 @@
         <v>208</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4096,10 +4069,10 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C208">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4107,10 +4080,10 @@
         <v>210</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C209">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4118,10 +4091,10 @@
         <v>211</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4129,10 +4102,10 @@
         <v>212</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4140,10 +4113,10 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4151,10 +4124,10 @@
         <v>214</v>
       </c>
       <c r="B213">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C213">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4162,10 +4135,10 @@
         <v>215</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C214">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4187,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="C216">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4195,10 +4168,10 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4206,10 +4179,10 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4217,10 +4190,10 @@
         <v>220</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4228,10 +4201,10 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4239,10 +4212,10 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="C221">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4250,10 +4223,10 @@
         <v>223</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4261,10 +4234,10 @@
         <v>224</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C223">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4272,10 +4245,10 @@
         <v>225</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4286,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="C225">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4297,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4308,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="C227">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4316,7 +4289,7 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C228">
         <v>50</v>
@@ -4338,10 +4311,10 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4349,10 +4322,10 @@
         <v>232</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4360,10 +4333,10 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4371,10 +4344,10 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4382,10 +4355,10 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4393,10 +4366,10 @@
         <v>236</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4404,10 +4377,10 @@
         <v>237</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4415,10 +4388,10 @@
         <v>238</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C237">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4426,10 +4399,10 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4437,10 +4410,10 @@
         <v>240</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C239">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4448,10 +4421,10 @@
         <v>241</v>
       </c>
       <c r="B240">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C240">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4459,10 +4432,10 @@
         <v>242</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4470,10 +4443,10 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4481,10 +4454,10 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4492,10 +4465,10 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C244">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4503,10 +4476,10 @@
         <v>246</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C245">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4514,10 +4487,10 @@
         <v>247</v>
       </c>
       <c r="B246">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C246">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4525,10 +4498,10 @@
         <v>248</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4536,10 +4509,10 @@
         <v>249</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4547,10 +4520,10 @@
         <v>250</v>
       </c>
       <c r="B249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4561,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="C250">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4572,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4583,7 +4556,7 @@
         <v>0.4</v>
       </c>
       <c r="C252">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4591,10 +4564,10 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4602,10 +4575,10 @@
         <v>255</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4613,10 +4586,10 @@
         <v>256</v>
       </c>
       <c r="B255">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C255">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4624,10 +4597,10 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C256">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4635,10 +4608,10 @@
         <v>258</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C257">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4646,10 +4619,10 @@
         <v>259</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C258">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4657,10 +4630,10 @@
         <v>260</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4668,10 +4641,10 @@
         <v>261</v>
       </c>
       <c r="B260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4679,10 +4652,10 @@
         <v>262</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4690,10 +4663,10 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C262">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4701,10 +4674,10 @@
         <v>264</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4712,10 +4685,10 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C264">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4723,10 +4696,10 @@
         <v>266</v>
       </c>
       <c r="B265">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C265">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4734,10 +4707,10 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C266">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4745,10 +4718,10 @@
         <v>268</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4756,10 +4729,10 @@
         <v>269</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4767,10 +4740,10 @@
         <v>270</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C269">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4778,10 +4751,10 @@
         <v>271</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C270">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4789,10 +4762,10 @@
         <v>272</v>
       </c>
       <c r="B271">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="C271">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4800,10 +4773,10 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C272">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4811,10 +4784,10 @@
         <v>274</v>
       </c>
       <c r="B273">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C273">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4822,10 +4795,10 @@
         <v>275</v>
       </c>
       <c r="B274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4833,10 +4806,10 @@
         <v>276</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C275">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4844,10 +4817,10 @@
         <v>277</v>
       </c>
       <c r="B276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4855,10 +4828,10 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4866,10 +4839,10 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C278">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4877,10 +4850,10 @@
         <v>280</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C279">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4888,10 +4861,10 @@
         <v>281</v>
       </c>
       <c r="B280">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C280">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4899,10 +4872,10 @@
         <v>282</v>
       </c>
       <c r="B281">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C281">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4910,10 +4883,10 @@
         <v>283</v>
       </c>
       <c r="B282">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C282">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4921,10 +4894,10 @@
         <v>284</v>
       </c>
       <c r="B283">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="C283">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4932,10 +4905,10 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C284">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4943,10 +4916,10 @@
         <v>286</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="C285">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4954,10 +4927,10 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C286">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4965,10 +4938,10 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4976,10 +4949,10 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C288">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4987,10 +4960,10 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4998,10 +4971,10 @@
         <v>291</v>
       </c>
       <c r="B290">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C290">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5009,7 +4982,7 @@
         <v>292</v>
       </c>
       <c r="B291">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="C291">
         <v>60</v>
@@ -5020,10 +4993,10 @@
         <v>293</v>
       </c>
       <c r="B292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C292">
-        <v>85</v>
+        <v>15</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5031,10 +5004,10 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5042,10 +5015,10 @@
         <v>295</v>
       </c>
       <c r="B294">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C294">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5053,10 +5026,10 @@
         <v>296</v>
       </c>
       <c r="B295">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="C295">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5064,10 +5037,10 @@
         <v>297</v>
       </c>
       <c r="B296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C296">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5075,10 +5048,10 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5086,10 +5059,10 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C298">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5097,10 +5070,10 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5108,10 +5081,10 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C300">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5119,10 +5092,10 @@
         <v>302</v>
       </c>
       <c r="B301">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C301">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5130,10 +5103,10 @@
         <v>303</v>
       </c>
       <c r="B302">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C302">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5141,10 +5114,10 @@
         <v>304</v>
       </c>
       <c r="B303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C303">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5152,10 +5125,10 @@
         <v>305</v>
       </c>
       <c r="B304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C304">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5163,10 +5136,10 @@
         <v>306</v>
       </c>
       <c r="B305">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C305">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5174,10 +5147,10 @@
         <v>307</v>
       </c>
       <c r="B306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C306">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5185,10 +5158,10 @@
         <v>308</v>
       </c>
       <c r="B307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C307">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5196,7 +5169,7 @@
         <v>309</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C308">
         <v>60</v>
@@ -5210,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="C309">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5218,10 +5191,10 @@
         <v>311</v>
       </c>
       <c r="B310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C310">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5229,10 +5202,10 @@
         <v>312</v>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C311">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5240,10 +5213,10 @@
         <v>313</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C312">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5251,10 +5224,10 @@
         <v>314</v>
       </c>
       <c r="B313">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="C313">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5262,10 +5235,10 @@
         <v>315</v>
       </c>
       <c r="B314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C314">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5273,10 +5246,10 @@
         <v>316</v>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C315">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5284,10 +5257,10 @@
         <v>317</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5295,10 +5268,10 @@
         <v>318</v>
       </c>
       <c r="B317">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C317">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5306,10 +5279,10 @@
         <v>319</v>
       </c>
       <c r="B318">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C318">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5317,10 +5290,10 @@
         <v>320</v>
       </c>
       <c r="B319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5328,10 +5301,10 @@
         <v>321</v>
       </c>
       <c r="B320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5342,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="C321">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5350,10 +5323,10 @@
         <v>323</v>
       </c>
       <c r="B322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5361,10 +5334,10 @@
         <v>324</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C323">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5372,10 +5345,10 @@
         <v>325</v>
       </c>
       <c r="B324">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C324">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5383,10 +5356,10 @@
         <v>326</v>
       </c>
       <c r="B325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C325">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5394,10 +5367,10 @@
         <v>327</v>
       </c>
       <c r="B326">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C326">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5405,10 +5378,10 @@
         <v>328</v>
       </c>
       <c r="B327">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C327">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5416,10 +5389,10 @@
         <v>329</v>
       </c>
       <c r="B328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5427,10 +5400,10 @@
         <v>330</v>
       </c>
       <c r="B329">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C329">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5438,10 +5411,10 @@
         <v>331</v>
       </c>
       <c r="B330">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C330">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5449,10 +5422,10 @@
         <v>332</v>
       </c>
       <c r="B331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5460,10 +5433,10 @@
         <v>333</v>
       </c>
       <c r="B332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C332">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5474,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="C333">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5482,10 +5455,10 @@
         <v>335</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C334">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5493,10 +5466,10 @@
         <v>336</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -5504,10 +5477,10 @@
         <v>337</v>
       </c>
       <c r="B336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C336">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5515,10 +5488,10 @@
         <v>338</v>
       </c>
       <c r="B337">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C337">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5526,10 +5499,10 @@
         <v>339</v>
       </c>
       <c r="B338">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="C338">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5537,10 +5510,10 @@
         <v>340</v>
       </c>
       <c r="B339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5548,10 +5521,10 @@
         <v>341</v>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C340">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5559,10 +5532,10 @@
         <v>342</v>
       </c>
       <c r="B341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C341">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5570,10 +5543,10 @@
         <v>343</v>
       </c>
       <c r="B342">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C342">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -5581,10 +5554,10 @@
         <v>344</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C343">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5592,10 +5565,10 @@
         <v>345</v>
       </c>
       <c r="B344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C344">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5606,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="C345">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5614,10 +5587,10 @@
         <v>347</v>
       </c>
       <c r="B346">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C346">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5625,10 +5598,10 @@
         <v>348</v>
       </c>
       <c r="B347">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C347">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5636,10 +5609,10 @@
         <v>349</v>
       </c>
       <c r="B348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C348">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -5647,10 +5620,10 @@
         <v>350</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C349">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5658,10 +5631,10 @@
         <v>351</v>
       </c>
       <c r="B350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C350">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -5669,10 +5642,10 @@
         <v>352</v>
       </c>
       <c r="B351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C351">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -5680,10 +5653,10 @@
         <v>353</v>
       </c>
       <c r="B352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C352">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -5691,10 +5664,10 @@
         <v>354</v>
       </c>
       <c r="B353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C353">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -5702,10 +5675,10 @@
         <v>355</v>
       </c>
       <c r="B354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -5713,10 +5686,10 @@
         <v>356</v>
       </c>
       <c r="B355">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C355">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -5724,10 +5697,10 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C356">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -5738,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="C357">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -5746,10 +5719,10 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C358">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -5757,10 +5730,10 @@
         <v>360</v>
       </c>
       <c r="B359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -5768,10 +5741,10 @@
         <v>361</v>
       </c>
       <c r="B360">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C360">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -5779,10 +5752,10 @@
         <v>362</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C361">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -5790,10 +5763,10 @@
         <v>363</v>
       </c>
       <c r="B362">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="C362">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -5801,10 +5774,10 @@
         <v>364</v>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -5812,10 +5785,10 @@
         <v>365</v>
       </c>
       <c r="B364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C364">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -5823,10 +5796,10 @@
         <v>366</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C365">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -5834,10 +5807,10 @@
         <v>367</v>
       </c>
       <c r="B366">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C366">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5845,10 +5818,10 @@
         <v>368</v>
       </c>
       <c r="B367">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C367">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -5859,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="C368">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -5870,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="C369">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -5881,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="C370">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -5889,10 +5862,10 @@
         <v>372</v>
       </c>
       <c r="B371">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C371">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -5903,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="C372">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -5911,10 +5884,10 @@
         <v>374</v>
       </c>
       <c r="B373">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C373">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -5922,10 +5895,10 @@
         <v>375</v>
       </c>
       <c r="B374">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C374">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -5933,10 +5906,10 @@
         <v>376</v>
       </c>
       <c r="B375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C375">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -5944,10 +5917,10 @@
         <v>377</v>
       </c>
       <c r="B376">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C376">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -5955,10 +5928,10 @@
         <v>378</v>
       </c>
       <c r="B377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C377">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -5966,10 +5939,10 @@
         <v>379</v>
       </c>
       <c r="B378">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="C378">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -5977,10 +5950,10 @@
         <v>380</v>
       </c>
       <c r="B379">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C379">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -5988,10 +5961,10 @@
         <v>381</v>
       </c>
       <c r="B380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -5999,10 +5972,10 @@
         <v>382</v>
       </c>
       <c r="B381">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C381">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6010,10 +5983,10 @@
         <v>383</v>
       </c>
       <c r="B382">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C382">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6024,7 +5997,7 @@
         <v>1</v>
       </c>
       <c r="C383">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6032,10 +6005,10 @@
         <v>385</v>
       </c>
       <c r="B384">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C384">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6043,10 +6016,10 @@
         <v>386</v>
       </c>
       <c r="B385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C385">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6054,10 +6027,10 @@
         <v>387</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C386">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6065,10 +6038,10 @@
         <v>388</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C387">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6076,7 +6049,7 @@
         <v>389</v>
       </c>
       <c r="B388">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="C388">
         <v>55</v>
@@ -6087,10 +6060,10 @@
         <v>390</v>
       </c>
       <c r="B389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C389">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6098,10 +6071,10 @@
         <v>391</v>
       </c>
       <c r="B390">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C390">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -6109,10 +6082,10 @@
         <v>392</v>
       </c>
       <c r="B391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C391">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6120,10 +6093,10 @@
         <v>393</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C392">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6131,10 +6104,10 @@
         <v>394</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C393">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6142,10 +6115,10 @@
         <v>395</v>
       </c>
       <c r="B394">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C394">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6156,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="C395">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6164,10 +6137,10 @@
         <v>397</v>
       </c>
       <c r="B396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C396">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6175,10 +6148,10 @@
         <v>398</v>
       </c>
       <c r="B397">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C397">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6186,10 +6159,10 @@
         <v>399</v>
       </c>
       <c r="B398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C398">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6197,10 +6170,10 @@
         <v>400</v>
       </c>
       <c r="B399">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C399">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6208,10 +6181,10 @@
         <v>401</v>
       </c>
       <c r="B400">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C400">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6219,10 +6192,10 @@
         <v>402</v>
       </c>
       <c r="B401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6230,10 +6203,10 @@
         <v>403</v>
       </c>
       <c r="B402">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="C402">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6241,10 +6214,10 @@
         <v>404</v>
       </c>
       <c r="B403">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C403">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6252,10 +6225,10 @@
         <v>405</v>
       </c>
       <c r="B404">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C404">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6263,10 +6236,10 @@
         <v>406</v>
       </c>
       <c r="B405">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C405">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6274,10 +6247,10 @@
         <v>407</v>
       </c>
       <c r="B406">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C406">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6285,10 +6258,10 @@
         <v>408</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C407">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6296,10 +6269,10 @@
         <v>409</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C408">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6307,10 +6280,10 @@
         <v>410</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C409">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6318,10 +6291,10 @@
         <v>411</v>
       </c>
       <c r="B410">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C410">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6329,10 +6302,10 @@
         <v>412</v>
       </c>
       <c r="B411">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C411">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6340,10 +6313,10 @@
         <v>413</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6351,10 +6324,10 @@
         <v>414</v>
       </c>
       <c r="B413">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C413">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6362,10 +6335,10 @@
         <v>415</v>
       </c>
       <c r="B414">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="C414">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6373,10 +6346,10 @@
         <v>416</v>
       </c>
       <c r="B415">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C415">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -6384,10 +6357,10 @@
         <v>417</v>
       </c>
       <c r="B416">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C416">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -6395,10 +6368,10 @@
         <v>418</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C417">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -6409,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="C418">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6417,10 +6390,10 @@
         <v>420</v>
       </c>
       <c r="B419">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C419">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -6428,10 +6401,10 @@
         <v>421</v>
       </c>
       <c r="B420">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C420">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -6439,10 +6412,10 @@
         <v>422</v>
       </c>
       <c r="B421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C421">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -6450,10 +6423,10 @@
         <v>423</v>
       </c>
       <c r="B422">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C422">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -6461,10 +6434,10 @@
         <v>424</v>
       </c>
       <c r="B423">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="C423">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -6472,10 +6445,10 @@
         <v>425</v>
       </c>
       <c r="B424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C424">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -6483,10 +6456,10 @@
         <v>426</v>
       </c>
       <c r="B425">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C425">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -6494,10 +6467,10 @@
         <v>427</v>
       </c>
       <c r="B426">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C426">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -6505,10 +6478,10 @@
         <v>428</v>
       </c>
       <c r="B427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C427">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -6516,10 +6489,10 @@
         <v>429</v>
       </c>
       <c r="B428">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C428">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -6527,10 +6500,10 @@
         <v>430</v>
       </c>
       <c r="B429">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C429">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -6538,10 +6511,10 @@
         <v>431</v>
       </c>
       <c r="B430">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C430">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -6549,10 +6522,10 @@
         <v>432</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C431">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -6560,10 +6533,10 @@
         <v>433</v>
       </c>
       <c r="B432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C432">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -6571,10 +6544,10 @@
         <v>434</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -6582,10 +6555,10 @@
         <v>435</v>
       </c>
       <c r="B434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C434">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -6593,10 +6566,10 @@
         <v>436</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C435">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -6604,10 +6577,10 @@
         <v>437</v>
       </c>
       <c r="B436">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="C436">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -6615,10 +6588,10 @@
         <v>438</v>
       </c>
       <c r="B437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C437">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -6626,10 +6599,10 @@
         <v>439</v>
       </c>
       <c r="B438">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C438">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -6637,10 +6610,10 @@
         <v>440</v>
       </c>
       <c r="B439">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="C439">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -6648,10 +6621,10 @@
         <v>441</v>
       </c>
       <c r="B440">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C440">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -6659,10 +6632,10 @@
         <v>442</v>
       </c>
       <c r="B441">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C441">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -6673,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="C442">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -6681,10 +6654,10 @@
         <v>444</v>
       </c>
       <c r="B443">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C443">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -6692,10 +6665,10 @@
         <v>445</v>
       </c>
       <c r="B444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C444">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -6703,10 +6676,10 @@
         <v>446</v>
       </c>
       <c r="B445">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C445">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -6714,10 +6687,10 @@
         <v>447</v>
       </c>
       <c r="B446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C446">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -6725,10 +6698,10 @@
         <v>448</v>
       </c>
       <c r="B447">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C447">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -6736,10 +6709,10 @@
         <v>449</v>
       </c>
       <c r="B448">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="C448">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -6747,10 +6720,10 @@
         <v>450</v>
       </c>
       <c r="B449">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C449">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -6758,10 +6731,10 @@
         <v>451</v>
       </c>
       <c r="B450">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="C450">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -6769,10 +6742,10 @@
         <v>452</v>
       </c>
       <c r="B451">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C451">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -6780,10 +6753,10 @@
         <v>453</v>
       </c>
       <c r="B452">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C452">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -6791,10 +6764,10 @@
         <v>454</v>
       </c>
       <c r="B453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C453">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -6802,10 +6775,10 @@
         <v>455</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C454">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -6813,10 +6786,10 @@
         <v>456</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C455">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -6824,10 +6797,10 @@
         <v>457</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C456">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -6835,10 +6808,10 @@
         <v>458</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C457">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -6846,10 +6819,10 @@
         <v>459</v>
       </c>
       <c r="B458">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C458">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -6857,10 +6830,10 @@
         <v>460</v>
       </c>
       <c r="B459">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C459">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -6868,10 +6841,10 @@
         <v>461</v>
       </c>
       <c r="B460">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C460">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -6879,10 +6852,10 @@
         <v>462</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C461">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -6890,10 +6863,10 @@
         <v>463</v>
       </c>
       <c r="B462">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C462">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -6901,10 +6874,10 @@
         <v>464</v>
       </c>
       <c r="B463">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C463">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -6912,10 +6885,10 @@
         <v>465</v>
       </c>
       <c r="B464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C464">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -6926,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="C465">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -6937,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="C466">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -6948,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="C467">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -6956,109 +6929,10 @@
         <v>469</v>
       </c>
       <c r="B468">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C468">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3">
-      <c r="A469" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B469">
-        <v>0.4</v>
-      </c>
-      <c r="C469">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3">
-      <c r="A470" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B470">
-        <v>0.4</v>
-      </c>
-      <c r="C470">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3">
-      <c r="A471" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B471">
-        <v>0</v>
-      </c>
-      <c r="C471">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3">
-      <c r="A472" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B472">
-        <v>0</v>
-      </c>
-      <c r="C472">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3">
-      <c r="A473" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B473">
-        <v>0</v>
-      </c>
-      <c r="C473">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3">
-      <c r="A474" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B474">
-        <v>0.4</v>
-      </c>
-      <c r="C474">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3">
-      <c r="A475" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B475">
-        <v>0</v>
-      </c>
-      <c r="C475">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3">
-      <c r="A476" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B476">
-        <v>0</v>
-      </c>
-      <c r="C476">
         <v>60</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3">
-      <c r="A477" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B477">
-        <v>0</v>
-      </c>
-      <c r="C477">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/mid_outputs/match_probable_players.xlsx
+++ b/mid_outputs/match_probable_players.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="465">
   <si>
     <t>starter</t>
   </si>
@@ -25,6 +25,144 @@
     <t>player</t>
   </si>
   <si>
+    <t>Berisha</t>
+  </si>
+  <si>
+    <t>Ebuehi</t>
+  </si>
+  <si>
+    <t>Ismajli</t>
+  </si>
+  <si>
+    <t>Luperto</t>
+  </si>
+  <si>
+    <t>Bastoni S.</t>
+  </si>
+  <si>
+    <t>Ranocchia F.</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>Maleh</t>
+  </si>
+  <si>
+    <t>Baldanzi</t>
+  </si>
+  <si>
+    <t>Caputo</t>
+  </si>
+  <si>
+    <t>Cancellieri</t>
+  </si>
+  <si>
+    <t>Perisan</t>
+  </si>
+  <si>
+    <t>Caprile</t>
+  </si>
+  <si>
+    <t>Walukiewicz</t>
+  </si>
+  <si>
+    <t>Guarino</t>
+  </si>
+  <si>
+    <t>Cacace</t>
+  </si>
+  <si>
+    <t>Kovalenko</t>
+  </si>
+  <si>
+    <t>Fazzini</t>
+  </si>
+  <si>
+    <t>Grassi</t>
+  </si>
+  <si>
+    <t>Gyasi</t>
+  </si>
+  <si>
+    <t>Shpendi S.</t>
+  </si>
+  <si>
+    <t>Destro</t>
+  </si>
+  <si>
+    <t>Cambiaghi</t>
+  </si>
+  <si>
+    <t>Silvestri</t>
+  </si>
+  <si>
+    <t>Perez N.</t>
+  </si>
+  <si>
+    <t>Bijol</t>
+  </si>
+  <si>
+    <t>Kabasele</t>
+  </si>
+  <si>
+    <t>Ebosele</t>
+  </si>
+  <si>
+    <t>Pereyra</t>
+  </si>
+  <si>
+    <t>Walace</t>
+  </si>
+  <si>
+    <t>Samardzic</t>
+  </si>
+  <si>
+    <t>Kamara H.</t>
+  </si>
+  <si>
+    <t>Lucca</t>
+  </si>
+  <si>
+    <t>Thauvin</t>
+  </si>
+  <si>
+    <t>Okoye</t>
+  </si>
+  <si>
+    <t>Ferreira J.</t>
+  </si>
+  <si>
+    <t>Zemura</t>
+  </si>
+  <si>
+    <t>Kristensen T.</t>
+  </si>
+  <si>
+    <t>Guessand A.</t>
+  </si>
+  <si>
+    <t>Camara E.</t>
+  </si>
+  <si>
+    <t>Zarraga</t>
+  </si>
+  <si>
+    <t>Payero</t>
+  </si>
+  <si>
+    <t>Quina</t>
+  </si>
+  <si>
+    <t>Pafundi</t>
+  </si>
+  <si>
+    <t>Ake' M.</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
     <t>Falcone</t>
   </si>
   <si>
@@ -46,7 +184,7 @@
     <t>Ramadani</t>
   </si>
   <si>
-    <t>Blin</t>
+    <t>Kaba</t>
   </si>
   <si>
     <t>Almqvist</t>
@@ -70,18 +208,18 @@
     <t>Touba</t>
   </si>
   <si>
+    <t>Smajlovic</t>
+  </si>
+  <si>
+    <t>Gonzalez J.</t>
+  </si>
+  <si>
+    <t>Berisha M.</t>
+  </si>
+  <si>
     <t>Oudin</t>
   </si>
   <si>
-    <t>Gonzalez J.</t>
-  </si>
-  <si>
-    <t>Berisha M.</t>
-  </si>
-  <si>
-    <t>Listkowski</t>
-  </si>
-  <si>
     <t>Piccoli</t>
   </si>
   <si>
@@ -91,7 +229,1045 @@
     <t>Corfitzen</t>
   </si>
   <si>
-    <t>Burnete</t>
+    <t>Consigli</t>
+  </si>
+  <si>
+    <t>Toljan</t>
+  </si>
+  <si>
+    <t>Erlic</t>
+  </si>
+  <si>
+    <t>Tressoldi</t>
+  </si>
+  <si>
+    <t>Vina</t>
+  </si>
+  <si>
+    <t>Boloca</t>
+  </si>
+  <si>
+    <t>Racic</t>
+  </si>
+  <si>
+    <t>Berardi</t>
+  </si>
+  <si>
+    <t>Bajrami</t>
+  </si>
+  <si>
+    <t>Lauriente'</t>
+  </si>
+  <si>
+    <t>Pinamonti</t>
+  </si>
+  <si>
+    <t>Cragno</t>
+  </si>
+  <si>
+    <t>Pegolo</t>
+  </si>
+  <si>
+    <t>Ferrari G.</t>
+  </si>
+  <si>
+    <t>Missori</t>
+  </si>
+  <si>
+    <t>Pedersen</t>
+  </si>
+  <si>
+    <t>Obiang</t>
+  </si>
+  <si>
+    <t>Thorstvedt</t>
+  </si>
+  <si>
+    <t>Lipani</t>
+  </si>
+  <si>
+    <t>Volpato</t>
+  </si>
+  <si>
+    <t>Castillejo</t>
+  </si>
+  <si>
+    <t>Ceide</t>
+  </si>
+  <si>
+    <t>Defrel</t>
+  </si>
+  <si>
+    <t>Mulattieri</t>
+  </si>
+  <si>
+    <t>Sommer</t>
+  </si>
+  <si>
+    <t>Darmian</t>
+  </si>
+  <si>
+    <t>Acerbi</t>
+  </si>
+  <si>
+    <t>Bastoni</t>
+  </si>
+  <si>
+    <t>Dumfries</t>
+  </si>
+  <si>
+    <t>Barella</t>
+  </si>
+  <si>
+    <t>Calhanoglu</t>
+  </si>
+  <si>
+    <t>Mkhitaryan</t>
+  </si>
+  <si>
+    <t>Dimarco</t>
+  </si>
+  <si>
+    <t>Thuram</t>
+  </si>
+  <si>
+    <t>Martinez L.</t>
+  </si>
+  <si>
+    <t>Audero</t>
+  </si>
+  <si>
+    <t>Di Gennaro</t>
+  </si>
+  <si>
+    <t>Pavard</t>
+  </si>
+  <si>
+    <t>De Vrij</t>
+  </si>
+  <si>
+    <t>Bisseck</t>
+  </si>
+  <si>
+    <t>Cuadrado</t>
+  </si>
+  <si>
+    <t>Carlos Augusto</t>
+  </si>
+  <si>
+    <t>Asllani</t>
+  </si>
+  <si>
+    <t>Frattesi</t>
+  </si>
+  <si>
+    <t>Agoume</t>
+  </si>
+  <si>
+    <t>Sensi</t>
+  </si>
+  <si>
+    <t>Klaassen</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Skorupski</t>
+  </si>
+  <si>
+    <t>De Silvestri</t>
+  </si>
+  <si>
+    <t>Beukema</t>
+  </si>
+  <si>
+    <t>Calafiori</t>
+  </si>
+  <si>
+    <t>Lykogiannis</t>
+  </si>
+  <si>
+    <t>Freuler</t>
+  </si>
+  <si>
+    <t>Aebischer</t>
+  </si>
+  <si>
+    <t>Orsolini</t>
+  </si>
+  <si>
+    <t>Ferguson</t>
+  </si>
+  <si>
+    <t>Ndoye</t>
+  </si>
+  <si>
+    <t>Zirkzee</t>
+  </si>
+  <si>
+    <t>Ravaglia F.</t>
+  </si>
+  <si>
+    <t>Bagnolini</t>
+  </si>
+  <si>
+    <t>Corazza</t>
+  </si>
+  <si>
+    <t>Bonifazi</t>
+  </si>
+  <si>
+    <t>Fabbian</t>
+  </si>
+  <si>
+    <t>Moro N.</t>
+  </si>
+  <si>
+    <t>El Azzouzi</t>
+  </si>
+  <si>
+    <t>Urbanski</t>
+  </si>
+  <si>
+    <t>Saelemaekers</t>
+  </si>
+  <si>
+    <t>Karlsson</t>
+  </si>
+  <si>
+    <t>Van Hooijdonk</t>
+  </si>
+  <si>
+    <t>Szczesny</t>
+  </si>
+  <si>
+    <t>Danilo</t>
+  </si>
+  <si>
+    <t>Bremer</t>
+  </si>
+  <si>
+    <t>Gatti</t>
+  </si>
+  <si>
+    <t>Mckennie</t>
+  </si>
+  <si>
+    <t>Fagioli</t>
+  </si>
+  <si>
+    <t>Locatelli</t>
+  </si>
+  <si>
+    <t>Rabiot</t>
+  </si>
+  <si>
+    <t>Cambiaso</t>
+  </si>
+  <si>
+    <t>Milik</t>
+  </si>
+  <si>
+    <t>Chiesa</t>
+  </si>
+  <si>
+    <t>Perin</t>
+  </si>
+  <si>
+    <t>Pinsoglio</t>
+  </si>
+  <si>
+    <t>Rugani</t>
+  </si>
+  <si>
+    <t>Huijsen</t>
+  </si>
+  <si>
+    <t>Kostic</t>
+  </si>
+  <si>
+    <t>Weah</t>
+  </si>
+  <si>
+    <t>Miretti</t>
+  </si>
+  <si>
+    <t>Nicolussi Caviglia</t>
+  </si>
+  <si>
+    <t>Iling Junior</t>
+  </si>
+  <si>
+    <t>Yildiz</t>
+  </si>
+  <si>
+    <t>Vlahovic</t>
+  </si>
+  <si>
+    <t>Kean</t>
+  </si>
+  <si>
+    <t>Milinkovic-Savic V.</t>
+  </si>
+  <si>
+    <t>Tameze</t>
+  </si>
+  <si>
+    <t>Schuurs</t>
+  </si>
+  <si>
+    <t>Rodriguez R.</t>
+  </si>
+  <si>
+    <t>Bellanova</t>
+  </si>
+  <si>
+    <t>Ilic</t>
+  </si>
+  <si>
+    <t>Ricci S.</t>
+  </si>
+  <si>
+    <t>Lazaro</t>
+  </si>
+  <si>
+    <t>Vlasic</t>
+  </si>
+  <si>
+    <t>Radonjic</t>
+  </si>
+  <si>
+    <t>Zapata D.</t>
+  </si>
+  <si>
+    <t>Gemello</t>
+  </si>
+  <si>
+    <t>N'guessan</t>
+  </si>
+  <si>
+    <t>Zima</t>
+  </si>
+  <si>
+    <t>Vojvoda</t>
+  </si>
+  <si>
+    <t>Gineitis</t>
+  </si>
+  <si>
+    <t>Linetty</t>
+  </si>
+  <si>
+    <t>Seck</t>
+  </si>
+  <si>
+    <t>Sanabria</t>
+  </si>
+  <si>
+    <t>Karamoh</t>
+  </si>
+  <si>
+    <t>Pellegri</t>
+  </si>
+  <si>
+    <t>Martinez Jo.</t>
+  </si>
+  <si>
+    <t>Bani</t>
+  </si>
+  <si>
+    <t>Dragusin</t>
+  </si>
+  <si>
+    <t>Vasquez</t>
+  </si>
+  <si>
+    <t>De Winter</t>
+  </si>
+  <si>
+    <t>Thorsby</t>
+  </si>
+  <si>
+    <t>Malinovskyi</t>
+  </si>
+  <si>
+    <t>Frendrup</t>
+  </si>
+  <si>
+    <t>Matturro</t>
+  </si>
+  <si>
+    <t>Gudmundsson A.</t>
+  </si>
+  <si>
+    <t>Retegui</t>
+  </si>
+  <si>
+    <t>Leali</t>
+  </si>
+  <si>
+    <t>Sommariva</t>
+  </si>
+  <si>
+    <t>Hefti</t>
+  </si>
+  <si>
+    <t>Haps</t>
+  </si>
+  <si>
+    <t>Vogliacco</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Sabelli</t>
+  </si>
+  <si>
+    <t>Messias</t>
+  </si>
+  <si>
+    <t>Jagiello</t>
+  </si>
+  <si>
+    <t>Kutlu</t>
+  </si>
+  <si>
+    <t>Galdames</t>
+  </si>
+  <si>
+    <t>Puscas</t>
+  </si>
+  <si>
+    <t>Maignan</t>
+  </si>
+  <si>
+    <t>Calabria</t>
+  </si>
+  <si>
+    <t>Thiaw</t>
+  </si>
+  <si>
+    <t>Tomori</t>
+  </si>
+  <si>
+    <t>Hernandez T.</t>
+  </si>
+  <si>
+    <t>Musah</t>
+  </si>
+  <si>
+    <t>Adli</t>
+  </si>
+  <si>
+    <t>Reijnders</t>
+  </si>
+  <si>
+    <t>Pulisic</t>
+  </si>
+  <si>
+    <t>Giroud</t>
+  </si>
+  <si>
+    <t>Rafael Leao</t>
+  </si>
+  <si>
+    <t>Sportiello</t>
+  </si>
+  <si>
+    <t>Mirante</t>
+  </si>
+  <si>
+    <t>Florenzi</t>
+  </si>
+  <si>
+    <t>Pellegrino</t>
+  </si>
+  <si>
+    <t>Bartesaghi</t>
+  </si>
+  <si>
+    <t>Kjaer</t>
+  </si>
+  <si>
+    <t>Pobega</t>
+  </si>
+  <si>
+    <t>Romero L.</t>
+  </si>
+  <si>
+    <t>Chukwueze</t>
+  </si>
+  <si>
+    <t>Jovic</t>
+  </si>
+  <si>
+    <t>Okafor</t>
+  </si>
+  <si>
+    <t>Di Gregorio</t>
+  </si>
+  <si>
+    <t>Carboni A.</t>
+  </si>
+  <si>
+    <t>Mari'</t>
+  </si>
+  <si>
+    <t>Caldirola</t>
+  </si>
+  <si>
+    <t>Ciurria</t>
+  </si>
+  <si>
+    <t>Gagliardini</t>
+  </si>
+  <si>
+    <t>Pessina</t>
+  </si>
+  <si>
+    <t>Kyriakopoulos</t>
+  </si>
+  <si>
+    <t>Colpani</t>
+  </si>
+  <si>
+    <t>Mota</t>
+  </si>
+  <si>
+    <t>Colombo</t>
+  </si>
+  <si>
+    <t>Sorrentino A.</t>
+  </si>
+  <si>
+    <t>Gori</t>
+  </si>
+  <si>
+    <t>Birindelli</t>
+  </si>
+  <si>
+    <t>D'ambrosio</t>
+  </si>
+  <si>
+    <t>Carboni F.</t>
+  </si>
+  <si>
+    <t>Pereira P.</t>
+  </si>
+  <si>
+    <t>Izzo</t>
+  </si>
+  <si>
+    <t>Donati</t>
+  </si>
+  <si>
+    <t>Machin</t>
+  </si>
+  <si>
+    <t>Bondo</t>
+  </si>
+  <si>
+    <t>Carboni V.</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>Akpa Akpro</t>
+  </si>
+  <si>
+    <t>Vignato S.</t>
+  </si>
+  <si>
+    <t>Maric</t>
+  </si>
+  <si>
+    <t>Ochoa</t>
+  </si>
+  <si>
+    <t>Daniliuc</t>
+  </si>
+  <si>
+    <t>Gyomber</t>
+  </si>
+  <si>
+    <t>Lovato</t>
+  </si>
+  <si>
+    <t>Mazzocchi</t>
+  </si>
+  <si>
+    <t>Legowski</t>
+  </si>
+  <si>
+    <t>Maggiore</t>
+  </si>
+  <si>
+    <t>Bradaric</t>
+  </si>
+  <si>
+    <t>Kastanos</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Jovane</t>
+  </si>
+  <si>
+    <t>Costil</t>
+  </si>
+  <si>
+    <t>Fazio</t>
+  </si>
+  <si>
+    <t>Sambia</t>
+  </si>
+  <si>
+    <t>Pirola</t>
+  </si>
+  <si>
+    <t>Bronn</t>
+  </si>
+  <si>
+    <t>Tchaouna</t>
+  </si>
+  <si>
+    <t>Sfait</t>
+  </si>
+  <si>
+    <t>Bohinen</t>
+  </si>
+  <si>
+    <t>Candreva</t>
+  </si>
+  <si>
+    <t>Martegani</t>
+  </si>
+  <si>
+    <t>Botheim</t>
+  </si>
+  <si>
+    <t>Simy</t>
+  </si>
+  <si>
+    <t>Stewart</t>
+  </si>
+  <si>
+    <t>Turati</t>
+  </si>
+  <si>
+    <t>Oyono</t>
+  </si>
+  <si>
+    <t>Okoli</t>
+  </si>
+  <si>
+    <t>Monterisi</t>
+  </si>
+  <si>
+    <t>Marchizza</t>
+  </si>
+  <si>
+    <t>Mazzitelli</t>
+  </si>
+  <si>
+    <t>Barrenechea</t>
+  </si>
+  <si>
+    <t>Brescianini</t>
+  </si>
+  <si>
+    <t>Soule'</t>
+  </si>
+  <si>
+    <t>Cheddira</t>
+  </si>
+  <si>
+    <t>Baez</t>
+  </si>
+  <si>
+    <t>Cerofolini</t>
+  </si>
+  <si>
+    <t>Frattali</t>
+  </si>
+  <si>
+    <t>Mateus Lusuardi</t>
+  </si>
+  <si>
+    <t>Bourabia</t>
+  </si>
+  <si>
+    <t>Reinier</t>
+  </si>
+  <si>
+    <t>Ibrahimovic A.</t>
+  </si>
+  <si>
+    <t>Lulic K.</t>
+  </si>
+  <si>
+    <t>Caso</t>
+  </si>
+  <si>
+    <t>Bidaoui</t>
+  </si>
+  <si>
+    <t>Kvernadze</t>
+  </si>
+  <si>
+    <t>Cuni</t>
+  </si>
+  <si>
+    <t>Montipo'</t>
+  </si>
+  <si>
+    <t>Faraoni</t>
+  </si>
+  <si>
+    <t>Magnani</t>
+  </si>
+  <si>
+    <t>Coppola D.</t>
+  </si>
+  <si>
+    <t>Terracciano F.</t>
+  </si>
+  <si>
+    <t>Suslov</t>
+  </si>
+  <si>
+    <t>Folorunsho</t>
+  </si>
+  <si>
+    <t>Lazovic</t>
+  </si>
+  <si>
+    <t>Duda</t>
+  </si>
+  <si>
+    <t>Ngonge</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Perilli</t>
+  </si>
+  <si>
+    <t>Berardi A.</t>
+  </si>
+  <si>
+    <t>Tchatchoua</t>
+  </si>
+  <si>
+    <t>Saponara</t>
+  </si>
+  <si>
+    <t>Charlys</t>
+  </si>
+  <si>
+    <t>Hongla</t>
+  </si>
+  <si>
+    <t>Joselito</t>
+  </si>
+  <si>
+    <t>Serdar</t>
+  </si>
+  <si>
+    <t>Bonazzoli</t>
+  </si>
+  <si>
+    <t>Djuric</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Provedel</t>
+  </si>
+  <si>
+    <t>Hysaj</t>
+  </si>
+  <si>
+    <t>Casale</t>
+  </si>
+  <si>
+    <t>Romagnoli</t>
+  </si>
+  <si>
+    <t>Marusic</t>
+  </si>
+  <si>
+    <t>Kamada</t>
+  </si>
+  <si>
+    <t>Cataldi</t>
+  </si>
+  <si>
+    <t>Luis Alberto</t>
+  </si>
+  <si>
+    <t>Felipe Anderson</t>
+  </si>
+  <si>
+    <t>Immobile</t>
+  </si>
+  <si>
+    <t>Zaccagni</t>
+  </si>
+  <si>
+    <t>Sepe</t>
+  </si>
+  <si>
+    <t>Mandas</t>
+  </si>
+  <si>
+    <t>Patric</t>
+  </si>
+  <si>
+    <t>Pellegrini Lu.</t>
+  </si>
+  <si>
+    <t>Lazzari</t>
+  </si>
+  <si>
+    <t>Gila</t>
+  </si>
+  <si>
+    <t>Vecino</t>
+  </si>
+  <si>
+    <t>Rovella</t>
+  </si>
+  <si>
+    <t>Guendouzi</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Castellanos</t>
+  </si>
+  <si>
+    <t>Isaksen</t>
+  </si>
+  <si>
+    <t>Musso</t>
+  </si>
+  <si>
+    <t>Toloi</t>
+  </si>
+  <si>
+    <t>Scalvini</t>
+  </si>
+  <si>
+    <t>Kolasinac</t>
+  </si>
+  <si>
+    <t>Zappacosta</t>
+  </si>
+  <si>
+    <t>De Roon</t>
+  </si>
+  <si>
+    <t>Ederson D.s.</t>
+  </si>
+  <si>
+    <t>Ruggeri</t>
+  </si>
+  <si>
+    <t>Koopmeiners</t>
+  </si>
+  <si>
+    <t>Lookman</t>
+  </si>
+  <si>
+    <t>De Ketelaere</t>
+  </si>
+  <si>
+    <t>Carnesecchi</t>
+  </si>
+  <si>
+    <t>Rossi F.</t>
+  </si>
+  <si>
+    <t>Djimsiti</t>
+  </si>
+  <si>
+    <t>Zortea</t>
+  </si>
+  <si>
+    <t>Holm</t>
+  </si>
+  <si>
+    <t>Hateboer</t>
+  </si>
+  <si>
+    <t>Palomino</t>
+  </si>
+  <si>
+    <t>Bakker</t>
+  </si>
+  <si>
+    <t>Adopo</t>
+  </si>
+  <si>
+    <t>Miranchuk</t>
+  </si>
+  <si>
+    <t>Pasalic</t>
+  </si>
+  <si>
+    <t>Scamacca</t>
+  </si>
+  <si>
+    <t>Muriel</t>
+  </si>
+  <si>
+    <t>Scuffet</t>
+  </si>
+  <si>
+    <t>Wieteska</t>
+  </si>
+  <si>
+    <t>Dossena</t>
+  </si>
+  <si>
+    <t>Hatzidiakos</t>
+  </si>
+  <si>
+    <t>Zappa</t>
+  </si>
+  <si>
+    <t>Nandez</t>
+  </si>
+  <si>
+    <t>Makoumbou</t>
+  </si>
+  <si>
+    <t>Deiola</t>
+  </si>
+  <si>
+    <t>Augello</t>
+  </si>
+  <si>
+    <t>Oristanio</t>
+  </si>
+  <si>
+    <t>Petagna</t>
+  </si>
+  <si>
+    <t>Radunovic</t>
+  </si>
+  <si>
+    <t>Aresti</t>
+  </si>
+  <si>
+    <t>Goldaniga</t>
+  </si>
+  <si>
+    <t>Obert</t>
+  </si>
+  <si>
+    <t>Azzi</t>
+  </si>
+  <si>
+    <t>Di Pardo</t>
+  </si>
+  <si>
+    <t>Prati</t>
+  </si>
+  <si>
+    <t>Viola</t>
+  </si>
+  <si>
+    <t>Jankto</t>
+  </si>
+  <si>
+    <t>Sulemana I.</t>
+  </si>
+  <si>
+    <t>Mancosu</t>
+  </si>
+  <si>
+    <t>Luvumbo</t>
+  </si>
+  <si>
+    <t>Pavoletti</t>
+  </si>
+  <si>
+    <t>Shomurodov</t>
+  </si>
+  <si>
+    <t>Rui Patricio</t>
+  </si>
+  <si>
+    <t>Mancini</t>
+  </si>
+  <si>
+    <t>Cristante</t>
+  </si>
+  <si>
+    <t>N'dicka</t>
+  </si>
+  <si>
+    <t>Kristensen</t>
+  </si>
+  <si>
+    <t>Bove</t>
+  </si>
+  <si>
+    <t>Paredes</t>
+  </si>
+  <si>
+    <t>Pellegrini Lo.</t>
+  </si>
+  <si>
+    <t>Spinazzola</t>
+  </si>
+  <si>
+    <t>Dybala</t>
+  </si>
+  <si>
+    <t>Lukaku</t>
+  </si>
+  <si>
+    <t>Svilar</t>
+  </si>
+  <si>
+    <t>Boer</t>
+  </si>
+  <si>
+    <t>Karsdorp</t>
+  </si>
+  <si>
+    <t>Celik</t>
+  </si>
+  <si>
+    <t>Zalewski</t>
+  </si>
+  <si>
+    <t>Pagano</t>
+  </si>
+  <si>
+    <t>Aouar</t>
+  </si>
+  <si>
+    <t>Pisilli</t>
+  </si>
+  <si>
+    <t>El Shaarawy</t>
+  </si>
+  <si>
+    <t>Belotti</t>
+  </si>
+  <si>
+    <t>Azmoun</t>
   </si>
   <si>
     <t>Meret</t>
@@ -160,1125 +1336,6 @@
     <t>Simeone</t>
   </si>
   <si>
-    <t>Maignan</t>
-  </si>
-  <si>
-    <t>Calabria</t>
-  </si>
-  <si>
-    <t>Kjaer</t>
-  </si>
-  <si>
-    <t>Tomori</t>
-  </si>
-  <si>
-    <t>Hernandez T.</t>
-  </si>
-  <si>
-    <t>Loftus-Cheek</t>
-  </si>
-  <si>
-    <t>Adli</t>
-  </si>
-  <si>
-    <t>Reijnders</t>
-  </si>
-  <si>
-    <t>Pulisic</t>
-  </si>
-  <si>
-    <t>Giroud</t>
-  </si>
-  <si>
-    <t>Rafael Leao</t>
-  </si>
-  <si>
-    <t>Sportiello</t>
-  </si>
-  <si>
-    <t>Mirante</t>
-  </si>
-  <si>
-    <t>Florenzi</t>
-  </si>
-  <si>
-    <t>Pellegrino</t>
-  </si>
-  <si>
-    <t>Bartesaghi</t>
-  </si>
-  <si>
-    <t>Thiaw</t>
-  </si>
-  <si>
-    <t>Musah</t>
-  </si>
-  <si>
-    <t>Pobega</t>
-  </si>
-  <si>
-    <t>Romero L.</t>
-  </si>
-  <si>
-    <t>Chukwueze</t>
-  </si>
-  <si>
-    <t>Jovic</t>
-  </si>
-  <si>
-    <t>Okafor</t>
-  </si>
-  <si>
-    <t>Provedel</t>
-  </si>
-  <si>
-    <t>Hysaj</t>
-  </si>
-  <si>
-    <t>Casale</t>
-  </si>
-  <si>
-    <t>Romagnoli</t>
-  </si>
-  <si>
-    <t>Pellegrini Lu.</t>
-  </si>
-  <si>
-    <t>Kamada</t>
-  </si>
-  <si>
-    <t>Cataldi</t>
-  </si>
-  <si>
-    <t>Luis Alberto</t>
-  </si>
-  <si>
-    <t>Felipe Anderson</t>
-  </si>
-  <si>
-    <t>Immobile</t>
-  </si>
-  <si>
-    <t>Zaccagni</t>
-  </si>
-  <si>
-    <t>Sepe</t>
-  </si>
-  <si>
-    <t>Mandas</t>
-  </si>
-  <si>
-    <t>Patric</t>
-  </si>
-  <si>
-    <t>Lazzari</t>
-  </si>
-  <si>
-    <t>Gila</t>
-  </si>
-  <si>
-    <t>Marusic</t>
-  </si>
-  <si>
-    <t>Vecino</t>
-  </si>
-  <si>
-    <t>Rovella</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>Guendouzi</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Castellanos</t>
-  </si>
-  <si>
-    <t>Isaksen</t>
-  </si>
-  <si>
-    <t>Ochoa</t>
-  </si>
-  <si>
-    <t>Daniliuc</t>
-  </si>
-  <si>
-    <t>Gyomber</t>
-  </si>
-  <si>
-    <t>Pirola</t>
-  </si>
-  <si>
-    <t>Mazzocchi</t>
-  </si>
-  <si>
-    <t>Legowski</t>
-  </si>
-  <si>
-    <t>Maggiore</t>
-  </si>
-  <si>
-    <t>Bradaric</t>
-  </si>
-  <si>
-    <t>Kastanos</t>
-  </si>
-  <si>
-    <t>Martegani</t>
-  </si>
-  <si>
-    <t>Jovane</t>
-  </si>
-  <si>
-    <t>Costil</t>
-  </si>
-  <si>
-    <t>Fiorillo</t>
-  </si>
-  <si>
-    <t>Fazio</t>
-  </si>
-  <si>
-    <t>Sambia</t>
-  </si>
-  <si>
-    <t>Lovato</t>
-  </si>
-  <si>
-    <t>Bronn</t>
-  </si>
-  <si>
-    <t>Tchaouna</t>
-  </si>
-  <si>
-    <t>Sfait</t>
-  </si>
-  <si>
-    <t>Bohinen</t>
-  </si>
-  <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>Botheim</t>
-  </si>
-  <si>
-    <t>Stewart</t>
-  </si>
-  <si>
-    <t>Sommer</t>
-  </si>
-  <si>
-    <t>Pavard</t>
-  </si>
-  <si>
-    <t>De Vrij</t>
-  </si>
-  <si>
-    <t>Acerbi</t>
-  </si>
-  <si>
-    <t>Dumfries</t>
-  </si>
-  <si>
-    <t>Barella</t>
-  </si>
-  <si>
-    <t>Calhanoglu</t>
-  </si>
-  <si>
-    <t>Mkhitaryan</t>
-  </si>
-  <si>
-    <t>Carlos Augusto</t>
-  </si>
-  <si>
-    <t>Thuram</t>
-  </si>
-  <si>
-    <t>Sanchez</t>
-  </si>
-  <si>
-    <t>Audero</t>
-  </si>
-  <si>
-    <t>Di Gennaro</t>
-  </si>
-  <si>
-    <t>Darmian</t>
-  </si>
-  <si>
-    <t>Bastoni</t>
-  </si>
-  <si>
-    <t>Bisseck</t>
-  </si>
-  <si>
-    <t>Cuadrado</t>
-  </si>
-  <si>
-    <t>Dimarco</t>
-  </si>
-  <si>
-    <t>Asllani</t>
-  </si>
-  <si>
-    <t>Agoume</t>
-  </si>
-  <si>
-    <t>Klaassen</t>
-  </si>
-  <si>
-    <t>Martinez L.</t>
-  </si>
-  <si>
-    <t>Skorupski</t>
-  </si>
-  <si>
-    <t>De Silvestri</t>
-  </si>
-  <si>
-    <t>Beukema</t>
-  </si>
-  <si>
-    <t>Calafiori</t>
-  </si>
-  <si>
-    <t>Kristiansen</t>
-  </si>
-  <si>
-    <t>Moro N.</t>
-  </si>
-  <si>
-    <t>Freuler</t>
-  </si>
-  <si>
-    <t>Ndoye</t>
-  </si>
-  <si>
-    <t>Ferguson</t>
-  </si>
-  <si>
-    <t>Karlsson</t>
-  </si>
-  <si>
-    <t>Zirkzee</t>
-  </si>
-  <si>
-    <t>Ravaglia F.</t>
-  </si>
-  <si>
-    <t>Bagnolini</t>
-  </si>
-  <si>
-    <t>Bonifazi</t>
-  </si>
-  <si>
-    <t>Corazza</t>
-  </si>
-  <si>
-    <t>Lykogiannis</t>
-  </si>
-  <si>
-    <t>Fabbian</t>
-  </si>
-  <si>
-    <t>Aebischer</t>
-  </si>
-  <si>
-    <t>El Azzouzi</t>
-  </si>
-  <si>
-    <t>Urbanski</t>
-  </si>
-  <si>
-    <t>Orsolini</t>
-  </si>
-  <si>
-    <t>Van Hooijdonk</t>
-  </si>
-  <si>
-    <t>Berisha</t>
-  </si>
-  <si>
-    <t>Ebuehi</t>
-  </si>
-  <si>
-    <t>Walukiewicz</t>
-  </si>
-  <si>
-    <t>Luperto</t>
-  </si>
-  <si>
-    <t>Cacace</t>
-  </si>
-  <si>
-    <t>Fazzini</t>
-  </si>
-  <si>
-    <t>Grassi</t>
-  </si>
-  <si>
-    <t>Maleh</t>
-  </si>
-  <si>
-    <t>Baldanzi</t>
-  </si>
-  <si>
-    <t>Cancellieri</t>
-  </si>
-  <si>
-    <t>Cambiaghi</t>
-  </si>
-  <si>
-    <t>Perisan</t>
-  </si>
-  <si>
-    <t>Stubljar</t>
-  </si>
-  <si>
-    <t>Bastoni S.</t>
-  </si>
-  <si>
-    <t>Kovalenko</t>
-  </si>
-  <si>
-    <t>Ranocchia F.</t>
-  </si>
-  <si>
-    <t>Marin</t>
-  </si>
-  <si>
-    <t>Gyasi</t>
-  </si>
-  <si>
-    <t>Shpendi S.</t>
-  </si>
-  <si>
-    <t>Destro</t>
-  </si>
-  <si>
-    <t>Caputo</t>
-  </si>
-  <si>
-    <t>Silvestri</t>
-  </si>
-  <si>
-    <t>Perez N.</t>
-  </si>
-  <si>
-    <t>Bijol</t>
-  </si>
-  <si>
-    <t>Kristensen T.</t>
-  </si>
-  <si>
-    <t>Ebosele</t>
-  </si>
-  <si>
-    <t>Samardzic</t>
-  </si>
-  <si>
-    <t>Walace</t>
-  </si>
-  <si>
-    <t>Lovric</t>
-  </si>
-  <si>
-    <t>Kamara H.</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Thauvin</t>
-  </si>
-  <si>
-    <t>Okoye</t>
-  </si>
-  <si>
-    <t>Ferreira J.</t>
-  </si>
-  <si>
-    <t>Zemura</t>
-  </si>
-  <si>
-    <t>Kabasele</t>
-  </si>
-  <si>
-    <t>Guessand A.</t>
-  </si>
-  <si>
-    <t>Camara E.</t>
-  </si>
-  <si>
-    <t>Zarraga</t>
-  </si>
-  <si>
-    <t>Payero</t>
-  </si>
-  <si>
-    <t>Pereyra</t>
-  </si>
-  <si>
-    <t>Quina</t>
-  </si>
-  <si>
-    <t>Pafundi</t>
-  </si>
-  <si>
-    <t>Ake' M.</t>
-  </si>
-  <si>
-    <t>Lucca</t>
-  </si>
-  <si>
-    <t>Martinez Jo.</t>
-  </si>
-  <si>
-    <t>Bani</t>
-  </si>
-  <si>
-    <t>Dragusin</t>
-  </si>
-  <si>
-    <t>Vasquez</t>
-  </si>
-  <si>
-    <t>Sabelli</t>
-  </si>
-  <si>
-    <t>Thorsby</t>
-  </si>
-  <si>
-    <t>Kutlu</t>
-  </si>
-  <si>
-    <t>Frendrup</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Gudmundsson A.</t>
-  </si>
-  <si>
-    <t>Retegui</t>
-  </si>
-  <si>
-    <t>Leali</t>
-  </si>
-  <si>
-    <t>Sommariva</t>
-  </si>
-  <si>
-    <t>Hefti</t>
-  </si>
-  <si>
-    <t>Haps</t>
-  </si>
-  <si>
-    <t>De Winter</t>
-  </si>
-  <si>
-    <t>Vogliacco</t>
-  </si>
-  <si>
-    <t>Matturro</t>
-  </si>
-  <si>
-    <t>Messias</t>
-  </si>
-  <si>
-    <t>Jagiello</t>
-  </si>
-  <si>
-    <t>Malinovskyi</t>
-  </si>
-  <si>
-    <t>Galdames</t>
-  </si>
-  <si>
-    <t>Puscas</t>
-  </si>
-  <si>
-    <t>Ekuban</t>
-  </si>
-  <si>
-    <t>Musso</t>
-  </si>
-  <si>
-    <t>Toloi</t>
-  </si>
-  <si>
-    <t>Scalvini</t>
-  </si>
-  <si>
-    <t>Kolasinac</t>
-  </si>
-  <si>
-    <t>Zappacosta</t>
-  </si>
-  <si>
-    <t>De Roon</t>
-  </si>
-  <si>
-    <t>Ederson D.s.</t>
-  </si>
-  <si>
-    <t>Ruggeri</t>
-  </si>
-  <si>
-    <t>Koopmeiners</t>
-  </si>
-  <si>
-    <t>Pasalic</t>
-  </si>
-  <si>
-    <t>Lookman</t>
-  </si>
-  <si>
-    <t>Carnesecchi</t>
-  </si>
-  <si>
-    <t>Rossi F.</t>
-  </si>
-  <si>
-    <t>Djimsiti</t>
-  </si>
-  <si>
-    <t>Zortea</t>
-  </si>
-  <si>
-    <t>Holm</t>
-  </si>
-  <si>
-    <t>Hateboer</t>
-  </si>
-  <si>
-    <t>Palomino</t>
-  </si>
-  <si>
-    <t>Bakker</t>
-  </si>
-  <si>
-    <t>Adopo</t>
-  </si>
-  <si>
-    <t>Miranchuk</t>
-  </si>
-  <si>
-    <t>De Ketelaere</t>
-  </si>
-  <si>
-    <t>Muriel</t>
-  </si>
-  <si>
-    <t>Szczesny</t>
-  </si>
-  <si>
-    <t>Danilo</t>
-  </si>
-  <si>
-    <t>Bremer</t>
-  </si>
-  <si>
-    <t>Gatti</t>
-  </si>
-  <si>
-    <t>Mckennie</t>
-  </si>
-  <si>
-    <t>Fagioli</t>
-  </si>
-  <si>
-    <t>Locatelli</t>
-  </si>
-  <si>
-    <t>Rabiot</t>
-  </si>
-  <si>
-    <t>Kostic</t>
-  </si>
-  <si>
-    <t>Chiesa</t>
-  </si>
-  <si>
-    <t>Vlahovic</t>
-  </si>
-  <si>
-    <t>Perin</t>
-  </si>
-  <si>
-    <t>Pinsoglio</t>
-  </si>
-  <si>
-    <t>Rugani</t>
-  </si>
-  <si>
-    <t>Huijsen</t>
-  </si>
-  <si>
-    <t>Cambiaso</t>
-  </si>
-  <si>
-    <t>Weah</t>
-  </si>
-  <si>
-    <t>Miretti</t>
-  </si>
-  <si>
-    <t>Nicolussi Caviglia</t>
-  </si>
-  <si>
-    <t>Iling Junior</t>
-  </si>
-  <si>
-    <t>Yildiz</t>
-  </si>
-  <si>
-    <t>Kean</t>
-  </si>
-  <si>
-    <t>Milik</t>
-  </si>
-  <si>
-    <t>Rui Patricio</t>
-  </si>
-  <si>
-    <t>Mancini</t>
-  </si>
-  <si>
-    <t>Cristante</t>
-  </si>
-  <si>
-    <t>N'dicka</t>
-  </si>
-  <si>
-    <t>Kristensen</t>
-  </si>
-  <si>
-    <t>Bove</t>
-  </si>
-  <si>
-    <t>Paredes</t>
-  </si>
-  <si>
-    <t>Pellegrini Lo.</t>
-  </si>
-  <si>
-    <t>Zalewski</t>
-  </si>
-  <si>
-    <t>Dybala</t>
-  </si>
-  <si>
-    <t>Lukaku</t>
-  </si>
-  <si>
-    <t>Svilar</t>
-  </si>
-  <si>
-    <t>Boer</t>
-  </si>
-  <si>
-    <t>Karsdorp</t>
-  </si>
-  <si>
-    <t>Celik</t>
-  </si>
-  <si>
-    <t>Spinazzola</t>
-  </si>
-  <si>
-    <t>Pagano</t>
-  </si>
-  <si>
-    <t>Aouar</t>
-  </si>
-  <si>
-    <t>Pisilli</t>
-  </si>
-  <si>
-    <t>El Shaarawy</t>
-  </si>
-  <si>
-    <t>Belotti</t>
-  </si>
-  <si>
-    <t>Azmoun</t>
-  </si>
-  <si>
-    <t>Turati</t>
-  </si>
-  <si>
-    <t>Oyono</t>
-  </si>
-  <si>
-    <t>Okoli</t>
-  </si>
-  <si>
-    <t>Romagnoli S.</t>
-  </si>
-  <si>
-    <t>Marchizza</t>
-  </si>
-  <si>
-    <t>Mazzitelli</t>
-  </si>
-  <si>
-    <t>Barrenechea</t>
-  </si>
-  <si>
-    <t>Brescianini</t>
-  </si>
-  <si>
-    <t>Soule'</t>
-  </si>
-  <si>
-    <t>Cheddira</t>
-  </si>
-  <si>
-    <t>Caso</t>
-  </si>
-  <si>
-    <t>Cerofolini</t>
-  </si>
-  <si>
-    <t>Frattali</t>
-  </si>
-  <si>
-    <t>Monterisi</t>
-  </si>
-  <si>
-    <t>Mateus Lusuardi</t>
-  </si>
-  <si>
-    <t>Garritano</t>
-  </si>
-  <si>
-    <t>Bourabia</t>
-  </si>
-  <si>
-    <t>Reinier</t>
-  </si>
-  <si>
-    <t>Ibrahimovic A.</t>
-  </si>
-  <si>
-    <t>Lulic K.</t>
-  </si>
-  <si>
-    <t>Baez</t>
-  </si>
-  <si>
-    <t>Bidaoui</t>
-  </si>
-  <si>
-    <t>Kvernadze</t>
-  </si>
-  <si>
-    <t>Cuni</t>
-  </si>
-  <si>
-    <t>Consigli</t>
-  </si>
-  <si>
-    <t>Toljan</t>
-  </si>
-  <si>
-    <t>Erlic</t>
-  </si>
-  <si>
-    <t>Tressoldi</t>
-  </si>
-  <si>
-    <t>Vina</t>
-  </si>
-  <si>
-    <t>Boloca</t>
-  </si>
-  <si>
-    <t>Matheus Henrique</t>
-  </si>
-  <si>
-    <t>Berardi</t>
-  </si>
-  <si>
-    <t>Bajrami</t>
-  </si>
-  <si>
-    <t>Lauriente'</t>
-  </si>
-  <si>
-    <t>Pinamonti</t>
-  </si>
-  <si>
-    <t>Cragno</t>
-  </si>
-  <si>
-    <t>Pegolo</t>
-  </si>
-  <si>
-    <t>Ferrari G.</t>
-  </si>
-  <si>
-    <t>Missori</t>
-  </si>
-  <si>
-    <t>Viti</t>
-  </si>
-  <si>
-    <t>Pedersen</t>
-  </si>
-  <si>
-    <t>Obiang</t>
-  </si>
-  <si>
-    <t>Thorstvedt</t>
-  </si>
-  <si>
-    <t>Lipani</t>
-  </si>
-  <si>
-    <t>Volpato</t>
-  </si>
-  <si>
-    <t>Castillejo</t>
-  </si>
-  <si>
-    <t>Racic</t>
-  </si>
-  <si>
-    <t>Ceide</t>
-  </si>
-  <si>
-    <t>Defrel</t>
-  </si>
-  <si>
-    <t>Mulattieri</t>
-  </si>
-  <si>
-    <t>Di Gregorio</t>
-  </si>
-  <si>
-    <t>Izzo</t>
-  </si>
-  <si>
-    <t>Mari'</t>
-  </si>
-  <si>
-    <t>Caldirola</t>
-  </si>
-  <si>
-    <t>Ciurria</t>
-  </si>
-  <si>
-    <t>Gagliardini</t>
-  </si>
-  <si>
-    <t>Pessina</t>
-  </si>
-  <si>
-    <t>Birindelli</t>
-  </si>
-  <si>
-    <t>Colpani</t>
-  </si>
-  <si>
-    <t>Mota</t>
-  </si>
-  <si>
-    <t>Colombo</t>
-  </si>
-  <si>
-    <t>Sorrentino A.</t>
-  </si>
-  <si>
-    <t>Gori</t>
-  </si>
-  <si>
-    <t>Kyriakopoulos</t>
-  </si>
-  <si>
-    <t>D'ambrosio</t>
-  </si>
-  <si>
-    <t>Carboni F.</t>
-  </si>
-  <si>
-    <t>Pereira P.</t>
-  </si>
-  <si>
-    <t>Carboni A.</t>
-  </si>
-  <si>
-    <t>Donati</t>
-  </si>
-  <si>
-    <t>Machin</t>
-  </si>
-  <si>
-    <t>Bondo</t>
-  </si>
-  <si>
-    <t>Carboni V.</t>
-  </si>
-  <si>
-    <t>Gomez</t>
-  </si>
-  <si>
-    <t>Akpa Akpro</t>
-  </si>
-  <si>
-    <t>Vignato S.</t>
-  </si>
-  <si>
-    <t>Maric</t>
-  </si>
-  <si>
-    <t>Milinkovic-Savic V.</t>
-  </si>
-  <si>
-    <t>Schuurs</t>
-  </si>
-  <si>
-    <t>Sazonov</t>
-  </si>
-  <si>
-    <t>Rodriguez R.</t>
-  </si>
-  <si>
-    <t>Bellanova</t>
-  </si>
-  <si>
-    <t>Ilic</t>
-  </si>
-  <si>
-    <t>Ricci S.</t>
-  </si>
-  <si>
-    <t>Lazaro</t>
-  </si>
-  <si>
-    <t>Vlasic</t>
-  </si>
-  <si>
-    <t>Radonjic</t>
-  </si>
-  <si>
-    <t>Zapata D.</t>
-  </si>
-  <si>
-    <t>Gemello</t>
-  </si>
-  <si>
-    <t>N'guessan</t>
-  </si>
-  <si>
-    <t>Soppy</t>
-  </si>
-  <si>
-    <t>Vojvoda</t>
-  </si>
-  <si>
-    <t>Gineitis</t>
-  </si>
-  <si>
-    <t>Tameze</t>
-  </si>
-  <si>
-    <t>Linetty</t>
-  </si>
-  <si>
-    <t>Seck</t>
-  </si>
-  <si>
-    <t>Pellegri</t>
-  </si>
-  <si>
-    <t>Sanabria</t>
-  </si>
-  <si>
-    <t>Karamoh</t>
-  </si>
-  <si>
-    <t>Montipo'</t>
-  </si>
-  <si>
-    <t>Magnani</t>
-  </si>
-  <si>
-    <t>Hien</t>
-  </si>
-  <si>
-    <t>Dawidowicz</t>
-  </si>
-  <si>
-    <t>Faraoni</t>
-  </si>
-  <si>
-    <t>Hongla</t>
-  </si>
-  <si>
-    <t>Folorunsho</t>
-  </si>
-  <si>
-    <t>Lazovic</t>
-  </si>
-  <si>
-    <t>Ngonge</t>
-  </si>
-  <si>
-    <t>Duda</t>
-  </si>
-  <si>
-    <t>Bonazzoli</t>
-  </si>
-  <si>
-    <t>Perilli</t>
-  </si>
-  <si>
-    <t>Berardi A.</t>
-  </si>
-  <si>
-    <t>Coppola D.</t>
-  </si>
-  <si>
-    <t>Amione</t>
-  </si>
-  <si>
-    <t>Terracciano F.</t>
-  </si>
-  <si>
-    <t>Suslov</t>
-  </si>
-  <si>
-    <t>Saponara</t>
-  </si>
-  <si>
-    <t>Charlys</t>
-  </si>
-  <si>
-    <t>Tchatchoua</t>
-  </si>
-  <si>
-    <t>Joselito</t>
-  </si>
-  <si>
-    <t>Serdar</t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
     <t>Terracciano</t>
   </si>
   <si>
@@ -1288,142 +1345,70 @@
     <t>Milenkovic</t>
   </si>
   <si>
+    <t>Martinez Quarta</t>
+  </si>
+  <si>
+    <t>Biraghi</t>
+  </si>
+  <si>
+    <t>Lopez M.</t>
+  </si>
+  <si>
+    <t>Mandragora</t>
+  </si>
+  <si>
+    <t>Gonzalez N.</t>
+  </si>
+  <si>
+    <t>Bonaventura</t>
+  </si>
+  <si>
+    <t>Brekalo</t>
+  </si>
+  <si>
+    <t>Nzola</t>
+  </si>
+  <si>
+    <t>Christensen O.</t>
+  </si>
+  <si>
+    <t>Martinelli T.</t>
+  </si>
+  <si>
     <t>Ranieri L.</t>
   </si>
   <si>
+    <t>Comuzzo</t>
+  </si>
+  <si>
     <t>Parisi</t>
   </si>
   <si>
-    <t>Lopez M.</t>
-  </si>
-  <si>
-    <t>Mandragora</t>
-  </si>
-  <si>
-    <t>Gonzalez N.</t>
-  </si>
-  <si>
-    <t>Bonaventura</t>
+    <t>Infantino</t>
+  </si>
+  <si>
+    <t>Amatucci</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Arthur Melo</t>
+  </si>
+  <si>
+    <t>Ikone'</t>
+  </si>
+  <si>
+    <t>Barak</t>
   </si>
   <si>
     <t>Sottil</t>
   </si>
   <si>
-    <t>Nzola</t>
-  </si>
-  <si>
-    <t>Christensen O.</t>
-  </si>
-  <si>
-    <t>Martinelli T.</t>
-  </si>
-  <si>
-    <t>Martinez Quarta</t>
-  </si>
-  <si>
-    <t>Comuzzo</t>
-  </si>
-  <si>
-    <t>Infantino</t>
-  </si>
-  <si>
-    <t>Amatucci</t>
-  </si>
-  <si>
-    <t>Duncan</t>
-  </si>
-  <si>
-    <t>Arthur Melo</t>
-  </si>
-  <si>
-    <t>Ikone'</t>
-  </si>
-  <si>
-    <t>Barak</t>
-  </si>
-  <si>
     <t>Kouame'</t>
   </si>
   <si>
-    <t>Brekalo</t>
-  </si>
-  <si>
     <t>Beltran L.</t>
-  </si>
-  <si>
-    <t>Radunovic</t>
-  </si>
-  <si>
-    <t>Wieteska</t>
-  </si>
-  <si>
-    <t>Dossena</t>
-  </si>
-  <si>
-    <t>Hatzidiakos</t>
-  </si>
-  <si>
-    <t>Zappa</t>
-  </si>
-  <si>
-    <t>Nandez</t>
-  </si>
-  <si>
-    <t>Makoumbou</t>
-  </si>
-  <si>
-    <t>Sulemana I.</t>
-  </si>
-  <si>
-    <t>Augello</t>
-  </si>
-  <si>
-    <t>Luvumbo</t>
-  </si>
-  <si>
-    <t>Petagna</t>
-  </si>
-  <si>
-    <t>Scuffet</t>
-  </si>
-  <si>
-    <t>Aresti</t>
-  </si>
-  <si>
-    <t>Goldaniga</t>
-  </si>
-  <si>
-    <t>Obert</t>
-  </si>
-  <si>
-    <t>Azzi</t>
-  </si>
-  <si>
-    <t>Di Pardo</t>
-  </si>
-  <si>
-    <t>Prati</t>
-  </si>
-  <si>
-    <t>Viola</t>
-  </si>
-  <si>
-    <t>Deiola</t>
-  </si>
-  <si>
-    <t>Oristanio</t>
-  </si>
-  <si>
-    <t>Jankto</t>
-  </si>
-  <si>
-    <t>Mancosu</t>
-  </si>
-  <si>
-    <t>Pavoletti</t>
-  </si>
-  <si>
-    <t>Shomurodov</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +1766,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C468"/>
+  <dimension ref="A1:C463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1828,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1839,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1847,10 +1832,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1861,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1869,10 +1854,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1880,10 +1865,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1902,10 +1887,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C11">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1913,10 +1898,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C12">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1938,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1946,10 +1931,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1960,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1971,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1979,10 +1964,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1993,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2001,10 +1986,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2023,10 +2008,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C22">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2037,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2045,10 +2030,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2070,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2092,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2100,10 +2085,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2125,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2133,10 +2118,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2144,10 +2129,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="C33">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2158,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2166,10 +2151,10 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2191,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2213,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2232,10 +2217,10 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2246,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2254,7 +2239,7 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="C43">
         <v>60</v>
@@ -2265,10 +2250,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2276,10 +2261,10 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2290,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2298,10 +2283,10 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2309,10 +2294,10 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2353,10 +2338,10 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C52">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2364,10 +2349,10 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C53">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2375,10 +2360,10 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2386,10 +2371,10 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2411,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2419,10 +2404,10 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2433,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2441,7 +2426,7 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>40</v>
@@ -2452,10 +2437,10 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2466,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2477,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2485,10 +2470,10 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2499,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2507,10 +2492,10 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C66">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2518,10 +2503,10 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2532,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2543,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2554,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2565,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2584,10 +2569,10 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="C73">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2595,10 +2580,10 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2609,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2620,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2628,10 +2613,10 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2639,10 +2624,10 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C78">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2650,10 +2635,10 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C79">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2664,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2694,10 +2679,10 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="C83">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2708,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2719,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2727,10 +2712,10 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2738,10 +2723,10 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C87">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2752,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2763,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2771,7 +2756,7 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>60</v>
@@ -2785,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2793,7 +2778,7 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>55</v>
@@ -2807,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2826,10 +2811,10 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="C95">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2837,10 +2822,10 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C96">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2851,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="C97">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2859,10 +2844,10 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C98">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2870,10 +2855,10 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2881,10 +2866,10 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C100">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2895,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2906,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="C102">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2914,10 +2899,10 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="C103">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2958,10 +2943,10 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C107">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2969,7 +2954,7 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C108">
         <v>35</v>
@@ -2980,10 +2965,10 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2991,10 +2976,10 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C110">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3005,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="C111">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3013,10 +2998,10 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C112">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3024,10 +3009,10 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3035,10 +3020,10 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3049,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3060,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3068,10 +3053,10 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C117">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3082,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="C118">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3093,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3101,10 +3086,10 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C120">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3123,10 +3108,10 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C122">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3137,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3145,10 +3130,10 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="C124">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3159,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3170,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3178,10 +3163,10 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="C127">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3189,10 +3174,10 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3203,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3214,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="C130">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3222,10 +3207,10 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C131">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3236,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3247,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="C133">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3255,10 +3240,10 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C134">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3269,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3280,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="C136">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3288,10 +3273,10 @@
         <v>138</v>
       </c>
       <c r="B137">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3299,10 +3284,10 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C138">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3310,10 +3295,10 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3324,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="C140">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3335,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3346,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="C142">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3357,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="C143">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3365,10 +3350,10 @@
         <v>145</v>
       </c>
       <c r="B144">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C144">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3376,10 +3361,10 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C145">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3387,10 +3372,10 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C146">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3398,10 +3383,10 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C147">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3409,10 +3394,10 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C148">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3423,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="C149">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3431,10 +3416,10 @@
         <v>151</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C150">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3445,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3456,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="C152">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3478,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="C154">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3489,7 +3474,7 @@
         <v>0.45</v>
       </c>
       <c r="C155">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3497,10 +3482,10 @@
         <v>157</v>
       </c>
       <c r="B156">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C156">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3508,10 +3493,10 @@
         <v>158</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C157">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3522,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="C158">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3530,10 +3515,10 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C159">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3544,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="C160">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3552,10 +3537,10 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3563,10 +3548,10 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C162">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3577,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3588,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="C164">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3599,7 +3584,7 @@
         <v>1</v>
       </c>
       <c r="C165">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3607,10 +3592,10 @@
         <v>167</v>
       </c>
       <c r="B166">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C166">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3618,10 +3603,10 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C167">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3632,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="C168">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3651,10 +3636,10 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C170">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3662,10 +3647,10 @@
         <v>172</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C171">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3673,10 +3658,10 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C172">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3684,10 +3669,10 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3698,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="C174">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3709,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="C175">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3717,10 +3702,10 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C176">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3728,10 +3713,10 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C177">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3742,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="C178">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3753,7 +3738,7 @@
         <v>0.4</v>
       </c>
       <c r="C179">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3761,10 +3746,10 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C180">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3775,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="C181">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3783,10 +3768,10 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3794,10 +3779,10 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3808,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="C184">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3819,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3827,10 +3812,10 @@
         <v>187</v>
       </c>
       <c r="B186">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C186">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3841,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="C187">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3849,10 +3834,10 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C188">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3871,10 +3856,10 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C190">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3882,10 +3867,10 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C191">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3893,10 +3878,10 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C192">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3904,10 +3889,10 @@
         <v>194</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3915,10 +3900,10 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
       <c r="C194">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3926,10 +3911,10 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C195">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3940,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="C196">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3951,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="C197">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3962,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="C198">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3981,7 +3966,7 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C200">
         <v>50</v>
@@ -3992,7 +3977,7 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C201">
         <v>50</v>
@@ -4003,10 +3988,10 @@
         <v>203</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C202">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4028,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="C204">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4036,10 +4021,10 @@
         <v>206</v>
       </c>
       <c r="B205">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C205">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4047,10 +4032,10 @@
         <v>207</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4061,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="C207">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4069,10 +4054,10 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C208">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4083,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="C209">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4091,10 +4076,10 @@
         <v>211</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C210">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4105,7 +4090,7 @@
         <v>1</v>
       </c>
       <c r="C211">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4116,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="C212">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4127,7 +4112,7 @@
         <v>1</v>
       </c>
       <c r="C213">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4135,10 +4120,10 @@
         <v>215</v>
       </c>
       <c r="B214">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C214">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4146,10 +4131,10 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C215">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4160,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="C216">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4168,10 +4153,10 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4182,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4193,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="C219">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4201,10 +4186,10 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C220">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4215,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="C221">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4226,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="C222">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4234,7 +4219,7 @@
         <v>224</v>
       </c>
       <c r="B223">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C223">
         <v>50</v>
@@ -4248,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="C224">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4259,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="C225">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4267,10 +4252,10 @@
         <v>227</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C226">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4281,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="C227">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4292,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="C228">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4300,10 +4285,10 @@
         <v>230</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4311,10 +4296,10 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C230">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4336,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="C232">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4347,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="C233">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4366,10 +4351,10 @@
         <v>236</v>
       </c>
       <c r="B235">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C235">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4377,10 +4362,10 @@
         <v>237</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C236">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4388,10 +4373,10 @@
         <v>238</v>
       </c>
       <c r="B237">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C237">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4402,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="C238">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4410,10 +4395,10 @@
         <v>240</v>
       </c>
       <c r="B239">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C239">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4421,10 +4406,10 @@
         <v>241</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4435,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="C241">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4443,10 +4428,10 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4454,10 +4439,10 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C243">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4468,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="C244">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4476,10 +4461,10 @@
         <v>246</v>
       </c>
       <c r="B245">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C245">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4490,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="C246">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4509,10 +4494,10 @@
         <v>249</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C248">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4523,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="C249">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4534,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="C250">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4545,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="C251">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4553,10 +4538,10 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C252">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4564,10 +4549,10 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4575,10 +4560,10 @@
         <v>255</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C254">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4589,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4600,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4608,10 +4593,10 @@
         <v>258</v>
       </c>
       <c r="B257">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C257">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4633,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="C259">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4655,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="C261">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4663,10 +4648,10 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="C262">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4685,10 +4670,10 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C264">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4696,10 +4681,10 @@
         <v>266</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4710,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="C266">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4721,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="C267">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4732,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="C268">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4751,10 +4736,10 @@
         <v>271</v>
       </c>
       <c r="B270">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C270">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4765,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="C271">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4776,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="C272">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4787,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="C273">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4795,7 +4780,7 @@
         <v>275</v>
       </c>
       <c r="B274">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C274">
         <v>50</v>
@@ -4806,7 +4791,7 @@
         <v>276</v>
       </c>
       <c r="B275">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C275">
         <v>60</v>
@@ -4817,10 +4802,10 @@
         <v>277</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C276">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4828,10 +4813,10 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C277">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4839,10 +4824,10 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C278">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4864,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="C280">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4875,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="C281">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4883,10 +4868,10 @@
         <v>283</v>
       </c>
       <c r="B282">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C282">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4897,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4905,10 +4890,10 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C284">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4916,10 +4901,10 @@
         <v>286</v>
       </c>
       <c r="B285">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="C285">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4927,10 +4912,10 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C286">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4938,10 +4923,10 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4949,10 +4934,10 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4960,10 +4945,10 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C289">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4971,10 +4956,10 @@
         <v>291</v>
       </c>
       <c r="B290">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C290">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4982,10 +4967,10 @@
         <v>292</v>
       </c>
       <c r="B291">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C291">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4996,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="C292">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5004,10 +4989,10 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C293">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5018,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="C294">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5026,10 +5011,10 @@
         <v>296</v>
       </c>
       <c r="B295">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="C295">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5040,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="C296">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5048,10 +5033,10 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C297">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5059,10 +5044,10 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5070,10 +5055,10 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C299">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5081,10 +5066,10 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5092,10 +5077,10 @@
         <v>302</v>
       </c>
       <c r="B301">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C301">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5106,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="C302">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5117,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="C303">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5128,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="C304">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5136,10 +5121,10 @@
         <v>306</v>
       </c>
       <c r="B305">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C305">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5147,10 +5132,10 @@
         <v>307</v>
       </c>
       <c r="B306">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C306">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5169,10 +5154,10 @@
         <v>309</v>
       </c>
       <c r="B308">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C308">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5180,10 +5165,10 @@
         <v>310</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5191,10 +5176,10 @@
         <v>311</v>
       </c>
       <c r="B310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5202,10 +5187,10 @@
         <v>312</v>
       </c>
       <c r="B311">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
       <c r="C311">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5216,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="C312">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5224,10 +5209,10 @@
         <v>314</v>
       </c>
       <c r="B313">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C313">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5238,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="C314">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5249,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="C315">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5260,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="C316">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5268,10 +5253,10 @@
         <v>318</v>
       </c>
       <c r="B317">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C317">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5279,10 +5264,10 @@
         <v>319</v>
       </c>
       <c r="B318">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C318">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5293,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="C319">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5301,7 +5286,7 @@
         <v>321</v>
       </c>
       <c r="B320">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C320">
         <v>50</v>
@@ -5312,10 +5297,10 @@
         <v>322</v>
       </c>
       <c r="B321">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C321">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5323,10 +5308,10 @@
         <v>323</v>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5337,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="C323">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5345,10 +5330,10 @@
         <v>325</v>
       </c>
       <c r="B324">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C324">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5359,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="C325">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5381,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="C327">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5389,10 +5374,10 @@
         <v>329</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C328">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5403,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="C329">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5425,7 +5410,7 @@
         <v>1</v>
       </c>
       <c r="C331">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5436,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="C332">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5444,10 +5429,10 @@
         <v>334</v>
       </c>
       <c r="B333">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="C333">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5458,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="C334">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5469,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="C335">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -5477,10 +5462,10 @@
         <v>337</v>
       </c>
       <c r="B336">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C336">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5488,7 +5473,7 @@
         <v>338</v>
       </c>
       <c r="B337">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C337">
         <v>50</v>
@@ -5499,10 +5484,10 @@
         <v>339</v>
       </c>
       <c r="B338">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C338">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5513,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="C339">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5524,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="C340">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5532,10 +5517,10 @@
         <v>342</v>
       </c>
       <c r="B341">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C341">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5543,10 +5528,10 @@
         <v>343</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C342">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -5554,10 +5539,10 @@
         <v>344</v>
       </c>
       <c r="B343">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="C343">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5579,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="C345">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5587,10 +5572,10 @@
         <v>347</v>
       </c>
       <c r="B346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C346">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5598,10 +5583,10 @@
         <v>348</v>
       </c>
       <c r="B347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5612,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="C348">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -5620,10 +5605,10 @@
         <v>350</v>
       </c>
       <c r="B349">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C349">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5656,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="C352">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -5664,10 +5649,10 @@
         <v>354</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C353">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -5678,7 +5663,7 @@
         <v>1</v>
       </c>
       <c r="C354">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -5689,7 +5674,7 @@
         <v>0.6</v>
       </c>
       <c r="C355">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -5697,10 +5682,10 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C356">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -5708,10 +5693,10 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C357">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -5719,10 +5704,10 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="C358">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -5733,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="C359">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -5744,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="C360">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -5752,10 +5737,10 @@
         <v>362</v>
       </c>
       <c r="B361">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="C361">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -5763,10 +5748,10 @@
         <v>363</v>
       </c>
       <c r="B362">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C362">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -5799,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="C365">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -5810,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="C366">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5818,10 +5803,10 @@
         <v>368</v>
       </c>
       <c r="B367">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C367">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -5832,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="C368">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -5840,10 +5825,10 @@
         <v>370</v>
       </c>
       <c r="B369">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C369">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -5851,10 +5836,10 @@
         <v>371</v>
       </c>
       <c r="B370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C370">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -5862,10 +5847,10 @@
         <v>372</v>
       </c>
       <c r="B371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C371">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -5873,10 +5858,10 @@
         <v>373</v>
       </c>
       <c r="B372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -5884,10 +5869,10 @@
         <v>374</v>
       </c>
       <c r="B373">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="C373">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -5898,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="C374">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -5931,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="C377">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -5939,10 +5924,10 @@
         <v>379</v>
       </c>
       <c r="B378">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C378">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -5950,10 +5935,10 @@
         <v>380</v>
       </c>
       <c r="B379">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C379">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -5961,10 +5946,10 @@
         <v>381</v>
       </c>
       <c r="B380">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C380">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -5972,10 +5957,10 @@
         <v>382</v>
       </c>
       <c r="B381">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C381">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -5983,10 +5968,10 @@
         <v>383</v>
       </c>
       <c r="B382">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C382">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -5994,10 +5979,10 @@
         <v>384</v>
       </c>
       <c r="B383">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C383">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6005,10 +5990,10 @@
         <v>385</v>
       </c>
       <c r="B384">
-        <v>0.55</v>
+        <v>0.35</v>
       </c>
       <c r="C384">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6019,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="C385">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -6030,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="C386">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6038,10 +6023,10 @@
         <v>388</v>
       </c>
       <c r="B387">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C387">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6049,10 +6034,10 @@
         <v>389</v>
       </c>
       <c r="B388">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C388">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6063,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="C389">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6085,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="C391">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6104,10 +6089,10 @@
         <v>394</v>
       </c>
       <c r="B393">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C393">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6115,10 +6100,10 @@
         <v>395</v>
       </c>
       <c r="B394">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C394">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6126,10 +6111,10 @@
         <v>396</v>
       </c>
       <c r="B395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C395">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6148,10 +6133,10 @@
         <v>398</v>
       </c>
       <c r="B397">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C397">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6162,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="C398">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6173,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="C399">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6181,10 +6166,10 @@
         <v>401</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C400">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6195,7 +6180,7 @@
         <v>1</v>
       </c>
       <c r="C401">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6203,10 +6188,10 @@
         <v>403</v>
       </c>
       <c r="B402">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C402">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6214,10 +6199,10 @@
         <v>404</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C403">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6228,7 +6213,7 @@
         <v>1</v>
       </c>
       <c r="C404">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -6239,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="C405">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6247,10 +6232,10 @@
         <v>407</v>
       </c>
       <c r="B406">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C406">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -6261,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="C407">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6272,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="C408">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6280,10 +6265,10 @@
         <v>410</v>
       </c>
       <c r="B409">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C409">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6291,10 +6276,10 @@
         <v>411</v>
       </c>
       <c r="B410">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C410">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -6305,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="C411">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6313,10 +6298,10 @@
         <v>413</v>
       </c>
       <c r="B412">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C412">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6324,10 +6309,10 @@
         <v>414</v>
       </c>
       <c r="B413">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C413">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6338,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="C414">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -6349,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="C415">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -6360,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="C416">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -6368,10 +6353,10 @@
         <v>418</v>
       </c>
       <c r="B417">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C417">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -6379,10 +6364,10 @@
         <v>419</v>
       </c>
       <c r="B418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C418">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -6390,10 +6375,10 @@
         <v>420</v>
       </c>
       <c r="B419">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C419">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -6404,7 +6389,7 @@
         <v>1</v>
       </c>
       <c r="C420">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -6412,10 +6397,10 @@
         <v>422</v>
       </c>
       <c r="B421">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C421">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -6423,10 +6408,10 @@
         <v>423</v>
       </c>
       <c r="B422">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C422">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -6437,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="C423">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -6445,10 +6430,10 @@
         <v>425</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C424">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -6456,10 +6441,10 @@
         <v>426</v>
       </c>
       <c r="B425">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="C425">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -6470,7 +6455,7 @@
         <v>1</v>
       </c>
       <c r="C426">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -6478,10 +6463,10 @@
         <v>428</v>
       </c>
       <c r="B427">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C427">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -6489,10 +6474,10 @@
         <v>429</v>
       </c>
       <c r="B428">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C428">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -6500,10 +6485,10 @@
         <v>430</v>
       </c>
       <c r="B429">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C429">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -6511,7 +6496,7 @@
         <v>431</v>
       </c>
       <c r="B430">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
       <c r="C430">
         <v>55</v>
@@ -6525,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="C431">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -6536,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="C432">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -6544,10 +6529,10 @@
         <v>434</v>
       </c>
       <c r="B433">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C433">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -6558,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="C434">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -6566,10 +6551,10 @@
         <v>436</v>
       </c>
       <c r="B435">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C435">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -6580,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="C436">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -6588,10 +6573,10 @@
         <v>438</v>
       </c>
       <c r="B437">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C437">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -6599,10 +6584,10 @@
         <v>439</v>
       </c>
       <c r="B438">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="C438">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -6610,10 +6595,10 @@
         <v>440</v>
       </c>
       <c r="B439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C439">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -6621,10 +6606,10 @@
         <v>441</v>
       </c>
       <c r="B440">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C440">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -6632,10 +6617,10 @@
         <v>442</v>
       </c>
       <c r="B441">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C441">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -6643,10 +6628,10 @@
         <v>443</v>
       </c>
       <c r="B442">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="C442">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -6654,7 +6639,7 @@
         <v>444</v>
       </c>
       <c r="B443">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="C443">
         <v>60</v>
@@ -6665,10 +6650,10 @@
         <v>445</v>
       </c>
       <c r="B444">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="C444">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -6679,7 +6664,7 @@
         <v>1</v>
       </c>
       <c r="C445">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -6690,7 +6675,7 @@
         <v>1</v>
       </c>
       <c r="C446">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -6698,10 +6683,10 @@
         <v>448</v>
       </c>
       <c r="B447">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C447">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -6712,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="C448">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -6720,10 +6705,10 @@
         <v>450</v>
       </c>
       <c r="B449">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C449">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -6731,10 +6716,10 @@
         <v>451</v>
       </c>
       <c r="B450">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C450">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -6742,10 +6727,10 @@
         <v>452</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C451">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -6753,10 +6738,10 @@
         <v>453</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C452">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -6764,10 +6749,10 @@
         <v>454</v>
       </c>
       <c r="B453">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C453">
-        <v>85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -6775,10 +6760,10 @@
         <v>455</v>
       </c>
       <c r="B454">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C454">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -6789,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="C455">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -6800,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="C456">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -6811,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="C457">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -6819,10 +6804,10 @@
         <v>459</v>
       </c>
       <c r="B458">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="C458">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -6833,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="C459">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -6866,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="C462">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -6874,64 +6859,9 @@
         <v>464</v>
       </c>
       <c r="B463">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C463">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3">
-      <c r="A464" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B464">
-        <v>0</v>
-      </c>
-      <c r="C464">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3">
-      <c r="A465" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B465">
-        <v>0</v>
-      </c>
-      <c r="C465">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3">
-      <c r="A466" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B466">
-        <v>0</v>
-      </c>
-      <c r="C466">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3">
-      <c r="A467" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B467">
-        <v>0</v>
-      </c>
-      <c r="C467">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3">
-      <c r="A468" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B468">
-        <v>0.4</v>
-      </c>
-      <c r="C468">
         <v>60</v>
       </c>
     </row>
